--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -118,13 +118,13 @@
     <t>rebro Syrianska IF</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
-  </si>
-  <si>
     <t>Tby FK</t>
   </si>
   <si>
     <t>Nordic United FC</t>
+  </si>
+  <si>
+    <t>Dalkurd FF</t>
   </si>
   <si>
     <t>Sollentuna United FF</t>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6097780</v>
+        <v>6100691</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
+        <v>1.875</v>
+      </c>
+      <c r="V7">
         <v>1.925</v>
       </c>
-      <c r="V7">
-        <v>1.875</v>
-      </c>
       <c r="W7">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6100691</v>
+        <v>6469897</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1180,61 +1180,61 @@
         <v>47</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L8">
         <v>3.6</v>
       </c>
       <c r="M8">
+        <v>2.1</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8">
+      <c r="O8">
+        <v>3.6</v>
+      </c>
+      <c r="P8">
         <v>1.95</v>
       </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>3.2</v>
-      </c>
       <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>1.775</v>
+      </c>
+      <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
+        <v>1.9</v>
+      </c>
+      <c r="V8">
+        <v>1.9</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>0.95</v>
+      </c>
+      <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>1.025</v>
+      </c>
+      <c r="AB8">
+        <v>0.45</v>
+      </c>
+      <c r="AC8">
         <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.8</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.925</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
-      <c r="X8">
-        <v>-1</v>
-      </c>
-      <c r="Y8">
-        <v>2.2</v>
-      </c>
-      <c r="Z8">
-        <v>-1</v>
-      </c>
-      <c r="AA8">
-        <v>0.8</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6469897</v>
+        <v>6097780</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,73 +1257,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
         <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O9">
         <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1791,7 +1791,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6100703</v>
+        <v>6097782</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,13 +2322,13 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2337,43 +2337,43 @@
         <v>46</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N21">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
         <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2382,16 +2382,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
+        <v>0.425</v>
+      </c>
+      <c r="AA21">
+        <v>-0.5</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
-      <c r="AC21">
-        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6097782</v>
+        <v>6100703</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,10 +2414,10 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2426,43 +2426,43 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N22">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2471,16 +2471,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6100578</v>
+        <v>6100698</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,76 +2500,76 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
       <c r="K23">
+        <v>2.2</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>2.7</v>
+      </c>
+      <c r="N23">
         <v>2.15</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>2.8</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
+        <v>2.875</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>3.2</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
-      <c r="S23">
-        <v>1.825</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V23">
+        <v>1.8</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>1.875</v>
       </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>2.2</v>
-      </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6100698</v>
+        <v>6100578</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,55 +2589,55 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>2.8</v>
+      </c>
+      <c r="N24">
+        <v>1.95</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="M24">
-        <v>2.7</v>
-      </c>
-      <c r="N24">
-        <v>2.15</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2646,19 +2646,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3215,7 +3215,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6100713</v>
+        <v>6097784</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,76 +3657,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>1.533</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>4.75</v>
+      </c>
+      <c r="N36">
+        <v>1.4</v>
+      </c>
+      <c r="O36">
+        <v>4.333</v>
+      </c>
+      <c r="P36">
+        <v>5.75</v>
+      </c>
+      <c r="Q36">
+        <v>-1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="J36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36">
-        <v>2.8</v>
-      </c>
-      <c r="L36">
-        <v>3.6</v>
-      </c>
-      <c r="M36">
-        <v>2.1</v>
-      </c>
-      <c r="N36">
-        <v>3</v>
-      </c>
-      <c r="O36">
-        <v>3.5</v>
-      </c>
-      <c r="P36">
-        <v>2</v>
-      </c>
-      <c r="Q36">
-        <v>0.25</v>
-      </c>
-      <c r="R36">
-        <v>1.95</v>
-      </c>
-      <c r="S36">
-        <v>1.85</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>-0.5</v>
+      </c>
+      <c r="AA36">
+        <v>0.4625</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>1</v>
-      </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
-      <c r="AA36">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB36">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6097784</v>
+        <v>6100713</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N38">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4372,7 +4372,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4458,10 +4458,10 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5173,7 +5173,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5707,7 +5707,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -5974,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6327,10 +6327,10 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
         <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>31</v>
@@ -7039,7 +7039,7 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7217,7 +7217,7 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7487,7 +7487,7 @@
         <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>32</v>
@@ -8377,7 +8377,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8641,7 +8641,7 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>40</v>
@@ -8730,7 +8730,7 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -9089,7 +9089,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9531,10 +9531,10 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9620,7 +9620,7 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>40</v>
@@ -9979,7 +9979,7 @@
         <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10513,7 +10513,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10777,7 +10777,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -10955,7 +10955,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -11314,7 +11314,7 @@
         <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H122">
         <v>4</v>
@@ -11845,7 +11845,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -11937,7 +11937,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12112,7 +12112,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>30</v>
@@ -12201,7 +12201,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12293,7 +12293,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6097795</v>
+        <v>6100779</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,61 +12913,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12976,10 +12976,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.4875</v>
+        <v>0.475</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6100514</v>
+        <v>6097795</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,76 +13002,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K141">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N141">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X141">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6100779</v>
+        <v>6100514</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,76 +13091,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>48</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N142">
+        <v>2.75</v>
+      </c>
+      <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
+        <v>2.375</v>
+      </c>
+      <c r="Q142">
+        <v>0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.75</v>
+      </c>
+      <c r="S142">
         <v>2.05</v>
       </c>
-      <c r="O142">
-        <v>3.8</v>
-      </c>
-      <c r="P142">
-        <v>2.9</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>1.85</v>
-      </c>
-      <c r="S142">
-        <v>1.95</v>
-      </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
+        <v>0.375</v>
+      </c>
+      <c r="AA142">
         <v>-0.5</v>
       </c>
-      <c r="AA142">
-        <v>0.475</v>
-      </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13361,7 +13361,7 @@
         <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13539,7 +13539,7 @@
         <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13717,7 +13717,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13791,7 +13791,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6100796</v>
+        <v>6100784</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13803,76 +13803,76 @@
         <v>45165.375</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
         <v>3</v>
       </c>
-      <c r="I150">
-        <v>2</v>
-      </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L150">
         <v>3.9</v>
       </c>
       <c r="M150">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N150">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O150">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
         <v>1.95</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.85</v>
-      </c>
-      <c r="V150">
-        <v>1.95</v>
-      </c>
       <c r="W150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13880,7 +13880,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6100784</v>
+        <v>6100796</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13892,76 +13892,76 @@
         <v>45165.375</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K151">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L151">
         <v>3.9</v>
       </c>
       <c r="M151">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N151">
+        <v>3.6</v>
+      </c>
+      <c r="O151">
+        <v>3.75</v>
+      </c>
+      <c r="P151">
+        <v>1.833</v>
+      </c>
+      <c r="Q151">
+        <v>0.5</v>
+      </c>
+      <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>1.85</v>
+      </c>
+      <c r="T151">
         <v>3</v>
       </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>2.1</v>
-      </c>
-      <c r="Q151">
-        <v>0.25</v>
-      </c>
-      <c r="R151">
-        <v>1.9</v>
-      </c>
-      <c r="S151">
-        <v>1.9</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
       <c r="U151">
+        <v>1.85</v>
+      </c>
+      <c r="V151">
         <v>1.95</v>
       </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
       <c r="W151">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6097797</v>
+        <v>6100519</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,76 +14337,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L156">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N156">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O156">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q156">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC156">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100519</v>
+        <v>6097797</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,73 +14429,73 @@
         <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K157">
+        <v>1.363</v>
+      </c>
+      <c r="L157">
+        <v>5</v>
+      </c>
+      <c r="M157">
+        <v>6.5</v>
+      </c>
+      <c r="N157">
+        <v>1.25</v>
+      </c>
+      <c r="O157">
+        <v>6</v>
+      </c>
+      <c r="P157">
+        <v>8</v>
+      </c>
+      <c r="Q157">
+        <v>-1.75</v>
+      </c>
+      <c r="R157">
         <v>1.85</v>
       </c>
-      <c r="L157">
-        <v>3.75</v>
-      </c>
-      <c r="M157">
-        <v>3.75</v>
-      </c>
-      <c r="N157">
-        <v>1.75</v>
-      </c>
-      <c r="O157">
-        <v>4</v>
-      </c>
-      <c r="P157">
-        <v>4.2</v>
-      </c>
-      <c r="Q157">
-        <v>-0.75</v>
-      </c>
-      <c r="R157">
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
+        <v>3.5</v>
+      </c>
+      <c r="U157">
         <v>1.925</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="T157">
-        <v>3.25</v>
-      </c>
-      <c r="U157">
-        <v>1.9</v>
-      </c>
-      <c r="V157">
-        <v>1.9</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
+        <v>0.95</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.875</v>
-      </c>
-      <c r="AB157">
-        <v>-0.5</v>
-      </c>
-      <c r="AC157">
-        <v>0.45</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7144590</v>
+        <v>6100518</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,55 +14515,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
         <v>1</v>
-      </c>
-      <c r="I158">
-        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>47</v>
       </c>
       <c r="K158">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M158">
+        <v>4.5</v>
+      </c>
+      <c r="N158">
+        <v>1.65</v>
+      </c>
+      <c r="O158">
         <v>4.2</v>
       </c>
-      <c r="N158">
-        <v>1.75</v>
-      </c>
-      <c r="O158">
-        <v>3.8</v>
-      </c>
       <c r="P158">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q158">
         <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14572,19 +14572,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6100518</v>
+        <v>7144590</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,55 +14604,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>47</v>
       </c>
       <c r="K159">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L159">
+        <v>3.8</v>
+      </c>
+      <c r="M159">
         <v>4.2</v>
       </c>
-      <c r="M159">
-        <v>4.5</v>
-      </c>
       <c r="N159">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O159">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q159">
         <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14661,19 +14661,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
         <v>42</v>
@@ -14874,7 +14874,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -15049,7 +15049,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
         <v>31</v>
@@ -15408,7 +15408,7 @@
         <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15850,7 +15850,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -16117,7 +16117,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>38</v>
@@ -16209,7 +16209,7 @@
         <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16384,10 +16384,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16743,7 +16743,7 @@
         <v>38</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,7 +17188,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17200,25 +17200,25 @@
         <v>46</v>
       </c>
       <c r="K188">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L188">
         <v>3.5</v>
       </c>
       <c r="M188">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17227,16 +17227,16 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17254,7 +17254,7 @@
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,25 +17289,25 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
         <v>3.5</v>
       </c>
       <c r="M189">
+        <v>2.25</v>
+      </c>
+      <c r="N189">
         <v>3</v>
       </c>
-      <c r="N189">
-        <v>1.95</v>
-      </c>
       <c r="O189">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17316,16 +17316,16 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17343,7 +17343,7 @@
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -18167,7 +18167,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6100526</v>
+        <v>6097801</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18520,58 +18520,58 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>46</v>
       </c>
       <c r="K203">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L203">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M203">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P203">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T203">
         <v>3</v>
       </c>
       <c r="U203">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W203">
-        <v>0.444</v>
+        <v>0.55</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18580,16 +18580,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18597,7 +18597,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7338338</v>
+        <v>6100526</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18609,13 +18609,13 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -18624,43 +18624,43 @@
         <v>46</v>
       </c>
       <c r="K204">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L204">
+        <v>5</v>
+      </c>
+      <c r="M204">
+        <v>9</v>
+      </c>
+      <c r="N204">
+        <v>1.444</v>
+      </c>
+      <c r="O204">
         <v>4</v>
       </c>
-      <c r="M204">
-        <v>4.333</v>
-      </c>
-      <c r="N204">
-        <v>1.5</v>
-      </c>
-      <c r="O204">
-        <v>4.2</v>
-      </c>
       <c r="P204">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q204">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T204">
         <v>3</v>
       </c>
       <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
         <v>1.85</v>
       </c>
-      <c r="V204">
-        <v>1.95</v>
-      </c>
       <c r="W204">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18669,16 +18669,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB204">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18686,7 +18686,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6097801</v>
+        <v>7338338</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18698,34 +18698,34 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>46</v>
       </c>
       <c r="K205">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N205">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P205">
         <v>4.75</v>
@@ -18734,22 +18734,22 @@
         <v>-1</v>
       </c>
       <c r="R205">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
         <v>3</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18758,16 +18758,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18965,7 +18965,7 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
         <v>44</v>
@@ -19146,7 +19146,7 @@
         <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19502,7 +19502,7 @@
         <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19769,7 +19769,7 @@
         <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19855,7 +19855,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
         <v>40</v>
@@ -20033,7 +20033,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
         <v>43</v>
@@ -20211,7 +20211,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>30</v>
@@ -20555,7 +20555,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20567,76 +20567,76 @@
         <v>45234.375</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M226">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N226">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O226">
         <v>4</v>
       </c>
       <c r="P226">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q226">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z226">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC226">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20644,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,76 +20656,76 @@
         <v>45234.375</v>
       </c>
       <c r="F227" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H227">
         <v>1</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N227">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O227">
         <v>4</v>
       </c>
       <c r="P227">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q227">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R227">
+        <v>1.875</v>
+      </c>
+      <c r="S227">
+        <v>1.925</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
         <v>1.85</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.95</v>
       </c>
-      <c r="T227">
-        <v>3.25</v>
-      </c>
-      <c r="U227">
-        <v>2</v>
-      </c>
-      <c r="V227">
-        <v>1.8</v>
-      </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y227">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA227">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21089,7 +21089,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6100846</v>
+        <v>7433549</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,76 +21101,76 @@
         <v>45235.5</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K232">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M232">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N232">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O232">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X232">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21178,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7433549</v>
+        <v>6100846</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21190,76 +21190,76 @@
         <v>45235.5</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K233">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N233">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O233">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P233">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21457,7 +21457,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
         <v>41</v>
@@ -21816,7 +21816,7 @@
         <v>32</v>
       </c>
       <c r="G240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -21905,7 +21905,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H241">
         <v>3</v>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -121,19 +121,19 @@
     <t>Tby FK</t>
   </si>
   <si>
-    <t>Nordic United FC</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Nordic United FC</t>
   </si>
   <si>
     <t>Sollentuna United FF</t>
   </si>
   <si>
-    <t>Pite IF</t>
+    <t>Sandvikens IF</t>
   </si>
   <si>
-    <t>Sandvikens IF</t>
+    <t>Pite IF</t>
   </si>
   <si>
     <t>Hammarby TFF</t>
@@ -1079,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6469897</v>
+        <v>6097780</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
         <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O8">
         <v>3.6</v>
       </c>
       <c r="P8">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6097780</v>
+        <v>6469897</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,73 +1257,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
         <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>3.6</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6100696</v>
+        <v>6100697</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,73 +1435,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
         <v>3.75</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.675</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6100697</v>
+        <v>6100696</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,73 +1524,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
         <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2236,7 +2236,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6100698</v>
+        <v>6100578</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,55 +2500,55 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>2.8</v>
+      </c>
+      <c r="N23">
+        <v>1.95</v>
+      </c>
+      <c r="O23">
         <v>3.5</v>
       </c>
-      <c r="M23">
-        <v>2.7</v>
-      </c>
-      <c r="N23">
-        <v>2.15</v>
-      </c>
-      <c r="O23">
-        <v>3.4</v>
-      </c>
       <c r="P23">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2557,19 +2557,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6100578</v>
+        <v>6100698</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,76 +2589,76 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
+        <v>2.2</v>
+      </c>
+      <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>2.7</v>
+      </c>
+      <c r="N24">
         <v>2.15</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>3.4</v>
       </c>
-      <c r="M24">
-        <v>2.8</v>
-      </c>
-      <c r="N24">
+      <c r="P24">
+        <v>2.875</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
         <v>1.95</v>
-      </c>
-      <c r="O24">
-        <v>3.5</v>
-      </c>
-      <c r="P24">
-        <v>3.2</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.975</v>
-      </c>
-      <c r="S24">
-        <v>1.825</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V24">
+        <v>1.8</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>1.875</v>
       </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>2.2</v>
-      </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3215,7 +3215,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3301,10 +3301,10 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6097784</v>
+        <v>6100713</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,76 +3657,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6100713</v>
+        <v>6097784</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38">
+        <v>1.533</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>4.75</v>
+      </c>
+      <c r="N38">
+        <v>1.4</v>
+      </c>
+      <c r="O38">
+        <v>4.333</v>
+      </c>
+      <c r="P38">
+        <v>5.75</v>
+      </c>
+      <c r="Q38">
+        <v>-1.25</v>
+      </c>
+      <c r="R38">
+        <v>1.875</v>
+      </c>
+      <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
         <v>3</v>
       </c>
-      <c r="J38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>2.8</v>
-      </c>
-      <c r="L38">
-        <v>3.6</v>
-      </c>
-      <c r="M38">
-        <v>2.1</v>
-      </c>
-      <c r="N38">
-        <v>3</v>
-      </c>
-      <c r="O38">
-        <v>3.5</v>
-      </c>
-      <c r="P38">
-        <v>2</v>
-      </c>
-      <c r="Q38">
-        <v>0.25</v>
-      </c>
-      <c r="R38">
-        <v>1.95</v>
-      </c>
-      <c r="S38">
-        <v>1.85</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>-0.5</v>
+      </c>
+      <c r="AA38">
+        <v>0.4625</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>1</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4105,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4369,10 +4369,10 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6100723</v>
+        <v>6100716</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O45">
         <v>3.6</v>
       </c>
       <c r="P45">
+        <v>2.1</v>
+      </c>
+      <c r="Q45">
+        <v>0.25</v>
+      </c>
+      <c r="R45">
+        <v>1.9</v>
+      </c>
+      <c r="S45">
+        <v>1.9</v>
+      </c>
+      <c r="T45">
         <v>2.75</v>
       </c>
-      <c r="Q45">
-        <v>-0.25</v>
-      </c>
-      <c r="R45">
-        <v>2</v>
-      </c>
-      <c r="S45">
+      <c r="U45">
         <v>1.8</v>
       </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>1</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6100716</v>
+        <v>6100723</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
         <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1.8</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
         <v>1.9</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.9</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.8</v>
-      </c>
-      <c r="V46">
-        <v>2</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>45053.5</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
         <v>44</v>
@@ -5084,7 +5084,7 @@
         <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,7 +5173,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
@@ -5882,7 +5882,7 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -5974,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>45064.375</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6327,10 +6327,10 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
         <v>35</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6100736</v>
+        <v>6100734</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6505,46 +6505,46 @@
         <v>45067.375</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
         <v>3.75</v>
       </c>
       <c r="M68">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2.75</v>
@@ -6556,25 +6556,25 @@
         <v>2.025</v>
       </c>
       <c r="W68">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6100734</v>
+        <v>6100736</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6594,46 +6594,46 @@
         <v>45067.375</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L69">
         <v>3.75</v>
       </c>
       <c r="M69">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N69">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T69">
         <v>2.75</v>
@@ -6645,25 +6645,25 @@
         <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>45067.5</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>41</v>
@@ -7039,7 +7039,7 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7217,10 +7217,10 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8285,10 +8285,10 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F88" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" t="s">
         <v>39</v>
-      </c>
-      <c r="G88" t="s">
-        <v>38</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8641,7 +8641,7 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>40</v>
@@ -8730,7 +8730,7 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8908,7 +8908,7 @@
         <v>45088.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
         <v>41</v>
@@ -8997,7 +8997,7 @@
         <v>45088.5</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -9267,7 +9267,7 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6097790</v>
+        <v>6100488</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
         <v>1.975</v>
-      </c>
-      <c r="S102">
-        <v>1.825</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6100488</v>
+        <v>6097790</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
         <v>35</v>
       </c>
-      <c r="G103" t="s">
-        <v>40</v>
-      </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N103">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
         <v>1.825</v>
-      </c>
-      <c r="S103">
-        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,46 +9709,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L104">
         <v>3.6</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>2.75</v>
@@ -9763,22 +9763,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y104">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,46 +9798,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L105">
         <v>3.6</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N105">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T105">
         <v>2.75</v>
@@ -9852,22 +9852,22 @@
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9875,7 +9875,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6100507</v>
+        <v>6100762</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9887,10 +9887,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9902,40 +9902,40 @@
         <v>48</v>
       </c>
       <c r="K106">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
         <v>3.4</v>
       </c>
       <c r="M106">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N106">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O106">
         <v>3.5</v>
       </c>
       <c r="P106">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
+        <v>1.875</v>
+      </c>
+      <c r="S106">
+        <v>1.925</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
         <v>1.975</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.825</v>
-      </c>
-      <c r="T106">
-        <v>3.25</v>
-      </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
-      <c r="V106">
-        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9947,16 +9947,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6100762</v>
+        <v>6100507</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,10 +9976,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9991,40 +9991,40 @@
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L107">
         <v>3.4</v>
       </c>
       <c r="M107">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O107">
         <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10036,16 +10036,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6100760</v>
+        <v>6100759</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,49 +10154,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N109">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O109">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P109">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10205,19 +10205,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
         <v>0.8</v>
@@ -10231,7 +10231,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6100759</v>
+        <v>6100760</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10243,49 +10243,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N110">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P110">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10294,19 +10294,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>0.8</v>
@@ -10513,7 +10513,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10688,7 +10688,7 @@
         <v>45136.375</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
         <v>43</v>
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6100768</v>
+        <v>6100764</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,13 +10777,13 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10792,43 +10792,43 @@
         <v>46</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="N116">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>0.363</v>
+        <v>2.6</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10837,16 +10837,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6100764</v>
+        <v>6100767</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,76 +10866,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
         <v>3</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
         <v>3.8</v>
       </c>
       <c r="M117">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="N117">
+        <v>1.8</v>
+      </c>
+      <c r="O117">
+        <v>3.75</v>
+      </c>
+      <c r="P117">
         <v>3.6</v>
       </c>
-      <c r="O117">
-        <v>3.8</v>
-      </c>
-      <c r="P117">
-        <v>1.75</v>
-      </c>
       <c r="Q117">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>3</v>
-      </c>
-      <c r="U117">
-        <v>2</v>
-      </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
         <v>2.6</v>
       </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>-1</v>
-      </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6100767</v>
+        <v>6100768</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,76 +10955,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
         <v>0</v>
       </c>
-      <c r="I118">
+      <c r="J118" t="s">
+        <v>46</v>
+      </c>
+      <c r="K118">
+        <v>1.5</v>
+      </c>
+      <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>5</v>
+      </c>
+      <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>4.333</v>
+      </c>
+      <c r="P118">
+        <v>6.5</v>
+      </c>
+      <c r="Q118">
+        <v>-1.25</v>
+      </c>
+      <c r="R118">
+        <v>1.875</v>
+      </c>
+      <c r="S118">
+        <v>1.925</v>
+      </c>
+      <c r="T118">
         <v>3</v>
       </c>
-      <c r="J118" t="s">
-        <v>47</v>
-      </c>
-      <c r="K118">
-        <v>1.666</v>
-      </c>
-      <c r="L118">
-        <v>3.8</v>
-      </c>
-      <c r="M118">
-        <v>4</v>
-      </c>
-      <c r="N118">
-        <v>1.8</v>
-      </c>
-      <c r="O118">
-        <v>3.75</v>
-      </c>
-      <c r="P118">
-        <v>3.6</v>
-      </c>
-      <c r="Q118">
-        <v>-0.5</v>
-      </c>
-      <c r="R118">
+      <c r="U118">
+        <v>1.975</v>
+      </c>
+      <c r="V118">
         <v>1.825</v>
       </c>
-      <c r="S118">
-        <v>1.975</v>
-      </c>
-      <c r="T118">
-        <v>2.75</v>
-      </c>
-      <c r="U118">
-        <v>1.8</v>
-      </c>
-      <c r="V118">
-        <v>2</v>
-      </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>45137.5</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
@@ -11489,10 +11489,10 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F124" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124" t="s">
         <v>38</v>
-      </c>
-      <c r="G124" t="s">
-        <v>39</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11845,7 +11845,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -11937,7 +11937,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12201,7 +12201,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12293,7 +12293,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12471,7 +12471,7 @@
         <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12560,7 +12560,7 @@
         <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12735,7 +12735,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>32</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6100779</v>
+        <v>6097795</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,61 +12913,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N140">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12976,10 +12976,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6097795</v>
+        <v>6100514</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,76 +13002,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N141">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>0.375</v>
+      </c>
+      <c r="AA141">
         <v>-0.5</v>
       </c>
-      <c r="AA141">
-        <v>0.4875</v>
-      </c>
       <c r="AB141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6100514</v>
+        <v>6100779</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,76 +13091,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>48</v>
       </c>
       <c r="K142">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N142">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13358,10 +13358,10 @@
         <v>45158.5</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13539,7 +13539,7 @@
         <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13791,7 +13791,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6100784</v>
+        <v>6100796</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13803,76 +13803,76 @@
         <v>45165.375</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L150">
         <v>3.9</v>
       </c>
       <c r="M150">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N150">
+        <v>3.6</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>1.833</v>
+      </c>
+      <c r="Q150">
+        <v>0.5</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
-      <c r="P150">
-        <v>2.1</v>
-      </c>
-      <c r="Q150">
-        <v>0.25</v>
-      </c>
-      <c r="R150">
-        <v>1.9</v>
-      </c>
-      <c r="S150">
-        <v>1.9</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
       <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="V150">
-        <v>1.85</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13880,7 +13880,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6100796</v>
+        <v>6100784</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13892,76 +13892,76 @@
         <v>45165.375</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
         <v>3</v>
       </c>
-      <c r="I151">
-        <v>2</v>
-      </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L151">
         <v>3.9</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N151">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>1.9</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
         <v>1.95</v>
       </c>
-      <c r="S151">
+      <c r="V151">
         <v>1.85</v>
       </c>
-      <c r="T151">
-        <v>3</v>
-      </c>
-      <c r="U151">
-        <v>1.85</v>
-      </c>
-      <c r="V151">
-        <v>1.95</v>
-      </c>
       <c r="W151">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>40</v>
@@ -14073,7 +14073,7 @@
         <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6100519</v>
+        <v>6097797</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,73 +14340,73 @@
         <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K156">
+        <v>1.363</v>
+      </c>
+      <c r="L156">
+        <v>5</v>
+      </c>
+      <c r="M156">
+        <v>6.5</v>
+      </c>
+      <c r="N156">
+        <v>1.25</v>
+      </c>
+      <c r="O156">
+        <v>6</v>
+      </c>
+      <c r="P156">
+        <v>8</v>
+      </c>
+      <c r="Q156">
+        <v>-1.75</v>
+      </c>
+      <c r="R156">
         <v>1.85</v>
       </c>
-      <c r="L156">
-        <v>3.75</v>
-      </c>
-      <c r="M156">
-        <v>3.75</v>
-      </c>
-      <c r="N156">
-        <v>1.75</v>
-      </c>
-      <c r="O156">
-        <v>4</v>
-      </c>
-      <c r="P156">
-        <v>4.2</v>
-      </c>
-      <c r="Q156">
-        <v>-0.75</v>
-      </c>
-      <c r="R156">
+      <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
+        <v>3.5</v>
+      </c>
+      <c r="U156">
         <v>1.925</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.875</v>
       </c>
-      <c r="T156">
-        <v>3.25</v>
-      </c>
-      <c r="U156">
-        <v>1.9</v>
-      </c>
-      <c r="V156">
-        <v>1.9</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
+        <v>0.95</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.875</v>
-      </c>
-      <c r="AB156">
-        <v>-0.5</v>
-      </c>
-      <c r="AC156">
-        <v>0.45</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6097797</v>
+        <v>6100519</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,73 +14429,73 @@
         <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L157">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O157">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q157">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6100518</v>
+        <v>7144590</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,55 +14515,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>47</v>
       </c>
       <c r="K158">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L158">
+        <v>3.8</v>
+      </c>
+      <c r="M158">
         <v>4.2</v>
       </c>
-      <c r="M158">
-        <v>4.5</v>
-      </c>
       <c r="N158">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q158">
         <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14572,19 +14572,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7144590</v>
+        <v>6100518</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,55 +14604,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
         <v>1</v>
-      </c>
-      <c r="I159">
-        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>47</v>
       </c>
       <c r="K159">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L159">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
+        <v>4.5</v>
+      </c>
+      <c r="N159">
+        <v>1.65</v>
+      </c>
+      <c r="O159">
         <v>4.2</v>
       </c>
-      <c r="N159">
-        <v>1.75</v>
-      </c>
-      <c r="O159">
-        <v>3.8</v>
-      </c>
       <c r="P159">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q159">
         <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14661,19 +14661,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14874,7 +14874,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -15049,7 +15049,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
         <v>31</v>
@@ -15227,7 +15227,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
         <v>37</v>
@@ -15494,7 +15494,7 @@
         <v>45179.5</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G169" t="s">
         <v>43</v>
@@ -15853,7 +15853,7 @@
         <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16117,10 +16117,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16384,10 +16384,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F179" t="s">
+        <v>35</v>
+      </c>
+      <c r="G179" t="s">
         <v>36</v>
-      </c>
-      <c r="G179" t="s">
-        <v>35</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16651,7 +16651,7 @@
         <v>45193.375</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -16740,7 +16740,7 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
         <v>34</v>
@@ -17010,7 +17010,7 @@
         <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17200,25 +17200,25 @@
         <v>46</v>
       </c>
       <c r="K188">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L188">
         <v>3.5</v>
       </c>
       <c r="M188">
+        <v>2.25</v>
+      </c>
+      <c r="N188">
         <v>3</v>
       </c>
-      <c r="N188">
-        <v>1.95</v>
-      </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17227,16 +17227,16 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17254,7 +17254,7 @@
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,25 +17289,25 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L189">
         <v>3.5</v>
       </c>
       <c r="M189">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17316,16 +17316,16 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17343,7 +17343,7 @@
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17719,7 +17719,7 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
         <v>42</v>
@@ -17974,7 +17974,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7291461</v>
+        <v>6100828</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17986,40 +17986,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
         <v>0</v>
       </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
       <c r="J197" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K197">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M197">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N197">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R197">
         <v>2</v>
@@ -18028,34 +18028,34 @@
         <v>1.8</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18063,7 +18063,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6100828</v>
+        <v>7291461</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18075,40 +18075,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K198">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L198">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N198">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="O198">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="Q198">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
         <v>2</v>
@@ -18117,34 +18117,34 @@
         <v>1.8</v>
       </c>
       <c r="T198">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18167,7 +18167,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18342,10 +18342,10 @@
         <v>45207.5</v>
       </c>
       <c r="F201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18520,7 +18520,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18609,7 +18609,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18698,7 +18698,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
         <v>43</v>
@@ -19057,7 +19057,7 @@
         <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19220,7 +19220,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6100837</v>
+        <v>6100528</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19232,76 +19232,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K211">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L211">
+        <v>4.333</v>
+      </c>
+      <c r="M211">
+        <v>1.475</v>
+      </c>
+      <c r="N211">
+        <v>4.5</v>
+      </c>
+      <c r="O211">
         <v>3.6</v>
       </c>
-      <c r="M211">
-        <v>2.2</v>
-      </c>
-      <c r="N211">
-        <v>2.375</v>
-      </c>
-      <c r="O211">
-        <v>3.75</v>
-      </c>
       <c r="P211">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19309,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6100528</v>
+        <v>6100837</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,76 +19321,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
+        <v>3</v>
+      </c>
+      <c r="J212" t="s">
+        <v>47</v>
+      </c>
+      <c r="K212">
+        <v>2.625</v>
+      </c>
+      <c r="L212">
+        <v>3.6</v>
+      </c>
+      <c r="M212">
+        <v>2.2</v>
+      </c>
+      <c r="N212">
+        <v>2.375</v>
+      </c>
+      <c r="O212">
+        <v>3.75</v>
+      </c>
+      <c r="P212">
+        <v>2.3</v>
+      </c>
+      <c r="Q212">
         <v>0</v>
       </c>
-      <c r="J212" t="s">
-        <v>46</v>
-      </c>
-      <c r="K212">
-        <v>4.75</v>
-      </c>
-      <c r="L212">
-        <v>4.333</v>
-      </c>
-      <c r="M212">
-        <v>1.475</v>
-      </c>
-      <c r="N212">
-        <v>4.5</v>
-      </c>
-      <c r="O212">
-        <v>3.6</v>
-      </c>
-      <c r="P212">
-        <v>1.6</v>
-      </c>
-      <c r="Q212">
-        <v>0.75</v>
-      </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19588,7 +19588,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
         <v>44</v>
@@ -19769,7 +19769,7 @@
         <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19944,7 +19944,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
         <v>29</v>
@@ -20033,7 +20033,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
         <v>43</v>
@@ -20211,7 +20211,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
         <v>30</v>
@@ -20377,7 +20377,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6100841</v>
+        <v>6100840</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,62 +20389,62 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>48</v>
       </c>
       <c r="K224">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L224">
         <v>3.4</v>
       </c>
       <c r="M224">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N224">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R224">
+        <v>1.85</v>
+      </c>
+      <c r="S224">
+        <v>1.95</v>
+      </c>
+      <c r="T224">
+        <v>2.75</v>
+      </c>
+      <c r="U224">
         <v>1.825</v>
       </c>
-      <c r="S224">
+      <c r="V224">
         <v>1.975</v>
       </c>
-      <c r="T224">
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
         <v>3</v>
       </c>
-      <c r="U224">
-        <v>1.875</v>
-      </c>
-      <c r="V224">
-        <v>1.925</v>
-      </c>
-      <c r="W224">
-        <v>-1</v>
-      </c>
-      <c r="X224">
-        <v>2.6</v>
-      </c>
       <c r="Y224">
         <v>-1</v>
       </c>
@@ -20452,13 +20452,13 @@
         <v>-1</v>
       </c>
       <c r="AA224">
+        <v>0.95</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB224">
-        <v>0.875</v>
-      </c>
-      <c r="AC224">
-        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20466,7 +20466,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6100840</v>
+        <v>6100841</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20478,61 +20478,61 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>48</v>
       </c>
       <c r="K225">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L225">
         <v>3.4</v>
       </c>
       <c r="M225">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N225">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S225">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V225">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
         <v>-1</v>
@@ -20541,13 +20541,13 @@
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC225">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20555,7 +20555,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20567,76 +20567,76 @@
         <v>45234.375</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L226">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N226">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O226">
         <v>4</v>
       </c>
       <c r="P226">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q226">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R226">
+        <v>1.875</v>
+      </c>
+      <c r="S226">
+        <v>1.925</v>
+      </c>
+      <c r="T226">
+        <v>3</v>
+      </c>
+      <c r="U226">
         <v>1.85</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.95</v>
       </c>
-      <c r="T226">
-        <v>3.25</v>
-      </c>
-      <c r="U226">
-        <v>2</v>
-      </c>
-      <c r="V226">
-        <v>1.8</v>
-      </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y226">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA226">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20644,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,76 +20656,76 @@
         <v>45234.375</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G227" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>1</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M227">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O227">
         <v>4</v>
       </c>
       <c r="P227">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q227">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R227">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z227">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC227">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -21089,7 +21089,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7433549</v>
+        <v>6100846</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,76 +21101,76 @@
         <v>45235.5</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K232">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L232">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M232">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N232">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P232">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U232">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W232">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21178,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6100846</v>
+        <v>7433549</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21190,76 +21190,76 @@
         <v>45235.5</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K233">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N233">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O233">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P233">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X233">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA233">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21457,7 +21457,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
         <v>41</v>
@@ -21635,7 +21635,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G238" t="s">
         <v>42</v>
@@ -21724,7 +21724,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
         <v>33</v>
@@ -21905,7 +21905,7 @@
         <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H241">
         <v>3</v>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -106,10 +106,10 @@
     <t>Motala AIF FK</t>
   </si>
   <si>
-    <t>IFK Stocksund</t>
+    <t>FC Stockholm Internazionale</t>
   </si>
   <si>
-    <t>FC Stockholm Internazionale</t>
+    <t>IFK Stocksund</t>
   </si>
   <si>
     <t>Bodens BK FF</t>
@@ -118,10 +118,10 @@
     <t>rebro Syrianska IF</t>
   </si>
   <si>
-    <t>Tby FK</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Tby FK</t>
   </si>
   <si>
     <t>Nordic United FC</t>
@@ -130,10 +130,10 @@
     <t>Sollentuna United FF</t>
   </si>
   <si>
-    <t>Sandvikens IF</t>
+    <t>Pite IF</t>
   </si>
   <si>
-    <t>Pite IF</t>
+    <t>Sandvikens IF</t>
   </si>
   <si>
     <t>Hammarby TFF</t>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6469896</v>
+        <v>6100690</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N3">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6100690</v>
+        <v>6469896</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6100691</v>
+        <v>6097780</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
         <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
         <v>3</v>
       </c>
       <c r="U7">
+        <v>1.925</v>
+      </c>
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="V7">
-        <v>1.925</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6097780</v>
+        <v>6100691</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
         <v>1.925</v>
       </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
       <c r="W8">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6100697</v>
+        <v>6100696</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,73 +1435,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
         <v>3.75</v>
       </c>
       <c r="M11">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="W11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6100696</v>
+        <v>6100697</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,73 +1524,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
         <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N12">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.675</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1791,7 +1791,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2147,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100699</v>
+        <v>6100703</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,76 +2233,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6097782</v>
+        <v>6100699</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,76 +2322,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M21">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z21">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6100703</v>
+        <v>6097782</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2414,10 +2414,10 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2426,43 +2426,43 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N22">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P22">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2471,16 +2471,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
+        <v>0.425</v>
+      </c>
+      <c r="AA22">
+        <v>-0.5</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6100578</v>
+        <v>6100698</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,76 +2500,76 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
       <c r="K23">
+        <v>2.2</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>2.7</v>
+      </c>
+      <c r="N23">
         <v>2.15</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>2.8</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
+        <v>2.875</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>3.2</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
-      <c r="S23">
-        <v>1.825</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V23">
+        <v>1.8</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>1.875</v>
       </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>2.2</v>
-      </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6100698</v>
+        <v>6100578</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,55 +2589,55 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>2.8</v>
+      </c>
+      <c r="N24">
+        <v>1.95</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="M24">
-        <v>2.7</v>
-      </c>
-      <c r="N24">
-        <v>2.15</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2646,19 +2646,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>45032.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2770,7 +2770,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3034,10 +3034,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3215,7 +3215,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3479,7 +3479,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6580292</v>
+        <v>6097784</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3568,13 +3568,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3583,43 +3583,43 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N35">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P35">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3628,16 +3628,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6100710</v>
+        <v>6580292</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,13 +3746,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3761,43 +3761,43 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N37">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>2.25</v>
+        <v>1.05</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3806,7 +3806,7 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3815,7 +3815,7 @@
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6097784</v>
+        <v>6100711</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N38">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6100711</v>
+        <v>6100710</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,76 +3924,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
+        <v>2.5</v>
+      </c>
+      <c r="N39">
+        <v>3.25</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>1.909</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
+      </c>
+      <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
+        <v>1.975</v>
+      </c>
+      <c r="T39">
         <v>2.75</v>
       </c>
-      <c r="N39">
-        <v>2.9</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
-      <c r="P39">
-        <v>2</v>
-      </c>
-      <c r="Q39">
-        <v>0.25</v>
-      </c>
-      <c r="R39">
+      <c r="U39">
+        <v>1.825</v>
+      </c>
+      <c r="V39">
         <v>1.975</v>
       </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
-      <c r="U39">
-        <v>1.925</v>
-      </c>
-      <c r="V39">
-        <v>1.875</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4105,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4283,7 +4283,7 @@
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4369,10 +4369,10 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>40</v>
@@ -4550,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45053.5</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
         <v>44</v>
@@ -4903,7 +4903,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -4995,7 +4995,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5170,10 +5170,10 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6637792</v>
+        <v>6100725</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,73 +5259,73 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>3.5</v>
+      </c>
+      <c r="M54">
         <v>3</v>
       </c>
-      <c r="J54" t="s">
-        <v>47</v>
-      </c>
-      <c r="K54">
-        <v>1.571</v>
-      </c>
-      <c r="L54">
-        <v>4</v>
-      </c>
-      <c r="M54">
-        <v>4.333</v>
-      </c>
       <c r="N54">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5336,7 +5336,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6100725</v>
+        <v>6100724</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5348,76 +5348,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L55">
         <v>3.5</v>
       </c>
       <c r="M55">
+        <v>1.8</v>
+      </c>
+      <c r="N55">
+        <v>3.8</v>
+      </c>
+      <c r="O55">
+        <v>3.6</v>
+      </c>
+      <c r="P55">
+        <v>1.7</v>
+      </c>
+      <c r="Q55">
+        <v>0.75</v>
+      </c>
+      <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
         <v>3</v>
       </c>
-      <c r="N55">
-        <v>2.1</v>
-      </c>
-      <c r="O55">
-        <v>3.2</v>
-      </c>
-      <c r="P55">
-        <v>3</v>
-      </c>
-      <c r="Q55">
-        <v>-0.25</v>
-      </c>
-      <c r="R55">
+      <c r="U55">
         <v>1.9</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.9</v>
       </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.975</v>
-      </c>
-      <c r="V55">
-        <v>1.825</v>
-      </c>
       <c r="W55">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z55">
+        <v>-1</v>
+      </c>
+      <c r="AA55">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA55">
-        <v>-1</v>
-      </c>
-      <c r="AB55">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC55">
-        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6100724</v>
+        <v>6637792</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,76 +5437,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
         <v>47</v>
       </c>
       <c r="K56">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M56">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>3.8</v>
+        <v>1.65</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P56">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
+        <v>2.75</v>
+      </c>
+      <c r="U56">
+        <v>1.85</v>
+      </c>
+      <c r="V56">
+        <v>1.95</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
         <v>3</v>
       </c>
-      <c r="U56">
-        <v>1.9</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
-      <c r="Y56">
-        <v>0.7</v>
-      </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5692,7 +5692,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6100732</v>
+        <v>6100730</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5704,76 +5704,76 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>47</v>
+      </c>
+      <c r="K59">
+        <v>2.2</v>
+      </c>
+      <c r="L59">
+        <v>3.5</v>
+      </c>
+      <c r="M59">
+        <v>2.7</v>
+      </c>
+      <c r="N59">
+        <v>2.4</v>
+      </c>
+      <c r="O59">
+        <v>3.5</v>
+      </c>
+      <c r="P59">
+        <v>2.45</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>1.9</v>
+      </c>
+      <c r="S59">
+        <v>1.9</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>1.8</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>1.45</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB59">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>48</v>
-      </c>
-      <c r="K59">
-        <v>1.571</v>
-      </c>
-      <c r="L59">
-        <v>4</v>
-      </c>
-      <c r="M59">
-        <v>4.333</v>
-      </c>
-      <c r="N59">
-        <v>1.4</v>
-      </c>
-      <c r="O59">
-        <v>4.5</v>
-      </c>
-      <c r="P59">
-        <v>5.5</v>
-      </c>
-      <c r="Q59">
-        <v>-1.25</v>
-      </c>
-      <c r="R59">
-        <v>1.925</v>
-      </c>
-      <c r="S59">
-        <v>1.875</v>
-      </c>
-      <c r="T59">
-        <v>3.25</v>
-      </c>
-      <c r="U59">
-        <v>1.95</v>
-      </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>3.5</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>0.875</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6100730</v>
+        <v>6100732</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,76 +5793,76 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>4.333</v>
+      </c>
+      <c r="N60">
+        <v>1.4</v>
+      </c>
+      <c r="O60">
+        <v>4.5</v>
+      </c>
+      <c r="P60">
+        <v>5.5</v>
+      </c>
+      <c r="Q60">
+        <v>-1.25</v>
+      </c>
+      <c r="R60">
+        <v>1.925</v>
+      </c>
+      <c r="S60">
+        <v>1.875</v>
+      </c>
+      <c r="T60">
+        <v>3.25</v>
+      </c>
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
+        <v>1.85</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
         <v>3.5</v>
       </c>
-      <c r="M60">
-        <v>2.7</v>
-      </c>
-      <c r="N60">
-        <v>2.4</v>
-      </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
-      <c r="P60">
-        <v>2.45</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>1.9</v>
-      </c>
-      <c r="S60">
-        <v>1.9</v>
-      </c>
-      <c r="T60">
-        <v>3</v>
-      </c>
-      <c r="U60">
-        <v>2</v>
-      </c>
-      <c r="V60">
-        <v>1.8</v>
-      </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
       <c r="Y60">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5882,10 +5882,10 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6149,10 +6149,10 @@
         <v>45064.375</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>45067.375</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
         <v>29</v>
@@ -6772,7 +6772,7 @@
         <v>45067.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -6861,7 +6861,7 @@
         <v>45067.5</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>41</v>
@@ -6950,10 +6950,10 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7128,10 +7128,10 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
         <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6097787</v>
+        <v>6694497</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,76 +7217,76 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76">
+        <v>2.15</v>
+      </c>
+      <c r="N76">
+        <v>3.2</v>
+      </c>
+      <c r="O76">
         <v>3.6</v>
       </c>
-      <c r="M76">
-        <v>3.75</v>
-      </c>
-      <c r="N76">
-        <v>2.3</v>
-      </c>
-      <c r="O76">
-        <v>3.4</v>
-      </c>
       <c r="P76">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6694497</v>
+        <v>6097787</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,76 +7395,76 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78">
+        <v>1.75</v>
+      </c>
+      <c r="L78">
+        <v>3.6</v>
+      </c>
+      <c r="M78">
+        <v>3.75</v>
+      </c>
+      <c r="N78">
+        <v>2.3</v>
+      </c>
+      <c r="O78">
+        <v>3.4</v>
+      </c>
+      <c r="P78">
+        <v>2.6</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
-        <v>46</v>
-      </c>
-      <c r="K78">
-        <v>2.7</v>
-      </c>
-      <c r="L78">
-        <v>3.5</v>
-      </c>
-      <c r="M78">
-        <v>2.15</v>
-      </c>
-      <c r="N78">
-        <v>3.2</v>
-      </c>
-      <c r="O78">
-        <v>3.6</v>
-      </c>
-      <c r="P78">
-        <v>1.909</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
         <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>32</v>
@@ -8196,7 +8196,7 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
         <v>42</v>
@@ -8285,10 +8285,10 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" t="s">
         <v>38</v>
-      </c>
-      <c r="G88" t="s">
-        <v>39</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6097789</v>
+        <v>6100751</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,58 +8641,58 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M92">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N92">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8701,16 +8701,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC92">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6100751</v>
+        <v>6097789</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,58 +8730,58 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L93">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N93">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W93">
-        <v>0.5329999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8790,16 +8790,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>45088.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>41</v>
@@ -8997,7 +8997,7 @@
         <v>45088.5</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -9086,10 +9086,10 @@
         <v>45089.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9267,7 +9267,7 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9356,7 +9356,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9442,7 +9442,7 @@
         <v>45094.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>44</v>
@@ -9519,7 +9519,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6100488</v>
+        <v>6097790</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,76 +9531,76 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N102">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
+        <v>1.975</v>
+      </c>
+      <c r="S102">
         <v>1.825</v>
-      </c>
-      <c r="S102">
-        <v>1.975</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6097790</v>
+        <v>6100488</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9620,76 +9620,76 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K103">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M103">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
+        <v>1.825</v>
+      </c>
+      <c r="S103">
         <v>1.975</v>
-      </c>
-      <c r="S103">
-        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC103">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,46 +9709,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L104">
         <v>3.6</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N104">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T104">
         <v>2.75</v>
@@ -9763,22 +9763,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,46 +9798,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L105">
         <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
         <v>2.75</v>
@@ -9852,22 +9852,22 @@
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y105">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
         <v>36</v>
@@ -9979,7 +9979,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6100759</v>
+        <v>6100760</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,49 +10154,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N109">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10205,19 +10205,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>0.8</v>
@@ -10231,7 +10231,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6100760</v>
+        <v>6100759</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10243,49 +10243,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N110">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10294,19 +10294,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
         <v>0.8</v>
@@ -10513,7 +10513,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10688,7 +10688,7 @@
         <v>45136.375</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
         <v>43</v>
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6100764</v>
+        <v>6100768</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,13 +10777,13 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10792,43 +10792,43 @@
         <v>46</v>
       </c>
       <c r="K116">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L116">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M116">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P116">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>2.6</v>
+        <v>0.363</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10837,16 +10837,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6100768</v>
+        <v>6100764</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,13 +10955,13 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -10970,43 +10970,43 @@
         <v>46</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M118">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O118">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q118">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>0.363</v>
+        <v>2.6</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11015,16 +11015,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6100765</v>
+        <v>6100509</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,59 +11044,59 @@
         <v>45137.5</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L119">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
+        <v>1.85</v>
+      </c>
+      <c r="W119">
         <v>1.9</v>
       </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
-      <c r="W119">
-        <v>0.444</v>
-      </c>
       <c r="X119">
         <v>-1</v>
       </c>
@@ -11104,13 +11104,13 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6100509</v>
+        <v>6100765</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,58 +11133,58 @@
         <v>45137.5</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
         <v>31</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>46</v>
       </c>
       <c r="K120">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N120">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
+        <v>1.875</v>
+      </c>
+      <c r="S120">
+        <v>1.925</v>
+      </c>
+      <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
         <v>1.9</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.95</v>
-      </c>
-      <c r="V120">
-        <v>1.85</v>
-      </c>
       <c r="W120">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11193,13 +11193,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
+        <v>0.875</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
-      <c r="AB120">
-        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11299,7 +11299,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6100772</v>
+        <v>6100773</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,46 +11311,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L122">
         <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N122">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T122">
         <v>2.75</v>
@@ -11362,25 +11362,25 @@
         <v>2</v>
       </c>
       <c r="W122">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6100773</v>
+        <v>6100772</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,46 +11400,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
         <v>3.6</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
         <v>2.75</v>
@@ -11451,25 +11451,25 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6100771</v>
+        <v>6100511</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,56 +11489,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>5</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L124">
         <v>4</v>
       </c>
       <c r="M124">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="O124">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
+        <v>1.925</v>
+      </c>
+      <c r="T124">
+        <v>2.75</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
-      <c r="T124">
-        <v>3.25</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.875</v>
-      </c>
       <c r="W124">
         <v>-1</v>
       </c>
@@ -11546,19 +11546,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.45</v>
+        <v>3</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6100511</v>
+        <v>7018646</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,76 +11578,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K125">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
         <v>3.75</v>
       </c>
       <c r="N125">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R125">
+        <v>1.8</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>1.925</v>
+      </c>
+      <c r="V125">
         <v>1.875</v>
       </c>
-      <c r="S125">
-        <v>1.925</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
-      <c r="V125">
-        <v>1.8</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>0.925</v>
       </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -11744,7 +11744,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7018646</v>
+        <v>6100771</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11756,40 +11756,40 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127">
+        <v>3.5</v>
+      </c>
+      <c r="L127">
         <v>4</v>
       </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" t="s">
-        <v>46</v>
-      </c>
-      <c r="K127">
+      <c r="M127">
         <v>1.727</v>
       </c>
-      <c r="L127">
-        <v>3.75</v>
-      </c>
-      <c r="M127">
-        <v>3.75</v>
-      </c>
       <c r="N127">
+        <v>4.5</v>
+      </c>
+      <c r="O127">
+        <v>4.75</v>
+      </c>
+      <c r="P127">
         <v>1.45</v>
       </c>
-      <c r="O127">
-        <v>4.2</v>
-      </c>
-      <c r="P127">
-        <v>5</v>
-      </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R127">
         <v>1.8</v>
@@ -11798,7 +11798,7 @@
         <v>2</v>
       </c>
       <c r="T127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
         <v>1.925</v>
@@ -11807,19 +11807,19 @@
         <v>1.875</v>
       </c>
       <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
         <v>0.45</v>
       </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB127">
         <v>0.925</v>
@@ -11845,7 +11845,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -12011,7 +12011,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7048209</v>
+        <v>6097794</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12023,76 +12023,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K130">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N130">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X130">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6100512</v>
+        <v>7048209</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,76 +12112,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N131">
         <v>2.5</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q131">
         <v>0</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6100778</v>
+        <v>6100512</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,40 +12201,40 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
       </c>
       <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>4</v>
       </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M132">
         <v>3.75</v>
       </c>
       <c r="N132">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R132">
         <v>2</v>
@@ -12243,31 +12243,31 @@
         <v>1.8</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>0.8</v>
+      </c>
+      <c r="AB132">
         <v>1</v>
-      </c>
-      <c r="AA132">
-        <v>-1</v>
-      </c>
-      <c r="AB132">
-        <v>0.825</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6097794</v>
+        <v>6100778</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,58 +12290,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>46</v>
       </c>
       <c r="K133">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N133">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12350,16 +12350,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6100777</v>
+        <v>6100776</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,76 +12379,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N134">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12456,7 +12456,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6100776</v>
+        <v>6100777</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,76 +12468,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H135">
+        <v>7</v>
+      </c>
+      <c r="I135">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>2</v>
-      </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N135">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
         <v>3</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12545,7 +12545,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6100775</v>
+        <v>6100513</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12557,76 +12557,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>0</v>
       </c>
-      <c r="I136">
-        <v>3</v>
-      </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L136">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N136">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O136">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6100513</v>
+        <v>6100775</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12646,76 +12646,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M137">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N137">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12735,7 +12735,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>32</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6097795</v>
+        <v>6100514</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,76 +12913,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O140">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
+        <v>0.375</v>
+      </c>
+      <c r="AA140">
         <v>-0.5</v>
       </c>
-      <c r="AA140">
-        <v>0.4875</v>
-      </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6100514</v>
+        <v>6097795</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,76 +13002,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K141">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N141">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X141">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -13269,7 +13269,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>42</v>
@@ -13358,7 +13358,7 @@
         <v>45158.5</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
         <v>36</v>
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7115552</v>
+        <v>6097796</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13447,76 +13447,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N146">
+        <v>2.2</v>
+      </c>
+      <c r="O146">
         <v>3.75</v>
       </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
       <c r="P146">
+        <v>2.625</v>
+      </c>
+      <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
         <v>1.8</v>
-      </c>
-      <c r="Q146">
-        <v>0.5</v>
-      </c>
-      <c r="R146">
-        <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.85</v>
       </c>
       <c r="T146">
         <v>3</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6097796</v>
+        <v>7115552</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,76 +13536,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
         <v>3</v>
       </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13628,7 +13628,7 @@
         <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13717,7 +13717,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13791,7 +13791,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6100796</v>
+        <v>6100784</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13803,76 +13803,76 @@
         <v>45165.375</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
         <v>3</v>
       </c>
-      <c r="I150">
-        <v>2</v>
-      </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L150">
         <v>3.9</v>
       </c>
       <c r="M150">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N150">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O150">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
         <v>1.95</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.85</v>
-      </c>
-      <c r="V150">
-        <v>1.95</v>
-      </c>
       <c r="W150">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13880,7 +13880,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6100784</v>
+        <v>6100796</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13892,76 +13892,76 @@
         <v>45165.375</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K151">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L151">
         <v>3.9</v>
       </c>
       <c r="M151">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N151">
+        <v>3.6</v>
+      </c>
+      <c r="O151">
+        <v>3.75</v>
+      </c>
+      <c r="P151">
+        <v>1.833</v>
+      </c>
+      <c r="Q151">
+        <v>0.5</v>
+      </c>
+      <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>1.85</v>
+      </c>
+      <c r="T151">
         <v>3</v>
       </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>2.1</v>
-      </c>
-      <c r="Q151">
-        <v>0.25</v>
-      </c>
-      <c r="R151">
-        <v>1.9</v>
-      </c>
-      <c r="S151">
-        <v>1.9</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
       <c r="U151">
+        <v>1.85</v>
+      </c>
+      <c r="V151">
         <v>1.95</v>
       </c>
-      <c r="V151">
-        <v>1.85</v>
-      </c>
       <c r="W151">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>40</v>
@@ -14073,7 +14073,7 @@
         <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14159,10 +14159,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H154">
         <v>4</v>
@@ -14337,7 +14337,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>41</v>
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7144590</v>
+        <v>6100518</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,55 +14515,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
         <v>1</v>
-      </c>
-      <c r="I158">
-        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>47</v>
       </c>
       <c r="K158">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L158">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M158">
+        <v>4.5</v>
+      </c>
+      <c r="N158">
+        <v>1.65</v>
+      </c>
+      <c r="O158">
         <v>4.2</v>
       </c>
-      <c r="N158">
-        <v>1.75</v>
-      </c>
-      <c r="O158">
-        <v>3.8</v>
-      </c>
       <c r="P158">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q158">
         <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14572,19 +14572,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6100518</v>
+        <v>7144590</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,55 +14604,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>47</v>
       </c>
       <c r="K159">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L159">
+        <v>3.8</v>
+      </c>
+      <c r="M159">
         <v>4.2</v>
       </c>
-      <c r="M159">
-        <v>4.5</v>
-      </c>
       <c r="N159">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O159">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q159">
         <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14661,19 +14661,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14693,7 +14693,7 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>42</v>
@@ -14859,7 +14859,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6100808</v>
+        <v>6097798</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14871,76 +14871,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" t="s">
+        <v>46</v>
+      </c>
+      <c r="K162">
+        <v>1.666</v>
+      </c>
+      <c r="L162">
+        <v>3.75</v>
+      </c>
+      <c r="M162">
         <v>4</v>
       </c>
-      <c r="I162">
-        <v>4</v>
-      </c>
-      <c r="J162" t="s">
-        <v>48</v>
-      </c>
-      <c r="K162">
-        <v>3.4</v>
-      </c>
-      <c r="L162">
-        <v>3.8</v>
-      </c>
-      <c r="M162">
-        <v>1.8</v>
-      </c>
       <c r="N162">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O162">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="Q162">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X162">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14948,7 +14948,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6100805</v>
+        <v>6100808</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14960,76 +14960,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M163">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N163">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P163">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="Q163">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y163">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15037,7 +15037,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6097798</v>
+        <v>6100805</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15049,73 +15049,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N164">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB164">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC164">
         <v>-0.5</v>
@@ -15141,7 +15141,7 @@
         <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15215,7 +15215,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6100806</v>
+        <v>6100804</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15227,13 +15227,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15242,25 +15242,25 @@
         <v>46</v>
       </c>
       <c r="K166">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N166">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
         <v>1.8</v>
@@ -15269,16 +15269,16 @@
         <v>2</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,10 +15293,10 @@
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6100804</v>
+        <v>6100806</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,13 +15316,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15331,25 +15331,25 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L167">
+        <v>3.5</v>
+      </c>
+      <c r="M167">
+        <v>2.25</v>
+      </c>
+      <c r="N167">
+        <v>2.7</v>
+      </c>
+      <c r="O167">
         <v>3.6</v>
       </c>
-      <c r="M167">
-        <v>3.6</v>
-      </c>
-      <c r="N167">
-        <v>1.615</v>
-      </c>
-      <c r="O167">
-        <v>3.8</v>
-      </c>
       <c r="P167">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
         <v>1.8</v>
@@ -15358,16 +15358,16 @@
         <v>2</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,10 +15382,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15408,7 +15408,7 @@
         <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15494,7 +15494,7 @@
         <v>45179.5</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
         <v>43</v>
@@ -15761,7 +15761,7 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>40</v>
@@ -15838,7 +15838,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6100812</v>
+        <v>6100813</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15850,49 +15850,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>0</v>
       </c>
-      <c r="I173">
+      <c r="J173" t="s">
+        <v>46</v>
+      </c>
+      <c r="K173">
+        <v>1.45</v>
+      </c>
+      <c r="L173">
+        <v>4</v>
+      </c>
+      <c r="M173">
+        <v>5.5</v>
+      </c>
+      <c r="N173">
+        <v>1.363</v>
+      </c>
+      <c r="O173">
+        <v>4.5</v>
+      </c>
+      <c r="P173">
+        <v>6.5</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
+        <v>1.95</v>
+      </c>
+      <c r="T173">
         <v>3</v>
-      </c>
-      <c r="J173" t="s">
-        <v>47</v>
-      </c>
-      <c r="K173">
-        <v>5.75</v>
-      </c>
-      <c r="L173">
-        <v>4.5</v>
-      </c>
-      <c r="M173">
-        <v>1.4</v>
-      </c>
-      <c r="N173">
-        <v>7</v>
-      </c>
-      <c r="O173">
-        <v>5</v>
-      </c>
-      <c r="P173">
-        <v>1.3</v>
-      </c>
-      <c r="Q173">
-        <v>1.25</v>
-      </c>
-      <c r="R173">
-        <v>2.1</v>
-      </c>
-      <c r="S173">
-        <v>1.7</v>
-      </c>
-      <c r="T173">
-        <v>3.25</v>
       </c>
       <c r="U173">
         <v>1.85</v>
@@ -15901,25 +15901,25 @@
         <v>1.95</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15927,7 +15927,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6100813</v>
+        <v>6100812</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15939,49 +15939,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M174">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="N174">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O174">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
         <v>1.85</v>
@@ -15990,25 +15990,25 @@
         <v>1.95</v>
       </c>
       <c r="W174">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC174">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16120,7 +16120,7 @@
         <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,10 +16206,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16298,7 +16298,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16372,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6098265</v>
+        <v>7237972</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,76 +16384,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K179">
+        <v>2.45</v>
+      </c>
+      <c r="L179">
+        <v>3.5</v>
+      </c>
+      <c r="M179">
+        <v>2.375</v>
+      </c>
+      <c r="N179">
+        <v>2.875</v>
+      </c>
+      <c r="O179">
+        <v>3.8</v>
+      </c>
+      <c r="P179">
+        <v>2.05</v>
+      </c>
+      <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
         <v>1.8</v>
-      </c>
-      <c r="L179">
-        <v>3.6</v>
-      </c>
-      <c r="M179">
-        <v>3.5</v>
-      </c>
-      <c r="N179">
-        <v>2.15</v>
-      </c>
-      <c r="O179">
-        <v>3.6</v>
-      </c>
-      <c r="P179">
-        <v>2.7</v>
-      </c>
-      <c r="Q179">
-        <v>-0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.975</v>
-      </c>
-      <c r="S179">
-        <v>1.825</v>
       </c>
       <c r="T179">
         <v>3.25</v>
       </c>
       <c r="U179">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V179">
+        <v>1.8</v>
+      </c>
+      <c r="W179">
         <v>1.875</v>
       </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC179">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16461,7 +16461,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7237972</v>
+        <v>6100814</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16473,76 +16473,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N180">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O180">
         <v>3.8</v>
       </c>
       <c r="P180">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16550,7 +16550,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6100814</v>
+        <v>6098265</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16562,13 +16562,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>2</v>
@@ -16577,41 +16577,41 @@
         <v>47</v>
       </c>
       <c r="K181">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N181">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U181">
+        <v>1.925</v>
+      </c>
+      <c r="V181">
         <v>1.875</v>
       </c>
-      <c r="V181">
-        <v>1.925</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
@@ -16619,19 +16619,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16651,7 +16651,7 @@
         <v>45193.375</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -16740,10 +16740,10 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16921,7 +16921,7 @@
         <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -17010,7 +17010,7 @@
         <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17096,7 +17096,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -17185,7 +17185,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17455,7 +17455,7 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17630,10 +17630,10 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17719,7 +17719,7 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G194" t="s">
         <v>42</v>
@@ -17811,7 +17811,7 @@
         <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17900,7 +17900,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -18078,7 +18078,7 @@
         <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18342,10 +18342,10 @@
         <v>45207.5</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18431,7 +18431,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>37</v>
@@ -18508,7 +18508,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6097801</v>
+        <v>7338338</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18520,34 +18520,34 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>46</v>
       </c>
       <c r="K203">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L203">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N203">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P203">
         <v>4.75</v>
@@ -18556,22 +18556,22 @@
         <v>-1</v>
       </c>
       <c r="R203">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
         <v>3</v>
       </c>
       <c r="U203">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V203">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18580,16 +18580,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC203">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18609,7 +18609,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18686,7 +18686,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7338338</v>
+        <v>6097801</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18698,34 +18698,34 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>46</v>
       </c>
       <c r="K205">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N205">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O205">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
         <v>4.75</v>
@@ -18734,22 +18734,22 @@
         <v>-1</v>
       </c>
       <c r="R205">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
         <v>3</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18758,16 +18758,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18879,7 +18879,7 @@
         <v>32</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -18965,7 +18965,7 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>44</v>
@@ -19057,7 +19057,7 @@
         <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19146,7 +19146,7 @@
         <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19235,7 +19235,7 @@
         <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19321,10 +19321,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F212" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" t="s">
         <v>30</v>
-      </c>
-      <c r="G212" t="s">
-        <v>31</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19588,7 +19588,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
         <v>44</v>
@@ -19769,7 +19769,7 @@
         <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19855,7 +19855,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
         <v>40</v>
@@ -19932,7 +19932,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6100530</v>
+        <v>6100845</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19944,13 +19944,13 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H219">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -19959,43 +19959,43 @@
         <v>46</v>
       </c>
       <c r="K219">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L219">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M219">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N219">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="O219">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P219">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="Q219">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S219">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T219">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U219">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W219">
-        <v>0.2849999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20004,16 +20004,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20033,7 +20033,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
         <v>43</v>
@@ -20110,7 +20110,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6100845</v>
+        <v>6100844</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20122,58 +20122,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H221">
+        <v>5</v>
+      </c>
+      <c r="I221">
         <v>1</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>46</v>
       </c>
       <c r="K221">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M221">
+        <v>5.5</v>
+      </c>
+      <c r="N221">
+        <v>1.727</v>
+      </c>
+      <c r="O221">
         <v>4</v>
       </c>
-      <c r="N221">
-        <v>1.75</v>
-      </c>
-      <c r="O221">
-        <v>3.8</v>
-      </c>
       <c r="P221">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>0.75</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20182,16 +20182,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20199,7 +20199,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6100844</v>
+        <v>6100530</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20211,58 +20211,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>46</v>
       </c>
       <c r="K222">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L222">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N222">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P222">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T222">
         <v>3.25</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W222">
-        <v>0.7270000000000001</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20271,13 +20271,13 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20478,10 +20478,10 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20555,7 +20555,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20567,76 +20567,76 @@
         <v>45234.375</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M226">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N226">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O226">
         <v>4</v>
       </c>
       <c r="P226">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q226">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z226">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC226">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20644,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,76 +20656,76 @@
         <v>45234.375</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H227">
         <v>1</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N227">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O227">
         <v>4</v>
       </c>
       <c r="P227">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q227">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R227">
+        <v>1.875</v>
+      </c>
+      <c r="S227">
+        <v>1.925</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
         <v>1.85</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.95</v>
       </c>
-      <c r="T227">
-        <v>3.25</v>
-      </c>
-      <c r="U227">
-        <v>2</v>
-      </c>
-      <c r="V227">
-        <v>1.8</v>
-      </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y227">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA227">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20745,7 +20745,7 @@
         <v>45234.5</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>44</v>
@@ -20911,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6100852</v>
+        <v>6100853</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20923,73 +20923,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H230">
+        <v>4</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>46</v>
+      </c>
+      <c r="K230">
+        <v>1.5</v>
+      </c>
+      <c r="L230">
+        <v>4</v>
+      </c>
+      <c r="M230">
+        <v>5</v>
+      </c>
+      <c r="N230">
+        <v>1.444</v>
+      </c>
+      <c r="O230">
+        <v>4.2</v>
+      </c>
+      <c r="P230">
+        <v>5.5</v>
+      </c>
+      <c r="Q230">
+        <v>-1.25</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>1.8</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.85</v>
+      </c>
+      <c r="V230">
+        <v>1.95</v>
+      </c>
+      <c r="W230">
+        <v>0.444</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
         <v>1</v>
       </c>
-      <c r="I230">
-        <v>3</v>
-      </c>
-      <c r="J230" t="s">
-        <v>47</v>
-      </c>
-      <c r="K230">
-        <v>2.4</v>
-      </c>
-      <c r="L230">
-        <v>3.6</v>
-      </c>
-      <c r="M230">
-        <v>2.4</v>
-      </c>
-      <c r="N230">
-        <v>2.375</v>
-      </c>
-      <c r="O230">
-        <v>3.8</v>
-      </c>
-      <c r="P230">
-        <v>2.3</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>1.925</v>
-      </c>
-      <c r="S230">
-        <v>1.875</v>
-      </c>
-      <c r="T230">
-        <v>3.25</v>
-      </c>
-      <c r="U230">
-        <v>1.825</v>
-      </c>
-      <c r="V230">
-        <v>1.975</v>
-      </c>
-      <c r="W230">
-        <v>-1</v>
-      </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>1.3</v>
-      </c>
-      <c r="Z230">
-        <v>-1</v>
-      </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21000,7 +21000,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6100853</v>
+        <v>6100852</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21012,73 +21012,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I231">
+        <v>3</v>
+      </c>
+      <c r="J231" t="s">
+        <v>47</v>
+      </c>
+      <c r="K231">
+        <v>2.4</v>
+      </c>
+      <c r="L231">
+        <v>3.6</v>
+      </c>
+      <c r="M231">
+        <v>2.4</v>
+      </c>
+      <c r="N231">
+        <v>2.375</v>
+      </c>
+      <c r="O231">
+        <v>3.8</v>
+      </c>
+      <c r="P231">
+        <v>2.3</v>
+      </c>
+      <c r="Q231">
         <v>0</v>
       </c>
-      <c r="J231" t="s">
-        <v>46</v>
-      </c>
-      <c r="K231">
-        <v>1.5</v>
-      </c>
-      <c r="L231">
-        <v>4</v>
-      </c>
-      <c r="M231">
-        <v>5</v>
-      </c>
-      <c r="N231">
-        <v>1.444</v>
-      </c>
-      <c r="O231">
-        <v>4.2</v>
-      </c>
-      <c r="P231">
-        <v>5.5</v>
-      </c>
-      <c r="Q231">
-        <v>-1.25</v>
-      </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21089,7 +21089,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6100846</v>
+        <v>7433549</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,76 +21101,76 @@
         <v>45235.5</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K232">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M232">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N232">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O232">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X232">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21178,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7433549</v>
+        <v>6100846</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21190,76 +21190,76 @@
         <v>45235.5</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K233">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N233">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O233">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P233">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>45</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21371,7 +21371,7 @@
         <v>44</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21445,7 +21445,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6100860</v>
+        <v>6100859</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,76 +21457,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="L236">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M236">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N236">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="O236">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P236">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="Q236">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S236">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T236">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U236">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W236">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.4</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21534,7 +21534,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6100859</v>
+        <v>6100858</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,73 +21546,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L237">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="M237">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N237">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="O237">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P237">
-        <v>2.6</v>
+        <v>12</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R237">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U237">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V237">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21623,7 +21623,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6100858</v>
+        <v>6100857</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,37 +21638,37 @@
         <v>38</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H238">
         <v>3</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
         <v>46</v>
       </c>
       <c r="K238">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="L238">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N238">
-        <v>1.166</v>
+        <v>1.533</v>
       </c>
       <c r="O238">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P238">
-        <v>12</v>
+        <v>4.333</v>
       </c>
       <c r="Q238">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R238">
         <v>1.825</v>
@@ -21677,16 +21677,16 @@
         <v>1.975</v>
       </c>
       <c r="T238">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U238">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>0.1659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21695,13 +21695,13 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21712,7 +21712,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6100857</v>
+        <v>6100855</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21724,10 +21724,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -21739,34 +21739,34 @@
         <v>46</v>
       </c>
       <c r="K239">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L239">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M239">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N239">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="O239">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P239">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q239">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S239">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T239">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
         <v>1.825</v>
@@ -21775,7 +21775,7 @@
         <v>1.975</v>
       </c>
       <c r="W239">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21784,7 +21784,7 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA239">
         <v>-1</v>
@@ -21816,7 +21816,7 @@
         <v>32</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -21890,7 +21890,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6100855</v>
+        <v>6100860</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21902,58 +21902,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>46</v>
       </c>
       <c r="K241">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="L241">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="M241">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N241">
-        <v>2.45</v>
+        <v>1.142</v>
       </c>
       <c r="O241">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="P241">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U241">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>1.45</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21962,16 +21962,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB241">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -118,13 +118,13 @@
     <t>rebro Syrianska IF</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Nordic United FC</t>
   </si>
   <si>
     <t>Tby FK</t>
   </si>
   <si>
-    <t>Nordic United FC</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
     <t>Sollentuna United FF</t>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6097780</v>
+        <v>6469897</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L7">
         <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6469897</v>
+        <v>6097780</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,73 +1257,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
         <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O9">
         <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100703</v>
+        <v>6100699</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,76 +2233,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L20">
+        <v>3.8</v>
+      </c>
+      <c r="M20">
+        <v>1.666</v>
+      </c>
+      <c r="N20">
         <v>3.6</v>
-      </c>
-      <c r="M20">
-        <v>2.8</v>
-      </c>
-      <c r="N20">
-        <v>2.1</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6100699</v>
+        <v>6100703</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,76 +2322,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6100698</v>
+        <v>6100578</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,55 +2500,55 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>2.8</v>
+      </c>
+      <c r="N23">
+        <v>1.95</v>
+      </c>
+      <c r="O23">
         <v>3.5</v>
       </c>
-      <c r="M23">
-        <v>2.7</v>
-      </c>
-      <c r="N23">
-        <v>2.15</v>
-      </c>
-      <c r="O23">
-        <v>3.4</v>
-      </c>
       <c r="P23">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2557,19 +2557,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6100578</v>
+        <v>6100698</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,76 +2589,76 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
+        <v>2.2</v>
+      </c>
+      <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>2.7</v>
+      </c>
+      <c r="N24">
         <v>2.15</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>3.4</v>
       </c>
-      <c r="M24">
-        <v>2.8</v>
-      </c>
-      <c r="N24">
+      <c r="P24">
+        <v>2.875</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
         <v>1.95</v>
-      </c>
-      <c r="O24">
-        <v>3.5</v>
-      </c>
-      <c r="P24">
-        <v>3.2</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.975</v>
-      </c>
-      <c r="S24">
-        <v>1.825</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V24">
+        <v>1.8</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>1.875</v>
       </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>2.2</v>
-      </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6100705</v>
+        <v>6097783</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,10 +3123,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3138,34 +3138,34 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L30">
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N30">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
         <v>2</v>
@@ -3180,19 +3180,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6097783</v>
+        <v>6100705</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,10 +3212,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3227,34 +3227,34 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L31">
         <v>3.4</v>
       </c>
       <c r="M31">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
         <v>2</v>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6097784</v>
+        <v>6100711</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3568,76 +3568,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
         <v>34</v>
       </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N35">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O35">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P35">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6100713</v>
+        <v>6580292</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,76 +3657,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L36">
+        <v>3.75</v>
+      </c>
+      <c r="M36">
         <v>3.6</v>
       </c>
-      <c r="M36">
-        <v>2.1</v>
-      </c>
       <c r="N36">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
         <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
         <v>1.95</v>
-      </c>
-      <c r="S36">
-        <v>1.85</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6580292</v>
+        <v>6097784</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,13 +3746,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3761,43 +3761,43 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M37">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N37">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3806,16 +3806,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6100711</v>
+        <v>6100713</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,13 +3835,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -3850,19 +3850,19 @@
         <v>47</v>
       </c>
       <c r="K38">
+        <v>2.8</v>
+      </c>
+      <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
         <v>2.1</v>
       </c>
-      <c r="L38">
-        <v>3.75</v>
-      </c>
-      <c r="M38">
-        <v>2.75</v>
-      </c>
       <c r="N38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
         <v>2</v>
@@ -3871,19 +3871,19 @@
         <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3898,10 +3898,10 @@
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4372,7 +4372,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -5173,7 +5173,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6100725</v>
+        <v>6100724</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,76 +5259,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L54">
         <v>3.5</v>
       </c>
       <c r="M54">
+        <v>1.8</v>
+      </c>
+      <c r="N54">
+        <v>3.8</v>
+      </c>
+      <c r="O54">
+        <v>3.6</v>
+      </c>
+      <c r="P54">
+        <v>1.7</v>
+      </c>
+      <c r="Q54">
+        <v>0.75</v>
+      </c>
+      <c r="R54">
+        <v>1.825</v>
+      </c>
+      <c r="S54">
+        <v>1.975</v>
+      </c>
+      <c r="T54">
         <v>3</v>
       </c>
-      <c r="N54">
-        <v>2.1</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
-      <c r="P54">
-        <v>3</v>
-      </c>
-      <c r="Q54">
-        <v>-0.25</v>
-      </c>
-      <c r="R54">
+      <c r="U54">
         <v>1.9</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.9</v>
       </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.975</v>
-      </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
       <c r="W54">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA54">
-        <v>-1</v>
-      </c>
-      <c r="AB54">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5336,7 +5336,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6100724</v>
+        <v>6100725</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5348,76 +5348,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L55">
         <v>3.5</v>
       </c>
       <c r="M55">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>1.9</v>
+      </c>
+      <c r="S55">
+        <v>1.9</v>
+      </c>
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
-      <c r="T55">
-        <v>3</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
+        <v>-1</v>
+      </c>
+      <c r="AB55">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB55">
-        <v>-1</v>
-      </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5529,7 +5529,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5692,7 +5692,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6100730</v>
+        <v>6100732</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5704,76 +5704,76 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>4.333</v>
+      </c>
+      <c r="N59">
+        <v>1.4</v>
+      </c>
+      <c r="O59">
+        <v>4.5</v>
+      </c>
+      <c r="P59">
+        <v>5.5</v>
+      </c>
+      <c r="Q59">
+        <v>-1.25</v>
+      </c>
+      <c r="R59">
+        <v>1.925</v>
+      </c>
+      <c r="S59">
+        <v>1.875</v>
+      </c>
+      <c r="T59">
+        <v>3.25</v>
+      </c>
+      <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
+        <v>1.85</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
         <v>3.5</v>
       </c>
-      <c r="M59">
-        <v>2.7</v>
-      </c>
-      <c r="N59">
-        <v>2.4</v>
-      </c>
-      <c r="O59">
-        <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>2.45</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>1.9</v>
-      </c>
-      <c r="S59">
-        <v>1.9</v>
-      </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>2</v>
-      </c>
-      <c r="V59">
-        <v>1.8</v>
-      </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
       <c r="Y59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6100732</v>
+        <v>6098268</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,28 +5793,28 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N60">
         <v>1.4</v>
@@ -5823,46 +5823,46 @@
         <v>4.5</v>
       </c>
       <c r="P60">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q60">
         <v>-1.25</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U60">
+        <v>1.85</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X60">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6098268</v>
+        <v>6100730</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,73 +5882,73 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>3</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M61">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5974,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6327,10 +6327,10 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
         <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6100735</v>
+        <v>6100436</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,56 +6683,56 @@
         <v>45067.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="K70">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N70">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
+        <v>1.85</v>
+      </c>
+      <c r="T70">
+        <v>3.25</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.8</v>
       </c>
-      <c r="T70">
-        <v>3</v>
-      </c>
-      <c r="U70">
-        <v>1.95</v>
-      </c>
-      <c r="V70">
-        <v>1.85</v>
-      </c>
       <c r="W70">
         <v>-1</v>
       </c>
@@ -6740,19 +6740,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.8</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6100436</v>
+        <v>6100735</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,56 +6772,56 @@
         <v>45067.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q71">
         <v>-0.25</v>
       </c>
       <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
         <v>1.95</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="T71">
-        <v>3.25</v>
-      </c>
-      <c r="U71">
-        <v>2</v>
-      </c>
-      <c r="V71">
-        <v>1.8</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
@@ -6829,19 +6829,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7027,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6100437</v>
+        <v>6100741</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7039,13 +7039,13 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -7054,43 +7054,43 @@
         <v>46</v>
       </c>
       <c r="K74">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>0.444</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7099,16 +7099,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6100741</v>
+        <v>6100437</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,13 +7128,13 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7143,43 +7143,43 @@
         <v>46</v>
       </c>
       <c r="K75">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N75">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>3</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>0.7270000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7188,16 +7188,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6694497</v>
+        <v>6100743</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,40 +7217,40 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="L76">
         <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N76">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O76">
         <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
         <v>1.825</v>
@@ -7259,34 +7259,34 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6100743</v>
+        <v>6694497</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,40 +7306,40 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="L77">
         <v>3.5</v>
       </c>
       <c r="M77">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N77">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O77">
         <v>3.6</v>
       </c>
       <c r="P77">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
         <v>1.825</v>
@@ -7348,34 +7348,34 @@
         <v>1.975</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
+        <v>-1</v>
+      </c>
+      <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB77">
-        <v>-1</v>
-      </c>
-      <c r="AC77">
-        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7395,7 +7395,7 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
         <v>39</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6100753</v>
+        <v>6097789</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
+        <v>3.75</v>
+      </c>
+      <c r="M91">
         <v>3.4</v>
       </c>
-      <c r="M91">
-        <v>2.3</v>
-      </c>
       <c r="N91">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Q91">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6100751</v>
+        <v>6100753</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L92">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N92">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6097789</v>
+        <v>6100751</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,55 +8733,55 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M93">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V93">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8790,16 +8790,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6100758</v>
+        <v>6100756</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,58 +9264,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
         <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>46</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L99">
         <v>3.75</v>
       </c>
       <c r="M99">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P99">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9324,16 +9324,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6100756</v>
+        <v>6100758</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,58 +9353,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>46</v>
       </c>
       <c r="K100">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9413,16 +9413,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9534,7 +9534,7 @@
         <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9620,7 +9620,7 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>40</v>
@@ -9875,7 +9875,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6100762</v>
+        <v>6100507</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9887,10 +9887,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9902,40 +9902,40 @@
         <v>48</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L106">
         <v>3.4</v>
       </c>
       <c r="M106">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N106">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O106">
         <v>3.5</v>
       </c>
       <c r="P106">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9947,16 +9947,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6100507</v>
+        <v>6100762</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,10 +9976,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9991,40 +9991,40 @@
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
         <v>3.4</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N107">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O107">
         <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
+        <v>1.875</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
         <v>1.975</v>
       </c>
-      <c r="S107">
+      <c r="V107">
         <v>1.825</v>
-      </c>
-      <c r="T107">
-        <v>3.25</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10036,16 +10036,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10513,7 +10513,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6100768</v>
+        <v>6100764</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,13 +10777,13 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10792,43 +10792,43 @@
         <v>46</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="N116">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>3</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>0.363</v>
+        <v>2.6</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10837,16 +10837,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6100764</v>
+        <v>6100768</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,13 +10955,13 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -10970,43 +10970,43 @@
         <v>46</v>
       </c>
       <c r="K118">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O118">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P118">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>2.6</v>
+        <v>0.363</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11015,16 +11015,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11299,7 +11299,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6100773</v>
+        <v>6100772</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,46 +11311,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>2</v>
-      </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
         <v>3.6</v>
       </c>
       <c r="M122">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N122">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
         <v>2.75</v>
@@ -11362,25 +11362,25 @@
         <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6100772</v>
+        <v>6100773</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,46 +11400,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L123">
         <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N123">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T123">
         <v>2.75</v>
@@ -11451,25 +11451,25 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7018646</v>
+        <v>6100770</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,73 +11578,73 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L125">
         <v>3.75</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>1.952</v>
       </c>
       <c r="N125">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
+        <v>1.875</v>
+      </c>
+      <c r="V125">
         <v>1.925</v>
       </c>
-      <c r="V125">
-        <v>1.875</v>
-      </c>
       <c r="W125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11655,7 +11655,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6100770</v>
+        <v>7018646</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11667,73 +11667,73 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L126">
         <v>3.75</v>
       </c>
       <c r="M126">
-        <v>1.952</v>
+        <v>3.75</v>
       </c>
       <c r="N126">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U126">
+        <v>1.925</v>
+      </c>
+      <c r="V126">
         <v>1.875</v>
       </c>
-      <c r="V126">
-        <v>1.925</v>
-      </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11845,7 +11845,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -11937,7 +11937,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12011,7 +12011,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6097794</v>
+        <v>7048209</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12023,76 +12023,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>48</v>
+      </c>
+      <c r="K130">
+        <v>2.25</v>
+      </c>
+      <c r="L130">
+        <v>3.5</v>
+      </c>
+      <c r="M130">
+        <v>2.6</v>
+      </c>
+      <c r="N130">
+        <v>2.5</v>
+      </c>
+      <c r="O130">
+        <v>3.3</v>
+      </c>
+      <c r="P130">
+        <v>2.4</v>
+      </c>
+      <c r="Q130">
         <v>0</v>
       </c>
-      <c r="J130" t="s">
-        <v>46</v>
-      </c>
-      <c r="K130">
-        <v>2.9</v>
-      </c>
-      <c r="L130">
-        <v>3.4</v>
-      </c>
-      <c r="M130">
-        <v>2.1</v>
-      </c>
-      <c r="N130">
-        <v>2.8</v>
-      </c>
-      <c r="O130">
-        <v>3.4</v>
-      </c>
-      <c r="P130">
-        <v>2.15</v>
-      </c>
-      <c r="Q130">
-        <v>0.25</v>
-      </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7048209</v>
+        <v>6100778</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,76 +12112,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H131">
+        <v>4</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>46</v>
+      </c>
+      <c r="K131">
+        <v>1.75</v>
+      </c>
+      <c r="L131">
+        <v>3.6</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.75</v>
+      </c>
+      <c r="O131">
+        <v>3.5</v>
+      </c>
+      <c r="P131">
+        <v>4</v>
+      </c>
+      <c r="Q131">
+        <v>-0.75</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1.8</v>
+      </c>
+      <c r="T131">
+        <v>2.75</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
+        <v>1.975</v>
+      </c>
+      <c r="W131">
+        <v>0.75</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
         <v>1</v>
       </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="J131" t="s">
-        <v>48</v>
-      </c>
-      <c r="K131">
-        <v>2.25</v>
-      </c>
-      <c r="L131">
-        <v>3.5</v>
-      </c>
-      <c r="M131">
-        <v>2.6</v>
-      </c>
-      <c r="N131">
-        <v>2.5</v>
-      </c>
-      <c r="O131">
-        <v>3.3</v>
-      </c>
-      <c r="P131">
-        <v>2.4</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>1.975</v>
-      </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>1.9</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2.3</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>0</v>
-      </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6100778</v>
+        <v>6097794</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,58 +12290,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F133" t="s">
+        <v>44</v>
+      </c>
+      <c r="G133" t="s">
         <v>36</v>
       </c>
-      <c r="G133" t="s">
-        <v>30</v>
-      </c>
       <c r="H133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>46</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N133">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12350,16 +12350,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6100776</v>
+        <v>6100777</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,76 +12379,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H134">
+        <v>7</v>
+      </c>
+      <c r="I134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>2</v>
-      </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N134">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12456,7 +12456,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6100777</v>
+        <v>6100776</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,76 +12468,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N135">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
         <v>3</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6100514</v>
+        <v>6097795</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,76 +12913,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N140">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6097795</v>
+        <v>6100514</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,76 +13002,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N141">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>0.375</v>
+      </c>
+      <c r="AA141">
         <v>-0.5</v>
       </c>
-      <c r="AA141">
-        <v>0.4875</v>
-      </c>
       <c r="AB141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13361,7 +13361,7 @@
         <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13450,7 +13450,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>3</v>
@@ -13791,7 +13791,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6100784</v>
+        <v>6100796</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13803,76 +13803,76 @@
         <v>45165.375</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L150">
         <v>3.9</v>
       </c>
       <c r="M150">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N150">
+        <v>3.6</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>1.833</v>
+      </c>
+      <c r="Q150">
+        <v>0.5</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
-      <c r="P150">
-        <v>2.1</v>
-      </c>
-      <c r="Q150">
-        <v>0.25</v>
-      </c>
-      <c r="R150">
-        <v>1.9</v>
-      </c>
-      <c r="S150">
-        <v>1.9</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
       <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="V150">
-        <v>1.85</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13880,7 +13880,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6100796</v>
+        <v>6100784</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13892,76 +13892,76 @@
         <v>45165.375</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
         <v>3</v>
       </c>
-      <c r="I151">
-        <v>2</v>
-      </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L151">
         <v>3.9</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N151">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>1.9</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
         <v>1.95</v>
       </c>
-      <c r="S151">
+      <c r="V151">
         <v>1.85</v>
       </c>
-      <c r="T151">
-        <v>3</v>
-      </c>
-      <c r="U151">
-        <v>1.85</v>
-      </c>
-      <c r="V151">
-        <v>1.95</v>
-      </c>
       <c r="W151">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6097797</v>
+        <v>6100519</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,73 +14340,73 @@
         <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L156">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N156">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O156">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q156">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC156">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100519</v>
+        <v>6097797</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,73 +14429,73 @@
         <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K157">
+        <v>1.363</v>
+      </c>
+      <c r="L157">
+        <v>5</v>
+      </c>
+      <c r="M157">
+        <v>6.5</v>
+      </c>
+      <c r="N157">
+        <v>1.25</v>
+      </c>
+      <c r="O157">
+        <v>6</v>
+      </c>
+      <c r="P157">
+        <v>8</v>
+      </c>
+      <c r="Q157">
+        <v>-1.75</v>
+      </c>
+      <c r="R157">
         <v>1.85</v>
       </c>
-      <c r="L157">
-        <v>3.75</v>
-      </c>
-      <c r="M157">
-        <v>3.75</v>
-      </c>
-      <c r="N157">
-        <v>1.75</v>
-      </c>
-      <c r="O157">
-        <v>4</v>
-      </c>
-      <c r="P157">
-        <v>4.2</v>
-      </c>
-      <c r="Q157">
-        <v>-0.75</v>
-      </c>
-      <c r="R157">
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
+        <v>3.5</v>
+      </c>
+      <c r="U157">
         <v>1.925</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="T157">
-        <v>3.25</v>
-      </c>
-      <c r="U157">
-        <v>1.9</v>
-      </c>
-      <c r="V157">
-        <v>1.9</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
+        <v>0.95</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.875</v>
-      </c>
-      <c r="AB157">
-        <v>-0.5</v>
-      </c>
-      <c r="AC157">
-        <v>0.45</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>30</v>
@@ -14948,7 +14948,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6100808</v>
+        <v>6100805</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14960,76 +14960,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K163">
+        <v>3.1</v>
+      </c>
+      <c r="L163">
         <v>3.4</v>
       </c>
-      <c r="L163">
-        <v>3.8</v>
-      </c>
       <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>3.4</v>
+      </c>
+      <c r="O163">
+        <v>3.4</v>
+      </c>
+      <c r="P163">
+        <v>1.909</v>
+      </c>
+      <c r="Q163">
+        <v>0.5</v>
+      </c>
+      <c r="R163">
         <v>1.8</v>
       </c>
-      <c r="N163">
-        <v>6</v>
-      </c>
-      <c r="O163">
-        <v>4.75</v>
-      </c>
-      <c r="P163">
-        <v>1.363</v>
-      </c>
-      <c r="Q163">
-        <v>1.25</v>
-      </c>
-      <c r="R163">
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>2.75</v>
+      </c>
+      <c r="U163">
         <v>1.95</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.85</v>
       </c>
-      <c r="T163">
-        <v>3.25</v>
-      </c>
-      <c r="U163">
-        <v>1.975</v>
-      </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15037,7 +15037,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6100805</v>
+        <v>6100808</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15049,76 +15049,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M164">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N164">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P164">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="Q164">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y164">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15215,7 +15215,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6100804</v>
+        <v>6100806</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15227,13 +15227,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15242,25 +15242,25 @@
         <v>46</v>
       </c>
       <c r="K166">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>2.25</v>
+      </c>
+      <c r="N166">
+        <v>2.7</v>
+      </c>
+      <c r="O166">
         <v>3.6</v>
       </c>
-      <c r="M166">
-        <v>3.6</v>
-      </c>
-      <c r="N166">
-        <v>1.615</v>
-      </c>
-      <c r="O166">
-        <v>3.8</v>
-      </c>
       <c r="P166">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
         <v>1.8</v>
@@ -15269,16 +15269,16 @@
         <v>2</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,10 +15293,10 @@
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6100806</v>
+        <v>6100804</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,13 +15316,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15331,25 +15331,25 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N167">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
         <v>1.8</v>
@@ -15358,16 +15358,16 @@
         <v>2</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,10 +15382,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15571,7 +15571,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7202023</v>
+        <v>6100811</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15583,61 +15583,61 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L170">
+        <v>4.75</v>
+      </c>
+      <c r="M170">
+        <v>6</v>
+      </c>
+      <c r="N170">
+        <v>1.363</v>
+      </c>
+      <c r="O170">
+        <v>5.25</v>
+      </c>
+      <c r="P170">
+        <v>5.5</v>
+      </c>
+      <c r="Q170">
+        <v>-1.5</v>
+      </c>
+      <c r="R170">
+        <v>1.925</v>
+      </c>
+      <c r="S170">
+        <v>1.875</v>
+      </c>
+      <c r="T170">
         <v>3.5</v>
       </c>
-      <c r="M170">
-        <v>2.8</v>
-      </c>
-      <c r="N170">
-        <v>2</v>
-      </c>
-      <c r="O170">
-        <v>3.6</v>
-      </c>
-      <c r="P170">
-        <v>3.4</v>
-      </c>
-      <c r="Q170">
-        <v>-0.5</v>
-      </c>
-      <c r="R170">
-        <v>2</v>
-      </c>
-      <c r="S170">
-        <v>1.8</v>
-      </c>
-      <c r="T170">
-        <v>3</v>
-      </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X170">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
@@ -15646,13 +15646,13 @@
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15660,7 +15660,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6100811</v>
+        <v>6100521</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15672,10 +15672,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15687,43 +15687,43 @@
         <v>46</v>
       </c>
       <c r="K171">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L171">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N171">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O171">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P171">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q171">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15732,16 +15732,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA171">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15749,7 +15749,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6100521</v>
+        <v>7202023</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15761,76 +15761,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L172">
         <v>3.5</v>
       </c>
       <c r="M172">
+        <v>2.8</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172">
+        <v>3.6</v>
+      </c>
+      <c r="P172">
         <v>3.4</v>
       </c>
-      <c r="N172">
-        <v>1.85</v>
-      </c>
-      <c r="O172">
-        <v>3.3</v>
-      </c>
-      <c r="P172">
-        <v>3.6</v>
-      </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC172">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15838,7 +15838,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6100813</v>
+        <v>6100812</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15850,49 +15850,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M173">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="N173">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O173">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P173">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
         <v>1.85</v>
@@ -15901,25 +15901,25 @@
         <v>1.95</v>
       </c>
       <c r="W173">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15927,7 +15927,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6100812</v>
+        <v>6100813</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15939,49 +15939,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
+      <c r="J174" t="s">
+        <v>46</v>
+      </c>
+      <c r="K174">
+        <v>1.45</v>
+      </c>
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>5.5</v>
+      </c>
+      <c r="N174">
+        <v>1.363</v>
+      </c>
+      <c r="O174">
+        <v>4.5</v>
+      </c>
+      <c r="P174">
+        <v>6.5</v>
+      </c>
+      <c r="Q174">
+        <v>-1.25</v>
+      </c>
+      <c r="R174">
+        <v>1.85</v>
+      </c>
+      <c r="S174">
+        <v>1.95</v>
+      </c>
+      <c r="T174">
         <v>3</v>
-      </c>
-      <c r="J174" t="s">
-        <v>47</v>
-      </c>
-      <c r="K174">
-        <v>5.75</v>
-      </c>
-      <c r="L174">
-        <v>4.5</v>
-      </c>
-      <c r="M174">
-        <v>1.4</v>
-      </c>
-      <c r="N174">
-        <v>7</v>
-      </c>
-      <c r="O174">
-        <v>5</v>
-      </c>
-      <c r="P174">
-        <v>1.3</v>
-      </c>
-      <c r="Q174">
-        <v>1.25</v>
-      </c>
-      <c r="R174">
-        <v>2.1</v>
-      </c>
-      <c r="S174">
-        <v>1.7</v>
-      </c>
-      <c r="T174">
-        <v>3.25</v>
       </c>
       <c r="U174">
         <v>1.85</v>
@@ -15990,25 +15990,25 @@
         <v>1.95</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>38</v>
@@ -16209,7 +16209,7 @@
         <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16372,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7237972</v>
+        <v>6098265</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,76 +16384,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L179">
+        <v>3.6</v>
+      </c>
+      <c r="M179">
         <v>3.5</v>
       </c>
-      <c r="M179">
-        <v>2.375</v>
-      </c>
       <c r="N179">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O179">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
         <v>3.25</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16550,7 +16550,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6098265</v>
+        <v>7237972</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16562,76 +16562,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K181">
+        <v>2.45</v>
+      </c>
+      <c r="L181">
+        <v>3.5</v>
+      </c>
+      <c r="M181">
+        <v>2.375</v>
+      </c>
+      <c r="N181">
+        <v>2.875</v>
+      </c>
+      <c r="O181">
+        <v>3.8</v>
+      </c>
+      <c r="P181">
+        <v>2.05</v>
+      </c>
+      <c r="Q181">
+        <v>0.25</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
         <v>1.8</v>
-      </c>
-      <c r="L181">
-        <v>3.6</v>
-      </c>
-      <c r="M181">
-        <v>3.5</v>
-      </c>
-      <c r="N181">
-        <v>2.15</v>
-      </c>
-      <c r="O181">
-        <v>3.6</v>
-      </c>
-      <c r="P181">
-        <v>2.7</v>
-      </c>
-      <c r="Q181">
-        <v>-0.25</v>
-      </c>
-      <c r="R181">
-        <v>1.975</v>
-      </c>
-      <c r="S181">
-        <v>1.825</v>
       </c>
       <c r="T181">
         <v>3.25</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V181">
+        <v>1.8</v>
+      </c>
+      <c r="W181">
         <v>1.875</v>
       </c>
-      <c r="W181">
-        <v>-1</v>
-      </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC181">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17200,25 +17200,25 @@
         <v>46</v>
       </c>
       <c r="K188">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L188">
         <v>3.5</v>
       </c>
       <c r="M188">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17227,16 +17227,16 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17254,7 +17254,7 @@
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,25 +17289,25 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
         <v>3.5</v>
       </c>
       <c r="M189">
+        <v>2.25</v>
+      </c>
+      <c r="N189">
         <v>3</v>
       </c>
-      <c r="N189">
-        <v>1.95</v>
-      </c>
       <c r="O189">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17316,16 +17316,16 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17343,7 +17343,7 @@
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6100828</v>
+        <v>7291461</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17986,40 +17986,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K197">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L197">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M197">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N197">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="O197">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P197">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="Q197">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
         <v>2</v>
@@ -18028,34 +18028,34 @@
         <v>1.8</v>
       </c>
       <c r="T197">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18063,7 +18063,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7291461</v>
+        <v>6100826</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18075,56 +18075,56 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>47</v>
       </c>
       <c r="K198">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N198">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
+        <v>1.925</v>
+      </c>
+      <c r="T198">
+        <v>3.25</v>
+      </c>
+      <c r="U198">
+        <v>2</v>
+      </c>
+      <c r="V198">
         <v>1.8</v>
       </c>
-      <c r="T198">
-        <v>2.75</v>
-      </c>
-      <c r="U198">
-        <v>1.95</v>
-      </c>
-      <c r="V198">
-        <v>1.85</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
@@ -18132,19 +18132,19 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
+        <v>0.925</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
         <v>0.8</v>
-      </c>
-      <c r="AB198">
-        <v>-1</v>
-      </c>
-      <c r="AC198">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18152,7 +18152,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6100826</v>
+        <v>6100828</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18164,76 +18164,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H199">
+        <v>4</v>
+      </c>
+      <c r="I199">
         <v>0</v>
       </c>
-      <c r="I199">
-        <v>2</v>
-      </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L199">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M199">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N199">
-        <v>4.5</v>
+        <v>1.142</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P199">
-        <v>1.533</v>
+        <v>12</v>
       </c>
       <c r="Q199">
+        <v>-2.25</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>1.8</v>
+      </c>
+      <c r="T199">
+        <v>3.5</v>
+      </c>
+      <c r="U199">
+        <v>1.975</v>
+      </c>
+      <c r="V199">
+        <v>1.825</v>
+      </c>
+      <c r="W199">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
         <v>1</v>
       </c>
-      <c r="R199">
-        <v>1.875</v>
-      </c>
-      <c r="S199">
-        <v>1.925</v>
-      </c>
-      <c r="T199">
-        <v>3.25</v>
-      </c>
-      <c r="U199">
-        <v>2</v>
-      </c>
-      <c r="V199">
-        <v>1.8</v>
-      </c>
-      <c r="W199">
-        <v>-1</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
-      <c r="Y199">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z199">
-        <v>-1</v>
-      </c>
       <c r="AA199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18345,7 +18345,7 @@
         <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7338338</v>
+        <v>6097801</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,31 +18523,31 @@
         <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>46</v>
       </c>
       <c r="K203">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M203">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O203">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P203">
         <v>4.75</v>
@@ -18556,22 +18556,22 @@
         <v>-1</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T203">
         <v>3</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W203">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18580,16 +18580,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18686,7 +18686,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6097801</v>
+        <v>7338338</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,31 +18701,31 @@
         <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>46</v>
       </c>
       <c r="K205">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N205">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P205">
         <v>4.75</v>
@@ -18734,22 +18734,22 @@
         <v>-1</v>
       </c>
       <c r="R205">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
         <v>3</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18758,16 +18758,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7356246</v>
+        <v>6100834</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,76 +19410,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L213">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N213">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O213">
         <v>3.6</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z213">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6100834</v>
+        <v>7356246</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,76 +19499,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K214">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L214">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O214">
         <v>3.6</v>
       </c>
       <c r="P214">
+        <v>3.8</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
         <v>1.85</v>
-      </c>
-      <c r="Q214">
-        <v>0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19769,7 +19769,7 @@
         <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19932,7 +19932,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6100845</v>
+        <v>6100844</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19944,58 +19944,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H219">
+        <v>5</v>
+      </c>
+      <c r="I219">
         <v>1</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>46</v>
       </c>
       <c r="K219">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L219">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M219">
+        <v>5.5</v>
+      </c>
+      <c r="N219">
+        <v>1.727</v>
+      </c>
+      <c r="O219">
         <v>4</v>
       </c>
-      <c r="N219">
-        <v>1.75</v>
-      </c>
-      <c r="O219">
-        <v>3.8</v>
-      </c>
       <c r="P219">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>0.75</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20004,16 +20004,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20021,7 +20021,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7392733</v>
+        <v>6100845</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20033,76 +20033,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G220" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K220">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L220">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M220">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N220">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O220">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U220">
+        <v>2</v>
+      </c>
+      <c r="V220">
         <v>1.8</v>
       </c>
-      <c r="V220">
-        <v>2</v>
-      </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA220">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20110,7 +20110,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6100844</v>
+        <v>6100530</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20122,58 +20122,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H221">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>46</v>
       </c>
       <c r="K221">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L221">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M221">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N221">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S221">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T221">
         <v>3.25</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W221">
-        <v>0.7270000000000001</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20182,13 +20182,13 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20199,7 +20199,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6100530</v>
+        <v>7392733</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20211,76 +20211,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H222">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L222">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M222">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="O222">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q222">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V222">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W222">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z222">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB222">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20377,7 +20377,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6100840</v>
+        <v>6100841</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,61 +20389,61 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>48</v>
       </c>
       <c r="K224">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L224">
         <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N224">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
         <v>-1</v>
@@ -20452,13 +20452,13 @@
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20466,7 +20466,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6100841</v>
+        <v>6100840</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20478,62 +20478,62 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F225" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>48</v>
       </c>
       <c r="K225">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L225">
         <v>3.4</v>
       </c>
       <c r="M225">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P225">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>1.95</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
         <v>1.825</v>
       </c>
-      <c r="S225">
+      <c r="V225">
         <v>1.975</v>
       </c>
-      <c r="T225">
+      <c r="W225">
+        <v>-1</v>
+      </c>
+      <c r="X225">
         <v>3</v>
       </c>
-      <c r="U225">
-        <v>1.875</v>
-      </c>
-      <c r="V225">
-        <v>1.925</v>
-      </c>
-      <c r="W225">
-        <v>-1</v>
-      </c>
-      <c r="X225">
-        <v>2.6</v>
-      </c>
       <c r="Y225">
         <v>-1</v>
       </c>
@@ -20541,13 +20541,13 @@
         <v>-1</v>
       </c>
       <c r="AA225">
+        <v>0.95</v>
+      </c>
+      <c r="AB225">
+        <v>-1</v>
+      </c>
+      <c r="AC225">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB225">
-        <v>0.875</v>
-      </c>
-      <c r="AC225">
-        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20570,7 +20570,7 @@
         <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20733,7 +20733,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6100848</v>
+        <v>6100847</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20745,76 +20745,76 @@
         <v>45234.5</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
         <v>1</v>
       </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
       <c r="J228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K228">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M228">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N228">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O228">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P228">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R228">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
         <v>3</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W228">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z228">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20822,7 +20822,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6100847</v>
+        <v>6100848</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20834,76 +20834,76 @@
         <v>45234.5</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
         <v>0</v>
       </c>
-      <c r="I229">
-        <v>1</v>
-      </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K229">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L229">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N229">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O229">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
         <v>3</v>
       </c>
       <c r="U229">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20911,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6100853</v>
+        <v>6100852</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20923,73 +20923,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I230">
+        <v>3</v>
+      </c>
+      <c r="J230" t="s">
+        <v>47</v>
+      </c>
+      <c r="K230">
+        <v>2.4</v>
+      </c>
+      <c r="L230">
+        <v>3.6</v>
+      </c>
+      <c r="M230">
+        <v>2.4</v>
+      </c>
+      <c r="N230">
+        <v>2.375</v>
+      </c>
+      <c r="O230">
+        <v>3.8</v>
+      </c>
+      <c r="P230">
+        <v>2.3</v>
+      </c>
+      <c r="Q230">
         <v>0</v>
       </c>
-      <c r="J230" t="s">
-        <v>46</v>
-      </c>
-      <c r="K230">
-        <v>1.5</v>
-      </c>
-      <c r="L230">
-        <v>4</v>
-      </c>
-      <c r="M230">
-        <v>5</v>
-      </c>
-      <c r="N230">
-        <v>1.444</v>
-      </c>
-      <c r="O230">
-        <v>4.2</v>
-      </c>
-      <c r="P230">
-        <v>5.5</v>
-      </c>
-      <c r="Q230">
-        <v>-1.25</v>
-      </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21000,7 +21000,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6100852</v>
+        <v>6100853</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21012,73 +21012,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H231">
+        <v>4</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>46</v>
+      </c>
+      <c r="K231">
+        <v>1.5</v>
+      </c>
+      <c r="L231">
+        <v>4</v>
+      </c>
+      <c r="M231">
+        <v>5</v>
+      </c>
+      <c r="N231">
+        <v>1.444</v>
+      </c>
+      <c r="O231">
+        <v>4.2</v>
+      </c>
+      <c r="P231">
+        <v>5.5</v>
+      </c>
+      <c r="Q231">
+        <v>-1.25</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>1.8</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>1.85</v>
+      </c>
+      <c r="V231">
+        <v>1.95</v>
+      </c>
+      <c r="W231">
+        <v>0.444</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>3</v>
-      </c>
-      <c r="J231" t="s">
-        <v>47</v>
-      </c>
-      <c r="K231">
-        <v>2.4</v>
-      </c>
-      <c r="L231">
-        <v>3.6</v>
-      </c>
-      <c r="M231">
-        <v>2.4</v>
-      </c>
-      <c r="N231">
-        <v>2.375</v>
-      </c>
-      <c r="O231">
-        <v>3.8</v>
-      </c>
-      <c r="P231">
-        <v>2.3</v>
-      </c>
-      <c r="Q231">
-        <v>0</v>
-      </c>
-      <c r="R231">
-        <v>1.925</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>3.25</v>
-      </c>
-      <c r="U231">
-        <v>1.825</v>
-      </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
-      <c r="W231">
-        <v>-1</v>
-      </c>
-      <c r="X231">
-        <v>-1</v>
-      </c>
-      <c r="Y231">
-        <v>1.3</v>
-      </c>
-      <c r="Z231">
-        <v>-1</v>
-      </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21089,7 +21089,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7433549</v>
+        <v>6100846</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,76 +21101,76 @@
         <v>45235.5</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K232">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L232">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M232">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N232">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P232">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U232">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W232">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21178,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6100846</v>
+        <v>7433549</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21190,76 +21190,76 @@
         <v>45235.5</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K233">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N233">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O233">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P233">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X233">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA233">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21267,7 +21267,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7465140</v>
+        <v>6100861</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21279,49 +21279,49 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K234">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L234">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M234">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N234">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P234">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S234">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T234">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U234">
         <v>1.8</v>
@@ -21330,25 +21330,25 @@
         <v>2</v>
       </c>
       <c r="W234">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB234">
         <v>0.8</v>
       </c>
-      <c r="AA234">
-        <v>-1</v>
-      </c>
-      <c r="AB234">
-        <v>-1</v>
-      </c>
       <c r="AC234">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21356,7 +21356,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6100861</v>
+        <v>7465140</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21368,49 +21368,49 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F235" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N235">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O235">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P235">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R235">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U235">
         <v>1.8</v>
@@ -21419,25 +21419,25 @@
         <v>2</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA235">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,7 +21445,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6100859</v>
+        <v>6100860</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,76 +21457,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L236">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N236">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O236">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P236">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="Q236">
+        <v>-2.25</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>1.8</v>
+      </c>
+      <c r="T236">
+        <v>3.5</v>
+      </c>
+      <c r="U236">
+        <v>1.9</v>
+      </c>
+      <c r="V236">
+        <v>1.9</v>
+      </c>
+      <c r="W236">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>-1</v>
+      </c>
+      <c r="Z236">
         <v>-0.5</v>
       </c>
-      <c r="R236">
-        <v>2.075</v>
-      </c>
-      <c r="S236">
-        <v>1.725</v>
-      </c>
-      <c r="T236">
-        <v>3.25</v>
-      </c>
-      <c r="U236">
-        <v>1.75</v>
-      </c>
-      <c r="V236">
-        <v>2.05</v>
-      </c>
-      <c r="W236">
-        <v>-1</v>
-      </c>
-      <c r="X236">
-        <v>-1</v>
-      </c>
-      <c r="Y236">
-        <v>1.6</v>
-      </c>
-      <c r="Z236">
-        <v>-1</v>
-      </c>
       <c r="AA236">
-        <v>0.7250000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB236">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21534,7 +21534,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6100858</v>
+        <v>6100859</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,73 +21546,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
         <v>3</v>
       </c>
-      <c r="I237">
-        <v>2</v>
-      </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="M237">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="O237">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P237">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="Q237">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T237">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W237">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB237">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21727,7 +21727,7 @@
         <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -21890,7 +21890,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6100860</v>
+        <v>6100858</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21902,58 +21902,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>46</v>
       </c>
       <c r="K241">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L241">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="M241">
         <v>7</v>
       </c>
       <c r="N241">
-        <v>1.142</v>
+        <v>1.166</v>
       </c>
       <c r="O241">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P241">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q241">
         <v>-2.25</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T241">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U241">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
-        <v>0.1419999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21962,16 +21962,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC241">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -121,19 +121,19 @@
     <t>Nordic United FC</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Tby FK</t>
   </si>
   <si>
-    <t>Tby FK</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
     <t>Sollentuna United FF</t>
   </si>
   <si>
-    <t>Sandvikens IF</t>
+    <t>Pite IF</t>
   </si>
   <si>
-    <t>Pite IF</t>
+    <t>Sandvikens IF</t>
   </si>
   <si>
     <t>Hammarby TFF</t>
@@ -1079,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6097780</v>
+        <v>6100691</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1168,73 +1168,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>3</v>
       </c>
       <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
         <v>1.925</v>
       </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
       <c r="W8">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6100691</v>
+        <v>6097780</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,73 +1257,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
         <v>3.6</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
         <v>3</v>
       </c>
       <c r="U9">
+        <v>1.925</v>
+      </c>
+      <c r="V9">
         <v>1.875</v>
       </c>
-      <c r="V9">
-        <v>1.925</v>
-      </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6100697</v>
+        <v>6100696</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,73 +1435,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
         <v>3.75</v>
       </c>
       <c r="M11">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="W11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6100696</v>
+        <v>6100697</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,73 +1524,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
         <v>3.75</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N12">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P12">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.675</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1791,7 +1791,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2147,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2236,7 +2236,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
@@ -2411,7 +2411,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6100580</v>
+        <v>6100477</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,49 +2767,49 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N26">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P26">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U26">
         <v>1.9</v>
@@ -2818,25 +2818,25 @@
         <v>1.9</v>
       </c>
       <c r="W26">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
+        <v>0.95</v>
+      </c>
+      <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>0.45</v>
-      </c>
-      <c r="AC26">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6100477</v>
+        <v>6100580</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,49 +2856,49 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N27">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
         <v>1.9</v>
@@ -2907,25 +2907,25 @@
         <v>1.9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2948,7 +2948,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6100709</v>
+        <v>6100705</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,49 +3034,49 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="N29">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
         <v>2</v>
@@ -3091,19 +3091,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
+        <v>0.5</v>
+      </c>
+      <c r="AC29">
         <v>-0.5</v>
-      </c>
-      <c r="AC29">
-        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6100705</v>
+        <v>6097783</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,10 +3123,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3138,34 +3138,34 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L30">
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N30">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
         <v>2</v>
@@ -3180,19 +3180,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6097783</v>
+        <v>6100709</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,49 +3212,49 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>47</v>
       </c>
       <c r="K31">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="N31">
+        <v>1.65</v>
+      </c>
+      <c r="O31">
         <v>4</v>
       </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q31">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
         <v>2</v>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3301,7 +3301,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -3479,7 +3479,7 @@
         <v>45045.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6100711</v>
+        <v>6100713</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3568,13 +3568,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -3583,19 +3583,19 @@
         <v>47</v>
       </c>
       <c r="K35">
+        <v>2.8</v>
+      </c>
+      <c r="L35">
+        <v>3.6</v>
+      </c>
+      <c r="M35">
         <v>2.1</v>
       </c>
-      <c r="L35">
-        <v>3.75</v>
-      </c>
-      <c r="M35">
-        <v>2.75</v>
-      </c>
       <c r="N35">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -3604,19 +3604,19 @@
         <v>0.25</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
@@ -3631,10 +3631,10 @@
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6100710</v>
+        <v>6100711</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,76 +3657,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>2.1</v>
+      </c>
+      <c r="L36">
+        <v>3.75</v>
+      </c>
+      <c r="M36">
+        <v>2.75</v>
+      </c>
+      <c r="N36">
+        <v>2.9</v>
+      </c>
+      <c r="O36">
+        <v>3.8</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>0.25</v>
+      </c>
+      <c r="R36">
+        <v>1.975</v>
+      </c>
+      <c r="S36">
+        <v>1.825</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>1.925</v>
+      </c>
+      <c r="V36">
+        <v>1.875</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>46</v>
-      </c>
-      <c r="K36">
-        <v>2.4</v>
-      </c>
-      <c r="L36">
-        <v>3.4</v>
-      </c>
-      <c r="M36">
-        <v>2.5</v>
-      </c>
-      <c r="N36">
-        <v>3.25</v>
-      </c>
-      <c r="O36">
-        <v>3.6</v>
-      </c>
-      <c r="P36">
-        <v>1.909</v>
-      </c>
-      <c r="Q36">
-        <v>0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.825</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.825</v>
-      </c>
-      <c r="V36">
-        <v>1.975</v>
-      </c>
-      <c r="W36">
-        <v>2.25</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
         <v>0.825</v>
       </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6097784</v>
+        <v>6100710</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,10 +3746,10 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3761,43 +3761,43 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M37">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N37">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="O37">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W37">
-        <v>0.3999999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3806,16 +3806,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA37">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6100713</v>
+        <v>6580292</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L38">
+        <v>3.75</v>
+      </c>
+      <c r="M38">
         <v>3.6</v>
       </c>
-      <c r="M38">
-        <v>2.1</v>
-      </c>
       <c r="N38">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
         <v>3.5</v>
       </c>
       <c r="P38">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
+        <v>1.85</v>
+      </c>
+      <c r="S38">
         <v>1.95</v>
-      </c>
-      <c r="S38">
-        <v>1.85</v>
       </c>
       <c r="T38">
         <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6580292</v>
+        <v>6097784</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,13 +3924,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3939,43 +3939,43 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N39">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3984,16 +3984,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4369,10 +4369,10 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6100716</v>
+        <v>6100723</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O45">
         <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.8</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
         <v>1.9</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.9</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>2</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6100723</v>
+        <v>6100716</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N46">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O46">
         <v>3.6</v>
       </c>
       <c r="P46">
+        <v>2.1</v>
+      </c>
+      <c r="Q46">
+        <v>0.25</v>
+      </c>
+      <c r="R46">
+        <v>1.9</v>
+      </c>
+      <c r="S46">
+        <v>1.9</v>
+      </c>
+      <c r="T46">
         <v>2.75</v>
       </c>
-      <c r="Q46">
-        <v>-0.25</v>
-      </c>
-      <c r="R46">
-        <v>2</v>
-      </c>
-      <c r="S46">
+      <c r="U46">
         <v>1.8</v>
       </c>
-      <c r="T46">
-        <v>3</v>
-      </c>
-      <c r="U46">
-        <v>1.9</v>
-      </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>1</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>-0</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>45053.5</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
         <v>44</v>
@@ -4903,7 +4903,7 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5084,7 +5084,7 @@
         <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,7 +5173,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6100727</v>
+        <v>6100725</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5348,73 +5348,73 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L55">
         <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6637792</v>
+        <v>6100727</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,13 +5437,13 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>3</v>
@@ -5452,40 +5452,40 @@
         <v>47</v>
       </c>
       <c r="K56">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N56">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
+        <v>1.925</v>
+      </c>
+      <c r="S56">
         <v>1.875</v>
-      </c>
-      <c r="S56">
-        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5494,16 +5494,16 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6100725</v>
+        <v>6637792</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,73 +5526,73 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>3</v>
       </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M57">
+        <v>4.333</v>
+      </c>
+      <c r="N57">
+        <v>1.65</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.875</v>
+      </c>
+      <c r="S57">
+        <v>1.925</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>1.85</v>
+      </c>
+      <c r="V57">
+        <v>1.95</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
         <v>3</v>
       </c>
-      <c r="N57">
-        <v>2.1</v>
-      </c>
-      <c r="O57">
-        <v>3.2</v>
-      </c>
-      <c r="P57">
-        <v>3</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.9</v>
-      </c>
-      <c r="S57">
-        <v>1.9</v>
-      </c>
-      <c r="T57">
-        <v>2.5</v>
-      </c>
-      <c r="U57">
-        <v>1.975</v>
-      </c>
-      <c r="V57">
-        <v>1.825</v>
-      </c>
-      <c r="W57">
-        <v>1.1</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
       <c r="Z57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5692,7 +5692,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6100732</v>
+        <v>6098268</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5704,28 +5704,28 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N59">
         <v>1.4</v>
@@ -5734,46 +5734,46 @@
         <v>4.5</v>
       </c>
       <c r="P59">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U59">
+        <v>1.85</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X59">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6098268</v>
+        <v>6100732</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,28 +5882,28 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s">
         <v>35</v>
       </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N61">
         <v>1.4</v>
@@ -5912,46 +5912,46 @@
         <v>4.5</v>
       </c>
       <c r="P61">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q61">
         <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
+        <v>1.95</v>
+      </c>
+      <c r="V61">
         <v>1.85</v>
       </c>
-      <c r="V61">
-        <v>1.95</v>
-      </c>
       <c r="W61">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6149,7 +6149,7 @@
         <v>45064.375</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6330,7 +6330,7 @@
         <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6100736</v>
+        <v>6100734</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6505,46 +6505,46 @@
         <v>45067.375</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L68">
         <v>3.75</v>
       </c>
       <c r="M68">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2.75</v>
@@ -6556,25 +6556,25 @@
         <v>2.025</v>
       </c>
       <c r="W68">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6100734</v>
+        <v>6100736</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6594,46 +6594,46 @@
         <v>45067.375</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L69">
         <v>3.75</v>
       </c>
       <c r="M69">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N69">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T69">
         <v>2.75</v>
@@ -6645,25 +6645,25 @@
         <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA69">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6100436</v>
+        <v>6100735</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,56 +6683,56 @@
         <v>45067.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L70">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N70">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
         <v>1.95</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="T70">
-        <v>3.25</v>
-      </c>
-      <c r="U70">
-        <v>2</v>
-      </c>
-      <c r="V70">
-        <v>1.8</v>
-      </c>
       <c r="W70">
         <v>-1</v>
       </c>
@@ -6740,19 +6740,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6100735</v>
+        <v>6100436</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,56 +6772,56 @@
         <v>45067.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
       <c r="K71">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N71">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q71">
         <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S71">
+        <v>1.85</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
         <v>1.8</v>
       </c>
-      <c r="T71">
-        <v>3</v>
-      </c>
-      <c r="U71">
-        <v>1.95</v>
-      </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
@@ -6829,19 +6829,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.8</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>45067.5</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>41</v>
@@ -6950,7 +6950,7 @@
         <v>45069.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>31</v>
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6694497</v>
+        <v>6100743</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,40 +7217,40 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="L76">
         <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N76">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O76">
         <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q76">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
         <v>1.825</v>
@@ -7259,34 +7259,34 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6097787</v>
+        <v>6694497</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="L77">
+        <v>3.5</v>
+      </c>
+      <c r="M77">
+        <v>2.15</v>
+      </c>
+      <c r="N77">
+        <v>3.2</v>
+      </c>
+      <c r="O77">
         <v>3.6</v>
       </c>
-      <c r="M77">
-        <v>3.75</v>
-      </c>
-      <c r="N77">
-        <v>2.3</v>
-      </c>
-      <c r="O77">
-        <v>3.4</v>
-      </c>
       <c r="P77">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA77">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6100743</v>
+        <v>6097787</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,55 +7395,55 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6100484</v>
+        <v>6100748</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,40 +7929,40 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N84">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
         <v>1.85</v>
@@ -7971,34 +7971,34 @@
         <v>1.95</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC84">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6100748</v>
+        <v>6100484</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,40 +8018,40 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>47</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3.6</v>
+      </c>
+      <c r="M85">
         <v>3</v>
       </c>
-      <c r="I85">
+      <c r="N85">
+        <v>2.45</v>
+      </c>
+      <c r="O85">
+        <v>3.5</v>
+      </c>
+      <c r="P85">
+        <v>2.55</v>
+      </c>
+      <c r="Q85">
         <v>0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85">
-        <v>1.8</v>
-      </c>
-      <c r="L85">
-        <v>3.75</v>
-      </c>
-      <c r="M85">
-        <v>3.4</v>
-      </c>
-      <c r="N85">
-        <v>1.65</v>
-      </c>
-      <c r="O85">
-        <v>3.8</v>
-      </c>
-      <c r="P85">
-        <v>4</v>
-      </c>
-      <c r="Q85">
-        <v>-0.75</v>
       </c>
       <c r="R85">
         <v>1.85</v>
@@ -8060,34 +8060,34 @@
         <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8107,7 +8107,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>32</v>
@@ -8285,10 +8285,10 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" t="s">
         <v>38</v>
-      </c>
-      <c r="G88" t="s">
-        <v>39</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6100751</v>
+        <v>6097789</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,58 +8552,58 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N91">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W91">
-        <v>0.5329999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8612,16 +8612,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6097789</v>
+        <v>6100751</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,58 +8641,58 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>46</v>
       </c>
       <c r="K92">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M92">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N92">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P92">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8701,16 +8701,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC92">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>45088.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>41</v>
@@ -8997,7 +8997,7 @@
         <v>45088.5</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -9089,7 +9089,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9267,7 +9267,7 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9620,10 +9620,10 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F103" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" t="s">
         <v>36</v>
-      </c>
-      <c r="G103" t="s">
-        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9875,7 +9875,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6100507</v>
+        <v>6100762</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9887,10 +9887,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9902,40 +9902,40 @@
         <v>48</v>
       </c>
       <c r="K106">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
         <v>3.4</v>
       </c>
       <c r="M106">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N106">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O106">
         <v>3.5</v>
       </c>
       <c r="P106">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
+        <v>1.875</v>
+      </c>
+      <c r="S106">
+        <v>1.925</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
         <v>1.975</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.825</v>
-      </c>
-      <c r="T106">
-        <v>3.25</v>
-      </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
-      <c r="V106">
-        <v>1.85</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9947,16 +9947,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6100762</v>
+        <v>6100507</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,10 +9976,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9991,40 +9991,40 @@
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L107">
         <v>3.4</v>
       </c>
       <c r="M107">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O107">
         <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10036,16 +10036,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10068,7 +10068,7 @@
         <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10157,7 +10157,7 @@
         <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10424,7 +10424,7 @@
         <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10688,7 +10688,7 @@
         <v>45136.375</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
         <v>43</v>
@@ -10955,7 +10955,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
         <v>29</v>
@@ -11133,7 +11133,7 @@
         <v>45137.5</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
         <v>30</v>
@@ -11299,7 +11299,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6100772</v>
+        <v>6100773</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,46 +11311,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L122">
         <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N122">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T122">
         <v>2.75</v>
@@ -11362,25 +11362,25 @@
         <v>2</v>
       </c>
       <c r="W122">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6100773</v>
+        <v>6100772</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,46 +11400,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
         <v>3.6</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
         <v>2.75</v>
@@ -11451,25 +11451,25 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11578,10 +11578,10 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F125" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" t="s">
         <v>39</v>
-      </c>
-      <c r="G125" t="s">
-        <v>38</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11845,7 +11845,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -12026,7 +12026,7 @@
         <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7048209</v>
+        <v>6100512</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,76 +12112,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N131">
         <v>2.5</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
         <v>0</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6100778</v>
+        <v>7048209</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12201,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N132">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6100512</v>
+        <v>6100778</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,40 +12290,40 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
         <v>3.75</v>
       </c>
       <c r="N133">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
         <v>2</v>
@@ -12332,31 +12332,31 @@
         <v>1.8</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6100776</v>
+        <v>6100777</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,76 +12379,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H134">
+        <v>7</v>
+      </c>
+      <c r="I134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>2</v>
-      </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N134">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12456,7 +12456,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6100777</v>
+        <v>6100776</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,76 +12468,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N135">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
         <v>3</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12545,7 +12545,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6100513</v>
+        <v>6100775</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12557,76 +12557,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N136">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P136">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6100775</v>
+        <v>6100513</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12646,76 +12646,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
         <v>0</v>
       </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K137">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L137">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N137">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O137">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P137">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12735,7 +12735,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>32</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6097795</v>
+        <v>7084665</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,76 +12913,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.8</v>
+      </c>
+      <c r="AB140">
+        <v>0.475</v>
+      </c>
+      <c r="AC140">
         <v>-0.5</v>
-      </c>
-      <c r="AA140">
-        <v>0.4875</v>
-      </c>
-      <c r="AB140">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6100779</v>
+        <v>6097795</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,61 +13091,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N142">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
         <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13154,10 +13154,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13168,7 +13168,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7084665</v>
+        <v>6100779</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13180,49 +13180,49 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L143">
         <v>3.6</v>
       </c>
       <c r="M143">
+        <v>2.7</v>
+      </c>
+      <c r="N143">
+        <v>2.05</v>
+      </c>
+      <c r="O143">
+        <v>3.8</v>
+      </c>
+      <c r="P143">
         <v>2.9</v>
       </c>
-      <c r="N143">
-        <v>2.6</v>
-      </c>
-      <c r="O143">
-        <v>3.5</v>
-      </c>
-      <c r="P143">
-        <v>2.375</v>
-      </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
         <v>1.95</v>
@@ -13234,22 +13234,22 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y143">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AB143">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>45158.5</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7115552</v>
+        <v>6097796</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13447,76 +13447,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N146">
+        <v>2.2</v>
+      </c>
+      <c r="O146">
         <v>3.75</v>
       </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
       <c r="P146">
+        <v>2.625</v>
+      </c>
+      <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
         <v>1.8</v>
-      </c>
-      <c r="Q146">
-        <v>0.5</v>
-      </c>
-      <c r="R146">
-        <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.85</v>
       </c>
       <c r="T146">
         <v>3</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6097796</v>
+        <v>7115552</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,76 +13536,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
         <v>3</v>
       </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
         <v>3</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13717,7 +13717,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13981,7 +13981,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>40</v>
@@ -14073,7 +14073,7 @@
         <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6097797</v>
+        <v>6100800</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,61 +14159,61 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K154">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L154">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M154">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N154">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O154">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P154">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q154">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T154">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14222,13 +14222,13 @@
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6100800</v>
+        <v>6097797</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,61 +14337,61 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M156">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N156">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="O156">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P156">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R156">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
@@ -14400,13 +14400,13 @@
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,7 +14429,7 @@
         <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -14607,7 +14607,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14693,7 +14693,7 @@
         <v>45172.39583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>42</v>
@@ -14859,7 +14859,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6097798</v>
+        <v>6100808</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14871,76 +14871,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L162">
+        <v>3.8</v>
+      </c>
+      <c r="M162">
+        <v>1.8</v>
+      </c>
+      <c r="N162">
+        <v>6</v>
+      </c>
+      <c r="O162">
+        <v>4.75</v>
+      </c>
+      <c r="P162">
+        <v>1.363</v>
+      </c>
+      <c r="Q162">
+        <v>1.25</v>
+      </c>
+      <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>3.25</v>
+      </c>
+      <c r="U162">
+        <v>1.975</v>
+      </c>
+      <c r="V162">
+        <v>1.825</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>3.75</v>
       </c>
-      <c r="M162">
-        <v>4</v>
-      </c>
-      <c r="N162">
-        <v>2.05</v>
-      </c>
-      <c r="O162">
-        <v>3.6</v>
-      </c>
-      <c r="P162">
-        <v>2.9</v>
-      </c>
-      <c r="Q162">
-        <v>-0.25</v>
-      </c>
-      <c r="R162">
-        <v>1.85</v>
-      </c>
-      <c r="S162">
-        <v>1.95</v>
-      </c>
-      <c r="T162">
-        <v>2.75</v>
-      </c>
-      <c r="U162">
-        <v>1.775</v>
-      </c>
-      <c r="V162">
-        <v>2.025</v>
-      </c>
-      <c r="W162">
-        <v>1.05</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14948,7 +14948,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6100808</v>
+        <v>6100805</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14960,76 +14960,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K163">
+        <v>3.1</v>
+      </c>
+      <c r="L163">
         <v>3.4</v>
       </c>
-      <c r="L163">
-        <v>3.8</v>
-      </c>
       <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>3.4</v>
+      </c>
+      <c r="O163">
+        <v>3.4</v>
+      </c>
+      <c r="P163">
+        <v>1.909</v>
+      </c>
+      <c r="Q163">
+        <v>0.5</v>
+      </c>
+      <c r="R163">
         <v>1.8</v>
       </c>
-      <c r="N163">
-        <v>6</v>
-      </c>
-      <c r="O163">
-        <v>4.75</v>
-      </c>
-      <c r="P163">
-        <v>1.363</v>
-      </c>
-      <c r="Q163">
-        <v>1.25</v>
-      </c>
-      <c r="R163">
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>2.75</v>
+      </c>
+      <c r="U163">
         <v>1.95</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.85</v>
       </c>
-      <c r="T163">
-        <v>3.25</v>
-      </c>
-      <c r="U163">
-        <v>1.975</v>
-      </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15037,7 +15037,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6100805</v>
+        <v>6097798</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15049,73 +15049,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
         <v>1</v>
       </c>
-      <c r="I164">
-        <v>2</v>
-      </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K164">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N164">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P164">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q164">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
         <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC164">
         <v>-0.5</v>
@@ -15316,7 +15316,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>37</v>
@@ -15408,7 +15408,7 @@
         <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15494,7 +15494,7 @@
         <v>45179.5</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
         <v>43</v>
@@ -15571,7 +15571,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7202023</v>
+        <v>6100521</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15583,76 +15583,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L170">
         <v>3.5</v>
       </c>
       <c r="M170">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O170">
+        <v>3.3</v>
+      </c>
+      <c r="P170">
         <v>3.6</v>
       </c>
-      <c r="P170">
-        <v>3.4</v>
-      </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
+        <v>2</v>
+      </c>
+      <c r="V170">
         <v>1.8</v>
       </c>
-      <c r="T170">
-        <v>3</v>
-      </c>
-      <c r="U170">
-        <v>1.9</v>
-      </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X170">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.8</v>
-      </c>
-      <c r="AB170">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15660,7 +15660,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6100811</v>
+        <v>7202023</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15672,61 +15672,61 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K171">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L171">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N171">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O171">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q171">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U171">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y171">
         <v>-1</v>
@@ -15735,13 +15735,13 @@
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15749,7 +15749,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6100521</v>
+        <v>6100811</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15761,10 +15761,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15776,43 +15776,43 @@
         <v>46</v>
       </c>
       <c r="K172">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L172">
+        <v>4.75</v>
+      </c>
+      <c r="M172">
+        <v>6</v>
+      </c>
+      <c r="N172">
+        <v>1.363</v>
+      </c>
+      <c r="O172">
+        <v>5.25</v>
+      </c>
+      <c r="P172">
+        <v>5.5</v>
+      </c>
+      <c r="Q172">
+        <v>-1.5</v>
+      </c>
+      <c r="R172">
+        <v>1.925</v>
+      </c>
+      <c r="S172">
+        <v>1.875</v>
+      </c>
+      <c r="T172">
         <v>3.5</v>
       </c>
-      <c r="M172">
-        <v>3.4</v>
-      </c>
-      <c r="N172">
-        <v>1.85</v>
-      </c>
-      <c r="O172">
-        <v>3.3</v>
-      </c>
-      <c r="P172">
-        <v>3.6</v>
-      </c>
-      <c r="Q172">
-        <v>-0.25</v>
-      </c>
-      <c r="R172">
+      <c r="U172">
         <v>1.825</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.975</v>
       </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
-      <c r="U172">
-        <v>2</v>
-      </c>
-      <c r="V172">
-        <v>1.8</v>
-      </c>
       <c r="W172">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15821,16 +15821,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15850,10 +15850,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16120,7 +16120,7 @@
         <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16372,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6098265</v>
+        <v>7237972</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,76 +16384,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K179">
+        <v>2.45</v>
+      </c>
+      <c r="L179">
+        <v>3.5</v>
+      </c>
+      <c r="M179">
+        <v>2.375</v>
+      </c>
+      <c r="N179">
+        <v>2.875</v>
+      </c>
+      <c r="O179">
+        <v>3.8</v>
+      </c>
+      <c r="P179">
+        <v>2.05</v>
+      </c>
+      <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
         <v>1.8</v>
-      </c>
-      <c r="L179">
-        <v>3.6</v>
-      </c>
-      <c r="M179">
-        <v>3.5</v>
-      </c>
-      <c r="N179">
-        <v>2.15</v>
-      </c>
-      <c r="O179">
-        <v>3.6</v>
-      </c>
-      <c r="P179">
-        <v>2.7</v>
-      </c>
-      <c r="Q179">
-        <v>-0.25</v>
-      </c>
-      <c r="R179">
-        <v>1.975</v>
-      </c>
-      <c r="S179">
-        <v>1.825</v>
       </c>
       <c r="T179">
         <v>3.25</v>
       </c>
       <c r="U179">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V179">
+        <v>1.8</v>
+      </c>
+      <c r="W179">
         <v>1.875</v>
       </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC179">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16550,7 +16550,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7237972</v>
+        <v>6098265</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16562,76 +16562,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L181">
+        <v>3.6</v>
+      </c>
+      <c r="M181">
         <v>3.5</v>
       </c>
-      <c r="M181">
-        <v>2.375</v>
-      </c>
       <c r="N181">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
         <v>3.25</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16651,7 +16651,7 @@
         <v>45193.375</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -16740,10 +16740,10 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16995,7 +16995,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6100821</v>
+        <v>6100523</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17007,55 +17007,55 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L186">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M186">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N186">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17064,19 +17064,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>3.333</v>
+        <v>0.909</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17084,7 +17084,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6100523</v>
+        <v>6100821</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17096,55 +17096,55 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M187">
+        <v>4.75</v>
+      </c>
+      <c r="N187">
+        <v>1.615</v>
+      </c>
+      <c r="O187">
+        <v>4</v>
+      </c>
+      <c r="P187">
+        <v>4.333</v>
+      </c>
+      <c r="Q187">
+        <v>-0.75</v>
+      </c>
+      <c r="R187">
+        <v>1.775</v>
+      </c>
+      <c r="S187">
+        <v>2.025</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
         <v>1.85</v>
       </c>
-      <c r="N187">
-        <v>3.2</v>
-      </c>
-      <c r="O187">
-        <v>3.75</v>
-      </c>
-      <c r="P187">
-        <v>1.909</v>
-      </c>
-      <c r="Q187">
-        <v>0.5</v>
-      </c>
-      <c r="R187">
-        <v>1.825</v>
-      </c>
-      <c r="S187">
-        <v>1.975</v>
-      </c>
-      <c r="T187">
-        <v>3</v>
-      </c>
-      <c r="U187">
-        <v>1.675</v>
-      </c>
       <c r="V187">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17153,19 +17153,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0.909</v>
+        <v>3.333</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17200,25 +17200,25 @@
         <v>46</v>
       </c>
       <c r="K188">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L188">
         <v>3.5</v>
       </c>
       <c r="M188">
+        <v>2.25</v>
+      </c>
+      <c r="N188">
         <v>3</v>
       </c>
-      <c r="N188">
-        <v>1.95</v>
-      </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17227,16 +17227,16 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17254,7 +17254,7 @@
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,25 +17289,25 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L189">
         <v>3.5</v>
       </c>
       <c r="M189">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17316,16 +17316,16 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17343,7 +17343,7 @@
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17719,7 +17719,7 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G194" t="s">
         <v>42</v>
@@ -17900,7 +17900,7 @@
         <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>4</v>
@@ -18342,10 +18342,10 @@
         <v>45207.5</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18609,7 +18609,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18698,7 +18698,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
         <v>33</v>
@@ -18965,7 +18965,7 @@
         <v>45214.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>44</v>
@@ -19057,7 +19057,7 @@
         <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19146,7 +19146,7 @@
         <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -19220,7 +19220,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6100837</v>
+        <v>6100528</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19232,76 +19232,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K211">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L211">
+        <v>4.333</v>
+      </c>
+      <c r="M211">
+        <v>1.475</v>
+      </c>
+      <c r="N211">
+        <v>4.5</v>
+      </c>
+      <c r="O211">
         <v>3.6</v>
       </c>
-      <c r="M211">
-        <v>2.2</v>
-      </c>
-      <c r="N211">
-        <v>2.375</v>
-      </c>
-      <c r="O211">
-        <v>3.75</v>
-      </c>
       <c r="P211">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R211">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19309,7 +19309,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6100528</v>
+        <v>6100837</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19321,76 +19321,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212">
+        <v>3</v>
+      </c>
+      <c r="J212" t="s">
+        <v>47</v>
+      </c>
+      <c r="K212">
+        <v>2.625</v>
+      </c>
+      <c r="L212">
+        <v>3.6</v>
+      </c>
+      <c r="M212">
+        <v>2.2</v>
+      </c>
+      <c r="N212">
+        <v>2.375</v>
+      </c>
+      <c r="O212">
+        <v>3.75</v>
+      </c>
+      <c r="P212">
+        <v>2.3</v>
+      </c>
+      <c r="Q212">
         <v>0</v>
       </c>
-      <c r="J212" t="s">
-        <v>46</v>
-      </c>
-      <c r="K212">
-        <v>4.75</v>
-      </c>
-      <c r="L212">
-        <v>4.333</v>
-      </c>
-      <c r="M212">
-        <v>1.475</v>
-      </c>
-      <c r="N212">
-        <v>4.5</v>
-      </c>
-      <c r="O212">
-        <v>3.6</v>
-      </c>
-      <c r="P212">
-        <v>1.6</v>
-      </c>
-      <c r="Q212">
-        <v>0.75</v>
-      </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7356246</v>
+        <v>6100834</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,76 +19410,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L213">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N213">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O213">
         <v>3.6</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z213">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6100834</v>
+        <v>7356246</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,76 +19499,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K214">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L214">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O214">
         <v>3.6</v>
       </c>
       <c r="P214">
+        <v>3.8</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
         <v>1.85</v>
-      </c>
-      <c r="Q214">
-        <v>0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19588,7 +19588,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
         <v>44</v>
@@ -19769,7 +19769,7 @@
         <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19855,7 +19855,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
         <v>40</v>
@@ -19932,7 +19932,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6100530</v>
+        <v>6100844</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19944,58 +19944,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H219">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
         <v>46</v>
       </c>
       <c r="K219">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L219">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M219">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N219">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O219">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P219">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
         <v>3.25</v>
       </c>
       <c r="U219">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>0.2849999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20004,13 +20004,13 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC219">
         <v>-1</v>
@@ -20021,7 +20021,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6100844</v>
+        <v>6100530</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20033,58 +20033,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H220">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
         <v>46</v>
       </c>
       <c r="K220">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L220">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M220">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N220">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O220">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S220">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T220">
         <v>3.25</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W220">
-        <v>0.7270000000000001</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20093,13 +20093,13 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20211,7 +20211,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
         <v>43</v>
@@ -20481,7 +20481,7 @@
         <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20555,7 +20555,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20567,76 +20567,76 @@
         <v>45234.375</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L226">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N226">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O226">
         <v>4</v>
       </c>
       <c r="P226">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q226">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R226">
+        <v>1.875</v>
+      </c>
+      <c r="S226">
+        <v>1.925</v>
+      </c>
+      <c r="T226">
+        <v>3</v>
+      </c>
+      <c r="U226">
         <v>1.85</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.95</v>
       </c>
-      <c r="T226">
-        <v>3.25</v>
-      </c>
-      <c r="U226">
-        <v>2</v>
-      </c>
-      <c r="V226">
-        <v>1.8</v>
-      </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y226">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA226">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20644,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,76 +20656,76 @@
         <v>45234.375</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G227" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H227">
         <v>1</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M227">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O227">
         <v>4</v>
       </c>
       <c r="P227">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q227">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R227">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U227">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z227">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC227">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20733,7 +20733,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6100847</v>
+        <v>6100848</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20745,76 +20745,76 @@
         <v>45234.5</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
         <v>0</v>
       </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K228">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L228">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M228">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N228">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O228">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P228">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q228">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T228">
         <v>3</v>
       </c>
       <c r="U228">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V228">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA228">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20822,7 +20822,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6100848</v>
+        <v>6100847</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20834,76 +20834,76 @@
         <v>45234.5</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
         <v>1</v>
       </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
       <c r="J229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L229">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M229">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N229">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O229">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P229">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T229">
         <v>3</v>
       </c>
       <c r="U229">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V229">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z229">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20911,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6100853</v>
+        <v>6100852</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20923,73 +20923,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I230">
+        <v>3</v>
+      </c>
+      <c r="J230" t="s">
+        <v>47</v>
+      </c>
+      <c r="K230">
+        <v>2.4</v>
+      </c>
+      <c r="L230">
+        <v>3.6</v>
+      </c>
+      <c r="M230">
+        <v>2.4</v>
+      </c>
+      <c r="N230">
+        <v>2.375</v>
+      </c>
+      <c r="O230">
+        <v>3.8</v>
+      </c>
+      <c r="P230">
+        <v>2.3</v>
+      </c>
+      <c r="Q230">
         <v>0</v>
       </c>
-      <c r="J230" t="s">
-        <v>46</v>
-      </c>
-      <c r="K230">
-        <v>1.5</v>
-      </c>
-      <c r="L230">
-        <v>4</v>
-      </c>
-      <c r="M230">
-        <v>5</v>
-      </c>
-      <c r="N230">
-        <v>1.444</v>
-      </c>
-      <c r="O230">
-        <v>4.2</v>
-      </c>
-      <c r="P230">
-        <v>5.5</v>
-      </c>
-      <c r="Q230">
-        <v>-1.25</v>
-      </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21000,7 +21000,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6100852</v>
+        <v>6100853</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21012,73 +21012,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H231">
+        <v>4</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>46</v>
+      </c>
+      <c r="K231">
+        <v>1.5</v>
+      </c>
+      <c r="L231">
+        <v>4</v>
+      </c>
+      <c r="M231">
+        <v>5</v>
+      </c>
+      <c r="N231">
+        <v>1.444</v>
+      </c>
+      <c r="O231">
+        <v>4.2</v>
+      </c>
+      <c r="P231">
+        <v>5.5</v>
+      </c>
+      <c r="Q231">
+        <v>-1.25</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>1.8</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>1.85</v>
+      </c>
+      <c r="V231">
+        <v>1.95</v>
+      </c>
+      <c r="W231">
+        <v>0.444</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>3</v>
-      </c>
-      <c r="J231" t="s">
-        <v>47</v>
-      </c>
-      <c r="K231">
-        <v>2.4</v>
-      </c>
-      <c r="L231">
-        <v>3.6</v>
-      </c>
-      <c r="M231">
-        <v>2.4</v>
-      </c>
-      <c r="N231">
-        <v>2.375</v>
-      </c>
-      <c r="O231">
-        <v>3.8</v>
-      </c>
-      <c r="P231">
-        <v>2.3</v>
-      </c>
-      <c r="Q231">
-        <v>0</v>
-      </c>
-      <c r="R231">
-        <v>1.925</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>3.25</v>
-      </c>
-      <c r="U231">
-        <v>1.825</v>
-      </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
-      <c r="W231">
-        <v>-1</v>
-      </c>
-      <c r="X231">
-        <v>-1</v>
-      </c>
-      <c r="Y231">
-        <v>1.3</v>
-      </c>
-      <c r="Z231">
-        <v>-1</v>
-      </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21101,10 +21101,10 @@
         <v>45235.5</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21267,7 +21267,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6100860</v>
+        <v>6100861</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21279,76 +21279,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G234" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K234">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L234">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M234">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N234">
-        <v>1.142</v>
+        <v>1.95</v>
       </c>
       <c r="O234">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P234">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="Q234">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S234">
+        <v>1.975</v>
+      </c>
+      <c r="T234">
+        <v>3</v>
+      </c>
+      <c r="U234">
         <v>1.8</v>
       </c>
-      <c r="T234">
-        <v>3.5</v>
-      </c>
-      <c r="U234">
-        <v>1.9</v>
-      </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC234">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21356,7 +21356,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6100861</v>
+        <v>7465140</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21368,49 +21368,49 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F235" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N235">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O235">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P235">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R235">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U235">
         <v>1.8</v>
@@ -21419,25 +21419,25 @@
         <v>2</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA235">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,7 +21445,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7465140</v>
+        <v>6100854</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,76 +21457,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M236">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="N236">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P236">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R236">
+        <v>1.975</v>
+      </c>
+      <c r="S236">
+        <v>1.825</v>
+      </c>
+      <c r="T236">
+        <v>3.25</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
         <v>1.8</v>
       </c>
-      <c r="S236">
-        <v>2</v>
-      </c>
-      <c r="T236">
-        <v>3.5</v>
-      </c>
-      <c r="U236">
-        <v>1.8</v>
-      </c>
-      <c r="V236">
-        <v>2</v>
-      </c>
       <c r="W236">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC236">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21534,7 +21534,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6100859</v>
+        <v>6100855</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,73 +21546,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H237">
+        <v>3</v>
+      </c>
+      <c r="I237">
         <v>1</v>
       </c>
-      <c r="I237">
-        <v>3</v>
-      </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L237">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="M237">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N237">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O237">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="P237">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S237">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T237">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA237">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21623,7 +21623,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6100854</v>
+        <v>6100857</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21635,76 +21635,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G238" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L238">
+        <v>3.75</v>
+      </c>
+      <c r="M238">
+        <v>2.7</v>
+      </c>
+      <c r="N238">
+        <v>1.533</v>
+      </c>
+      <c r="O238">
+        <v>4.5</v>
+      </c>
+      <c r="P238">
         <v>4.333</v>
       </c>
-      <c r="M238">
-        <v>1.4</v>
-      </c>
-      <c r="N238">
-        <v>6.5</v>
-      </c>
-      <c r="O238">
-        <v>5.25</v>
-      </c>
-      <c r="P238">
-        <v>1.3</v>
-      </c>
       <c r="Q238">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
         <v>1.975</v>
-      </c>
-      <c r="S238">
-        <v>1.825</v>
       </c>
       <c r="T238">
         <v>3.25</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
+        <v>-1</v>
+      </c>
+      <c r="AB238">
         <v>0.825</v>
       </c>
-      <c r="AB238">
-        <v>-0.5</v>
-      </c>
       <c r="AC238">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21724,7 +21724,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
         <v>42</v>
@@ -21801,7 +21801,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6100857</v>
+        <v>6100859</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21813,73 +21813,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
         <v>3</v>
       </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L240">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M240">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N240">
-        <v>1.533</v>
+        <v>2.05</v>
       </c>
       <c r="O240">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P240">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T240">
         <v>3.25</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W240">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z240">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21890,7 +21890,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6100855</v>
+        <v>6100860</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21902,58 +21902,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>46</v>
       </c>
       <c r="K241">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="L241">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="M241">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N241">
-        <v>2.45</v>
+        <v>1.142</v>
       </c>
       <c r="O241">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="P241">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U241">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>1.45</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21962,16 +21962,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB241">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -118,22 +118,22 @@
     <t>rebro Syrianska IF</t>
   </si>
   <si>
-    <t>Nordic United FC</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
     <t>Tby FK</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Nordic United FC</t>
   </si>
   <si>
     <t>Sollentuna United FF</t>
   </si>
   <si>
-    <t>Pite IF</t>
+    <t>Sandvikens IF</t>
   </si>
   <si>
-    <t>Sandvikens IF</t>
+    <t>Pite IF</t>
   </si>
   <si>
     <t>Hammarby TFF</t>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6469897</v>
+        <v>6097780</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
         <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O7">
         <v>3.6</v>
       </c>
       <c r="P7">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6097780</v>
+        <v>6469897</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,73 +1257,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L9">
         <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>3.6</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6100696</v>
+        <v>6100697</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,73 +1435,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L11">
         <v>3.75</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="V11">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.675</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6100697</v>
+        <v>6100696</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,73 +1524,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
         <v>3.75</v>
       </c>
       <c r="M12">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1791,7 +1791,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100699</v>
+        <v>6100703</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,76 +2233,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6100703</v>
+        <v>6100699</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,76 +2322,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L21">
+        <v>3.8</v>
+      </c>
+      <c r="M21">
+        <v>1.666</v>
+      </c>
+      <c r="N21">
         <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>2.8</v>
-      </c>
-      <c r="N21">
-        <v>2.1</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6100698</v>
+        <v>6100578</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,55 +2500,55 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>2.8</v>
+      </c>
+      <c r="N23">
+        <v>1.95</v>
+      </c>
+      <c r="O23">
         <v>3.5</v>
       </c>
-      <c r="M23">
-        <v>2.7</v>
-      </c>
-      <c r="N23">
-        <v>2.15</v>
-      </c>
-      <c r="O23">
-        <v>3.4</v>
-      </c>
       <c r="P23">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
         <v>-1</v>
@@ -2557,19 +2557,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6100578</v>
+        <v>6100698</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,76 +2589,76 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
+        <v>2.2</v>
+      </c>
+      <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>2.7</v>
+      </c>
+      <c r="N24">
         <v>2.15</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>3.4</v>
       </c>
-      <c r="M24">
-        <v>2.8</v>
-      </c>
-      <c r="N24">
+      <c r="P24">
+        <v>2.875</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
         <v>1.95</v>
-      </c>
-      <c r="O24">
-        <v>3.5</v>
-      </c>
-      <c r="P24">
-        <v>3.2</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.975</v>
-      </c>
-      <c r="S24">
-        <v>1.825</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V24">
+        <v>1.8</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>1.875</v>
       </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>2.2</v>
-      </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6552840</v>
+        <v>6100709</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,49 +2945,49 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
         <v>3.8</v>
       </c>
-      <c r="M28">
+      <c r="N28">
+        <v>1.65</v>
+      </c>
+      <c r="O28">
         <v>4</v>
       </c>
-      <c r="N28">
-        <v>1.6</v>
-      </c>
-      <c r="O28">
+      <c r="P28">
         <v>3.8</v>
-      </c>
-      <c r="P28">
-        <v>4.2</v>
       </c>
       <c r="Q28">
         <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
         <v>2</v>
@@ -3002,19 +3002,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6097783</v>
+        <v>6552840</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,13 +3123,13 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -3138,31 +3138,31 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q30">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>3</v>
@@ -3180,19 +3180,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6100709</v>
+        <v>6097783</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,49 +3212,49 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>47</v>
       </c>
       <c r="K31">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="L31">
+        <v>3.4</v>
+      </c>
+      <c r="M31">
+        <v>1.95</v>
+      </c>
+      <c r="N31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>3.8</v>
-      </c>
-      <c r="N31">
-        <v>1.65</v>
-      </c>
       <c r="O31">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U31">
         <v>2</v>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3301,10 +3301,10 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6100713</v>
+        <v>6580292</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3568,76 +3568,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L35">
+        <v>3.75</v>
+      </c>
+      <c r="M35">
         <v>3.6</v>
       </c>
-      <c r="M35">
-        <v>2.1</v>
-      </c>
       <c r="N35">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O35">
         <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
         <v>1.95</v>
-      </c>
-      <c r="S35">
-        <v>1.85</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6100711</v>
+        <v>6097784</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,76 +3657,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N36">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P36">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>-0.5</v>
+      </c>
+      <c r="AA36">
+        <v>0.4625</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>1</v>
-      </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
-      <c r="AA36">
-        <v>0.825</v>
-      </c>
-      <c r="AB36">
-        <v>0.925</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6580292</v>
+        <v>6100711</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
         <v>3.75</v>
       </c>
       <c r="M38">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6097784</v>
+        <v>6100713</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,76 +3924,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M39">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N39">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4369,10 +4369,10 @@
         <v>45052.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6100723</v>
+        <v>6100716</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O45">
         <v>3.6</v>
       </c>
       <c r="P45">
+        <v>2.1</v>
+      </c>
+      <c r="Q45">
+        <v>0.25</v>
+      </c>
+      <c r="R45">
+        <v>1.9</v>
+      </c>
+      <c r="S45">
+        <v>1.9</v>
+      </c>
+      <c r="T45">
         <v>2.75</v>
       </c>
-      <c r="Q45">
-        <v>-0.25</v>
-      </c>
-      <c r="R45">
-        <v>2</v>
-      </c>
-      <c r="S45">
+      <c r="U45">
         <v>1.8</v>
       </c>
-      <c r="T45">
-        <v>3</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>1</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6100716</v>
+        <v>6100723</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
         <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1.8</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
         <v>1.9</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.9</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.8</v>
-      </c>
-      <c r="V46">
-        <v>2</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>45053.5</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
         <v>44</v>
@@ -5084,7 +5084,7 @@
         <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5173,7 +5173,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5692,7 +5692,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6098268</v>
+        <v>6100732</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5704,28 +5704,28 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N59">
         <v>1.4</v>
@@ -5734,46 +5734,46 @@
         <v>4.5</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q59">
         <v>-1.25</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
         <v>1.85</v>
       </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6100732</v>
+        <v>6098268</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,28 +5882,28 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N61">
         <v>1.4</v>
@@ -5912,46 +5912,46 @@
         <v>4.5</v>
       </c>
       <c r="P61">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q61">
         <v>-1.25</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U61">
+        <v>1.85</v>
+      </c>
+      <c r="V61">
         <v>1.95</v>
       </c>
-      <c r="V61">
-        <v>1.85</v>
-      </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X61">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>45064.375</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6327,10 +6327,10 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
         <v>34</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6100734</v>
+        <v>6100736</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6505,46 +6505,46 @@
         <v>45067.375</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <v>3.75</v>
       </c>
       <c r="M68">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N68">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P68">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T68">
         <v>2.75</v>
@@ -6556,25 +6556,25 @@
         <v>2.025</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6100736</v>
+        <v>6100734</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6594,46 +6594,46 @@
         <v>45067.375</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
         <v>3.75</v>
       </c>
       <c r="M69">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N69">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O69">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
         <v>2.75</v>
@@ -6645,25 +6645,25 @@
         <v>2.025</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z69">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC69">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>45067.5</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>41</v>
@@ -7039,7 +7039,7 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6100743</v>
+        <v>6694497</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,40 +7217,40 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="L76">
         <v>3.5</v>
       </c>
       <c r="M76">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N76">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O76">
         <v>3.6</v>
       </c>
       <c r="P76">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q76">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
         <v>1.825</v>
@@ -7259,34 +7259,34 @@
         <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
+        <v>-1</v>
+      </c>
+      <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB76">
-        <v>-1</v>
-      </c>
-      <c r="AC76">
-        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6694497</v>
+        <v>6097787</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77">
+        <v>1.75</v>
+      </c>
+      <c r="L77">
+        <v>3.6</v>
+      </c>
+      <c r="M77">
+        <v>3.75</v>
+      </c>
+      <c r="N77">
+        <v>2.3</v>
+      </c>
+      <c r="O77">
+        <v>3.4</v>
+      </c>
+      <c r="P77">
+        <v>2.6</v>
+      </c>
+      <c r="Q77">
         <v>0</v>
       </c>
-      <c r="J77" t="s">
-        <v>46</v>
-      </c>
-      <c r="K77">
-        <v>2.7</v>
-      </c>
-      <c r="L77">
-        <v>3.5</v>
-      </c>
-      <c r="M77">
-        <v>2.15</v>
-      </c>
-      <c r="N77">
-        <v>3.2</v>
-      </c>
-      <c r="O77">
-        <v>3.6</v>
-      </c>
-      <c r="P77">
-        <v>1.909</v>
-      </c>
-      <c r="Q77">
-        <v>0.5</v>
-      </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6097787</v>
+        <v>6100743</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,55 +7395,55 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L78">
+        <v>3.5</v>
+      </c>
+      <c r="M78">
+        <v>2.45</v>
+      </c>
+      <c r="N78">
+        <v>2.8</v>
+      </c>
+      <c r="O78">
         <v>3.6</v>
       </c>
-      <c r="M78">
-        <v>3.75</v>
-      </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>3.4</v>
-      </c>
       <c r="P78">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8285,10 +8285,10 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F88" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" t="s">
         <v>39</v>
-      </c>
-      <c r="G88" t="s">
-        <v>38</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6097789</v>
+        <v>6100753</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
+        <v>2.3</v>
+      </c>
+      <c r="N91">
+        <v>3.2</v>
+      </c>
+      <c r="O91">
         <v>3.4</v>
       </c>
-      <c r="N91">
-        <v>1.666</v>
-      </c>
-      <c r="O91">
-        <v>4</v>
-      </c>
       <c r="P91">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q91">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8641,7 +8641,7 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6100753</v>
+        <v>6097789</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L93">
+        <v>3.75</v>
+      </c>
+      <c r="M93">
         <v>3.4</v>
       </c>
-      <c r="M93">
-        <v>2.3</v>
-      </c>
       <c r="N93">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8908,7 +8908,7 @@
         <v>45088.4375</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
         <v>41</v>
@@ -8997,7 +8997,7 @@
         <v>45088.5</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -9267,7 +9267,7 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9531,7 +9531,7 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9623,7 +9623,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,46 +9709,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L104">
         <v>3.6</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>2.75</v>
@@ -9763,22 +9763,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y104">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,46 +9798,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L105">
         <v>3.6</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N105">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P105">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T105">
         <v>2.75</v>
@@ -9852,22 +9852,22 @@
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9890,7 +9890,7 @@
         <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9979,7 +9979,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10157,7 +10157,7 @@
         <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10409,7 +10409,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6800952</v>
+        <v>6100763</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10421,76 +10421,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
+        <v>2.7</v>
+      </c>
+      <c r="N112">
+        <v>2.75</v>
+      </c>
+      <c r="O112">
+        <v>3.5</v>
+      </c>
+      <c r="P112">
+        <v>2.2</v>
+      </c>
+      <c r="Q112">
+        <v>0.25</v>
+      </c>
+      <c r="R112">
         <v>1.8</v>
       </c>
-      <c r="N112">
-        <v>3.3</v>
-      </c>
-      <c r="O112">
-        <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>1.909</v>
-      </c>
-      <c r="Q112">
-        <v>0.5</v>
-      </c>
-      <c r="R112">
-        <v>1.85</v>
-      </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB112">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10498,7 +10498,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6100763</v>
+        <v>6800952</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10510,76 +10510,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N113">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
         <v>0.4</v>
       </c>
-      <c r="AA113">
+      <c r="AC113">
         <v>-0.5</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
-      <c r="AC113">
-        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10688,7 +10688,7 @@
         <v>45136.375</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
         <v>43</v>
@@ -10777,7 +10777,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -11133,7 +11133,7 @@
         <v>45137.5</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
         <v>30</v>
@@ -11299,7 +11299,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6100773</v>
+        <v>6100772</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,46 +11311,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>2</v>
-      </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L122">
         <v>3.6</v>
       </c>
       <c r="M122">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N122">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
         <v>2.75</v>
@@ -11362,25 +11362,25 @@
         <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6100772</v>
+        <v>6100773</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,46 +11400,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L123">
         <v>3.6</v>
       </c>
       <c r="M123">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N123">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T123">
         <v>2.75</v>
@@ -11451,25 +11451,25 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7018646</v>
+        <v>6100771</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,40 +11489,40 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>5</v>
+      </c>
+      <c r="J124" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124">
+        <v>3.5</v>
+      </c>
+      <c r="L124">
         <v>4</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c r="J124" t="s">
-        <v>46</v>
-      </c>
-      <c r="K124">
+      <c r="M124">
         <v>1.727</v>
       </c>
-      <c r="L124">
-        <v>3.75</v>
-      </c>
-      <c r="M124">
-        <v>3.75</v>
-      </c>
       <c r="N124">
+        <v>4.5</v>
+      </c>
+      <c r="O124">
+        <v>4.75</v>
+      </c>
+      <c r="P124">
         <v>1.45</v>
       </c>
-      <c r="O124">
-        <v>4.2</v>
-      </c>
-      <c r="P124">
-        <v>5</v>
-      </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R124">
         <v>1.8</v>
@@ -11531,7 +11531,7 @@
         <v>2</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
         <v>1.925</v>
@@ -11540,19 +11540,19 @@
         <v>1.875</v>
       </c>
       <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
         <v>0.45</v>
       </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
       <c r="Z124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB124">
         <v>0.925</v>
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6100771</v>
+        <v>7018646</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,40 +11578,40 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125">
         <v>1</v>
       </c>
-      <c r="I125">
+      <c r="J125" t="s">
+        <v>46</v>
+      </c>
+      <c r="K125">
+        <v>1.727</v>
+      </c>
+      <c r="L125">
+        <v>3.75</v>
+      </c>
+      <c r="M125">
+        <v>3.75</v>
+      </c>
+      <c r="N125">
+        <v>1.45</v>
+      </c>
+      <c r="O125">
+        <v>4.2</v>
+      </c>
+      <c r="P125">
         <v>5</v>
       </c>
-      <c r="J125" t="s">
-        <v>47</v>
-      </c>
-      <c r="K125">
-        <v>3.5</v>
-      </c>
-      <c r="L125">
-        <v>4</v>
-      </c>
-      <c r="M125">
-        <v>1.727</v>
-      </c>
-      <c r="N125">
-        <v>4.5</v>
-      </c>
-      <c r="O125">
-        <v>4.75</v>
-      </c>
-      <c r="P125">
-        <v>1.45</v>
-      </c>
       <c r="Q125">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R125">
         <v>1.8</v>
@@ -11620,7 +11620,7 @@
         <v>2</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U125">
         <v>1.925</v>
@@ -11629,19 +11629,19 @@
         <v>1.875</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>0.925</v>
@@ -11655,7 +11655,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6100770</v>
+        <v>6100511</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11667,76 +11667,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>47</v>
       </c>
       <c r="K126">
+        <v>1.666</v>
+      </c>
+      <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>3.75</v>
+      </c>
+      <c r="N126">
+        <v>1.65</v>
+      </c>
+      <c r="O126">
+        <v>3.8</v>
+      </c>
+      <c r="P126">
+        <v>4</v>
+      </c>
+      <c r="Q126">
+        <v>-0.75</v>
+      </c>
+      <c r="R126">
+        <v>1.875</v>
+      </c>
+      <c r="S126">
+        <v>1.925</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
+        <v>1.8</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
         <v>3</v>
       </c>
-      <c r="L126">
-        <v>3.75</v>
-      </c>
-      <c r="M126">
-        <v>1.952</v>
-      </c>
-      <c r="N126">
-        <v>2.8</v>
-      </c>
-      <c r="O126">
-        <v>4</v>
-      </c>
-      <c r="P126">
-        <v>2</v>
-      </c>
-      <c r="Q126">
-        <v>0.25</v>
-      </c>
-      <c r="R126">
-        <v>1.975</v>
-      </c>
-      <c r="S126">
-        <v>1.825</v>
-      </c>
-      <c r="T126">
-        <v>3.25</v>
-      </c>
-      <c r="U126">
-        <v>1.875</v>
-      </c>
-      <c r="V126">
-        <v>1.925</v>
-      </c>
-      <c r="W126">
-        <v>-1</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>1</v>
-      </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11744,7 +11744,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6100511</v>
+        <v>6100770</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11756,56 +11756,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L127">
+        <v>3.75</v>
+      </c>
+      <c r="M127">
+        <v>1.952</v>
+      </c>
+      <c r="N127">
+        <v>2.8</v>
+      </c>
+      <c r="O127">
         <v>4</v>
       </c>
-      <c r="M127">
-        <v>3.75</v>
-      </c>
-      <c r="N127">
-        <v>1.65</v>
-      </c>
-      <c r="O127">
-        <v>3.8</v>
-      </c>
       <c r="P127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
+        <v>1.975</v>
+      </c>
+      <c r="S127">
+        <v>1.825</v>
+      </c>
+      <c r="T127">
+        <v>3.25</v>
+      </c>
+      <c r="U127">
         <v>1.875</v>
       </c>
-      <c r="S127">
+      <c r="V127">
         <v>1.925</v>
       </c>
-      <c r="T127">
-        <v>2.75</v>
-      </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
-      <c r="V127">
-        <v>1.8</v>
-      </c>
       <c r="W127">
         <v>-1</v>
       </c>
@@ -11813,19 +11813,19 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -11937,7 +11937,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12011,7 +12011,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6097794</v>
+        <v>6100778</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12023,58 +12023,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>46</v>
       </c>
       <c r="K130">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N130">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12083,16 +12083,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7048209</v>
+        <v>6097794</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12201,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N132">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X132">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6100778</v>
+        <v>7048209</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,76 +12290,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N133">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12545,7 +12545,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6100775</v>
+        <v>6100513</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12557,76 +12557,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>0</v>
       </c>
-      <c r="I136">
-        <v>3</v>
-      </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L136">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N136">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O136">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6100513</v>
+        <v>6100775</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12646,76 +12646,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M137">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N137">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12735,7 +12735,7 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>32</v>
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6100514</v>
+        <v>6100779</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,76 +13002,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N141">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6097795</v>
+        <v>6100514</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,76 +13091,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N142">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
+        <v>0.375</v>
+      </c>
+      <c r="AA142">
         <v>-0.5</v>
       </c>
-      <c r="AA142">
-        <v>0.4875</v>
-      </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13168,7 +13168,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6100779</v>
+        <v>6097795</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13180,61 +13180,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K143">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M143">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N143">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O143">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
         <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X143">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
@@ -13243,10 +13243,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13358,10 +13358,10 @@
         <v>45158.5</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13450,7 +13450,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>3</v>
@@ -13791,7 +13791,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6100784</v>
+        <v>6100796</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13803,76 +13803,76 @@
         <v>45165.375</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K150">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L150">
         <v>3.9</v>
       </c>
       <c r="M150">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N150">
+        <v>3.6</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>1.833</v>
+      </c>
+      <c r="Q150">
+        <v>0.5</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
         <v>3</v>
       </c>
-      <c r="O150">
-        <v>3.5</v>
-      </c>
-      <c r="P150">
-        <v>2.1</v>
-      </c>
-      <c r="Q150">
-        <v>0.25</v>
-      </c>
-      <c r="R150">
-        <v>1.9</v>
-      </c>
-      <c r="S150">
-        <v>1.9</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
       <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="V150">
-        <v>1.85</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13880,7 +13880,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6100796</v>
+        <v>6100784</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13892,76 +13892,76 @@
         <v>45165.375</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
         <v>3</v>
       </c>
-      <c r="I151">
-        <v>2</v>
-      </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L151">
         <v>3.9</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N151">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q151">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>1.9</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
         <v>1.95</v>
       </c>
-      <c r="S151">
+      <c r="V151">
         <v>1.85</v>
       </c>
-      <c r="T151">
-        <v>3</v>
-      </c>
-      <c r="U151">
-        <v>1.85</v>
-      </c>
-      <c r="V151">
-        <v>1.95</v>
-      </c>
       <c r="W151">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>40</v>
@@ -14073,7 +14073,7 @@
         <v>44</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6100800</v>
+        <v>6097797</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,61 +14159,61 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K154">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L154">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M154">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N154">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="O154">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P154">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R154">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X154">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14222,13 +14222,13 @@
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6100519</v>
+        <v>6100800</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,76 +14248,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K155">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L155">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M155">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N155">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O155">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P155">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S155">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T155">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y155">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6097797</v>
+        <v>6100802</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,76 +14337,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K156">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L156">
+        <v>4.75</v>
+      </c>
+      <c r="M156">
+        <v>1.4</v>
+      </c>
+      <c r="N156">
+        <v>5.75</v>
+      </c>
+      <c r="O156">
         <v>5</v>
       </c>
-      <c r="M156">
-        <v>6.5</v>
-      </c>
-      <c r="N156">
+      <c r="P156">
+        <v>1.444</v>
+      </c>
+      <c r="Q156">
         <v>1.25</v>
       </c>
-      <c r="O156">
-        <v>6</v>
-      </c>
-      <c r="P156">
-        <v>8</v>
-      </c>
-      <c r="Q156">
-        <v>-1.75</v>
-      </c>
       <c r="R156">
+        <v>1.95</v>
+      </c>
+      <c r="S156">
         <v>1.85</v>
-      </c>
-      <c r="S156">
-        <v>1.95</v>
       </c>
       <c r="T156">
         <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC156">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100802</v>
+        <v>6100519</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14426,76 +14426,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157" t="s">
+        <v>47</v>
+      </c>
+      <c r="K157">
+        <v>1.85</v>
+      </c>
+      <c r="L157">
+        <v>3.75</v>
+      </c>
+      <c r="M157">
+        <v>3.75</v>
+      </c>
+      <c r="N157">
+        <v>1.75</v>
+      </c>
+      <c r="O157">
         <v>4</v>
       </c>
-      <c r="I157">
-        <v>4</v>
-      </c>
-      <c r="J157" t="s">
-        <v>48</v>
-      </c>
-      <c r="K157">
-        <v>6</v>
-      </c>
-      <c r="L157">
-        <v>4.75</v>
-      </c>
-      <c r="M157">
-        <v>1.4</v>
-      </c>
-      <c r="N157">
-        <v>5.75</v>
-      </c>
-      <c r="O157">
-        <v>5</v>
-      </c>
       <c r="P157">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="Q157">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB157">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14859,7 +14859,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6100808</v>
+        <v>6097798</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14871,76 +14871,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" t="s">
+        <v>46</v>
+      </c>
+      <c r="K162">
+        <v>1.666</v>
+      </c>
+      <c r="L162">
+        <v>3.75</v>
+      </c>
+      <c r="M162">
         <v>4</v>
       </c>
-      <c r="I162">
-        <v>4</v>
-      </c>
-      <c r="J162" t="s">
-        <v>48</v>
-      </c>
-      <c r="K162">
-        <v>3.4</v>
-      </c>
-      <c r="L162">
-        <v>3.8</v>
-      </c>
-      <c r="M162">
-        <v>1.8</v>
-      </c>
       <c r="N162">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O162">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="Q162">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
       <c r="T162">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X162">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15037,7 +15037,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6097798</v>
+        <v>6100808</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15049,76 +15049,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F164" t="s">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
         <v>36</v>
       </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
       <c r="H164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K164">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L164">
+        <v>3.8</v>
+      </c>
+      <c r="M164">
+        <v>1.8</v>
+      </c>
+      <c r="N164">
+        <v>6</v>
+      </c>
+      <c r="O164">
+        <v>4.75</v>
+      </c>
+      <c r="P164">
+        <v>1.363</v>
+      </c>
+      <c r="Q164">
+        <v>1.25</v>
+      </c>
+      <c r="R164">
+        <v>1.95</v>
+      </c>
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
+        <v>3.25</v>
+      </c>
+      <c r="U164">
+        <v>1.975</v>
+      </c>
+      <c r="V164">
+        <v>1.825</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
         <v>3.75</v>
       </c>
-      <c r="M164">
-        <v>4</v>
-      </c>
-      <c r="N164">
-        <v>2.05</v>
-      </c>
-      <c r="O164">
-        <v>3.6</v>
-      </c>
-      <c r="P164">
-        <v>2.9</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>1.85</v>
-      </c>
-      <c r="S164">
-        <v>1.95</v>
-      </c>
-      <c r="T164">
-        <v>2.75</v>
-      </c>
-      <c r="U164">
-        <v>1.775</v>
-      </c>
-      <c r="V164">
-        <v>2.025</v>
-      </c>
-      <c r="W164">
-        <v>1.05</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15215,7 +15215,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6100804</v>
+        <v>6100806</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15227,13 +15227,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15242,25 +15242,25 @@
         <v>46</v>
       </c>
       <c r="K166">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>2.25</v>
+      </c>
+      <c r="N166">
+        <v>2.7</v>
+      </c>
+      <c r="O166">
         <v>3.6</v>
       </c>
-      <c r="M166">
-        <v>3.6</v>
-      </c>
-      <c r="N166">
-        <v>1.615</v>
-      </c>
-      <c r="O166">
-        <v>3.8</v>
-      </c>
       <c r="P166">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
         <v>1.8</v>
@@ -15269,16 +15269,16 @@
         <v>2</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,10 +15293,10 @@
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6100806</v>
+        <v>6100804</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,13 +15316,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15331,25 +15331,25 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N167">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
         <v>1.8</v>
@@ -15358,16 +15358,16 @@
         <v>2</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,10 +15382,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>45179.5</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G169" t="s">
         <v>43</v>
@@ -15660,7 +15660,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7202023</v>
+        <v>6100811</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15672,61 +15672,61 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K171">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="L171">
+        <v>4.75</v>
+      </c>
+      <c r="M171">
+        <v>6</v>
+      </c>
+      <c r="N171">
+        <v>1.363</v>
+      </c>
+      <c r="O171">
+        <v>5.25</v>
+      </c>
+      <c r="P171">
+        <v>5.5</v>
+      </c>
+      <c r="Q171">
+        <v>-1.5</v>
+      </c>
+      <c r="R171">
+        <v>1.925</v>
+      </c>
+      <c r="S171">
+        <v>1.875</v>
+      </c>
+      <c r="T171">
         <v>3.5</v>
       </c>
-      <c r="M171">
-        <v>2.8</v>
-      </c>
-      <c r="N171">
-        <v>2</v>
-      </c>
-      <c r="O171">
-        <v>3.6</v>
-      </c>
-      <c r="P171">
-        <v>3.4</v>
-      </c>
-      <c r="Q171">
-        <v>-0.5</v>
-      </c>
-      <c r="R171">
-        <v>2</v>
-      </c>
-      <c r="S171">
-        <v>1.8</v>
-      </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X171">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
@@ -15735,13 +15735,13 @@
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15749,7 +15749,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6100811</v>
+        <v>7202023</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15761,61 +15761,61 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L172">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N172">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O172">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q172">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T172">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y172">
         <v>-1</v>
@@ -15824,13 +15824,13 @@
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC172">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16117,10 +16117,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>30</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16372,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7237972</v>
+        <v>6100814</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,76 +16384,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N179">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O179">
         <v>3.8</v>
       </c>
       <c r="P179">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16461,7 +16461,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6100814</v>
+        <v>7237972</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16473,76 +16473,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N180">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O180">
         <v>3.8</v>
       </c>
       <c r="P180">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>1.8</v>
+      </c>
+      <c r="W180">
         <v>1.875</v>
       </c>
-      <c r="V180">
-        <v>1.925</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16562,10 +16562,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F181" t="s">
+        <v>34</v>
+      </c>
+      <c r="G181" t="s">
         <v>36</v>
-      </c>
-      <c r="G181" t="s">
-        <v>34</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16651,7 +16651,7 @@
         <v>45193.375</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -16740,7 +16740,7 @@
         <v>45193.39583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
         <v>35</v>
@@ -16817,7 +16817,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6100818</v>
+        <v>6100816</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16829,40 +16829,40 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
         <v>0</v>
       </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K184">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M184">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O184">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R184">
         <v>1.975</v>
@@ -16871,34 +16871,34 @@
         <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16906,7 +16906,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6100816</v>
+        <v>6100818</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16918,40 +16918,40 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
         <v>1</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N185">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="Q185">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
         <v>1.975</v>
@@ -16960,34 +16960,34 @@
         <v>1.825</v>
       </c>
       <c r="T185">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16995,7 +16995,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6100523</v>
+        <v>6100821</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17007,55 +17007,55 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M186">
+        <v>4.75</v>
+      </c>
+      <c r="N186">
+        <v>1.615</v>
+      </c>
+      <c r="O186">
+        <v>4</v>
+      </c>
+      <c r="P186">
+        <v>4.333</v>
+      </c>
+      <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.775</v>
+      </c>
+      <c r="S186">
+        <v>2.025</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
         <v>1.85</v>
       </c>
-      <c r="N186">
-        <v>3.2</v>
-      </c>
-      <c r="O186">
-        <v>3.75</v>
-      </c>
-      <c r="P186">
-        <v>1.909</v>
-      </c>
-      <c r="Q186">
-        <v>0.5</v>
-      </c>
-      <c r="R186">
-        <v>1.825</v>
-      </c>
-      <c r="S186">
-        <v>1.975</v>
-      </c>
-      <c r="T186">
-        <v>3</v>
-      </c>
-      <c r="U186">
-        <v>1.675</v>
-      </c>
       <c r="V186">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -17064,19 +17064,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.909</v>
+        <v>3.333</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17084,7 +17084,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6100821</v>
+        <v>6100523</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17096,55 +17096,55 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L187">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N187">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O187">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P187">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q187">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17153,19 +17153,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>3.333</v>
+        <v>0.909</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17173,7 +17173,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17185,10 +17185,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17200,25 +17200,25 @@
         <v>46</v>
       </c>
       <c r="K188">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L188">
         <v>3.5</v>
       </c>
       <c r="M188">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17227,16 +17227,16 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17254,7 +17254,7 @@
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17262,7 +17262,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17274,10 +17274,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17289,25 +17289,25 @@
         <v>46</v>
       </c>
       <c r="K189">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
         <v>3.5</v>
       </c>
       <c r="M189">
+        <v>2.25</v>
+      </c>
+      <c r="N189">
         <v>3</v>
       </c>
-      <c r="N189">
-        <v>1.95</v>
-      </c>
       <c r="O189">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17316,16 +17316,16 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17343,7 +17343,7 @@
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17455,7 +17455,7 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>30</v>
       </c>
       <c r="G193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17719,7 +17719,7 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
         <v>42</v>
@@ -17974,7 +17974,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7291461</v>
+        <v>6100826</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17986,56 +17986,56 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N197">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
+        <v>1.925</v>
+      </c>
+      <c r="T197">
+        <v>3.25</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
         <v>1.8</v>
       </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.95</v>
-      </c>
-      <c r="V197">
-        <v>1.85</v>
-      </c>
       <c r="W197">
         <v>-1</v>
       </c>
@@ -18043,19 +18043,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
+        <v>0.925</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
         <v>0.8</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
-      </c>
-      <c r="AC197">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18152,7 +18152,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6100826</v>
+        <v>7291461</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18164,76 +18164,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
         <v>47</v>
       </c>
       <c r="K199">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L199">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N199">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="Q199">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
+        <v>1.85</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
         <v>1.8</v>
       </c>
-      <c r="W199">
-        <v>-1</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
-      <c r="Y199">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18342,10 +18342,10 @@
         <v>45207.5</v>
       </c>
       <c r="F201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7338338</v>
+        <v>6097801</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18523,31 +18523,31 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>46</v>
       </c>
       <c r="K203">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M203">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O203">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P203">
         <v>4.75</v>
@@ -18556,22 +18556,22 @@
         <v>-1</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T203">
         <v>3</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W203">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18580,16 +18580,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18609,7 +18609,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18686,7 +18686,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6097801</v>
+        <v>7338338</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,31 +18701,31 @@
         <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>46</v>
       </c>
       <c r="K205">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N205">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P205">
         <v>4.75</v>
@@ -18734,22 +18734,22 @@
         <v>-1</v>
       </c>
       <c r="R205">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
         <v>3</v>
       </c>
       <c r="U205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18758,16 +18758,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19057,7 +19057,7 @@
         <v>41</v>
       </c>
       <c r="G209" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19235,7 +19235,7 @@
         <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19588,7 +19588,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
         <v>44</v>
@@ -19769,7 +19769,7 @@
         <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19932,7 +19932,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6100844</v>
+        <v>6100530</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19944,58 +19944,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H219">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>46</v>
       </c>
       <c r="K219">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L219">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M219">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N219">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O219">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P219">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T219">
         <v>3.25</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W219">
-        <v>0.7270000000000001</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20004,13 +20004,13 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC219">
         <v>-1</v>
@@ -20021,7 +20021,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6100530</v>
+        <v>6100844</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20033,58 +20033,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H220">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
         <v>46</v>
       </c>
       <c r="K220">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L220">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M220">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N220">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O220">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P220">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
         <v>3.25</v>
       </c>
       <c r="U220">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V220">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>0.2849999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20093,13 +20093,13 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20110,7 +20110,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6100845</v>
+        <v>7392733</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20122,76 +20122,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K221">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M221">
+        <v>5.5</v>
+      </c>
+      <c r="N221">
+        <v>1.533</v>
+      </c>
+      <c r="O221">
         <v>4</v>
       </c>
-      <c r="N221">
-        <v>1.75</v>
-      </c>
-      <c r="O221">
-        <v>3.8</v>
-      </c>
       <c r="P221">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q221">
+        <v>-1</v>
+      </c>
+      <c r="R221">
+        <v>1.925</v>
+      </c>
+      <c r="S221">
+        <v>1.875</v>
+      </c>
+      <c r="T221">
+        <v>2.75</v>
+      </c>
+      <c r="U221">
+        <v>1.8</v>
+      </c>
+      <c r="V221">
+        <v>2</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>4</v>
+      </c>
+      <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
+        <v>0.875</v>
+      </c>
+      <c r="AB221">
+        <v>0.4</v>
+      </c>
+      <c r="AC221">
         <v>-0.5</v>
-      </c>
-      <c r="R221">
-        <v>1.8</v>
-      </c>
-      <c r="S221">
-        <v>2</v>
-      </c>
-      <c r="T221">
-        <v>3</v>
-      </c>
-      <c r="U221">
-        <v>2</v>
-      </c>
-      <c r="V221">
-        <v>1.8</v>
-      </c>
-      <c r="W221">
-        <v>0.75</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
-      <c r="Y221">
-        <v>-1</v>
-      </c>
-      <c r="Z221">
-        <v>0.8</v>
-      </c>
-      <c r="AA221">
-        <v>-1</v>
-      </c>
-      <c r="AB221">
-        <v>-1</v>
-      </c>
-      <c r="AC221">
-        <v>0.8</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20199,7 +20199,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7392733</v>
+        <v>6100845</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20211,76 +20211,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G222" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K222">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L222">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N222">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U222">
+        <v>2</v>
+      </c>
+      <c r="V222">
         <v>1.8</v>
       </c>
-      <c r="V222">
-        <v>2</v>
-      </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA222">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20377,7 +20377,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6100840</v>
+        <v>6100841</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,61 +20389,61 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>48</v>
       </c>
       <c r="K224">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L224">
         <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N224">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O224">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
         <v>-1</v>
@@ -20452,13 +20452,13 @@
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20466,7 +20466,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6100841</v>
+        <v>6100840</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20478,62 +20478,62 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>48</v>
       </c>
       <c r="K225">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L225">
         <v>3.4</v>
       </c>
       <c r="M225">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P225">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>1.95</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
         <v>1.825</v>
       </c>
-      <c r="S225">
+      <c r="V225">
         <v>1.975</v>
       </c>
-      <c r="T225">
+      <c r="W225">
+        <v>-1</v>
+      </c>
+      <c r="X225">
         <v>3</v>
       </c>
-      <c r="U225">
-        <v>1.875</v>
-      </c>
-      <c r="V225">
-        <v>1.925</v>
-      </c>
-      <c r="W225">
-        <v>-1</v>
-      </c>
-      <c r="X225">
-        <v>2.6</v>
-      </c>
       <c r="Y225">
         <v>-1</v>
       </c>
@@ -20541,13 +20541,13 @@
         <v>-1</v>
       </c>
       <c r="AA225">
+        <v>0.95</v>
+      </c>
+      <c r="AB225">
+        <v>-1</v>
+      </c>
+      <c r="AC225">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB225">
-        <v>0.875</v>
-      </c>
-      <c r="AC225">
-        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20555,7 +20555,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20567,76 +20567,76 @@
         <v>45234.375</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M226">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N226">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O226">
         <v>4</v>
       </c>
       <c r="P226">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q226">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z226">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC226">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20644,7 +20644,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20656,76 +20656,76 @@
         <v>45234.375</v>
       </c>
       <c r="F227" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H227">
         <v>1</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N227">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O227">
         <v>4</v>
       </c>
       <c r="P227">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q227">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R227">
+        <v>1.875</v>
+      </c>
+      <c r="S227">
+        <v>1.925</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
         <v>1.85</v>
       </c>
-      <c r="S227">
+      <c r="V227">
         <v>1.95</v>
       </c>
-      <c r="T227">
-        <v>3.25</v>
-      </c>
-      <c r="U227">
-        <v>2</v>
-      </c>
-      <c r="V227">
-        <v>1.8</v>
-      </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y227">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA227">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20911,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6100852</v>
+        <v>6100853</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20923,73 +20923,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H230">
+        <v>4</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>46</v>
+      </c>
+      <c r="K230">
+        <v>1.5</v>
+      </c>
+      <c r="L230">
+        <v>4</v>
+      </c>
+      <c r="M230">
+        <v>5</v>
+      </c>
+      <c r="N230">
+        <v>1.444</v>
+      </c>
+      <c r="O230">
+        <v>4.2</v>
+      </c>
+      <c r="P230">
+        <v>5.5</v>
+      </c>
+      <c r="Q230">
+        <v>-1.25</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>1.8</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.85</v>
+      </c>
+      <c r="V230">
+        <v>1.95</v>
+      </c>
+      <c r="W230">
+        <v>0.444</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
         <v>1</v>
       </c>
-      <c r="I230">
-        <v>3</v>
-      </c>
-      <c r="J230" t="s">
-        <v>47</v>
-      </c>
-      <c r="K230">
-        <v>2.4</v>
-      </c>
-      <c r="L230">
-        <v>3.6</v>
-      </c>
-      <c r="M230">
-        <v>2.4</v>
-      </c>
-      <c r="N230">
-        <v>2.375</v>
-      </c>
-      <c r="O230">
-        <v>3.8</v>
-      </c>
-      <c r="P230">
-        <v>2.3</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>1.925</v>
-      </c>
-      <c r="S230">
-        <v>1.875</v>
-      </c>
-      <c r="T230">
-        <v>3.25</v>
-      </c>
-      <c r="U230">
-        <v>1.825</v>
-      </c>
-      <c r="V230">
-        <v>1.975</v>
-      </c>
-      <c r="W230">
-        <v>-1</v>
-      </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>1.3</v>
-      </c>
-      <c r="Z230">
-        <v>-1</v>
-      </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21000,7 +21000,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6100853</v>
+        <v>6100852</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21012,73 +21012,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I231">
+        <v>3</v>
+      </c>
+      <c r="J231" t="s">
+        <v>47</v>
+      </c>
+      <c r="K231">
+        <v>2.4</v>
+      </c>
+      <c r="L231">
+        <v>3.6</v>
+      </c>
+      <c r="M231">
+        <v>2.4</v>
+      </c>
+      <c r="N231">
+        <v>2.375</v>
+      </c>
+      <c r="O231">
+        <v>3.8</v>
+      </c>
+      <c r="P231">
+        <v>2.3</v>
+      </c>
+      <c r="Q231">
         <v>0</v>
       </c>
-      <c r="J231" t="s">
-        <v>46</v>
-      </c>
-      <c r="K231">
-        <v>1.5</v>
-      </c>
-      <c r="L231">
-        <v>4</v>
-      </c>
-      <c r="M231">
-        <v>5</v>
-      </c>
-      <c r="N231">
-        <v>1.444</v>
-      </c>
-      <c r="O231">
-        <v>4.2</v>
-      </c>
-      <c r="P231">
-        <v>5.5</v>
-      </c>
-      <c r="Q231">
-        <v>-1.25</v>
-      </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21101,10 +21101,10 @@
         <v>45235.5</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21267,7 +21267,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6100861</v>
+        <v>6100854</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21279,56 +21279,56 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J234" t="s">
         <v>47</v>
       </c>
       <c r="K234">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M234">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="N234">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="O234">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P234">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R234">
+        <v>1.975</v>
+      </c>
+      <c r="S234">
         <v>1.825</v>
       </c>
-      <c r="S234">
-        <v>1.975</v>
-      </c>
       <c r="T234">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
         <v>1.8</v>
       </c>
-      <c r="V234">
-        <v>2</v>
-      </c>
       <c r="W234">
         <v>-1</v>
       </c>
@@ -21336,19 +21336,19 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB234">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21356,7 +21356,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7465140</v>
+        <v>6100855</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21368,58 +21368,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F235" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
         <v>46</v>
       </c>
       <c r="K235">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M235">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N235">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P235">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q235">
         <v>0</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T235">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V235">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21428,16 +21428,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC235">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,7 +21445,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6100854</v>
+        <v>7465140</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,76 +21457,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
         <v>0</v>
       </c>
-      <c r="I236">
-        <v>3</v>
-      </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L236">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M236">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="N236">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O236">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P236">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q236">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S236">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA236">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21534,7 +21534,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6100855</v>
+        <v>6100861</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,73 +21546,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G237" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>4</v>
+      </c>
+      <c r="J237" t="s">
+        <v>47</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>2.75</v>
+      </c>
+      <c r="N237">
+        <v>1.95</v>
+      </c>
+      <c r="O237">
+        <v>4.333</v>
+      </c>
+      <c r="P237">
+        <v>2.7</v>
+      </c>
+      <c r="Q237">
+        <v>-0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.825</v>
+      </c>
+      <c r="S237">
+        <v>1.975</v>
+      </c>
+      <c r="T237">
         <v>3</v>
       </c>
-      <c r="I237">
-        <v>1</v>
-      </c>
-      <c r="J237" t="s">
-        <v>46</v>
-      </c>
-      <c r="K237">
-        <v>2.6</v>
-      </c>
-      <c r="L237">
-        <v>2.875</v>
-      </c>
-      <c r="M237">
-        <v>2.625</v>
-      </c>
-      <c r="N237">
-        <v>2.45</v>
-      </c>
-      <c r="O237">
-        <v>2.875</v>
-      </c>
-      <c r="P237">
-        <v>2.875</v>
-      </c>
-      <c r="Q237">
-        <v>0</v>
-      </c>
-      <c r="R237">
-        <v>1.775</v>
-      </c>
-      <c r="S237">
-        <v>2.025</v>
-      </c>
-      <c r="T237">
-        <v>2.75</v>
-      </c>
       <c r="U237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W237">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z237">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21623,7 +21623,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6100857</v>
+        <v>6100860</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21635,58 +21635,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>46</v>
       </c>
       <c r="K238">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L238">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M238">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N238">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="O238">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P238">
-        <v>4.333</v>
+        <v>13</v>
       </c>
       <c r="Q238">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T238">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>0.5329999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21695,16 +21695,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21712,7 +21712,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6100858</v>
+        <v>6100859</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21724,73 +21724,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
         <v>3</v>
       </c>
-      <c r="I239">
-        <v>2</v>
-      </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L239">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="M239">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N239">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="O239">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P239">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="Q239">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S239">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T239">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W239">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21801,7 +21801,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6100859</v>
+        <v>6100858</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21813,73 +21813,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G240" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K240">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L240">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="M240">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N240">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="O240">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P240">
-        <v>2.6</v>
+        <v>12</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R240">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S240">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T240">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U240">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB240">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21890,7 +21890,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6100860</v>
+        <v>6100857</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21902,58 +21902,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>46</v>
       </c>
       <c r="K241">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L241">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M241">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
-        <v>1.142</v>
+        <v>1.533</v>
       </c>
       <c r="O241">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P241">
-        <v>13</v>
+        <v>4.333</v>
       </c>
       <c r="Q241">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T241">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U241">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W241">
-        <v>0.1419999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21962,16 +21962,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA241">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC241">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -106,10 +106,10 @@
     <t>Motala AIF FK</t>
   </si>
   <si>
-    <t>IFK Stocksund</t>
+    <t>FC Stockholm Internazionale</t>
   </si>
   <si>
-    <t>FC Stockholm Internazionale</t>
+    <t>IFK Stocksund</t>
   </si>
   <si>
     <t>Bodens BK FF</t>
@@ -118,13 +118,13 @@
     <t>rebro Syrianska IF</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Nordic United FC</t>
   </si>
   <si>
     <t>Tby FK</t>
   </si>
   <si>
-    <t>Nordic United FC</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
     <t>Sollentuna United FF</t>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6469896</v>
+        <v>6100690</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N3">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6100690</v>
+        <v>6469896</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6097780</v>
+        <v>6469897</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L7">
         <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB7">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6469897</v>
+        <v>6097780</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1257,73 +1257,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
         <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O9">
         <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1791,7 +1791,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100703</v>
+        <v>6097782</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,13 +2233,13 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2248,43 +2248,43 @@
         <v>46</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N20">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>1.1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2293,16 +2293,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
+        <v>0.425</v>
+      </c>
+      <c r="AA20">
+        <v>-0.5</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6097782</v>
+        <v>6100703</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,13 +2411,13 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2426,43 +2426,43 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N22">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2471,16 +2471,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -2589,7 +2589,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2678,7 +2678,7 @@
         <v>45032.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6100477</v>
+        <v>6100580</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,49 +2767,49 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L26">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N26">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U26">
         <v>1.9</v>
@@ -2818,25 +2818,25 @@
         <v>1.9</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6100580</v>
+        <v>6100477</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,49 +2856,49 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <v>1.9</v>
@@ -2907,25 +2907,25 @@
         <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
+        <v>0.95</v>
+      </c>
+      <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
-      <c r="AB27">
-        <v>0.45</v>
-      </c>
-      <c r="AC27">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6100709</v>
+        <v>6552840</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,49 +2945,49 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>47</v>
       </c>
       <c r="K28">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
+        <v>3.8</v>
+      </c>
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="M28">
+      <c r="N28">
+        <v>1.6</v>
+      </c>
+      <c r="O28">
         <v>3.8</v>
       </c>
-      <c r="N28">
-        <v>1.65</v>
-      </c>
-      <c r="O28">
-        <v>4</v>
-      </c>
       <c r="P28">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q28">
         <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U28">
         <v>2</v>
@@ -3002,19 +3002,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6100705</v>
+        <v>6100709</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,49 +3034,49 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>47</v>
       </c>
       <c r="K29">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="N29">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
         <v>2</v>
@@ -3091,19 +3091,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6552840</v>
+        <v>6100705</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,13 +3123,13 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -3138,34 +3138,34 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N30">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
         <v>1.8</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
         <v>2</v>
@@ -3180,19 +3180,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3215,7 +3215,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6097784</v>
+        <v>6100711</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,76 +3657,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>34</v>
       </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N36">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P36">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6100710</v>
+        <v>6100713</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L37">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6100711</v>
+        <v>6097784</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N38">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>-0.5</v>
+      </c>
+      <c r="AA38">
+        <v>0.4625</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>1</v>
-      </c>
-      <c r="Z38">
-        <v>-1</v>
-      </c>
-      <c r="AA38">
-        <v>0.825</v>
-      </c>
-      <c r="AB38">
-        <v>0.925</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6100713</v>
+        <v>6100710</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,76 +3924,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>2.5</v>
+      </c>
+      <c r="N39">
+        <v>3.25</v>
+      </c>
+      <c r="O39">
         <v>3.6</v>
       </c>
-      <c r="M39">
-        <v>2.1</v>
-      </c>
-      <c r="N39">
-        <v>3</v>
-      </c>
-      <c r="O39">
-        <v>3.5</v>
-      </c>
       <c r="P39">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>45046.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6100722</v>
+        <v>6100479</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4191,40 +4191,40 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>47</v>
       </c>
       <c r="K42">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N42">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
         <v>1.85</v>
@@ -4233,13 +4233,13 @@
         <v>1.95</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4248,7 +4248,7 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>4.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z42">
         <v>-1</v>
@@ -4257,10 +4257,10 @@
         <v>0.95</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6100479</v>
+        <v>6100722</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,40 +4280,40 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
         <v>47</v>
       </c>
       <c r="K43">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="N43">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R43">
         <v>1.85</v>
@@ -4322,13 +4322,13 @@
         <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4337,7 +4337,7 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8500000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="Z43">
         <v>-1</v>
@@ -4346,10 +4346,10 @@
         <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4372,7 +4372,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>40</v>
@@ -4547,7 +4547,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4995,7 +4995,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5882,10 +5882,10 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -5974,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6327,10 +6327,10 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
         <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6100735</v>
+        <v>6100436</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,56 +6683,56 @@
         <v>45067.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>47</v>
       </c>
       <c r="K70">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N70">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
+        <v>1.85</v>
+      </c>
+      <c r="T70">
+        <v>3.25</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.8</v>
       </c>
-      <c r="T70">
-        <v>3</v>
-      </c>
-      <c r="U70">
-        <v>1.95</v>
-      </c>
-      <c r="V70">
-        <v>1.85</v>
-      </c>
       <c r="W70">
         <v>-1</v>
       </c>
@@ -6740,19 +6740,19 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.8</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6100436</v>
+        <v>6100735</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,56 +6772,56 @@
         <v>45067.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>47</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q71">
         <v>-0.25</v>
       </c>
       <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
         <v>1.95</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="T71">
-        <v>3.25</v>
-      </c>
-      <c r="U71">
-        <v>2</v>
-      </c>
-      <c r="V71">
-        <v>1.8</v>
-      </c>
       <c r="W71">
         <v>-1</v>
       </c>
@@ -6829,19 +6829,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6953,7 +6953,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7027,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6100437</v>
+        <v>6100741</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7039,13 +7039,13 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -7054,43 +7054,43 @@
         <v>46</v>
       </c>
       <c r="K74">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N74">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>3</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>0.444</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7099,16 +7099,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6100741</v>
+        <v>6100437</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,13 +7128,13 @@
         <v>45073.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7143,43 +7143,43 @@
         <v>46</v>
       </c>
       <c r="K75">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N75">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O75">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>3</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W75">
-        <v>0.7270000000000001</v>
+        <v>0.444</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7188,16 +7188,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6097787</v>
+        <v>6100743</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,55 +7306,55 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>1</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>47</v>
       </c>
       <c r="K77">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L77">
+        <v>3.5</v>
+      </c>
+      <c r="M77">
+        <v>2.45</v>
+      </c>
+      <c r="N77">
+        <v>2.8</v>
+      </c>
+      <c r="O77">
         <v>3.6</v>
       </c>
-      <c r="M77">
-        <v>3.75</v>
-      </c>
-      <c r="N77">
-        <v>2.3</v>
-      </c>
-      <c r="O77">
-        <v>3.4</v>
-      </c>
       <c r="P77">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7363,19 +7363,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6100743</v>
+        <v>6097787</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,55 +7395,55 @@
         <v>45073.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6100748</v>
+        <v>6100484</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,40 +7929,40 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>47</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>3.6</v>
+      </c>
+      <c r="M84">
         <v>3</v>
       </c>
-      <c r="I84">
+      <c r="N84">
+        <v>2.45</v>
+      </c>
+      <c r="O84">
+        <v>3.5</v>
+      </c>
+      <c r="P84">
+        <v>2.55</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
-      </c>
-      <c r="J84" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84">
-        <v>1.8</v>
-      </c>
-      <c r="L84">
-        <v>3.75</v>
-      </c>
-      <c r="M84">
-        <v>3.4</v>
-      </c>
-      <c r="N84">
-        <v>1.65</v>
-      </c>
-      <c r="O84">
-        <v>3.8</v>
-      </c>
-      <c r="P84">
-        <v>4</v>
-      </c>
-      <c r="Q84">
-        <v>-0.75</v>
       </c>
       <c r="R84">
         <v>1.85</v>
@@ -7971,34 +7971,34 @@
         <v>1.95</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W84">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6100484</v>
+        <v>6100748</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8018,40 +8018,40 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
         <v>1.85</v>
@@ -8060,34 +8060,34 @@
         <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC85">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>45081.39583333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
         <v>42</v>
@@ -8377,7 +8377,7 @@
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6100753</v>
+        <v>6097789</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
+        <v>3.75</v>
+      </c>
+      <c r="M91">
         <v>3.4</v>
       </c>
-      <c r="M91">
-        <v>2.3</v>
-      </c>
       <c r="N91">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Q91">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8641,7 +8641,7 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6097789</v>
+        <v>6100753</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,76 +8730,76 @@
         <v>45087.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
+        <v>2.3</v>
+      </c>
+      <c r="N93">
+        <v>3.2</v>
+      </c>
+      <c r="O93">
         <v>3.4</v>
       </c>
-      <c r="N93">
-        <v>1.666</v>
-      </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
       <c r="P93">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>45089.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>35</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6100758</v>
+        <v>6100756</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,58 +9264,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
         <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>46</v>
       </c>
       <c r="K99">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L99">
         <v>3.75</v>
       </c>
       <c r="M99">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P99">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9324,16 +9324,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6100756</v>
+        <v>6100758</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,58 +9353,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>46</v>
       </c>
       <c r="K100">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9413,16 +9413,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>45094.33333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>44</v>
@@ -9531,7 +9531,7 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9623,7 +9623,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,46 +9709,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L104">
         <v>3.6</v>
       </c>
       <c r="M104">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N104">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T104">
         <v>2.75</v>
@@ -9763,22 +9763,22 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,46 +9798,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L105">
         <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N105">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
         <v>2.75</v>
@@ -9852,22 +9852,22 @@
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y105">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9887,10 +9887,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10243,7 +10243,7 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>41</v>
@@ -10513,7 +10513,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10599,7 +10599,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6100768</v>
+        <v>6100767</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,76 +10777,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L116">
+        <v>3.8</v>
+      </c>
+      <c r="M116">
         <v>4</v>
       </c>
-      <c r="M116">
-        <v>5</v>
-      </c>
       <c r="N116">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z116">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6100764</v>
+        <v>6100768</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,13 +10866,13 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -10881,43 +10881,43 @@
         <v>46</v>
       </c>
       <c r="K117">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P117">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q117">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>2.6</v>
+        <v>0.363</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10926,16 +10926,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6100767</v>
+        <v>6100764</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,76 +10955,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>3</v>
-      </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
         <v>3.8</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="N118">
+        <v>3.6</v>
+      </c>
+      <c r="O118">
+        <v>3.8</v>
+      </c>
+      <c r="P118">
+        <v>1.75</v>
+      </c>
+      <c r="Q118">
+        <v>0.75</v>
+      </c>
+      <c r="R118">
         <v>1.8</v>
       </c>
-      <c r="O118">
-        <v>3.75</v>
-      </c>
-      <c r="P118">
-        <v>3.6</v>
-      </c>
-      <c r="Q118">
-        <v>-0.5</v>
-      </c>
-      <c r="R118">
-        <v>1.825</v>
-      </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="V118">
-        <v>2</v>
-      </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6100509</v>
+        <v>6100765</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,58 +11044,58 @@
         <v>45137.5</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>31</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
+        <v>1.875</v>
+      </c>
+      <c r="S119">
+        <v>1.925</v>
+      </c>
+      <c r="T119">
+        <v>3.25</v>
+      </c>
+      <c r="U119">
         <v>1.9</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.9</v>
       </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11104,13 +11104,13 @@
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>0.875</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>0.95</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6100765</v>
+        <v>6100509</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,59 +11133,59 @@
         <v>45137.5</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
         <v>30</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
         <v>46</v>
       </c>
       <c r="K120">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L120">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O120">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
+        <v>1.95</v>
+      </c>
+      <c r="V120">
+        <v>1.85</v>
+      </c>
+      <c r="W120">
         <v>1.9</v>
       </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
-      <c r="W120">
-        <v>0.444</v>
-      </c>
       <c r="X120">
         <v>-1</v>
       </c>
@@ -11193,13 +11193,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11299,7 +11299,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6100772</v>
+        <v>6100773</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,46 +11311,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L122">
         <v>3.6</v>
       </c>
       <c r="M122">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N122">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T122">
         <v>2.75</v>
@@ -11362,25 +11362,25 @@
         <v>2</v>
       </c>
       <c r="W122">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6100773</v>
+        <v>6100772</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,46 +11400,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
         <v>3.6</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
         <v>2.75</v>
@@ -11451,25 +11451,25 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6100771</v>
+        <v>7018646</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,40 +11489,40 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
         <v>1</v>
       </c>
-      <c r="I124">
+      <c r="J124" t="s">
+        <v>46</v>
+      </c>
+      <c r="K124">
+        <v>1.727</v>
+      </c>
+      <c r="L124">
+        <v>3.75</v>
+      </c>
+      <c r="M124">
+        <v>3.75</v>
+      </c>
+      <c r="N124">
+        <v>1.45</v>
+      </c>
+      <c r="O124">
+        <v>4.2</v>
+      </c>
+      <c r="P124">
         <v>5</v>
       </c>
-      <c r="J124" t="s">
-        <v>47</v>
-      </c>
-      <c r="K124">
-        <v>3.5</v>
-      </c>
-      <c r="L124">
-        <v>4</v>
-      </c>
-      <c r="M124">
-        <v>1.727</v>
-      </c>
-      <c r="N124">
-        <v>4.5</v>
-      </c>
-      <c r="O124">
-        <v>4.75</v>
-      </c>
-      <c r="P124">
-        <v>1.45</v>
-      </c>
       <c r="Q124">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R124">
         <v>1.8</v>
@@ -11531,7 +11531,7 @@
         <v>2</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U124">
         <v>1.925</v>
@@ -11540,19 +11540,19 @@
         <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>0.925</v>
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7018646</v>
+        <v>6100511</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,76 +11578,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M125">
         <v>3.75</v>
       </c>
       <c r="N125">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
+        <v>1.925</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="S125">
-        <v>2</v>
-      </c>
-      <c r="T125">
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
         <v>3</v>
       </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.875</v>
-      </c>
-      <c r="W125">
-        <v>0.45</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
       <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>0.925</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.8</v>
-      </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>0.925</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11655,7 +11655,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6100511</v>
+        <v>6100770</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11667,56 +11667,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
         <v>47</v>
       </c>
       <c r="K126">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L126">
+        <v>3.75</v>
+      </c>
+      <c r="M126">
+        <v>1.952</v>
+      </c>
+      <c r="N126">
+        <v>2.8</v>
+      </c>
+      <c r="O126">
         <v>4</v>
       </c>
-      <c r="M126">
-        <v>3.75</v>
-      </c>
-      <c r="N126">
-        <v>1.65</v>
-      </c>
-      <c r="O126">
-        <v>3.8</v>
-      </c>
       <c r="P126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
+        <v>1.975</v>
+      </c>
+      <c r="S126">
+        <v>1.825</v>
+      </c>
+      <c r="T126">
+        <v>3.25</v>
+      </c>
+      <c r="U126">
         <v>1.875</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>1.925</v>
       </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
-      <c r="V126">
-        <v>1.8</v>
-      </c>
       <c r="W126">
         <v>-1</v>
       </c>
@@ -11724,19 +11724,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11744,7 +11744,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6100770</v>
+        <v>6100771</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11756,56 +11756,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J127" t="s">
         <v>47</v>
       </c>
       <c r="K127">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>1.952</v>
+        <v>1.727</v>
       </c>
       <c r="N127">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P127">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>3.25</v>
       </c>
       <c r="U127">
+        <v>1.925</v>
+      </c>
+      <c r="V127">
         <v>1.875</v>
       </c>
-      <c r="V127">
-        <v>1.925</v>
-      </c>
       <c r="W127">
         <v>-1</v>
       </c>
@@ -11813,16 +11813,16 @@
         <v>-1</v>
       </c>
       <c r="Y127">
+        <v>0.45</v>
+      </c>
+      <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
         <v>1</v>
       </c>
-      <c r="Z127">
-        <v>-1</v>
-      </c>
-      <c r="AA127">
-        <v>0.825</v>
-      </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11845,7 +11845,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
         <v>42</v>
@@ -11937,7 +11937,7 @@
         <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12011,7 +12011,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6100778</v>
+        <v>6097794</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12023,58 +12023,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F130" t="s">
+        <v>44</v>
+      </c>
+      <c r="G130" t="s">
         <v>36</v>
       </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
       <c r="H130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>46</v>
       </c>
       <c r="K130">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N130">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12083,16 +12083,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12115,7 +12115,7 @@
         <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6097794</v>
+        <v>6100778</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,58 +12201,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>46</v>
       </c>
       <c r="K132">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N132">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W132">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7084665</v>
+        <v>6097795</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,76 +12913,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB140">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6100779</v>
+        <v>6100514</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,76 +13002,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N141">
+        <v>2.75</v>
+      </c>
+      <c r="O141">
+        <v>3.4</v>
+      </c>
+      <c r="P141">
+        <v>2.375</v>
+      </c>
+      <c r="Q141">
+        <v>0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.75</v>
+      </c>
+      <c r="S141">
         <v>2.05</v>
       </c>
-      <c r="O141">
-        <v>3.8</v>
-      </c>
-      <c r="P141">
-        <v>2.9</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.85</v>
-      </c>
-      <c r="S141">
-        <v>1.95</v>
-      </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>0.375</v>
+      </c>
+      <c r="AA141">
         <v>-0.5</v>
       </c>
-      <c r="AA141">
-        <v>0.475</v>
-      </c>
       <c r="AB141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6100514</v>
+        <v>6100779</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,76 +13091,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>48</v>
       </c>
       <c r="K142">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N142">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13168,7 +13168,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6097795</v>
+        <v>7084665</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13180,76 +13180,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L143">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N143">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P143">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.8</v>
+      </c>
+      <c r="AB143">
+        <v>0.475</v>
+      </c>
+      <c r="AC143">
         <v>-0.5</v>
-      </c>
-      <c r="AA143">
-        <v>0.4875</v>
-      </c>
-      <c r="AB143">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13269,7 +13269,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>42</v>
@@ -13361,7 +13361,7 @@
         <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13450,7 +13450,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>3</v>
@@ -13628,7 +13628,7 @@
         <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13806,7 +13806,7 @@
         <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13895,7 +13895,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6097797</v>
+        <v>6100802</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,76 +14159,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K154">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L154">
+        <v>4.75</v>
+      </c>
+      <c r="M154">
+        <v>1.4</v>
+      </c>
+      <c r="N154">
+        <v>5.75</v>
+      </c>
+      <c r="O154">
         <v>5</v>
       </c>
-      <c r="M154">
-        <v>6.5</v>
-      </c>
-      <c r="N154">
+      <c r="P154">
+        <v>1.444</v>
+      </c>
+      <c r="Q154">
         <v>1.25</v>
       </c>
-      <c r="O154">
-        <v>6</v>
-      </c>
-      <c r="P154">
-        <v>8</v>
-      </c>
-      <c r="Q154">
-        <v>-1.75</v>
-      </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
         <v>1.85</v>
-      </c>
-      <c r="S154">
-        <v>1.95</v>
       </c>
       <c r="T154">
         <v>3.5</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W154">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6100802</v>
+        <v>6100519</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,76 +14337,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156" t="s">
+        <v>47</v>
+      </c>
+      <c r="K156">
+        <v>1.85</v>
+      </c>
+      <c r="L156">
+        <v>3.75</v>
+      </c>
+      <c r="M156">
+        <v>3.75</v>
+      </c>
+      <c r="N156">
+        <v>1.75</v>
+      </c>
+      <c r="O156">
         <v>4</v>
       </c>
-      <c r="I156">
-        <v>4</v>
-      </c>
-      <c r="J156" t="s">
-        <v>48</v>
-      </c>
-      <c r="K156">
-        <v>6</v>
-      </c>
-      <c r="L156">
-        <v>4.75</v>
-      </c>
-      <c r="M156">
-        <v>1.4</v>
-      </c>
-      <c r="N156">
-        <v>5.75</v>
-      </c>
-      <c r="O156">
-        <v>5</v>
-      </c>
       <c r="P156">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="Q156">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB156">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100519</v>
+        <v>6097797</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,73 +14429,73 @@
         <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K157">
+        <v>1.363</v>
+      </c>
+      <c r="L157">
+        <v>5</v>
+      </c>
+      <c r="M157">
+        <v>6.5</v>
+      </c>
+      <c r="N157">
+        <v>1.25</v>
+      </c>
+      <c r="O157">
+        <v>6</v>
+      </c>
+      <c r="P157">
+        <v>8</v>
+      </c>
+      <c r="Q157">
+        <v>-1.75</v>
+      </c>
+      <c r="R157">
         <v>1.85</v>
       </c>
-      <c r="L157">
-        <v>3.75</v>
-      </c>
-      <c r="M157">
-        <v>3.75</v>
-      </c>
-      <c r="N157">
-        <v>1.75</v>
-      </c>
-      <c r="O157">
-        <v>4</v>
-      </c>
-      <c r="P157">
-        <v>4.2</v>
-      </c>
-      <c r="Q157">
-        <v>-0.75</v>
-      </c>
-      <c r="R157">
+      <c r="S157">
+        <v>1.95</v>
+      </c>
+      <c r="T157">
+        <v>3.5</v>
+      </c>
+      <c r="U157">
         <v>1.925</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="T157">
-        <v>3.25</v>
-      </c>
-      <c r="U157">
-        <v>1.9</v>
-      </c>
-      <c r="V157">
-        <v>1.9</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
+        <v>0.95</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.875</v>
-      </c>
-      <c r="AB157">
-        <v>-0.5</v>
-      </c>
-      <c r="AC157">
-        <v>0.45</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6100518</v>
+        <v>7144590</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,55 +14515,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>47</v>
       </c>
       <c r="K158">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L158">
+        <v>3.8</v>
+      </c>
+      <c r="M158">
         <v>4.2</v>
       </c>
-      <c r="M158">
-        <v>4.5</v>
-      </c>
       <c r="N158">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q158">
         <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U158">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14572,19 +14572,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7144590</v>
+        <v>6100518</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,55 +14604,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
         <v>1</v>
-      </c>
-      <c r="I159">
-        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>47</v>
       </c>
       <c r="K159">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L159">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
+        <v>4.5</v>
+      </c>
+      <c r="N159">
+        <v>1.65</v>
+      </c>
+      <c r="O159">
         <v>4.2</v>
       </c>
-      <c r="N159">
-        <v>1.75</v>
-      </c>
-      <c r="O159">
-        <v>3.8</v>
-      </c>
       <c r="P159">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q159">
         <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14661,19 +14661,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14871,10 +14871,10 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15052,7 +15052,7 @@
         <v>33</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>4</v>
@@ -15141,7 +15141,7 @@
         <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15215,7 +15215,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6100806</v>
+        <v>6100804</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15227,13 +15227,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15242,25 +15242,25 @@
         <v>46</v>
       </c>
       <c r="K166">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L166">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N166">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
         <v>1.8</v>
@@ -15269,16 +15269,16 @@
         <v>2</v>
       </c>
       <c r="T166">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,10 +15293,10 @@
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6100804</v>
+        <v>6100806</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,13 +15316,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15331,25 +15331,25 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L167">
+        <v>3.5</v>
+      </c>
+      <c r="M167">
+        <v>2.25</v>
+      </c>
+      <c r="N167">
+        <v>2.7</v>
+      </c>
+      <c r="O167">
         <v>3.6</v>
       </c>
-      <c r="M167">
-        <v>3.6</v>
-      </c>
-      <c r="N167">
-        <v>1.615</v>
-      </c>
-      <c r="O167">
-        <v>3.8</v>
-      </c>
       <c r="P167">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
         <v>1.8</v>
@@ -15358,16 +15358,16 @@
         <v>2</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,10 +15382,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15571,7 +15571,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6100521</v>
+        <v>6100811</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15583,10 +15583,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15598,43 +15598,43 @@
         <v>46</v>
       </c>
       <c r="K170">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L170">
+        <v>4.75</v>
+      </c>
+      <c r="M170">
+        <v>6</v>
+      </c>
+      <c r="N170">
+        <v>1.363</v>
+      </c>
+      <c r="O170">
+        <v>5.25</v>
+      </c>
+      <c r="P170">
+        <v>5.5</v>
+      </c>
+      <c r="Q170">
+        <v>-1.5</v>
+      </c>
+      <c r="R170">
+        <v>1.925</v>
+      </c>
+      <c r="S170">
+        <v>1.875</v>
+      </c>
+      <c r="T170">
         <v>3.5</v>
       </c>
-      <c r="M170">
-        <v>3.4</v>
-      </c>
-      <c r="N170">
-        <v>1.85</v>
-      </c>
-      <c r="O170">
-        <v>3.3</v>
-      </c>
-      <c r="P170">
-        <v>3.6</v>
-      </c>
-      <c r="Q170">
-        <v>-0.25</v>
-      </c>
-      <c r="R170">
+      <c r="U170">
         <v>1.825</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.975</v>
       </c>
-      <c r="T170">
-        <v>2.5</v>
-      </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
-      <c r="V170">
-        <v>1.8</v>
-      </c>
       <c r="W170">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -15643,16 +15643,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15660,7 +15660,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6100811</v>
+        <v>6100521</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15672,10 +15672,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15687,43 +15687,43 @@
         <v>46</v>
       </c>
       <c r="K171">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L171">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M171">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N171">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O171">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P171">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q171">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15732,16 +15732,16 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA171">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>39</v>
@@ -16206,10 +16206,10 @@
         <v>45186.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16298,7 +16298,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16562,10 +16562,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F181" t="s">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
         <v>34</v>
-      </c>
-      <c r="G181" t="s">
-        <v>36</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16832,7 +16832,7 @@
         <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17007,7 +17007,7 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
         <v>33</v>
@@ -17185,7 +17185,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>44</v>
@@ -17455,7 +17455,7 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17630,7 +17630,7 @@
         <v>45200.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
         <v>39</v>
@@ -17811,7 +17811,7 @@
         <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17974,7 +17974,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6100826</v>
+        <v>7291461</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17986,76 +17986,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M197">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N197">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O197">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P197">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="Q197">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
+        <v>1.85</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
         <v>1.8</v>
       </c>
-      <c r="W197">
-        <v>-1</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18063,7 +18063,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6100828</v>
+        <v>6100826</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18075,76 +18075,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198" t="s">
+        <v>47</v>
+      </c>
+      <c r="K198">
+        <v>3.2</v>
+      </c>
+      <c r="L198">
+        <v>3.6</v>
+      </c>
+      <c r="M198">
+        <v>1.909</v>
+      </c>
+      <c r="N198">
+        <v>4.5</v>
+      </c>
+      <c r="O198">
         <v>4</v>
       </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="J198" t="s">
-        <v>46</v>
-      </c>
-      <c r="K198">
-        <v>1.333</v>
-      </c>
-      <c r="L198">
-        <v>5</v>
-      </c>
-      <c r="M198">
-        <v>6</v>
-      </c>
-      <c r="N198">
-        <v>1.142</v>
-      </c>
-      <c r="O198">
-        <v>7</v>
-      </c>
       <c r="P198">
-        <v>12</v>
+        <v>1.533</v>
       </c>
       <c r="Q198">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
+        <v>1.925</v>
+      </c>
+      <c r="T198">
+        <v>3.25</v>
+      </c>
+      <c r="U198">
+        <v>2</v>
+      </c>
+      <c r="V198">
         <v>1.8</v>
       </c>
-      <c r="T198">
-        <v>3.5</v>
-      </c>
-      <c r="U198">
-        <v>1.975</v>
-      </c>
-      <c r="V198">
-        <v>1.825</v>
-      </c>
       <c r="W198">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18152,7 +18152,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7291461</v>
+        <v>6100828</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18164,40 +18164,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H199">
+        <v>4</v>
+      </c>
+      <c r="I199">
         <v>0</v>
       </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M199">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N199">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P199">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R199">
         <v>2</v>
@@ -18206,34 +18206,34 @@
         <v>1.8</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U199">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18345,7 +18345,7 @@
         <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18431,7 +18431,7 @@
         <v>45213.33333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>37</v>
@@ -18520,7 +18520,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18698,7 +18698,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
         <v>43</v>
@@ -18879,7 +18879,7 @@
         <v>32</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19321,10 +19321,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F212" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" t="s">
         <v>30</v>
-      </c>
-      <c r="G212" t="s">
-        <v>31</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6100834</v>
+        <v>7356246</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,76 +19410,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K213">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L213">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M213">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N213">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O213">
         <v>3.6</v>
       </c>
       <c r="P213">
+        <v>3.8</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
         <v>1.85</v>
-      </c>
-      <c r="Q213">
-        <v>0.5</v>
-      </c>
-      <c r="R213">
-        <v>1.9</v>
-      </c>
-      <c r="S213">
-        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7356246</v>
+        <v>6100834</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,76 +19499,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M214">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N214">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O214">
         <v>3.6</v>
       </c>
       <c r="P214">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W214">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z214">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19769,7 +19769,7 @@
         <v>29</v>
       </c>
       <c r="G217" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19932,7 +19932,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6100530</v>
+        <v>6100844</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19944,58 +19944,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H219">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
         <v>46</v>
       </c>
       <c r="K219">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L219">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M219">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N219">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O219">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P219">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
         <v>3.25</v>
       </c>
       <c r="U219">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
-        <v>0.2849999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20004,13 +20004,13 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC219">
         <v>-1</v>
@@ -20021,7 +20021,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6100844</v>
+        <v>7392733</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,16 +20036,16 @@
         <v>36</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H220">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>1.444</v>
@@ -20057,52 +20057,52 @@
         <v>5.5</v>
       </c>
       <c r="N220">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O220">
         <v>4</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T220">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W220">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z220">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20110,7 +20110,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7392733</v>
+        <v>6100845</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20122,76 +20122,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G221" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K221">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L221">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M221">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N221">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U221">
+        <v>2</v>
+      </c>
+      <c r="V221">
         <v>1.8</v>
       </c>
-      <c r="V221">
-        <v>2</v>
-      </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20199,7 +20199,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6100845</v>
+        <v>6100530</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20211,13 +20211,13 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -20226,43 +20226,43 @@
         <v>46</v>
       </c>
       <c r="K222">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L222">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M222">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N222">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S222">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T222">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W222">
-        <v>0.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20271,16 +20271,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
         <v>39</v>
@@ -20570,7 +20570,7 @@
         <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20656,7 +20656,7 @@
         <v>45234.375</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
         <v>38</v>
@@ -20745,7 +20745,7 @@
         <v>45234.5</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>44</v>
@@ -20911,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6100853</v>
+        <v>6100852</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20923,73 +20923,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I230">
+        <v>3</v>
+      </c>
+      <c r="J230" t="s">
+        <v>47</v>
+      </c>
+      <c r="K230">
+        <v>2.4</v>
+      </c>
+      <c r="L230">
+        <v>3.6</v>
+      </c>
+      <c r="M230">
+        <v>2.4</v>
+      </c>
+      <c r="N230">
+        <v>2.375</v>
+      </c>
+      <c r="O230">
+        <v>3.8</v>
+      </c>
+      <c r="P230">
+        <v>2.3</v>
+      </c>
+      <c r="Q230">
         <v>0</v>
       </c>
-      <c r="J230" t="s">
-        <v>46</v>
-      </c>
-      <c r="K230">
-        <v>1.5</v>
-      </c>
-      <c r="L230">
-        <v>4</v>
-      </c>
-      <c r="M230">
-        <v>5</v>
-      </c>
-      <c r="N230">
-        <v>1.444</v>
-      </c>
-      <c r="O230">
-        <v>4.2</v>
-      </c>
-      <c r="P230">
-        <v>5.5</v>
-      </c>
-      <c r="Q230">
-        <v>-1.25</v>
-      </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB230">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21000,7 +21000,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6100852</v>
+        <v>6100853</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21012,73 +21012,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H231">
+        <v>4</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>46</v>
+      </c>
+      <c r="K231">
+        <v>1.5</v>
+      </c>
+      <c r="L231">
+        <v>4</v>
+      </c>
+      <c r="M231">
+        <v>5</v>
+      </c>
+      <c r="N231">
+        <v>1.444</v>
+      </c>
+      <c r="O231">
+        <v>4.2</v>
+      </c>
+      <c r="P231">
+        <v>5.5</v>
+      </c>
+      <c r="Q231">
+        <v>-1.25</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>1.8</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>1.85</v>
+      </c>
+      <c r="V231">
+        <v>1.95</v>
+      </c>
+      <c r="W231">
+        <v>0.444</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>3</v>
-      </c>
-      <c r="J231" t="s">
-        <v>47</v>
-      </c>
-      <c r="K231">
-        <v>2.4</v>
-      </c>
-      <c r="L231">
-        <v>3.6</v>
-      </c>
-      <c r="M231">
-        <v>2.4</v>
-      </c>
-      <c r="N231">
-        <v>2.375</v>
-      </c>
-      <c r="O231">
-        <v>3.8</v>
-      </c>
-      <c r="P231">
-        <v>2.3</v>
-      </c>
-      <c r="Q231">
-        <v>0</v>
-      </c>
-      <c r="R231">
-        <v>1.925</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>3.25</v>
-      </c>
-      <c r="U231">
-        <v>1.825</v>
-      </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
-      <c r="W231">
-        <v>-1</v>
-      </c>
-      <c r="X231">
-        <v>-1</v>
-      </c>
-      <c r="Y231">
-        <v>1.3</v>
-      </c>
-      <c r="Z231">
-        <v>-1</v>
-      </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21101,7 +21101,7 @@
         <v>45235.5</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
         <v>39</v>
@@ -21267,7 +21267,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6100854</v>
+        <v>6100858</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21279,76 +21279,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K234">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L234">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="M234">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N234">
+        <v>1.166</v>
+      </c>
+      <c r="O234">
         <v>6.5</v>
       </c>
-      <c r="O234">
-        <v>5.25</v>
-      </c>
       <c r="P234">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="Q234">
-        <v>1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R234">
+        <v>1.825</v>
+      </c>
+      <c r="S234">
         <v>1.975</v>
       </c>
-      <c r="S234">
-        <v>1.825</v>
-      </c>
       <c r="T234">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB234">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC234">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21356,7 +21356,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6100855</v>
+        <v>6100854</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21368,76 +21368,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
         <v>3</v>
       </c>
-      <c r="I235">
-        <v>1</v>
-      </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="L235">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M235">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="N235">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="O235">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="P235">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S235">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U235">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W235">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z235">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB235">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,7 +21445,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7465140</v>
+        <v>6100855</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,58 +21457,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
         <v>46</v>
       </c>
       <c r="K236">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M236">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N236">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P236">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T236">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U236">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V236">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21517,16 +21517,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC236">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21534,7 +21534,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6100861</v>
+        <v>6100859</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21546,55 +21546,55 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
         <v>47</v>
       </c>
       <c r="K237">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M237">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O237">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P237">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U237">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21603,16 +21603,16 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB237">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21623,7 +21623,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6100860</v>
+        <v>6100861</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21635,76 +21635,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L238">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M238">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N238">
-        <v>1.142</v>
+        <v>1.95</v>
       </c>
       <c r="O238">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P238">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="Q238">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
+        <v>1.975</v>
+      </c>
+      <c r="T238">
+        <v>3</v>
+      </c>
+      <c r="U238">
         <v>1.8</v>
       </c>
-      <c r="T238">
-        <v>3.5</v>
-      </c>
-      <c r="U238">
-        <v>1.9</v>
-      </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W238">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21712,7 +21712,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6100859</v>
+        <v>7465140</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21724,76 +21724,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G239" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239" t="s">
+        <v>46</v>
+      </c>
+      <c r="K239">
+        <v>2.25</v>
+      </c>
+      <c r="L239">
+        <v>3.5</v>
+      </c>
+      <c r="M239">
+        <v>2.6</v>
+      </c>
+      <c r="N239">
+        <v>2.25</v>
+      </c>
+      <c r="O239">
+        <v>3.6</v>
+      </c>
+      <c r="P239">
+        <v>2.55</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>3.5</v>
+      </c>
+      <c r="U239">
+        <v>1.8</v>
+      </c>
+      <c r="V239">
+        <v>2</v>
+      </c>
+      <c r="W239">
+        <v>1.25</v>
+      </c>
+      <c r="X239">
+        <v>-1</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>0.8</v>
+      </c>
+      <c r="AA239">
+        <v>-1</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>1</v>
-      </c>
-      <c r="I239">
-        <v>3</v>
-      </c>
-      <c r="J239" t="s">
-        <v>47</v>
-      </c>
-      <c r="K239">
-        <v>1.85</v>
-      </c>
-      <c r="L239">
-        <v>4.2</v>
-      </c>
-      <c r="M239">
-        <v>3</v>
-      </c>
-      <c r="N239">
-        <v>2.05</v>
-      </c>
-      <c r="O239">
-        <v>4.2</v>
-      </c>
-      <c r="P239">
-        <v>2.6</v>
-      </c>
-      <c r="Q239">
-        <v>-0.5</v>
-      </c>
-      <c r="R239">
-        <v>2.075</v>
-      </c>
-      <c r="S239">
-        <v>1.725</v>
-      </c>
-      <c r="T239">
-        <v>3.25</v>
-      </c>
-      <c r="U239">
-        <v>1.75</v>
-      </c>
-      <c r="V239">
-        <v>2.05</v>
-      </c>
-      <c r="W239">
-        <v>-1</v>
-      </c>
-      <c r="X239">
-        <v>-1</v>
-      </c>
-      <c r="Y239">
-        <v>1.6</v>
-      </c>
-      <c r="Z239">
-        <v>-1</v>
-      </c>
-      <c r="AA239">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="AB239">
-        <v>0.75</v>
-      </c>
-      <c r="AC239">
-        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21801,7 +21801,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6100858</v>
+        <v>6100860</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21813,58 +21813,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>46</v>
       </c>
       <c r="K240">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="L240">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="M240">
         <v>7</v>
       </c>
       <c r="N240">
-        <v>1.166</v>
+        <v>1.142</v>
       </c>
       <c r="O240">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P240">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q240">
         <v>-2.25</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
-        <v>0.1659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21873,16 +21873,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB240">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="241" spans="1:29">

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6100699</v>
+        <v>6100703</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,76 +2322,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6100703</v>
+        <v>6100699</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,76 +2411,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L22">
+        <v>3.8</v>
+      </c>
+      <c r="M22">
+        <v>1.666</v>
+      </c>
+      <c r="N22">
         <v>3.6</v>
-      </c>
-      <c r="M22">
-        <v>2.8</v>
-      </c>
-      <c r="N22">
-        <v>2.1</v>
       </c>
       <c r="O22">
         <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6100578</v>
+        <v>6100698</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,76 +2500,76 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>47</v>
       </c>
       <c r="K23">
+        <v>2.2</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>2.7</v>
+      </c>
+      <c r="N23">
         <v>2.15</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>2.8</v>
-      </c>
-      <c r="N23">
+      <c r="P23">
+        <v>2.875</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
-      <c r="P23">
-        <v>3.2</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.975</v>
-      </c>
-      <c r="S23">
-        <v>1.825</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V23">
+        <v>1.8</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>1.875</v>
       </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>2.2</v>
-      </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6100698</v>
+        <v>6100578</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,55 +2589,55 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>2.8</v>
+      </c>
+      <c r="N24">
+        <v>1.95</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="M24">
-        <v>2.7</v>
-      </c>
-      <c r="N24">
-        <v>2.15</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2646,19 +2646,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6100730</v>
+        <v>6098268</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,73 +5793,73 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="N60">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
         <v>3</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6098268</v>
+        <v>6100730</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,73 +5882,73 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>3</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M61">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>3</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6100759</v>
+        <v>6100760</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,49 +10154,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L109">
         <v>3.6</v>
       </c>
       <c r="M109">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N109">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P109">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
         <v>1.8</v>
@@ -10205,19 +10205,19 @@
         <v>2</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>0.8</v>
@@ -10231,7 +10231,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6100760</v>
+        <v>6100759</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10243,49 +10243,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N110">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O110">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
         <v>1.8</v>
@@ -10294,19 +10294,19 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
         <v>0.8</v>
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6100777</v>
+        <v>6100776</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,76 +12379,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N134">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12456,7 +12456,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6100776</v>
+        <v>6100777</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,76 +12468,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H135">
+        <v>7</v>
+      </c>
+      <c r="I135">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>2</v>
-      </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N135">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
         <v>3</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -15215,7 +15215,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6100804</v>
+        <v>6100806</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15227,13 +15227,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15242,25 +15242,25 @@
         <v>46</v>
       </c>
       <c r="K166">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L166">
+        <v>3.5</v>
+      </c>
+      <c r="M166">
+        <v>2.25</v>
+      </c>
+      <c r="N166">
+        <v>2.7</v>
+      </c>
+      <c r="O166">
         <v>3.6</v>
       </c>
-      <c r="M166">
-        <v>3.6</v>
-      </c>
-      <c r="N166">
-        <v>1.615</v>
-      </c>
-      <c r="O166">
-        <v>3.8</v>
-      </c>
       <c r="P166">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
         <v>1.8</v>
@@ -15269,16 +15269,16 @@
         <v>2</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15293,10 +15293,10 @@
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15304,7 +15304,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6100806</v>
+        <v>6100804</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15316,13 +15316,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15331,25 +15331,25 @@
         <v>46</v>
       </c>
       <c r="K167">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N167">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
         <v>1.8</v>
@@ -15358,16 +15358,16 @@
         <v>2</v>
       </c>
       <c r="T167">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15382,10 +15382,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -17974,7 +17974,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7291461</v>
+        <v>6100826</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17986,56 +17986,56 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>47</v>
       </c>
       <c r="K197">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N197">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
+        <v>1.925</v>
+      </c>
+      <c r="T197">
+        <v>3.25</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
         <v>1.8</v>
       </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.95</v>
-      </c>
-      <c r="V197">
-        <v>1.85</v>
-      </c>
       <c r="W197">
         <v>-1</v>
       </c>
@@ -18043,19 +18043,19 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.8</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
+        <v>0.925</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
         <v>0.8</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
-      </c>
-      <c r="AC197">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18063,7 +18063,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6100826</v>
+        <v>6100828</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18075,76 +18075,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H198">
+        <v>4</v>
+      </c>
+      <c r="I198">
         <v>0</v>
       </c>
-      <c r="I198">
-        <v>2</v>
-      </c>
       <c r="J198" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K198">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M198">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N198">
-        <v>4.5</v>
+        <v>1.142</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P198">
-        <v>1.533</v>
+        <v>12</v>
       </c>
       <c r="Q198">
+        <v>-2.25</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>1.8</v>
+      </c>
+      <c r="T198">
+        <v>3.5</v>
+      </c>
+      <c r="U198">
+        <v>1.975</v>
+      </c>
+      <c r="V198">
+        <v>1.825</v>
+      </c>
+      <c r="W198">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
         <v>1</v>
       </c>
-      <c r="R198">
-        <v>1.875</v>
-      </c>
-      <c r="S198">
-        <v>1.925</v>
-      </c>
-      <c r="T198">
-        <v>3.25</v>
-      </c>
-      <c r="U198">
-        <v>2</v>
-      </c>
-      <c r="V198">
-        <v>1.8</v>
-      </c>
-      <c r="W198">
-        <v>-1</v>
-      </c>
-      <c r="X198">
-        <v>-1</v>
-      </c>
-      <c r="Y198">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z198">
-        <v>-1</v>
-      </c>
       <c r="AA198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC198">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18152,7 +18152,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6100828</v>
+        <v>7291461</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18164,40 +18164,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K199">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L199">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N199">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="O199">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="Q199">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
         <v>2</v>
@@ -18206,34 +18206,34 @@
         <v>1.8</v>
       </c>
       <c r="T199">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W199">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -19398,7 +19398,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7356246</v>
+        <v>6100834</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19410,76 +19410,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L213">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N213">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O213">
         <v>3.6</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z213">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19487,7 +19487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6100834</v>
+        <v>7356246</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19499,76 +19499,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K214">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L214">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N214">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O214">
         <v>3.6</v>
       </c>
       <c r="P214">
+        <v>3.8</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
         <v>1.85</v>
-      </c>
-      <c r="Q214">
-        <v>0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA214">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20377,7 +20377,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6100841</v>
+        <v>6100840</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20389,62 +20389,62 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>48</v>
       </c>
       <c r="K224">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L224">
         <v>3.4</v>
       </c>
       <c r="M224">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N224">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P224">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R224">
+        <v>1.85</v>
+      </c>
+      <c r="S224">
+        <v>1.95</v>
+      </c>
+      <c r="T224">
+        <v>2.75</v>
+      </c>
+      <c r="U224">
         <v>1.825</v>
       </c>
-      <c r="S224">
+      <c r="V224">
         <v>1.975</v>
       </c>
-      <c r="T224">
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
         <v>3</v>
       </c>
-      <c r="U224">
-        <v>1.875</v>
-      </c>
-      <c r="V224">
-        <v>1.925</v>
-      </c>
-      <c r="W224">
-        <v>-1</v>
-      </c>
-      <c r="X224">
-        <v>2.6</v>
-      </c>
       <c r="Y224">
         <v>-1</v>
       </c>
@@ -20452,13 +20452,13 @@
         <v>-1</v>
       </c>
       <c r="AA224">
+        <v>0.95</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB224">
-        <v>0.875</v>
-      </c>
-      <c r="AC224">
-        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20466,7 +20466,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6100840</v>
+        <v>6100841</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20478,61 +20478,61 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>48</v>
       </c>
       <c r="K225">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L225">
         <v>3.4</v>
       </c>
       <c r="M225">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N225">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S225">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V225">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
         <v>-1</v>
@@ -20541,13 +20541,13 @@
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC225">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20733,7 +20733,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6100848</v>
+        <v>6100847</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20745,76 +20745,76 @@
         <v>45234.5</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
         <v>1</v>
       </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
       <c r="J228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K228">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M228">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N228">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O228">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P228">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R228">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
         <v>3</v>
       </c>
       <c r="U228">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W228">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z228">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20822,7 +20822,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6100847</v>
+        <v>6100848</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20834,76 +20834,76 @@
         <v>45234.5</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
         <v>0</v>
       </c>
-      <c r="I229">
-        <v>1</v>
-      </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K229">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L229">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N229">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O229">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P229">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q229">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
         <v>3</v>
       </c>
       <c r="U229">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20911,7 +20911,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6100852</v>
+        <v>6100853</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20923,73 +20923,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H230">
+        <v>4</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>46</v>
+      </c>
+      <c r="K230">
+        <v>1.5</v>
+      </c>
+      <c r="L230">
+        <v>4</v>
+      </c>
+      <c r="M230">
+        <v>5</v>
+      </c>
+      <c r="N230">
+        <v>1.444</v>
+      </c>
+      <c r="O230">
+        <v>4.2</v>
+      </c>
+      <c r="P230">
+        <v>5.5</v>
+      </c>
+      <c r="Q230">
+        <v>-1.25</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>1.8</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.85</v>
+      </c>
+      <c r="V230">
+        <v>1.95</v>
+      </c>
+      <c r="W230">
+        <v>0.444</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
         <v>1</v>
       </c>
-      <c r="I230">
-        <v>3</v>
-      </c>
-      <c r="J230" t="s">
-        <v>47</v>
-      </c>
-      <c r="K230">
-        <v>2.4</v>
-      </c>
-      <c r="L230">
-        <v>3.6</v>
-      </c>
-      <c r="M230">
-        <v>2.4</v>
-      </c>
-      <c r="N230">
-        <v>2.375</v>
-      </c>
-      <c r="O230">
-        <v>3.8</v>
-      </c>
-      <c r="P230">
-        <v>2.3</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>1.925</v>
-      </c>
-      <c r="S230">
-        <v>1.875</v>
-      </c>
-      <c r="T230">
-        <v>3.25</v>
-      </c>
-      <c r="U230">
-        <v>1.825</v>
-      </c>
-      <c r="V230">
-        <v>1.975</v>
-      </c>
-      <c r="W230">
-        <v>-1</v>
-      </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>1.3</v>
-      </c>
-      <c r="Z230">
-        <v>-1</v>
-      </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21000,7 +21000,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6100853</v>
+        <v>6100852</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21012,73 +21012,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I231">
+        <v>3</v>
+      </c>
+      <c r="J231" t="s">
+        <v>47</v>
+      </c>
+      <c r="K231">
+        <v>2.4</v>
+      </c>
+      <c r="L231">
+        <v>3.6</v>
+      </c>
+      <c r="M231">
+        <v>2.4</v>
+      </c>
+      <c r="N231">
+        <v>2.375</v>
+      </c>
+      <c r="O231">
+        <v>3.8</v>
+      </c>
+      <c r="P231">
+        <v>2.3</v>
+      </c>
+      <c r="Q231">
         <v>0</v>
       </c>
-      <c r="J231" t="s">
-        <v>46</v>
-      </c>
-      <c r="K231">
-        <v>1.5</v>
-      </c>
-      <c r="L231">
-        <v>4</v>
-      </c>
-      <c r="M231">
-        <v>5</v>
-      </c>
-      <c r="N231">
-        <v>1.444</v>
-      </c>
-      <c r="O231">
-        <v>4.2</v>
-      </c>
-      <c r="P231">
-        <v>5.5</v>
-      </c>
-      <c r="Q231">
-        <v>-1.25</v>
-      </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21089,7 +21089,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6100846</v>
+        <v>7433549</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,76 +21101,76 @@
         <v>45235.5</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K232">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M232">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N232">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O232">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X232">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21178,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7433549</v>
+        <v>6100846</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21190,76 +21190,76 @@
         <v>45235.5</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K233">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N233">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O233">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P233">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -130,10 +130,10 @@
     <t>Bodens BK FF</t>
   </si>
   <si>
-    <t>Nordic United FC</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Nordic United FC</t>
   </si>
   <si>
     <t>rebro Syrianska IF</t>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6100751</v>
+        <v>6097789</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,55 +1435,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W11">
-        <v>0.5329999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1492,16 +1492,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6097789</v>
+        <v>6100751</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,55 +1524,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6100756</v>
+        <v>6100758</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,58 +2144,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2204,16 +2204,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100758</v>
+        <v>6100756</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,58 +2233,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L20">
         <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2293,16 +2293,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2503,7 +2503,7 @@
         <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2859,7 +2859,7 @@
         <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6100763</v>
+        <v>6800952</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,76 +3301,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N32">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA32">
+        <v>-1</v>
+      </c>
+      <c r="AB32">
         <v>0.4</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <v>-0.5</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
-      <c r="AC32">
-        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3378,7 +3378,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6800952</v>
+        <v>6100763</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3390,76 +3390,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
+        <v>2.7</v>
+      </c>
+      <c r="N33">
+        <v>2.75</v>
+      </c>
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <v>2.2</v>
+      </c>
+      <c r="Q33">
+        <v>0.25</v>
+      </c>
+      <c r="R33">
         <v>1.8</v>
       </c>
-      <c r="N33">
-        <v>3.3</v>
-      </c>
-      <c r="O33">
-        <v>3.6</v>
-      </c>
-      <c r="P33">
-        <v>1.909</v>
-      </c>
-      <c r="Q33">
-        <v>0.5</v>
-      </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6100764</v>
+        <v>6100768</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,13 +3657,13 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="N36">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P36">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q36">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T36">
         <v>3</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>2.6</v>
+        <v>0.363</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3717,16 +3717,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6100768</v>
+        <v>6100767</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L37">
+        <v>3.8</v>
+      </c>
+      <c r="M37">
         <v>4</v>
       </c>
-      <c r="M37">
-        <v>5</v>
-      </c>
       <c r="N37">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O37">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P37">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC37">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6100767</v>
+        <v>6100764</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
         <v>3.8</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="N38">
+        <v>3.6</v>
+      </c>
+      <c r="O38">
+        <v>3.8</v>
+      </c>
+      <c r="P38">
+        <v>1.75</v>
+      </c>
+      <c r="Q38">
+        <v>0.75</v>
+      </c>
+      <c r="R38">
         <v>1.8</v>
       </c>
-      <c r="O38">
-        <v>3.75</v>
-      </c>
-      <c r="P38">
-        <v>3.6</v>
-      </c>
-      <c r="Q38">
-        <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.825</v>
-      </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
         <v>1.8</v>
       </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6100772</v>
+        <v>6100773</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4191,46 +4191,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L42">
         <v>3.6</v>
       </c>
       <c r="M42">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N42">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T42">
         <v>2.75</v>
@@ -4242,25 +4242,25 @@
         <v>2</v>
       </c>
       <c r="W42">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6100773</v>
+        <v>6100772</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,46 +4280,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>2.75</v>
@@ -4331,25 +4331,25 @@
         <v>2</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4817,7 +4817,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7048209</v>
+        <v>6100512</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,76 +4992,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
         <v>2.5</v>
       </c>
       <c r="O51">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6100778</v>
+        <v>7048209</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,76 +5081,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K52">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N52">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6100512</v>
+        <v>6100778</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,40 +5170,40 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M53">
         <v>3.75</v>
       </c>
       <c r="N53">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5212,31 +5212,31 @@
         <v>1.8</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7084665</v>
+        <v>6097795</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,76 +5793,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N60">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P60">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB60">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6097795</v>
+        <v>6100514</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,76 +5882,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K61">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M61">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N61">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O61">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q61">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
+        <v>0.375</v>
+      </c>
+      <c r="AA61">
         <v>-0.5</v>
       </c>
-      <c r="AA61">
-        <v>0.4875</v>
-      </c>
       <c r="AB61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6100514</v>
+        <v>6100779</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,76 +5971,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
       </c>
       <c r="K62">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L62">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N62">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6100779</v>
+        <v>7084665</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,49 +6060,49 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
         <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N63">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
         <v>1.95</v>
@@ -6114,22 +6114,22 @@
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>0.8</v>
+      </c>
+      <c r="AB63">
+        <v>0.475</v>
+      </c>
+      <c r="AC63">
         <v>-0.5</v>
-      </c>
-      <c r="AA63">
-        <v>0.475</v>
-      </c>
-      <c r="AB63">
-        <v>0.95</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6315,7 +6315,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6097796</v>
+        <v>7115552</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6327,76 +6327,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>3</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7115552</v>
+        <v>6097796</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6416,76 +6416,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N67">
+        <v>2.2</v>
+      </c>
+      <c r="O67">
         <v>3.75</v>
       </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
       <c r="P67">
+        <v>2.625</v>
+      </c>
+      <c r="Q67">
+        <v>-0.25</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
         <v>1.8</v>
-      </c>
-      <c r="Q67">
-        <v>0.5</v>
-      </c>
-      <c r="R67">
-        <v>1.95</v>
-      </c>
-      <c r="S67">
-        <v>1.85</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -7039,7 +7039,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6100519</v>
+        <v>6100800</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,76 +7128,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y75">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6100800</v>
+        <v>6100519</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,76 +7217,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M76">
+        <v>3.75</v>
+      </c>
+      <c r="N76">
+        <v>1.75</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>4.2</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.925</v>
+      </c>
+      <c r="S76">
+        <v>1.875</v>
+      </c>
+      <c r="T76">
+        <v>3.25</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
+        <v>1.9</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
+        <v>-1</v>
+      </c>
+      <c r="Y76">
         <v>3.2</v>
       </c>
-      <c r="N76">
-        <v>1.55</v>
-      </c>
-      <c r="O76">
-        <v>4.2</v>
-      </c>
-      <c r="P76">
-        <v>4.5</v>
-      </c>
-      <c r="Q76">
-        <v>-1</v>
-      </c>
-      <c r="R76">
-        <v>2.025</v>
-      </c>
-      <c r="S76">
-        <v>1.775</v>
-      </c>
-      <c r="T76">
-        <v>3</v>
-      </c>
-      <c r="U76">
-        <v>2</v>
-      </c>
-      <c r="V76">
-        <v>1.8</v>
-      </c>
-      <c r="W76">
-        <v>-1</v>
-      </c>
-      <c r="X76">
-        <v>3.2</v>
-      </c>
-      <c r="Y76">
-        <v>-1</v>
-      </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7144590</v>
+        <v>6100518</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,55 +7395,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
+        <v>4.5</v>
+      </c>
+      <c r="N78">
+        <v>1.65</v>
+      </c>
+      <c r="O78">
         <v>4.2</v>
       </c>
-      <c r="N78">
-        <v>1.75</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
       <c r="P78">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
         <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7472,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6100518</v>
+        <v>7144590</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7484,55 +7484,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L79">
+        <v>3.8</v>
+      </c>
+      <c r="M79">
         <v>4.2</v>
       </c>
-      <c r="M79">
-        <v>4.5</v>
-      </c>
       <c r="N79">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O79">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6100805</v>
+        <v>6097798</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7751,73 +7751,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC82">
         <v>-0.5</v>
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6100808</v>
+        <v>6100805</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,76 +7840,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
+        <v>3.1</v>
+      </c>
+      <c r="L83">
         <v>3.4</v>
       </c>
-      <c r="L83">
-        <v>3.8</v>
-      </c>
       <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3.4</v>
+      </c>
+      <c r="O83">
+        <v>3.4</v>
+      </c>
+      <c r="P83">
+        <v>1.909</v>
+      </c>
+      <c r="Q83">
+        <v>0.5</v>
+      </c>
+      <c r="R83">
         <v>1.8</v>
       </c>
-      <c r="N83">
-        <v>6</v>
-      </c>
-      <c r="O83">
-        <v>4.75</v>
-      </c>
-      <c r="P83">
-        <v>1.363</v>
-      </c>
-      <c r="Q83">
-        <v>1.25</v>
-      </c>
-      <c r="R83">
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <v>2.75</v>
+      </c>
+      <c r="U83">
         <v>1.95</v>
       </c>
-      <c r="S83">
+      <c r="V83">
         <v>1.85</v>
       </c>
-      <c r="T83">
-        <v>3.25</v>
-      </c>
-      <c r="U83">
-        <v>1.975</v>
-      </c>
-      <c r="V83">
-        <v>1.825</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6097798</v>
+        <v>6100808</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,76 +7929,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" t="s">
         <v>39</v>
       </c>
-      <c r="G84" t="s">
-        <v>44</v>
-      </c>
       <c r="H84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K84">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L84">
+        <v>3.8</v>
+      </c>
+      <c r="M84">
+        <v>1.8</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84">
+        <v>4.75</v>
+      </c>
+      <c r="P84">
+        <v>1.363</v>
+      </c>
+      <c r="Q84">
+        <v>1.25</v>
+      </c>
+      <c r="R84">
+        <v>1.95</v>
+      </c>
+      <c r="S84">
+        <v>1.85</v>
+      </c>
+      <c r="T84">
+        <v>3.25</v>
+      </c>
+      <c r="U84">
+        <v>1.975</v>
+      </c>
+      <c r="V84">
+        <v>1.825</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>3.75</v>
       </c>
-      <c r="M84">
-        <v>4</v>
-      </c>
-      <c r="N84">
-        <v>2.05</v>
-      </c>
-      <c r="O84">
-        <v>3.6</v>
-      </c>
-      <c r="P84">
-        <v>2.9</v>
-      </c>
-      <c r="Q84">
-        <v>-0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.85</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.775</v>
-      </c>
-      <c r="V84">
-        <v>2.025</v>
-      </c>
-      <c r="W84">
-        <v>1.05</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6100811</v>
+        <v>6100521</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,10 +8463,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8478,43 +8478,43 @@
         <v>46</v>
       </c>
       <c r="K90">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L90">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N90">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P90">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8523,16 +8523,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6100521</v>
+        <v>6100811</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,10 +8552,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8567,43 +8567,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L91">
+        <v>4.75</v>
+      </c>
+      <c r="M91">
+        <v>6</v>
+      </c>
+      <c r="N91">
+        <v>1.363</v>
+      </c>
+      <c r="O91">
+        <v>5.25</v>
+      </c>
+      <c r="P91">
+        <v>5.5</v>
+      </c>
+      <c r="Q91">
+        <v>-1.5</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3.5</v>
       </c>
-      <c r="M91">
-        <v>3.4</v>
-      </c>
-      <c r="N91">
-        <v>1.85</v>
-      </c>
-      <c r="O91">
-        <v>3.3</v>
-      </c>
-      <c r="P91">
-        <v>3.6</v>
-      </c>
-      <c r="Q91">
-        <v>-0.25</v>
-      </c>
-      <c r="R91">
+      <c r="U91">
         <v>1.825</v>
       </c>
-      <c r="S91">
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
-      <c r="V91">
-        <v>1.8</v>
-      </c>
       <c r="W91">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8612,16 +8612,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6100812</v>
+        <v>6100813</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,49 +8730,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
+      <c r="J93" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93">
+        <v>1.45</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>5.5</v>
+      </c>
+      <c r="N93">
+        <v>1.363</v>
+      </c>
+      <c r="O93">
+        <v>4.5</v>
+      </c>
+      <c r="P93">
+        <v>6.5</v>
+      </c>
+      <c r="Q93">
+        <v>-1.25</v>
+      </c>
+      <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>1.95</v>
+      </c>
+      <c r="T93">
         <v>3</v>
-      </c>
-      <c r="J93" t="s">
-        <v>47</v>
-      </c>
-      <c r="K93">
-        <v>5.75</v>
-      </c>
-      <c r="L93">
-        <v>4.5</v>
-      </c>
-      <c r="M93">
-        <v>1.4</v>
-      </c>
-      <c r="N93">
-        <v>7</v>
-      </c>
-      <c r="O93">
-        <v>5</v>
-      </c>
-      <c r="P93">
-        <v>1.3</v>
-      </c>
-      <c r="Q93">
-        <v>1.25</v>
-      </c>
-      <c r="R93">
-        <v>2.1</v>
-      </c>
-      <c r="S93">
-        <v>1.7</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.85</v>
@@ -8781,25 +8781,25 @@
         <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6100813</v>
+        <v>6100812</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,49 +8819,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="N94">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P94">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
         <v>1.85</v>
@@ -8870,25 +8870,25 @@
         <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>41</v>
@@ -9089,7 +9089,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6100814</v>
+        <v>6098265</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,13 +9264,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -9279,41 +9279,41 @@
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N99">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
+        <v>1.925</v>
+      </c>
+      <c r="V99">
         <v>1.875</v>
       </c>
-      <c r="V99">
-        <v>1.925</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9321,19 +9321,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6098265</v>
+        <v>6100814</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,13 +9442,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9457,41 +9457,41 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
+        <v>1.875</v>
+      </c>
+      <c r="V101">
         <v>1.925</v>
       </c>
-      <c r="V101">
-        <v>1.875</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
@@ -9499,19 +9499,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6100818</v>
+        <v>6100816</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,40 +9709,40 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
         <v>1.975</v>
@@ -9751,34 +9751,34 @@
         <v>1.825</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6100816</v>
+        <v>6100818</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,40 +9798,40 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
         <v>1</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="Q105">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
         <v>1.975</v>
@@ -9840,34 +9840,34 @@
         <v>1.825</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9875,7 +9875,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6100523</v>
+        <v>6100821</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9887,55 +9887,55 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>47</v>
       </c>
       <c r="K106">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M106">
+        <v>4.75</v>
+      </c>
+      <c r="N106">
+        <v>1.615</v>
+      </c>
+      <c r="O106">
+        <v>4</v>
+      </c>
+      <c r="P106">
+        <v>4.333</v>
+      </c>
+      <c r="Q106">
+        <v>-0.75</v>
+      </c>
+      <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>2.75</v>
+      </c>
+      <c r="U106">
         <v>1.85</v>
       </c>
-      <c r="N106">
-        <v>3.2</v>
-      </c>
-      <c r="O106">
-        <v>3.75</v>
-      </c>
-      <c r="P106">
-        <v>1.909</v>
-      </c>
-      <c r="Q106">
-        <v>0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.825</v>
-      </c>
-      <c r="S106">
-        <v>1.975</v>
-      </c>
-      <c r="T106">
-        <v>3</v>
-      </c>
-      <c r="U106">
-        <v>1.675</v>
-      </c>
       <c r="V106">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9944,19 +9944,19 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.909</v>
+        <v>3.333</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6100821</v>
+        <v>6100523</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,55 +9976,55 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>47</v>
       </c>
       <c r="K107">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L107">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M107">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N107">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10033,19 +10033,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>3.333</v>
+        <v>0.909</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,10 +10065,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10080,25 +10080,25 @@
         <v>46</v>
       </c>
       <c r="K108">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L108">
         <v>3.5</v>
       </c>
       <c r="M108">
+        <v>2.25</v>
+      </c>
+      <c r="N108">
         <v>3</v>
       </c>
-      <c r="N108">
-        <v>1.95</v>
-      </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
         <v>2</v>
@@ -10107,16 +10107,16 @@
         <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10134,7 +10134,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,10 +10154,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10169,25 +10169,25 @@
         <v>46</v>
       </c>
       <c r="K109">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L109">
         <v>3.5</v>
       </c>
       <c r="M109">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
         <v>2</v>
@@ -10196,16 +10196,16 @@
         <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10223,7 +10223,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10335,7 +10335,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7291461</v>
+        <v>6100828</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,40 +10866,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M117">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R117">
         <v>2</v>
@@ -10908,34 +10908,34 @@
         <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6100828</v>
+        <v>6100826</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,76 +10955,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118" t="s">
+        <v>47</v>
+      </c>
+      <c r="K118">
+        <v>3.2</v>
+      </c>
+      <c r="L118">
+        <v>3.6</v>
+      </c>
+      <c r="M118">
+        <v>1.909</v>
+      </c>
+      <c r="N118">
+        <v>4.5</v>
+      </c>
+      <c r="O118">
         <v>4</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>46</v>
-      </c>
-      <c r="K118">
-        <v>1.333</v>
-      </c>
-      <c r="L118">
-        <v>5</v>
-      </c>
-      <c r="M118">
-        <v>6</v>
-      </c>
-      <c r="N118">
-        <v>1.142</v>
-      </c>
-      <c r="O118">
-        <v>7</v>
-      </c>
       <c r="P118">
-        <v>12</v>
+        <v>1.533</v>
       </c>
       <c r="Q118">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
+        <v>1.925</v>
+      </c>
+      <c r="T118">
+        <v>3.25</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="T118">
-        <v>3.5</v>
-      </c>
-      <c r="U118">
-        <v>1.975</v>
-      </c>
-      <c r="V118">
-        <v>1.825</v>
-      </c>
       <c r="W118">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6100826</v>
+        <v>7291461</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>47</v>
       </c>
       <c r="K119">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
+        <v>1.85</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
         <v>1.8</v>
       </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6097801</v>
+        <v>7338338</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,31 +11403,31 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
         <v>46</v>
       </c>
       <c r="K123">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L123">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
         <v>4.75</v>
@@ -11436,22 +11436,22 @@
         <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11460,16 +11460,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7338338</v>
+        <v>6097801</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,31 +11581,31 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
         <v>4.75</v>
@@ -11614,22 +11614,22 @@
         <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6100837</v>
+        <v>6100528</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,76 +12112,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L131">
+        <v>4.333</v>
+      </c>
+      <c r="M131">
+        <v>1.475</v>
+      </c>
+      <c r="N131">
+        <v>4.5</v>
+      </c>
+      <c r="O131">
         <v>3.6</v>
       </c>
-      <c r="M131">
-        <v>2.2</v>
-      </c>
-      <c r="N131">
-        <v>2.375</v>
-      </c>
-      <c r="O131">
-        <v>3.75</v>
-      </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6100528</v>
+        <v>6100837</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12201,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132" t="s">
+        <v>47</v>
+      </c>
+      <c r="K132">
+        <v>2.625</v>
+      </c>
+      <c r="L132">
+        <v>3.6</v>
+      </c>
+      <c r="M132">
+        <v>2.2</v>
+      </c>
+      <c r="N132">
+        <v>2.375</v>
+      </c>
+      <c r="O132">
+        <v>3.75</v>
+      </c>
+      <c r="P132">
+        <v>2.3</v>
+      </c>
+      <c r="Q132">
         <v>0</v>
       </c>
-      <c r="J132" t="s">
-        <v>46</v>
-      </c>
-      <c r="K132">
-        <v>4.75</v>
-      </c>
-      <c r="L132">
-        <v>4.333</v>
-      </c>
-      <c r="M132">
-        <v>1.475</v>
-      </c>
-      <c r="N132">
-        <v>4.5</v>
-      </c>
-      <c r="O132">
-        <v>3.6</v>
-      </c>
-      <c r="P132">
-        <v>1.6</v>
-      </c>
-      <c r="Q132">
-        <v>0.75</v>
-      </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6100834</v>
+        <v>7356246</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,76 +12290,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O133">
         <v>3.6</v>
       </c>
       <c r="P133">
+        <v>3.8</v>
+      </c>
+      <c r="Q133">
+        <v>-0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
         <v>1.85</v>
-      </c>
-      <c r="Q133">
-        <v>0.5</v>
-      </c>
-      <c r="R133">
-        <v>1.9</v>
-      </c>
-      <c r="S133">
-        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7356246</v>
+        <v>6100834</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,76 +12379,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N134">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O134">
         <v>3.6</v>
       </c>
       <c r="P134">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z134">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7392733</v>
+        <v>6100530</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12824,76 +12824,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N139">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P139">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
         <v>34</v>
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6100530</v>
+        <v>7392733</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,76 +13091,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N142">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="O142">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R142">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z142">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13969,7 +13969,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6100846</v>
+        <v>7433549</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13981,76 +13981,76 @@
         <v>45235.5</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K152">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N152">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O152">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P152">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R152">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X152">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14058,7 +14058,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7433549</v>
+        <v>6100846</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14070,76 +14070,76 @@
         <v>45235.5</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K153">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N153">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W153">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7465140</v>
+        <v>6100855</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,58 +14159,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>46</v>
       </c>
       <c r="K154">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L154">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M154">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N154">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O154">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P154">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T154">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14219,16 +14219,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6100855</v>
+        <v>6100859</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,73 +14248,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
         <v>3</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K155">
+        <v>1.85</v>
+      </c>
+      <c r="L155">
+        <v>4.2</v>
+      </c>
+      <c r="M155">
+        <v>3</v>
+      </c>
+      <c r="N155">
+        <v>2.05</v>
+      </c>
+      <c r="O155">
+        <v>4.2</v>
+      </c>
+      <c r="P155">
         <v>2.6</v>
       </c>
-      <c r="L155">
-        <v>2.875</v>
-      </c>
-      <c r="M155">
-        <v>2.625</v>
-      </c>
-      <c r="N155">
-        <v>2.45</v>
-      </c>
-      <c r="O155">
-        <v>2.875</v>
-      </c>
-      <c r="P155">
-        <v>2.875</v>
-      </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W155">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z155">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6100854</v>
+        <v>6100860</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,76 +14337,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
         <v>0</v>
       </c>
-      <c r="I156">
-        <v>3</v>
-      </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K156">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="L156">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M156">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N156">
-        <v>6.5</v>
+        <v>1.142</v>
       </c>
       <c r="O156">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="P156">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="Q156">
-        <v>1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R156">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100861</v>
+        <v>6100854</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14426,56 +14426,56 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J157" t="s">
         <v>47</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="N157">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="O157">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R157">
+        <v>1.975</v>
+      </c>
+      <c r="S157">
         <v>1.825</v>
       </c>
-      <c r="S157">
-        <v>1.975</v>
-      </c>
       <c r="T157">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
         <v>1.8</v>
       </c>
-      <c r="V157">
-        <v>2</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
@@ -14483,19 +14483,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6100860</v>
+        <v>7465140</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,10 +14515,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14530,43 +14530,43 @@
         <v>46</v>
       </c>
       <c r="K158">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N158">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="O158">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>13</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T158">
         <v>3.5</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>0.1419999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14575,16 +14575,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6100859</v>
+        <v>6100857</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,73 +14604,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
         <v>1</v>
       </c>
-      <c r="I159">
-        <v>3</v>
-      </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L159">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N159">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O159">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P159">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S159">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
         <v>3.25</v>
       </c>
       <c r="U159">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14770,7 +14770,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6100857</v>
+        <v>6100861</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14782,40 +14782,40 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M161">
+        <v>2.75</v>
+      </c>
+      <c r="N161">
+        <v>1.95</v>
+      </c>
+      <c r="O161">
+        <v>4.333</v>
+      </c>
+      <c r="P161">
         <v>2.7</v>
       </c>
-      <c r="N161">
-        <v>1.533</v>
-      </c>
-      <c r="O161">
-        <v>4.5</v>
-      </c>
-      <c r="P161">
-        <v>4.333</v>
-      </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
         <v>1.825</v>
@@ -14824,31 +14824,31 @@
         <v>1.975</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W161">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC161">
         <v>-1</v>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -130,10 +130,10 @@
     <t>Bodens BK FF</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Nordic United FC</t>
   </si>
   <si>
-    <t>Nordic United FC</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
     <t>rebro Syrianska IF</t>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6097789</v>
+        <v>6100751</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,55 +1435,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1492,16 +1492,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6100751</v>
+        <v>6097789</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,55 +1524,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W12">
-        <v>0.5329999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2503,7 +2503,7 @@
         <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,46 +2589,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N24">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T24">
         <v>2.75</v>
@@ -2643,22 +2643,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,46 +2678,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>2.75</v>
@@ -2732,22 +2732,22 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3479,7 +3479,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6100768</v>
+        <v>6100767</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,76 +3657,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L36">
+        <v>3.8</v>
+      </c>
+      <c r="M36">
         <v>4</v>
       </c>
-      <c r="M36">
-        <v>5</v>
-      </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6100767</v>
+        <v>6100768</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37">
+        <v>1.5</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>1.363</v>
+      </c>
+      <c r="O37">
+        <v>4.333</v>
+      </c>
+      <c r="P37">
+        <v>6.5</v>
+      </c>
+      <c r="Q37">
+        <v>-1.25</v>
+      </c>
+      <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
         <v>3</v>
       </c>
-      <c r="J37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37">
-        <v>1.666</v>
-      </c>
-      <c r="L37">
-        <v>3.8</v>
-      </c>
-      <c r="M37">
-        <v>4</v>
-      </c>
-      <c r="N37">
-        <v>1.8</v>
-      </c>
-      <c r="O37">
-        <v>3.75</v>
-      </c>
-      <c r="P37">
-        <v>3.6</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
+      <c r="U37">
+        <v>1.975</v>
+      </c>
+      <c r="V37">
         <v>1.825</v>
       </c>
-      <c r="S37">
-        <v>1.975</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
-      <c r="U37">
-        <v>1.8</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6100509</v>
+        <v>6100765</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,58 +3924,58 @@
         <v>45137.5</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
+        <v>1.875</v>
+      </c>
+      <c r="S39">
+        <v>1.925</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
         <v>1.9</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.9</v>
       </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3984,13 +3984,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.875</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.95</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6100765</v>
+        <v>6100509</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,59 +4013,59 @@
         <v>45137.5</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
       </c>
       <c r="K40">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
+        <v>1.85</v>
+      </c>
+      <c r="W40">
         <v>1.9</v>
       </c>
-      <c r="V40">
-        <v>1.9</v>
-      </c>
-      <c r="W40">
-        <v>0.444</v>
-      </c>
       <c r="X40">
         <v>-1</v>
       </c>
@@ -4073,13 +4073,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6100773</v>
+        <v>6100772</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4191,46 +4191,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
         <v>3.6</v>
       </c>
       <c r="M42">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N42">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O42">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P42">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
         <v>2.75</v>
@@ -4242,25 +4242,25 @@
         <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6100772</v>
+        <v>6100773</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,46 +4280,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N43">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T43">
         <v>2.75</v>
@@ -4331,25 +4331,25 @@
         <v>2</v>
       </c>
       <c r="W43">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6100511</v>
+        <v>6100770</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,56 +4369,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="L44">
+        <v>3.75</v>
+      </c>
+      <c r="M44">
+        <v>1.952</v>
+      </c>
+      <c r="N44">
+        <v>2.8</v>
+      </c>
+      <c r="O44">
         <v>4</v>
       </c>
-      <c r="M44">
-        <v>3.75</v>
-      </c>
-      <c r="N44">
-        <v>1.65</v>
-      </c>
-      <c r="O44">
-        <v>3.8</v>
-      </c>
       <c r="P44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
+        <v>1.975</v>
+      </c>
+      <c r="S44">
+        <v>1.825</v>
+      </c>
+      <c r="T44">
+        <v>3.25</v>
+      </c>
+      <c r="U44">
         <v>1.875</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.925</v>
       </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
-      <c r="V44">
-        <v>1.8</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4426,19 +4426,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6100770</v>
+        <v>6100511</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
+        <v>1.666</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>3.75</v>
+      </c>
+      <c r="N45">
+        <v>1.65</v>
+      </c>
+      <c r="O45">
+        <v>3.8</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>-0.75</v>
+      </c>
+      <c r="R45">
+        <v>1.875</v>
+      </c>
+      <c r="S45">
+        <v>1.925</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>1.8</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>3</v>
       </c>
-      <c r="L45">
-        <v>3.75</v>
-      </c>
-      <c r="M45">
-        <v>1.952</v>
-      </c>
-      <c r="N45">
-        <v>2.8</v>
-      </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
-      <c r="P45">
-        <v>2</v>
-      </c>
-      <c r="Q45">
-        <v>0.25</v>
-      </c>
-      <c r="R45">
-        <v>1.975</v>
-      </c>
-      <c r="S45">
-        <v>1.825</v>
-      </c>
-      <c r="T45">
-        <v>3.25</v>
-      </c>
-      <c r="U45">
-        <v>1.875</v>
-      </c>
-      <c r="V45">
-        <v>1.925</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6100771</v>
+        <v>7018646</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,40 +4547,40 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
+      <c r="J46" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46">
+        <v>1.727</v>
+      </c>
+      <c r="L46">
+        <v>3.75</v>
+      </c>
+      <c r="M46">
+        <v>3.75</v>
+      </c>
+      <c r="N46">
+        <v>1.45</v>
+      </c>
+      <c r="O46">
+        <v>4.2</v>
+      </c>
+      <c r="P46">
         <v>5</v>
       </c>
-      <c r="J46" t="s">
-        <v>47</v>
-      </c>
-      <c r="K46">
-        <v>3.5</v>
-      </c>
-      <c r="L46">
-        <v>4</v>
-      </c>
-      <c r="M46">
-        <v>1.727</v>
-      </c>
-      <c r="N46">
-        <v>4.5</v>
-      </c>
-      <c r="O46">
-        <v>4.75</v>
-      </c>
-      <c r="P46">
-        <v>1.45</v>
-      </c>
       <c r="Q46">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R46">
         <v>1.8</v>
@@ -4589,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>1.925</v>
@@ -4598,19 +4598,19 @@
         <v>1.875</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>0.925</v>
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7018646</v>
+        <v>6100771</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,40 +4636,40 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47">
+        <v>3.5</v>
+      </c>
+      <c r="L47">
         <v>4</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47">
+      <c r="M47">
         <v>1.727</v>
       </c>
-      <c r="L47">
-        <v>3.75</v>
-      </c>
-      <c r="M47">
-        <v>3.75</v>
-      </c>
       <c r="N47">
+        <v>4.5</v>
+      </c>
+      <c r="O47">
+        <v>4.75</v>
+      </c>
+      <c r="P47">
         <v>1.45</v>
       </c>
-      <c r="O47">
-        <v>4.2</v>
-      </c>
-      <c r="P47">
-        <v>5</v>
-      </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R47">
         <v>1.8</v>
@@ -4678,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
         <v>1.925</v>
@@ -4687,19 +4687,19 @@
         <v>1.875</v>
       </c>
       <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
         <v>0.45</v>
       </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>0.925</v>
@@ -4725,7 +4725,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4817,7 +4817,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6097794</v>
+        <v>7048209</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,76 +4903,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50">
+        <v>2.25</v>
+      </c>
+      <c r="L50">
+        <v>3.5</v>
+      </c>
+      <c r="M50">
+        <v>2.6</v>
+      </c>
+      <c r="N50">
+        <v>2.5</v>
+      </c>
+      <c r="O50">
+        <v>3.3</v>
+      </c>
+      <c r="P50">
+        <v>2.4</v>
+      </c>
+      <c r="Q50">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50">
-        <v>2.9</v>
-      </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.1</v>
-      </c>
-      <c r="N50">
-        <v>2.8</v>
-      </c>
-      <c r="O50">
-        <v>3.4</v>
-      </c>
-      <c r="P50">
-        <v>2.15</v>
-      </c>
-      <c r="Q50">
-        <v>0.25</v>
-      </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7048209</v>
+        <v>6097794</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,76 +5081,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L52">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N52">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O52">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X52">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5170,7 +5170,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>44</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6100513</v>
+        <v>6100775</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,76 +5437,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N56">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6100775</v>
+        <v>6100513</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,76 +5526,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L57">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5793,7 +5793,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
         <v>33</v>
@@ -6241,7 +6241,7 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6419,7 +6419,7 @@
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6100796</v>
+        <v>6100784</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,76 +6683,76 @@
         <v>45165.375</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>3</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L70">
         <v>3.9</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N70">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
         <v>1.95</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="T70">
-        <v>3</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
       <c r="W70">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6100784</v>
+        <v>6100796</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,76 +6772,76 @@
         <v>45165.375</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L71">
         <v>3.9</v>
       </c>
       <c r="M71">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N71">
+        <v>3.6</v>
+      </c>
+      <c r="O71">
+        <v>3.75</v>
+      </c>
+      <c r="P71">
+        <v>1.833</v>
+      </c>
+      <c r="Q71">
+        <v>0.5</v>
+      </c>
+      <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
+        <v>1.85</v>
+      </c>
+      <c r="T71">
         <v>3</v>
       </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
-      <c r="P71">
-        <v>2.1</v>
-      </c>
-      <c r="Q71">
-        <v>0.25</v>
-      </c>
-      <c r="R71">
-        <v>1.9</v>
-      </c>
-      <c r="S71">
-        <v>1.9</v>
-      </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
       <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7039,7 +7039,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6100800</v>
+        <v>6100519</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,76 +7128,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
+        <v>3.75</v>
+      </c>
+      <c r="N75">
+        <v>1.75</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>4.2</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
+        <v>1.925</v>
+      </c>
+      <c r="S75">
+        <v>1.875</v>
+      </c>
+      <c r="T75">
+        <v>3.25</v>
+      </c>
+      <c r="U75">
+        <v>1.9</v>
+      </c>
+      <c r="V75">
+        <v>1.9</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
         <v>3.2</v>
       </c>
-      <c r="N75">
-        <v>1.55</v>
-      </c>
-      <c r="O75">
-        <v>4.2</v>
-      </c>
-      <c r="P75">
-        <v>4.5</v>
-      </c>
-      <c r="Q75">
-        <v>-1</v>
-      </c>
-      <c r="R75">
-        <v>2.025</v>
-      </c>
-      <c r="S75">
-        <v>1.775</v>
-      </c>
-      <c r="T75">
-        <v>3</v>
-      </c>
-      <c r="U75">
-        <v>2</v>
-      </c>
-      <c r="V75">
-        <v>1.8</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
-      <c r="X75">
-        <v>3.2</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6100519</v>
+        <v>6100800</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,76 +7217,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6100518</v>
+        <v>7144590</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,55 +7395,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L78">
+        <v>3.8</v>
+      </c>
+      <c r="M78">
         <v>4.2</v>
       </c>
-      <c r="M78">
-        <v>4.5</v>
-      </c>
       <c r="N78">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q78">
         <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7472,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7144590</v>
+        <v>6100518</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7484,55 +7484,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L79">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M79">
+        <v>4.5</v>
+      </c>
+      <c r="N79">
+        <v>1.65</v>
+      </c>
+      <c r="O79">
         <v>4.2</v>
       </c>
-      <c r="N79">
-        <v>1.75</v>
-      </c>
-      <c r="O79">
-        <v>3.8</v>
-      </c>
       <c r="P79">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7751,7 +7751,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>44</v>
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6100805</v>
+        <v>6100808</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,76 +7840,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N83">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y83">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6100808</v>
+        <v>6100805</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,76 +7929,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84">
+        <v>3.1</v>
+      </c>
+      <c r="L84">
         <v>3.4</v>
       </c>
-      <c r="L84">
-        <v>3.8</v>
-      </c>
       <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3.4</v>
+      </c>
+      <c r="O84">
+        <v>3.4</v>
+      </c>
+      <c r="P84">
+        <v>1.909</v>
+      </c>
+      <c r="Q84">
+        <v>0.5</v>
+      </c>
+      <c r="R84">
         <v>1.8</v>
       </c>
-      <c r="N84">
-        <v>6</v>
-      </c>
-      <c r="O84">
-        <v>4.75</v>
-      </c>
-      <c r="P84">
-        <v>1.363</v>
-      </c>
-      <c r="Q84">
-        <v>1.25</v>
-      </c>
-      <c r="R84">
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>2.75</v>
+      </c>
+      <c r="U84">
         <v>1.95</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.85</v>
       </c>
-      <c r="T84">
-        <v>3.25</v>
-      </c>
-      <c r="U84">
-        <v>1.975</v>
-      </c>
-      <c r="V84">
-        <v>1.825</v>
-      </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6100804</v>
+        <v>6100806</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,13 +8107,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8122,25 +8122,25 @@
         <v>46</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L86">
+        <v>3.5</v>
+      </c>
+      <c r="M86">
+        <v>2.25</v>
+      </c>
+      <c r="N86">
+        <v>2.7</v>
+      </c>
+      <c r="O86">
         <v>3.6</v>
       </c>
-      <c r="M86">
-        <v>3.6</v>
-      </c>
-      <c r="N86">
-        <v>1.615</v>
-      </c>
-      <c r="O86">
-        <v>3.8</v>
-      </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
         <v>1.8</v>
@@ -8149,16 +8149,16 @@
         <v>2</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8173,10 +8173,10 @@
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6100806</v>
+        <v>6100804</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8196,13 +8196,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8211,25 +8211,25 @@
         <v>46</v>
       </c>
       <c r="K87">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
         <v>1.8</v>
@@ -8238,16 +8238,16 @@
         <v>2</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8262,10 +8262,10 @@
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6100521</v>
+        <v>7202023</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L90">
         <v>3.5</v>
       </c>
       <c r="M90">
+        <v>2.8</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>3.6</v>
+      </c>
+      <c r="P90">
         <v>3.4</v>
       </c>
-      <c r="N90">
-        <v>1.85</v>
-      </c>
-      <c r="O90">
-        <v>3.3</v>
-      </c>
-      <c r="P90">
-        <v>3.6</v>
-      </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7202023</v>
+        <v>6100521</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L92">
         <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O92">
+        <v>3.3</v>
+      </c>
+      <c r="P92">
         <v>3.6</v>
       </c>
-      <c r="P92">
-        <v>3.4</v>
-      </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
+        <v>1.975</v>
+      </c>
+      <c r="T92">
+        <v>2.5</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>1.9</v>
-      </c>
-      <c r="V92">
-        <v>1.9</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.8</v>
-      </c>
-      <c r="AB92">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6100813</v>
+        <v>6100812</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,49 +8730,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="N93">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.85</v>
@@ -8781,25 +8781,25 @@
         <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6100812</v>
+        <v>6100813</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,49 +8819,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="I94">
+      <c r="J94" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94">
+        <v>1.45</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>5.5</v>
+      </c>
+      <c r="N94">
+        <v>1.363</v>
+      </c>
+      <c r="O94">
+        <v>4.5</v>
+      </c>
+      <c r="P94">
+        <v>6.5</v>
+      </c>
+      <c r="Q94">
+        <v>-1.25</v>
+      </c>
+      <c r="R94">
+        <v>1.85</v>
+      </c>
+      <c r="S94">
+        <v>1.95</v>
+      </c>
+      <c r="T94">
         <v>3</v>
-      </c>
-      <c r="J94" t="s">
-        <v>47</v>
-      </c>
-      <c r="K94">
-        <v>5.75</v>
-      </c>
-      <c r="L94">
-        <v>4.5</v>
-      </c>
-      <c r="M94">
-        <v>1.4</v>
-      </c>
-      <c r="N94">
-        <v>7</v>
-      </c>
-      <c r="O94">
-        <v>5</v>
-      </c>
-      <c r="P94">
-        <v>1.3</v>
-      </c>
-      <c r="Q94">
-        <v>1.25</v>
-      </c>
-      <c r="R94">
-        <v>2.1</v>
-      </c>
-      <c r="S94">
-        <v>1.7</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
       </c>
       <c r="U94">
         <v>1.85</v>
@@ -8870,25 +8870,25 @@
         <v>1.95</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>41</v>
@@ -9089,7 +9089,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9264,10 +9264,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F99" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" t="s">
         <v>38</v>
-      </c>
-      <c r="G99" t="s">
-        <v>39</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7237972</v>
+        <v>6100814</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,76 +9353,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="O100">
         <v>3.8</v>
       </c>
       <c r="P100">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6100814</v>
+        <v>7237972</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O101">
         <v>3.8</v>
       </c>
       <c r="P101">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
+        <v>2</v>
+      </c>
+      <c r="V101">
+        <v>1.8</v>
+      </c>
+      <c r="W101">
         <v>1.875</v>
       </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,10 +10065,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10080,25 +10080,25 @@
         <v>46</v>
       </c>
       <c r="K108">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L108">
         <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
         <v>2</v>
@@ -10107,16 +10107,16 @@
         <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10134,7 +10134,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,10 +10154,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10169,25 +10169,25 @@
         <v>46</v>
       </c>
       <c r="K109">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L109">
         <v>3.5</v>
       </c>
       <c r="M109">
+        <v>2.25</v>
+      </c>
+      <c r="N109">
         <v>3</v>
       </c>
-      <c r="N109">
-        <v>1.95</v>
-      </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
         <v>2</v>
@@ -10196,16 +10196,16 @@
         <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10223,7 +10223,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10335,7 +10335,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6100828</v>
+        <v>6100826</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,76 +10866,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117">
+        <v>3.2</v>
+      </c>
+      <c r="L117">
+        <v>3.6</v>
+      </c>
+      <c r="M117">
+        <v>1.909</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>46</v>
-      </c>
-      <c r="K117">
-        <v>1.333</v>
-      </c>
-      <c r="L117">
-        <v>5</v>
-      </c>
-      <c r="M117">
-        <v>6</v>
-      </c>
-      <c r="N117">
-        <v>1.142</v>
-      </c>
-      <c r="O117">
-        <v>7</v>
-      </c>
       <c r="P117">
-        <v>12</v>
+        <v>1.533</v>
       </c>
       <c r="Q117">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="T117">
-        <v>3.5</v>
-      </c>
-      <c r="U117">
-        <v>1.975</v>
-      </c>
-      <c r="V117">
-        <v>1.825</v>
-      </c>
       <c r="W117">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6100826</v>
+        <v>7291461</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,76 +10955,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>47</v>
       </c>
       <c r="K118">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N118">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O118">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="Q118">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
+        <v>1.85</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
         <v>1.8</v>
       </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7291461</v>
+        <v>6100828</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,40 +11044,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
         <v>0</v>
       </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N119">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P119">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R119">
         <v>2</v>
@@ -11086,34 +11086,34 @@
         <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7338338</v>
+        <v>6097801</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,31 +11403,31 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>46</v>
       </c>
       <c r="K123">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M123">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N123">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O123">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
         <v>4.75</v>
@@ -11436,22 +11436,22 @@
         <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11460,16 +11460,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6100526</v>
+        <v>7338338</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,13 +11489,13 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11504,43 +11504,43 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
         <v>3</v>
       </c>
       <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6097801</v>
+        <v>6100526</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,58 +11578,58 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="L125">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N125">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>0.55</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6100528</v>
+        <v>6100837</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,76 +12112,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131" t="s">
+        <v>47</v>
+      </c>
+      <c r="K131">
+        <v>2.625</v>
+      </c>
+      <c r="L131">
+        <v>3.6</v>
+      </c>
+      <c r="M131">
+        <v>2.2</v>
+      </c>
+      <c r="N131">
+        <v>2.375</v>
+      </c>
+      <c r="O131">
+        <v>3.75</v>
+      </c>
+      <c r="P131">
+        <v>2.3</v>
+      </c>
+      <c r="Q131">
         <v>0</v>
       </c>
-      <c r="J131" t="s">
-        <v>46</v>
-      </c>
-      <c r="K131">
-        <v>4.75</v>
-      </c>
-      <c r="L131">
-        <v>4.333</v>
-      </c>
-      <c r="M131">
-        <v>1.475</v>
-      </c>
-      <c r="N131">
-        <v>4.5</v>
-      </c>
-      <c r="O131">
-        <v>3.6</v>
-      </c>
-      <c r="P131">
-        <v>1.6</v>
-      </c>
-      <c r="Q131">
-        <v>0.75</v>
-      </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6100837</v>
+        <v>6100528</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12201,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L132">
+        <v>4.333</v>
+      </c>
+      <c r="M132">
+        <v>1.475</v>
+      </c>
+      <c r="N132">
+        <v>4.5</v>
+      </c>
+      <c r="O132">
         <v>3.6</v>
       </c>
-      <c r="M132">
-        <v>2.2</v>
-      </c>
-      <c r="N132">
-        <v>2.375</v>
-      </c>
-      <c r="O132">
-        <v>3.75</v>
-      </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12382,7 +12382,7 @@
         <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12649,7 +12649,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6100530</v>
+        <v>7392733</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12824,76 +12824,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L139">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N139">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="O139">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q139">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z139">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6100845</v>
+        <v>6100844</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,58 +12913,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H140">
+        <v>5</v>
+      </c>
+      <c r="I140">
         <v>1</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>46</v>
       </c>
       <c r="K140">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
+        <v>5.5</v>
+      </c>
+      <c r="N140">
+        <v>1.727</v>
+      </c>
+      <c r="O140">
         <v>4</v>
       </c>
-      <c r="N140">
-        <v>1.75</v>
-      </c>
-      <c r="O140">
-        <v>3.8</v>
-      </c>
       <c r="P140">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>0.75</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12973,16 +12973,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6100844</v>
+        <v>6100845</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,58 +13002,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>46</v>
       </c>
       <c r="K141">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>0.7270000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13062,16 +13062,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7392733</v>
+        <v>6100530</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,76 +13091,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K142">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M142">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N142">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P142">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13257,7 +13257,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6100840</v>
+        <v>6100841</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13269,61 +13269,61 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L144">
         <v>3.4</v>
       </c>
       <c r="M144">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -13332,13 +13332,13 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13346,7 +13346,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6100841</v>
+        <v>6100840</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13358,62 +13358,62 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>48</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
         <v>3.4</v>
       </c>
       <c r="M145">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N145">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P145">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
+        <v>1.85</v>
+      </c>
+      <c r="S145">
+        <v>1.95</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
         <v>1.825</v>
       </c>
-      <c r="S145">
+      <c r="V145">
         <v>1.975</v>
       </c>
-      <c r="T145">
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
         <v>3</v>
       </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>2.6</v>
-      </c>
       <c r="Y145">
         <v>-1</v>
       </c>
@@ -13421,13 +13421,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
+        <v>0.95</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB145">
-        <v>0.875</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13613,7 +13613,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6100847</v>
+        <v>6100848</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13625,76 +13625,76 @@
         <v>45234.5</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>0</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O148">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P148">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q148">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13702,7 +13702,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6100848</v>
+        <v>6100847</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13714,76 +13714,76 @@
         <v>45234.5</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
         <v>1</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K149">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L149">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M149">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N149">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O149">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P149">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
         <v>3</v>
       </c>
       <c r="U149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13969,7 +13969,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7433549</v>
+        <v>6100846</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13981,76 +13981,76 @@
         <v>45235.5</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N152">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P152">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14058,7 +14058,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6100846</v>
+        <v>7433549</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14070,76 +14070,76 @@
         <v>45235.5</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N153">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O153">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X153">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6100855</v>
+        <v>6100854</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,76 +14159,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
         <v>3</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="L154">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M154">
-        <v>2.625</v>
+        <v>1.4</v>
       </c>
       <c r="N154">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="O154">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="P154">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R154">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z154">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6100859</v>
+        <v>6100857</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,73 +14248,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>3</v>
-      </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K155">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L155">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N155">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O155">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P155">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
         <v>3.25</v>
       </c>
       <c r="U155">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6100860</v>
+        <v>6100858</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,58 +14337,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>46</v>
       </c>
       <c r="K156">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L156">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="M156">
         <v>7</v>
       </c>
       <c r="N156">
-        <v>1.142</v>
+        <v>1.166</v>
       </c>
       <c r="O156">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P156">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q156">
         <v>-2.25</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
-        <v>0.1419999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14397,16 +14397,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100854</v>
+        <v>6100859</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14426,13 +14426,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>3</v>
@@ -14441,40 +14441,40 @@
         <v>47</v>
       </c>
       <c r="K157">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="L157">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M157">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="O157">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P157">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q157">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T157">
         <v>3.25</v>
       </c>
       <c r="U157">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V157">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14483,19 +14483,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC157">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7465140</v>
+        <v>6100860</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,10 +14515,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14530,43 +14530,43 @@
         <v>46</v>
       </c>
       <c r="K158">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M158">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N158">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>13</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
         <v>1.8</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
       </c>
       <c r="T158">
         <v>3.5</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>1.25</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14575,16 +14575,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6100857</v>
+        <v>6100861</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,40 +14604,40 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K159">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M159">
+        <v>2.75</v>
+      </c>
+      <c r="N159">
+        <v>1.95</v>
+      </c>
+      <c r="O159">
+        <v>4.333</v>
+      </c>
+      <c r="P159">
         <v>2.7</v>
       </c>
-      <c r="N159">
-        <v>1.533</v>
-      </c>
-      <c r="O159">
-        <v>4.5</v>
-      </c>
-      <c r="P159">
-        <v>4.333</v>
-      </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
         <v>1.825</v>
@@ -14646,31 +14646,31 @@
         <v>1.975</v>
       </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14681,7 +14681,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6100858</v>
+        <v>7465140</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14693,58 +14693,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L160">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N160">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O160">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>12</v>
+        <v>2.55</v>
       </c>
       <c r="Q160">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>0.1659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14753,16 +14753,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14770,7 +14770,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6100861</v>
+        <v>6100855</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14782,73 +14782,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>4</v>
-      </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M161">
+        <v>2.625</v>
+      </c>
+      <c r="N161">
+        <v>2.45</v>
+      </c>
+      <c r="O161">
+        <v>2.875</v>
+      </c>
+      <c r="P161">
+        <v>2.875</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>1.775</v>
+      </c>
+      <c r="S161">
+        <v>2.025</v>
+      </c>
+      <c r="T161">
         <v>2.75</v>
       </c>
-      <c r="N161">
-        <v>1.95</v>
-      </c>
-      <c r="O161">
-        <v>4.333</v>
-      </c>
-      <c r="P161">
-        <v>2.7</v>
-      </c>
-      <c r="Q161">
-        <v>-0.25</v>
-      </c>
-      <c r="R161">
+      <c r="U161">
         <v>1.825</v>
       </c>
-      <c r="S161">
+      <c r="V161">
         <v>1.975</v>
       </c>
-      <c r="T161">
-        <v>3</v>
-      </c>
-      <c r="U161">
-        <v>1.8</v>
-      </c>
-      <c r="V161">
-        <v>2</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
         <v>-1</v>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -130,10 +130,10 @@
     <t>Bodens BK FF</t>
   </si>
   <si>
-    <t>Nordic United FC</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Nordic United FC</t>
   </si>
   <si>
     <t>rebro Syrianska IF</t>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6100751</v>
+        <v>6097789</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,55 +1435,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W11">
-        <v>0.5329999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1492,16 +1492,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6097789</v>
+        <v>6100751</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,55 +1524,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6100488</v>
+        <v>6097790</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,76 +2411,76 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
         <v>38</v>
       </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N22">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O22">
         <v>4</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
         <v>1.825</v>
-      </c>
-      <c r="S22">
-        <v>1.975</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6097790</v>
+        <v>6100488</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,76 +2500,76 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="O23">
         <v>4</v>
       </c>
       <c r="P23">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
         <v>1.975</v>
-      </c>
-      <c r="S23">
-        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,46 +2589,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2.75</v>
@@ -2643,22 +2643,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y24">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,46 +2678,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N25">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T25">
         <v>2.75</v>
@@ -2732,22 +2732,22 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6100507</v>
+        <v>6100762</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,10 +2767,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2782,40 +2782,40 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
         <v>3.4</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N26">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
         <v>1.975</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.825</v>
-      </c>
-      <c r="T26">
-        <v>3.25</v>
-      </c>
-      <c r="U26">
-        <v>1.95</v>
-      </c>
-      <c r="V26">
-        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2827,16 +2827,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6100762</v>
+        <v>6100507</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,10 +2856,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2871,40 +2871,40 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
         <v>3.4</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2916,16 +2916,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6100760</v>
+        <v>6100759</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,49 +3034,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
         <v>3.6</v>
       </c>
       <c r="M29">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N29">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U29">
         <v>1.8</v>
@@ -3085,19 +3085,19 @@
         <v>2</v>
       </c>
       <c r="W29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
         <v>0.8</v>
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6100759</v>
+        <v>6100760</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,49 +3123,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N30">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
         <v>1.8</v>
@@ -3174,19 +3174,19 @@
         <v>2</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>0.8</v>
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6800952</v>
+        <v>6100763</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,76 +3301,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
+        <v>2.7</v>
+      </c>
+      <c r="N32">
+        <v>2.75</v>
+      </c>
+      <c r="O32">
+        <v>3.5</v>
+      </c>
+      <c r="P32">
+        <v>2.2</v>
+      </c>
+      <c r="Q32">
+        <v>0.25</v>
+      </c>
+      <c r="R32">
         <v>1.8</v>
       </c>
-      <c r="N32">
-        <v>3.3</v>
-      </c>
-      <c r="O32">
-        <v>3.6</v>
-      </c>
-      <c r="P32">
-        <v>1.909</v>
-      </c>
-      <c r="Q32">
-        <v>0.5</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3378,7 +3378,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6100763</v>
+        <v>6800952</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3390,76 +3390,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N33">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
         <v>0.4</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>-0.5</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6100767</v>
+        <v>6100768</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,76 +3657,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
-      <c r="I36">
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>1.5</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>1.363</v>
+      </c>
+      <c r="O36">
+        <v>4.333</v>
+      </c>
+      <c r="P36">
+        <v>6.5</v>
+      </c>
+      <c r="Q36">
+        <v>-1.25</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="J36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36">
-        <v>1.666</v>
-      </c>
-      <c r="L36">
-        <v>3.8</v>
-      </c>
-      <c r="M36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>1.8</v>
-      </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
-      <c r="P36">
-        <v>3.6</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
+      <c r="U36">
+        <v>1.975</v>
+      </c>
+      <c r="V36">
         <v>1.825</v>
       </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.8</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6100768</v>
+        <v>6100767</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L37">
+        <v>3.8</v>
+      </c>
+      <c r="M37">
         <v>4</v>
       </c>
-      <c r="M37">
-        <v>5</v>
-      </c>
       <c r="N37">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O37">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P37">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC37">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6100765</v>
+        <v>6100509</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,59 +3924,59 @@
         <v>45137.5</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
+        <v>1.85</v>
+      </c>
+      <c r="W39">
         <v>1.9</v>
       </c>
-      <c r="V39">
-        <v>1.9</v>
-      </c>
-      <c r="W39">
-        <v>0.444</v>
-      </c>
       <c r="X39">
         <v>-1</v>
       </c>
@@ -3984,13 +3984,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6100509</v>
+        <v>6100765</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,58 +4013,58 @@
         <v>45137.5</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
+        <v>1.875</v>
+      </c>
+      <c r="S40">
+        <v>1.925</v>
+      </c>
+      <c r="T40">
+        <v>3.25</v>
+      </c>
+      <c r="U40">
         <v>1.9</v>
       </c>
-      <c r="S40">
+      <c r="V40">
         <v>1.9</v>
       </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.95</v>
-      </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
       <c r="W40">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4073,13 +4073,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0.875</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.95</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6100770</v>
+        <v>6100771</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,56 +4369,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
         <v>47</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L44">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>1.952</v>
+        <v>1.727</v>
       </c>
       <c r="N44">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P44">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>3.25</v>
       </c>
       <c r="U44">
+        <v>1.925</v>
+      </c>
+      <c r="V44">
         <v>1.875</v>
       </c>
-      <c r="V44">
-        <v>1.925</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4426,16 +4426,16 @@
         <v>-1</v>
       </c>
       <c r="Y44">
+        <v>0.45</v>
+      </c>
+      <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
         <v>1</v>
       </c>
-      <c r="Z44">
-        <v>-1</v>
-      </c>
-      <c r="AA44">
-        <v>0.825</v>
-      </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6100511</v>
+        <v>7018646</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M45">
         <v>3.75</v>
       </c>
       <c r="N45">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R45">
+        <v>1.8</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
         <v>1.875</v>
       </c>
-      <c r="S45">
-        <v>1.925</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>2</v>
-      </c>
-      <c r="V45">
-        <v>1.8</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
         <v>0.925</v>
       </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7018646</v>
+        <v>6100511</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M46">
         <v>3.75</v>
       </c>
       <c r="N46">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
+        <v>1.875</v>
+      </c>
+      <c r="S46">
+        <v>1.925</v>
+      </c>
+      <c r="T46">
+        <v>2.75</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
         <v>1.8</v>
       </c>
-      <c r="S46">
-        <v>2</v>
-      </c>
-      <c r="T46">
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
         <v>3</v>
       </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
-      <c r="W46">
-        <v>0.45</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.925</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.8</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.925</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6100771</v>
+        <v>6100770</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,56 +4636,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
       </c>
       <c r="K47">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L47">
+        <v>3.75</v>
+      </c>
+      <c r="M47">
+        <v>1.952</v>
+      </c>
+      <c r="N47">
+        <v>2.8</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>1.727</v>
-      </c>
-      <c r="N47">
-        <v>4.5</v>
-      </c>
-      <c r="O47">
-        <v>4.75</v>
-      </c>
       <c r="P47">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
         <v>3.25</v>
       </c>
       <c r="U47">
+        <v>1.875</v>
+      </c>
+      <c r="V47">
         <v>1.925</v>
       </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4693,16 +4693,16 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4725,7 +4725,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4817,7 +4817,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7048209</v>
+        <v>6097794</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,76 +4903,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N50">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6100512</v>
+        <v>6100778</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
         <v>3.75</v>
       </c>
       <c r="N51">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,31 +5034,31 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6097794</v>
+        <v>6100512</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,76 +5081,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52">
+        <v>1.666</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>3.75</v>
+      </c>
+      <c r="N52">
+        <v>2.5</v>
+      </c>
+      <c r="O52">
+        <v>3.6</v>
+      </c>
+      <c r="P52">
+        <v>2.3</v>
+      </c>
+      <c r="Q52">
         <v>0</v>
       </c>
-      <c r="J52" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52">
-        <v>2.9</v>
-      </c>
-      <c r="L52">
-        <v>3.4</v>
-      </c>
-      <c r="M52">
-        <v>2.1</v>
-      </c>
-      <c r="N52">
-        <v>2.8</v>
-      </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
-      <c r="P52">
-        <v>2.15</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6100778</v>
+        <v>7048209</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,76 +5170,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K53">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N53">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6100776</v>
+        <v>6100777</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,76 +5259,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54">
+        <v>1.825</v>
+      </c>
+      <c r="V54">
         <v>1.975</v>
       </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5336,7 +5336,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6100777</v>
+        <v>6100776</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5348,76 +5348,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N55">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O55">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
         <v>3</v>
       </c>
       <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="V55">
-        <v>1.975</v>
-      </c>
       <c r="W55">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z55">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6100775</v>
+        <v>6100513</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,76 +5437,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O56">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6100513</v>
+        <v>6100775</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,76 +5526,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M57">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6097795</v>
+        <v>7084665</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,76 +5793,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N60">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O60">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q60">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>0.8</v>
+      </c>
+      <c r="AB60">
+        <v>0.475</v>
+      </c>
+      <c r="AC60">
         <v>-0.5</v>
-      </c>
-      <c r="AA60">
-        <v>0.4875</v>
-      </c>
-      <c r="AB60">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6100514</v>
+        <v>6100779</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,76 +5882,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
       </c>
       <c r="K61">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6100779</v>
+        <v>6097795</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,61 +5971,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N62">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O62">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P62">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
         <v>3.25</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -6034,10 +6034,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7084665</v>
+        <v>6100514</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N63">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
         <v>2.375</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6419,7 +6419,7 @@
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6775,7 +6775,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -7039,7 +7039,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6100519</v>
+        <v>6100800</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,76 +7128,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y75">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6100800</v>
+        <v>6100802</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,76 +7217,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>48</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="N76">
-        <v>1.55</v>
+        <v>5.75</v>
       </c>
       <c r="O76">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6100802</v>
+        <v>6100519</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77">
+        <v>1.85</v>
+      </c>
+      <c r="L77">
+        <v>3.75</v>
+      </c>
+      <c r="M77">
+        <v>3.75</v>
+      </c>
+      <c r="N77">
+        <v>1.75</v>
+      </c>
+      <c r="O77">
         <v>4</v>
       </c>
-      <c r="I77">
-        <v>4</v>
-      </c>
-      <c r="J77" t="s">
-        <v>48</v>
-      </c>
-      <c r="K77">
-        <v>6</v>
-      </c>
-      <c r="L77">
-        <v>4.75</v>
-      </c>
-      <c r="M77">
-        <v>1.4</v>
-      </c>
-      <c r="N77">
-        <v>5.75</v>
-      </c>
-      <c r="O77">
-        <v>5</v>
-      </c>
       <c r="P77">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="Q77">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7144590</v>
+        <v>6100518</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,55 +7395,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
+        <v>4.5</v>
+      </c>
+      <c r="N78">
+        <v>1.65</v>
+      </c>
+      <c r="O78">
         <v>4.2</v>
       </c>
-      <c r="N78">
-        <v>1.75</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
       <c r="P78">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
         <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7472,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6100518</v>
+        <v>7144590</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7484,55 +7484,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L79">
+        <v>3.8</v>
+      </c>
+      <c r="M79">
         <v>4.2</v>
       </c>
-      <c r="M79">
-        <v>4.5</v>
-      </c>
       <c r="N79">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O79">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6097798</v>
+        <v>6100805</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7751,73 +7751,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB82">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC82">
         <v>-0.5</v>
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6100808</v>
+        <v>6097798</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,76 +7840,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83">
+        <v>1.666</v>
+      </c>
+      <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
         <v>4</v>
       </c>
-      <c r="I83">
-        <v>4</v>
-      </c>
-      <c r="J83" t="s">
-        <v>48</v>
-      </c>
-      <c r="K83">
-        <v>3.4</v>
-      </c>
-      <c r="L83">
-        <v>3.8</v>
-      </c>
-      <c r="M83">
-        <v>1.8</v>
-      </c>
       <c r="N83">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P83">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="Q83">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>1.85</v>
+      </c>
+      <c r="S83">
         <v>1.95</v>
       </c>
-      <c r="S83">
-        <v>1.85</v>
-      </c>
       <c r="T83">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6100805</v>
+        <v>6100808</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,76 +7929,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N84">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P84">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y84">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6100806</v>
+        <v>6100804</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,13 +8107,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8122,25 +8122,25 @@
         <v>46</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N86">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
         <v>1.8</v>
@@ -8149,16 +8149,16 @@
         <v>2</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8173,10 +8173,10 @@
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6100804</v>
+        <v>6100806</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8196,13 +8196,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8211,25 +8211,25 @@
         <v>46</v>
       </c>
       <c r="K87">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L87">
+        <v>3.5</v>
+      </c>
+      <c r="M87">
+        <v>2.25</v>
+      </c>
+      <c r="N87">
+        <v>2.7</v>
+      </c>
+      <c r="O87">
         <v>3.6</v>
       </c>
-      <c r="M87">
-        <v>3.6</v>
-      </c>
-      <c r="N87">
-        <v>1.615</v>
-      </c>
-      <c r="O87">
-        <v>3.8</v>
-      </c>
       <c r="P87">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
         <v>1.8</v>
@@ -8238,16 +8238,16 @@
         <v>2</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8262,10 +8262,10 @@
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6100812</v>
+        <v>6100813</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,49 +8730,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
+      <c r="J93" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93">
+        <v>1.45</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>5.5</v>
+      </c>
+      <c r="N93">
+        <v>1.363</v>
+      </c>
+      <c r="O93">
+        <v>4.5</v>
+      </c>
+      <c r="P93">
+        <v>6.5</v>
+      </c>
+      <c r="Q93">
+        <v>-1.25</v>
+      </c>
+      <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>1.95</v>
+      </c>
+      <c r="T93">
         <v>3</v>
-      </c>
-      <c r="J93" t="s">
-        <v>47</v>
-      </c>
-      <c r="K93">
-        <v>5.75</v>
-      </c>
-      <c r="L93">
-        <v>4.5</v>
-      </c>
-      <c r="M93">
-        <v>1.4</v>
-      </c>
-      <c r="N93">
-        <v>7</v>
-      </c>
-      <c r="O93">
-        <v>5</v>
-      </c>
-      <c r="P93">
-        <v>1.3</v>
-      </c>
-      <c r="Q93">
-        <v>1.25</v>
-      </c>
-      <c r="R93">
-        <v>2.1</v>
-      </c>
-      <c r="S93">
-        <v>1.7</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.85</v>
@@ -8781,25 +8781,25 @@
         <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6100813</v>
+        <v>6100812</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,49 +8819,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="N94">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P94">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
         <v>1.85</v>
@@ -8870,25 +8870,25 @@
         <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>41</v>
@@ -9089,7 +9089,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9252,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6098265</v>
+        <v>7237972</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9264,76 +9264,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
+        <v>2.45</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.375</v>
+      </c>
+      <c r="N99">
+        <v>2.875</v>
+      </c>
+      <c r="O99">
+        <v>3.8</v>
+      </c>
+      <c r="P99">
+        <v>2.05</v>
+      </c>
+      <c r="Q99">
+        <v>0.25</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
-      </c>
-      <c r="L99">
-        <v>3.6</v>
-      </c>
-      <c r="M99">
-        <v>3.5</v>
-      </c>
-      <c r="N99">
-        <v>2.15</v>
-      </c>
-      <c r="O99">
-        <v>3.6</v>
-      </c>
-      <c r="P99">
-        <v>2.7</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>1.825</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V99">
+        <v>1.8</v>
+      </c>
+      <c r="W99">
         <v>1.875</v>
       </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7237972</v>
+        <v>6098265</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,76 +9442,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
+        <v>3.6</v>
+      </c>
+      <c r="M101">
         <v>3.5</v>
       </c>
-      <c r="M101">
-        <v>2.375</v>
-      </c>
       <c r="N101">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6100816</v>
+        <v>6100818</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,40 +9709,40 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
         <v>1.975</v>
@@ -9751,34 +9751,34 @@
         <v>1.825</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6100818</v>
+        <v>6100816</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,40 +9798,40 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R105">
         <v>1.975</v>
@@ -9840,34 +9840,34 @@
         <v>1.825</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,10 +10065,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10080,25 +10080,25 @@
         <v>46</v>
       </c>
       <c r="K108">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L108">
         <v>3.5</v>
       </c>
       <c r="M108">
+        <v>2.25</v>
+      </c>
+      <c r="N108">
         <v>3</v>
       </c>
-      <c r="N108">
-        <v>1.95</v>
-      </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
         <v>2</v>
@@ -10107,16 +10107,16 @@
         <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10134,7 +10134,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,10 +10154,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10169,25 +10169,25 @@
         <v>46</v>
       </c>
       <c r="K109">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L109">
         <v>3.5</v>
       </c>
       <c r="M109">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
         <v>2</v>
@@ -10196,16 +10196,16 @@
         <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10223,7 +10223,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10335,7 +10335,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6100826</v>
+        <v>7291461</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,76 +10866,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>47</v>
       </c>
       <c r="K117">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N117">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
+        <v>1.85</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
         <v>1.8</v>
       </c>
-      <c r="W117">
-        <v>-1</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
-      <c r="Y117">
-        <v>0.5329999999999999</v>
-      </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7291461</v>
+        <v>6100828</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,40 +10955,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="I118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M118">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N118">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P118">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R118">
         <v>2</v>
@@ -10997,34 +10997,34 @@
         <v>1.8</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6100828</v>
+        <v>6100826</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119">
+        <v>3.2</v>
+      </c>
+      <c r="L119">
+        <v>3.6</v>
+      </c>
+      <c r="M119">
+        <v>1.909</v>
+      </c>
+      <c r="N119">
+        <v>4.5</v>
+      </c>
+      <c r="O119">
         <v>4</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
-        <v>46</v>
-      </c>
-      <c r="K119">
-        <v>1.333</v>
-      </c>
-      <c r="L119">
-        <v>5</v>
-      </c>
-      <c r="M119">
-        <v>6</v>
-      </c>
-      <c r="N119">
-        <v>1.142</v>
-      </c>
-      <c r="O119">
-        <v>7</v>
-      </c>
       <c r="P119">
-        <v>12</v>
+        <v>1.533</v>
       </c>
       <c r="Q119">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
+        <v>1.925</v>
+      </c>
+      <c r="T119">
+        <v>3.25</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
         <v>1.8</v>
       </c>
-      <c r="T119">
-        <v>3.5</v>
-      </c>
-      <c r="U119">
-        <v>1.975</v>
-      </c>
-      <c r="V119">
-        <v>1.825</v>
-      </c>
       <c r="W119">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11400,7 +11400,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7338338</v>
+        <v>6100526</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,13 +11489,13 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11504,43 +11504,43 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>9</v>
+      </c>
+      <c r="N124">
+        <v>1.444</v>
+      </c>
+      <c r="O124">
         <v>4</v>
       </c>
-      <c r="M124">
-        <v>4.333</v>
-      </c>
-      <c r="N124">
-        <v>1.5</v>
-      </c>
-      <c r="O124">
-        <v>4.2</v>
-      </c>
       <c r="P124">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
         <v>3</v>
       </c>
       <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
         <v>1.85</v>
       </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
       <c r="W124">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6100526</v>
+        <v>7338338</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,13 +11578,13 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -11593,43 +11593,43 @@
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
         <v>3</v>
       </c>
       <c r="U125">
+        <v>1.85</v>
+      </c>
+      <c r="V125">
         <v>1.95</v>
       </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7356246</v>
+        <v>6100834</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,76 +12290,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N133">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O133">
         <v>3.6</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z133">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6100834</v>
+        <v>7356246</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,76 +12379,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O134">
         <v>3.6</v>
       </c>
       <c r="P134">
+        <v>3.8</v>
+      </c>
+      <c r="Q134">
+        <v>-0.75</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
         <v>1.85</v>
-      </c>
-      <c r="Q134">
-        <v>0.5</v>
-      </c>
-      <c r="R134">
-        <v>1.9</v>
-      </c>
-      <c r="S134">
-        <v>1.9</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12824,7 +12824,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
         <v>29</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6100844</v>
+        <v>6100530</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,58 +12913,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>46</v>
       </c>
       <c r="K140">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M140">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N140">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P140">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W140">
-        <v>0.7270000000000001</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12973,13 +12973,13 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6100845</v>
+        <v>6100844</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,58 +13002,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H141">
+        <v>5</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>46</v>
       </c>
       <c r="K141">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
+        <v>5.5</v>
+      </c>
+      <c r="N141">
+        <v>1.727</v>
+      </c>
+      <c r="O141">
         <v>4</v>
       </c>
-      <c r="N141">
-        <v>1.75</v>
-      </c>
-      <c r="O141">
-        <v>3.8</v>
-      </c>
       <c r="P141">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>0.75</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13062,16 +13062,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6100530</v>
+        <v>6100845</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,13 +13091,13 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -13106,43 +13106,43 @@
         <v>46</v>
       </c>
       <c r="K142">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N142">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="Q142">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>0.2849999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13151,16 +13151,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13447,76 +13447,76 @@
         <v>45234.375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N146">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O146">
         <v>4</v>
       </c>
       <c r="P146">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q146">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R146">
+        <v>1.875</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
         <v>1.85</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="T146">
-        <v>3.25</v>
-      </c>
-      <c r="U146">
-        <v>2</v>
-      </c>
-      <c r="V146">
-        <v>1.8</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,76 +13536,76 @@
         <v>45234.375</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O147">
         <v>4</v>
       </c>
       <c r="P147">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13791,7 +13791,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6100853</v>
+        <v>6100852</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13803,73 +13803,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G150" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150">
+        <v>2.4</v>
+      </c>
+      <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
+        <v>2.4</v>
+      </c>
+      <c r="N150">
+        <v>2.375</v>
+      </c>
+      <c r="O150">
+        <v>3.8</v>
+      </c>
+      <c r="P150">
+        <v>2.3</v>
+      </c>
+      <c r="Q150">
         <v>0</v>
       </c>
-      <c r="J150" t="s">
-        <v>46</v>
-      </c>
-      <c r="K150">
-        <v>1.5</v>
-      </c>
-      <c r="L150">
-        <v>4</v>
-      </c>
-      <c r="M150">
-        <v>5</v>
-      </c>
-      <c r="N150">
-        <v>1.444</v>
-      </c>
-      <c r="O150">
-        <v>4.2</v>
-      </c>
-      <c r="P150">
-        <v>5.5</v>
-      </c>
-      <c r="Q150">
-        <v>-1.25</v>
-      </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13880,7 +13880,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6100852</v>
+        <v>6100853</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13892,73 +13892,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H151">
+        <v>4</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>46</v>
+      </c>
+      <c r="K151">
+        <v>1.5</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>5</v>
+      </c>
+      <c r="N151">
+        <v>1.444</v>
+      </c>
+      <c r="O151">
+        <v>4.2</v>
+      </c>
+      <c r="P151">
+        <v>5.5</v>
+      </c>
+      <c r="Q151">
+        <v>-1.25</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>1.8</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
+        <v>1.85</v>
+      </c>
+      <c r="V151">
+        <v>1.95</v>
+      </c>
+      <c r="W151">
+        <v>0.444</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
         <v>1</v>
       </c>
-      <c r="I151">
-        <v>3</v>
-      </c>
-      <c r="J151" t="s">
-        <v>47</v>
-      </c>
-      <c r="K151">
-        <v>2.4</v>
-      </c>
-      <c r="L151">
-        <v>3.6</v>
-      </c>
-      <c r="M151">
-        <v>2.4</v>
-      </c>
-      <c r="N151">
-        <v>2.375</v>
-      </c>
-      <c r="O151">
-        <v>3.8</v>
-      </c>
-      <c r="P151">
-        <v>2.3</v>
-      </c>
-      <c r="Q151">
-        <v>0</v>
-      </c>
-      <c r="R151">
-        <v>1.925</v>
-      </c>
-      <c r="S151">
-        <v>1.875</v>
-      </c>
-      <c r="T151">
-        <v>3.25</v>
-      </c>
-      <c r="U151">
-        <v>1.825</v>
-      </c>
-      <c r="V151">
-        <v>1.975</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>1.3</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
       <c r="AA151">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13981,7 +13981,7 @@
         <v>45235.5</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6100854</v>
+        <v>6100859</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,13 +14159,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>3</v>
@@ -14174,40 +14174,40 @@
         <v>47</v>
       </c>
       <c r="K154">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="L154">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N154">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="O154">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P154">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q154">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S154">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T154">
         <v>3.25</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -14216,19 +14216,19 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC154">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6100857</v>
+        <v>7465140</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,58 +14248,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>46</v>
       </c>
       <c r="K155">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L155">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M155">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N155">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O155">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>0.5329999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14308,16 +14308,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6100858</v>
+        <v>6100860</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,58 +14337,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>46</v>
       </c>
       <c r="K156">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="L156">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="M156">
         <v>7</v>
       </c>
       <c r="N156">
-        <v>1.166</v>
+        <v>1.142</v>
       </c>
       <c r="O156">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P156">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q156">
         <v>-2.25</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U156">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0.1659999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14397,16 +14397,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB156">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100859</v>
+        <v>6100858</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14426,73 +14426,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="M157">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N157">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P157">
-        <v>2.6</v>
+        <v>12</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R157">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U157">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB157">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6100860</v>
+        <v>6100857</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,58 +14515,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>46</v>
       </c>
       <c r="K158">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L158">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N158">
-        <v>1.142</v>
+        <v>1.533</v>
       </c>
       <c r="O158">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P158">
-        <v>13</v>
+        <v>4.333</v>
       </c>
       <c r="Q158">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.1419999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14575,16 +14575,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6100861</v>
+        <v>6100855</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,73 +14604,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
         <v>1</v>
       </c>
-      <c r="I159">
-        <v>4</v>
-      </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M159">
+        <v>2.625</v>
+      </c>
+      <c r="N159">
+        <v>2.45</v>
+      </c>
+      <c r="O159">
+        <v>2.875</v>
+      </c>
+      <c r="P159">
+        <v>2.875</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>1.775</v>
+      </c>
+      <c r="S159">
+        <v>2.025</v>
+      </c>
+      <c r="T159">
         <v>2.75</v>
       </c>
-      <c r="N159">
-        <v>1.95</v>
-      </c>
-      <c r="O159">
-        <v>4.333</v>
-      </c>
-      <c r="P159">
-        <v>2.7</v>
-      </c>
-      <c r="Q159">
-        <v>-0.25</v>
-      </c>
-      <c r="R159">
+      <c r="U159">
         <v>1.825</v>
       </c>
-      <c r="S159">
+      <c r="V159">
         <v>1.975</v>
       </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>1.8</v>
-      </c>
-      <c r="V159">
-        <v>2</v>
-      </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14681,7 +14681,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7465140</v>
+        <v>6100854</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14693,76 +14693,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="L160">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="N160">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P160">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
+        <v>1.825</v>
+      </c>
+      <c r="T160">
+        <v>3.25</v>
+      </c>
+      <c r="U160">
+        <v>2</v>
+      </c>
+      <c r="V160">
         <v>1.8</v>
       </c>
-      <c r="S160">
-        <v>2</v>
-      </c>
-      <c r="T160">
-        <v>3.5</v>
-      </c>
-      <c r="U160">
-        <v>1.8</v>
-      </c>
-      <c r="V160">
-        <v>2</v>
-      </c>
       <c r="W160">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC160">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14770,7 +14770,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6100855</v>
+        <v>6100861</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14782,73 +14782,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+      <c r="J161" t="s">
+        <v>47</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161">
+        <v>2.75</v>
+      </c>
+      <c r="N161">
+        <v>1.95</v>
+      </c>
+      <c r="O161">
+        <v>4.333</v>
+      </c>
+      <c r="P161">
+        <v>2.7</v>
+      </c>
+      <c r="Q161">
+        <v>-0.25</v>
+      </c>
+      <c r="R161">
+        <v>1.825</v>
+      </c>
+      <c r="S161">
+        <v>1.975</v>
+      </c>
+      <c r="T161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-      <c r="J161" t="s">
-        <v>46</v>
-      </c>
-      <c r="K161">
-        <v>2.6</v>
-      </c>
-      <c r="L161">
-        <v>2.875</v>
-      </c>
-      <c r="M161">
-        <v>2.625</v>
-      </c>
-      <c r="N161">
-        <v>2.45</v>
-      </c>
-      <c r="O161">
-        <v>2.875</v>
-      </c>
-      <c r="P161">
-        <v>2.875</v>
-      </c>
-      <c r="Q161">
-        <v>0</v>
-      </c>
-      <c r="R161">
-        <v>1.775</v>
-      </c>
-      <c r="S161">
-        <v>2.025</v>
-      </c>
-      <c r="T161">
-        <v>2.75</v>
-      </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W161">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z161">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC161">
         <v>-1</v>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -130,10 +130,10 @@
     <t>Bodens BK FF</t>
   </si>
   <si>
-    <t>Dalkurd FF</t>
+    <t>Nordic United FC</t>
   </si>
   <si>
-    <t>Nordic United FC</t>
+    <t>Dalkurd FF</t>
   </si>
   <si>
     <t>rebro Syrianska IF</t>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6097789</v>
+        <v>6100751</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,55 +1435,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1492,16 +1492,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6100751</v>
+        <v>6097789</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,55 +1524,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W12">
-        <v>0.5329999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6100758</v>
+        <v>6100756</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,58 +2144,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2204,16 +2204,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100756</v>
+        <v>6100758</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,58 +2233,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
         <v>3.75</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2293,16 +2293,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2414,7 +2414,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,46 +2589,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N24">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T24">
         <v>2.75</v>
@@ -2643,22 +2643,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,46 +2678,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>2.75</v>
@@ -2732,22 +2732,22 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6100762</v>
+        <v>6100507</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,10 +2767,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2782,40 +2782,40 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
         <v>3.4</v>
       </c>
       <c r="M26">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2827,16 +2827,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6100507</v>
+        <v>6100762</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,10 +2856,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2871,40 +2871,40 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
         <v>3.4</v>
       </c>
       <c r="M27">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
+        <v>1.875</v>
+      </c>
+      <c r="S27">
+        <v>1.925</v>
+      </c>
+      <c r="T27">
+        <v>2.75</v>
+      </c>
+      <c r="U27">
         <v>1.975</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.825</v>
-      </c>
-      <c r="T27">
-        <v>3.25</v>
-      </c>
-      <c r="U27">
-        <v>1.95</v>
-      </c>
-      <c r="V27">
-        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2916,16 +2916,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6100759</v>
+        <v>6100760</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,49 +3034,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
         <v>3.6</v>
       </c>
       <c r="M29">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N29">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
         <v>1.8</v>
@@ -3085,19 +3085,19 @@
         <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>0.8</v>
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6100760</v>
+        <v>6100759</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,49 +3123,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
         <v>1.8</v>
@@ -3174,19 +3174,19 @@
         <v>2</v>
       </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB30">
         <v>0.8</v>
@@ -3393,7 +3393,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3479,7 +3479,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3657,7 +3657,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -4725,7 +4725,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4817,7 +4817,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6097794</v>
+        <v>7048209</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,76 +4903,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50">
+        <v>2.25</v>
+      </c>
+      <c r="L50">
+        <v>3.5</v>
+      </c>
+      <c r="M50">
+        <v>2.6</v>
+      </c>
+      <c r="N50">
+        <v>2.5</v>
+      </c>
+      <c r="O50">
+        <v>3.3</v>
+      </c>
+      <c r="P50">
+        <v>2.4</v>
+      </c>
+      <c r="Q50">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50">
-        <v>2.9</v>
-      </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.1</v>
-      </c>
-      <c r="N50">
-        <v>2.8</v>
-      </c>
-      <c r="O50">
-        <v>3.4</v>
-      </c>
-      <c r="P50">
-        <v>2.15</v>
-      </c>
-      <c r="Q50">
-        <v>0.25</v>
-      </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6100778</v>
+        <v>6097794</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,58 +4992,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
         <v>39</v>
       </c>
-      <c r="G51" t="s">
-        <v>44</v>
-      </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N51">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5052,16 +5052,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7048209</v>
+        <v>6100778</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,76 +5170,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>46</v>
+      </c>
+      <c r="K53">
+        <v>1.75</v>
+      </c>
+      <c r="L53">
+        <v>3.6</v>
+      </c>
+      <c r="M53">
+        <v>3.75</v>
+      </c>
+      <c r="N53">
+        <v>1.75</v>
+      </c>
+      <c r="O53">
+        <v>3.5</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>-0.75</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>1.8</v>
+      </c>
+      <c r="T53">
+        <v>2.75</v>
+      </c>
+      <c r="U53">
+        <v>1.825</v>
+      </c>
+      <c r="V53">
+        <v>1.975</v>
+      </c>
+      <c r="W53">
+        <v>0.75</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>48</v>
-      </c>
-      <c r="K53">
-        <v>2.25</v>
-      </c>
-      <c r="L53">
-        <v>3.5</v>
-      </c>
-      <c r="M53">
-        <v>2.6</v>
-      </c>
-      <c r="N53">
-        <v>2.5</v>
-      </c>
-      <c r="O53">
-        <v>3.3</v>
-      </c>
-      <c r="P53">
-        <v>2.4</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>1.975</v>
-      </c>
-      <c r="S53">
-        <v>1.825</v>
-      </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
-      <c r="U53">
-        <v>1.9</v>
-      </c>
-      <c r="V53">
-        <v>1.9</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>2.3</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6100777</v>
+        <v>6100776</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,76 +5259,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N54">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
         <v>1.825</v>
       </c>
-      <c r="V54">
-        <v>1.975</v>
-      </c>
       <c r="W54">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5336,7 +5336,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6100776</v>
+        <v>6100777</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5348,76 +5348,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
         <v>1</v>
       </c>
-      <c r="I55">
-        <v>2</v>
-      </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T55">
         <v>3</v>
       </c>
       <c r="U55">
+        <v>1.825</v>
+      </c>
+      <c r="V55">
         <v>1.975</v>
       </c>
-      <c r="V55">
-        <v>1.825</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6100513</v>
+        <v>6100775</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,76 +5437,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N56">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6100775</v>
+        <v>6100513</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,76 +5526,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L57">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7084665</v>
+        <v>6100779</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,49 +5793,49 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
         <v>3.6</v>
       </c>
       <c r="M60">
+        <v>2.7</v>
+      </c>
+      <c r="N60">
+        <v>2.05</v>
+      </c>
+      <c r="O60">
+        <v>3.8</v>
+      </c>
+      <c r="P60">
         <v>2.9</v>
       </c>
-      <c r="N60">
-        <v>2.6</v>
-      </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
-      <c r="P60">
-        <v>2.375</v>
-      </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U60">
         <v>1.95</v>
@@ -5847,22 +5847,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y60">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AB60">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AC60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6100779</v>
+        <v>6100514</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,76 +5882,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M61">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N61">
+        <v>2.75</v>
+      </c>
+      <c r="O61">
+        <v>3.4</v>
+      </c>
+      <c r="P61">
+        <v>2.375</v>
+      </c>
+      <c r="Q61">
+        <v>0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.75</v>
+      </c>
+      <c r="S61">
         <v>2.05</v>
       </c>
-      <c r="O61">
-        <v>3.8</v>
-      </c>
-      <c r="P61">
-        <v>2.9</v>
-      </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
-        <v>1.85</v>
-      </c>
-      <c r="S61">
-        <v>1.95</v>
-      </c>
       <c r="T61">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
+        <v>0.375</v>
+      </c>
+      <c r="AA61">
         <v>-0.5</v>
       </c>
-      <c r="AA61">
-        <v>0.475</v>
-      </c>
       <c r="AB61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5971,7 +5971,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6100514</v>
+        <v>7084665</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>2.9</v>
+      </c>
+      <c r="N63">
+        <v>2.6</v>
+      </c>
+      <c r="O63">
         <v>3.5</v>
-      </c>
-      <c r="M63">
-        <v>2.45</v>
-      </c>
-      <c r="N63">
-        <v>2.75</v>
-      </c>
-      <c r="O63">
-        <v>3.4</v>
       </c>
       <c r="P63">
         <v>2.375</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z63">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
+        <v>0.8</v>
+      </c>
+      <c r="AB63">
+        <v>0.475</v>
+      </c>
+      <c r="AC63">
         <v>-0.5</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6315,7 +6315,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7115552</v>
+        <v>6097796</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6327,76 +6327,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
+        <v>2.2</v>
+      </c>
+      <c r="O66">
         <v>3.75</v>
       </c>
-      <c r="O66">
-        <v>3.6</v>
-      </c>
       <c r="P66">
+        <v>2.625</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
         <v>1.8</v>
-      </c>
-      <c r="Q66">
-        <v>0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.95</v>
-      </c>
-      <c r="S66">
-        <v>1.85</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6097796</v>
+        <v>7115552</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6416,76 +6416,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>3</v>
       </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6100784</v>
+        <v>6100796</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,76 +6683,76 @@
         <v>45165.375</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L70">
         <v>3.9</v>
       </c>
       <c r="M70">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N70">
+        <v>3.6</v>
+      </c>
+      <c r="O70">
+        <v>3.75</v>
+      </c>
+      <c r="P70">
+        <v>1.833</v>
+      </c>
+      <c r="Q70">
+        <v>0.5</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.85</v>
+      </c>
+      <c r="T70">
         <v>3</v>
       </c>
-      <c r="O70">
-        <v>3.5</v>
-      </c>
-      <c r="P70">
-        <v>2.1</v>
-      </c>
-      <c r="Q70">
-        <v>0.25</v>
-      </c>
-      <c r="R70">
-        <v>1.9</v>
-      </c>
-      <c r="S70">
-        <v>1.9</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
       <c r="U70">
+        <v>1.85</v>
+      </c>
+      <c r="V70">
         <v>1.95</v>
       </c>
-      <c r="V70">
-        <v>1.85</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6100796</v>
+        <v>6100784</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,76 +6772,76 @@
         <v>45165.375</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>3</v>
       </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L71">
         <v>3.9</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N71">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
         <v>1.95</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="T71">
-        <v>3</v>
-      </c>
-      <c r="U71">
-        <v>1.85</v>
-      </c>
-      <c r="V71">
-        <v>1.95</v>
-      </c>
       <c r="W71">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7027,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6097797</v>
+        <v>6100800</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7039,61 +7039,61 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q74">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T74">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
@@ -7102,13 +7102,13 @@
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6100800</v>
+        <v>6097797</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,61 +7128,61 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L75">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N75">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P75">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X75">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7191,13 +7191,13 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6100802</v>
+        <v>6100519</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,76 +7217,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76">
+        <v>1.85</v>
+      </c>
+      <c r="L76">
+        <v>3.75</v>
+      </c>
+      <c r="M76">
+        <v>3.75</v>
+      </c>
+      <c r="N76">
+        <v>1.75</v>
+      </c>
+      <c r="O76">
         <v>4</v>
       </c>
-      <c r="I76">
-        <v>4</v>
-      </c>
-      <c r="J76" t="s">
-        <v>48</v>
-      </c>
-      <c r="K76">
-        <v>6</v>
-      </c>
-      <c r="L76">
-        <v>4.75</v>
-      </c>
-      <c r="M76">
-        <v>1.4</v>
-      </c>
-      <c r="N76">
-        <v>5.75</v>
-      </c>
-      <c r="O76">
-        <v>5</v>
-      </c>
       <c r="P76">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6100519</v>
+        <v>6100802</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
+        <v>6</v>
+      </c>
+      <c r="L77">
+        <v>4.75</v>
+      </c>
+      <c r="M77">
+        <v>1.4</v>
+      </c>
+      <c r="N77">
+        <v>5.75</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
+        <v>1.444</v>
+      </c>
+      <c r="Q77">
+        <v>1.25</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
         <v>1.85</v>
       </c>
-      <c r="L77">
-        <v>3.75</v>
-      </c>
-      <c r="M77">
-        <v>3.75</v>
-      </c>
-      <c r="N77">
-        <v>1.75</v>
-      </c>
-      <c r="O77">
+      <c r="T77">
+        <v>3.5</v>
+      </c>
+      <c r="U77">
+        <v>1.8</v>
+      </c>
+      <c r="V77">
+        <v>2</v>
+      </c>
+      <c r="W77">
+        <v>-1</v>
+      </c>
+      <c r="X77">
         <v>4</v>
       </c>
-      <c r="P77">
-        <v>4.2</v>
-      </c>
-      <c r="Q77">
-        <v>-0.75</v>
-      </c>
-      <c r="R77">
-        <v>1.925</v>
-      </c>
-      <c r="S77">
-        <v>1.875</v>
-      </c>
-      <c r="T77">
-        <v>3.25</v>
-      </c>
-      <c r="U77">
-        <v>1.9</v>
-      </c>
-      <c r="V77">
-        <v>1.9</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
-      <c r="X77">
-        <v>-1</v>
-      </c>
       <c r="Y77">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6100518</v>
+        <v>7144590</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,55 +7395,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L78">
+        <v>3.8</v>
+      </c>
+      <c r="M78">
         <v>4.2</v>
       </c>
-      <c r="M78">
-        <v>4.5</v>
-      </c>
       <c r="N78">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q78">
         <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7472,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7144590</v>
+        <v>6100518</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7484,55 +7484,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L79">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M79">
+        <v>4.5</v>
+      </c>
+      <c r="N79">
+        <v>1.65</v>
+      </c>
+      <c r="O79">
         <v>4.2</v>
       </c>
-      <c r="N79">
-        <v>1.75</v>
-      </c>
-      <c r="O79">
-        <v>3.8</v>
-      </c>
       <c r="P79">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6100805</v>
+        <v>6097798</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7751,73 +7751,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.475</v>
+        <v>0.3875</v>
       </c>
       <c r="AC82">
         <v>-0.5</v>
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6097798</v>
+        <v>6100805</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,73 +7840,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T83">
         <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC83">
         <v>-0.5</v>
@@ -7932,7 +7932,7 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H84">
         <v>4</v>
@@ -8095,7 +8095,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6100804</v>
+        <v>6100806</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8107,13 +8107,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8122,25 +8122,25 @@
         <v>46</v>
       </c>
       <c r="K86">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L86">
+        <v>3.5</v>
+      </c>
+      <c r="M86">
+        <v>2.25</v>
+      </c>
+      <c r="N86">
+        <v>2.7</v>
+      </c>
+      <c r="O86">
         <v>3.6</v>
       </c>
-      <c r="M86">
-        <v>3.6</v>
-      </c>
-      <c r="N86">
-        <v>1.615</v>
-      </c>
-      <c r="O86">
-        <v>3.8</v>
-      </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
         <v>1.8</v>
@@ -8149,16 +8149,16 @@
         <v>2</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8173,10 +8173,10 @@
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6100806</v>
+        <v>6100804</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8196,13 +8196,13 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8211,25 +8211,25 @@
         <v>46</v>
       </c>
       <c r="K87">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
         <v>1.8</v>
@@ -8238,16 +8238,16 @@
         <v>2</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8262,10 +8262,10 @@
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>41</v>
@@ -9089,7 +9089,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9442,10 +9442,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" t="s">
         <v>38</v>
-      </c>
-      <c r="G101" t="s">
-        <v>39</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9875,7 +9875,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6100821</v>
+        <v>6100523</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9887,55 +9887,55 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>47</v>
       </c>
       <c r="K106">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L106">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N106">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.675</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9944,19 +9944,19 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>3.333</v>
+        <v>0.909</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6100523</v>
+        <v>6100821</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,55 +9976,55 @@
         <v>45199.33333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>47</v>
       </c>
       <c r="K107">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M107">
+        <v>4.75</v>
+      </c>
+      <c r="N107">
+        <v>1.615</v>
+      </c>
+      <c r="O107">
+        <v>4</v>
+      </c>
+      <c r="P107">
+        <v>4.333</v>
+      </c>
+      <c r="Q107">
+        <v>-0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.775</v>
+      </c>
+      <c r="S107">
+        <v>2.025</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
         <v>1.85</v>
       </c>
-      <c r="N107">
-        <v>3.2</v>
-      </c>
-      <c r="O107">
-        <v>3.75</v>
-      </c>
-      <c r="P107">
-        <v>1.909</v>
-      </c>
-      <c r="Q107">
-        <v>0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.825</v>
-      </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>3</v>
-      </c>
-      <c r="U107">
-        <v>1.675</v>
-      </c>
       <c r="V107">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10033,19 +10033,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.909</v>
+        <v>3.333</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -10335,7 +10335,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11400,7 +11400,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11578,7 +11578,7 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
         <v>29</v>
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6100837</v>
+        <v>6100528</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,76 +12112,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L131">
+        <v>4.333</v>
+      </c>
+      <c r="M131">
+        <v>1.475</v>
+      </c>
+      <c r="N131">
+        <v>4.5</v>
+      </c>
+      <c r="O131">
         <v>3.6</v>
       </c>
-      <c r="M131">
-        <v>2.2</v>
-      </c>
-      <c r="N131">
-        <v>2.375</v>
-      </c>
-      <c r="O131">
-        <v>3.75</v>
-      </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6100528</v>
+        <v>6100837</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12201,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132" t="s">
+        <v>47</v>
+      </c>
+      <c r="K132">
+        <v>2.625</v>
+      </c>
+      <c r="L132">
+        <v>3.6</v>
+      </c>
+      <c r="M132">
+        <v>2.2</v>
+      </c>
+      <c r="N132">
+        <v>2.375</v>
+      </c>
+      <c r="O132">
+        <v>3.75</v>
+      </c>
+      <c r="P132">
+        <v>2.3</v>
+      </c>
+      <c r="Q132">
         <v>0</v>
       </c>
-      <c r="J132" t="s">
-        <v>46</v>
-      </c>
-      <c r="K132">
-        <v>4.75</v>
-      </c>
-      <c r="L132">
-        <v>4.333</v>
-      </c>
-      <c r="M132">
-        <v>1.475</v>
-      </c>
-      <c r="N132">
-        <v>4.5</v>
-      </c>
-      <c r="O132">
-        <v>3.6</v>
-      </c>
-      <c r="P132">
-        <v>1.6</v>
-      </c>
-      <c r="Q132">
-        <v>0.75</v>
-      </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6100834</v>
+        <v>7356246</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,76 +12290,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O133">
         <v>3.6</v>
       </c>
       <c r="P133">
+        <v>3.8</v>
+      </c>
+      <c r="Q133">
+        <v>-0.75</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
         <v>1.85</v>
-      </c>
-      <c r="Q133">
-        <v>0.5</v>
-      </c>
-      <c r="R133">
-        <v>1.9</v>
-      </c>
-      <c r="S133">
-        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7356246</v>
+        <v>6100834</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,76 +12379,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N134">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O134">
         <v>3.6</v>
       </c>
       <c r="P134">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z134">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12649,7 +12649,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7392733</v>
+        <v>6100530</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12824,76 +12824,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L139">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N139">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P139">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6100530</v>
+        <v>6100844</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,58 +12913,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>46</v>
       </c>
       <c r="K140">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L140">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N140">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O140">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>0.2849999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12973,13 +12973,13 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6100844</v>
+        <v>6100845</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,58 +13002,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>46</v>
       </c>
       <c r="K141">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>0.7270000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13062,16 +13062,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6100845</v>
+        <v>7392733</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,76 +13091,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
+        <v>5.5</v>
+      </c>
+      <c r="N142">
+        <v>1.533</v>
+      </c>
+      <c r="O142">
         <v>4</v>
       </c>
-      <c r="N142">
-        <v>1.75</v>
-      </c>
-      <c r="O142">
-        <v>3.8</v>
-      </c>
       <c r="P142">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q142">
+        <v>-1</v>
+      </c>
+      <c r="R142">
+        <v>1.925</v>
+      </c>
+      <c r="S142">
+        <v>1.875</v>
+      </c>
+      <c r="T142">
+        <v>2.75</v>
+      </c>
+      <c r="U142">
+        <v>1.8</v>
+      </c>
+      <c r="V142">
+        <v>2</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>-1</v>
+      </c>
+      <c r="Y142">
+        <v>4</v>
+      </c>
+      <c r="Z142">
+        <v>-1</v>
+      </c>
+      <c r="AA142">
+        <v>0.875</v>
+      </c>
+      <c r="AB142">
+        <v>0.4</v>
+      </c>
+      <c r="AC142">
         <v>-0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.8</v>
-      </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>3</v>
-      </c>
-      <c r="U142">
-        <v>2</v>
-      </c>
-      <c r="V142">
-        <v>1.8</v>
-      </c>
-      <c r="W142">
-        <v>0.75</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
-      <c r="Y142">
-        <v>-1</v>
-      </c>
-      <c r="Z142">
-        <v>0.8</v>
-      </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
-      <c r="AB142">
-        <v>-1</v>
-      </c>
-      <c r="AC142">
-        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13447,76 +13447,76 @@
         <v>45234.375</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N146">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O146">
         <v>4</v>
       </c>
       <c r="P146">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q146">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R146">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z146">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,76 +13536,76 @@
         <v>45234.375</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N147">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O147">
         <v>4</v>
       </c>
       <c r="P147">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q147">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
+        <v>1.875</v>
+      </c>
+      <c r="S147">
+        <v>1.925</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
         <v>1.85</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="T147">
-        <v>3.25</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
-      <c r="V147">
-        <v>1.8</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13613,7 +13613,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6100848</v>
+        <v>6100847</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13625,76 +13625,76 @@
         <v>45234.5</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
         <v>1</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L148">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M148">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N148">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O148">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P148">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R148">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W148">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z148">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13702,7 +13702,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6100847</v>
+        <v>6100848</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13714,76 +13714,76 @@
         <v>45234.5</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
         <v>0</v>
       </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K149">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L149">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O149">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P149">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q149">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T149">
         <v>3</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>45235.5</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6100859</v>
+        <v>6100854</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,13 +14159,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>3</v>
@@ -14174,40 +14174,40 @@
         <v>47</v>
       </c>
       <c r="K154">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="L154">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M154">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N154">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O154">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P154">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R154">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
         <v>3.25</v>
       </c>
       <c r="U154">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -14216,19 +14216,19 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB154">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7465140</v>
+        <v>6100855</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,58 +14248,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>46</v>
       </c>
       <c r="K155">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M155">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="N155">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P155">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14308,16 +14308,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6100860</v>
+        <v>6100857</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,58 +14337,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>46</v>
       </c>
       <c r="K156">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="L156">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N156">
-        <v>1.142</v>
+        <v>1.533</v>
       </c>
       <c r="O156">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P156">
-        <v>13</v>
+        <v>4.333</v>
       </c>
       <c r="Q156">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W156">
-        <v>0.1419999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14397,16 +14397,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA156">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100858</v>
+        <v>6100859</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14426,73 +14426,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
         <v>3</v>
       </c>
-      <c r="I157">
-        <v>2</v>
-      </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L157">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="M157">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="O157">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P157">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="Q157">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T157">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V157">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W157">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB157">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6100857</v>
+        <v>6100860</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,58 +14515,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>46</v>
       </c>
       <c r="K158">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L158">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M158">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N158">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>13</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>0.5329999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14575,16 +14575,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6100855</v>
+        <v>6100861</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,73 +14604,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>4</v>
+      </c>
+      <c r="J159" t="s">
+        <v>47</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>2.75</v>
+      </c>
+      <c r="N159">
+        <v>1.95</v>
+      </c>
+      <c r="O159">
+        <v>4.333</v>
+      </c>
+      <c r="P159">
+        <v>2.7</v>
+      </c>
+      <c r="Q159">
+        <v>-0.25</v>
+      </c>
+      <c r="R159">
+        <v>1.825</v>
+      </c>
+      <c r="S159">
+        <v>1.975</v>
+      </c>
+      <c r="T159">
         <v>3</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-      <c r="J159" t="s">
-        <v>46</v>
-      </c>
-      <c r="K159">
-        <v>2.6</v>
-      </c>
-      <c r="L159">
-        <v>2.875</v>
-      </c>
-      <c r="M159">
-        <v>2.625</v>
-      </c>
-      <c r="N159">
-        <v>2.45</v>
-      </c>
-      <c r="O159">
-        <v>2.875</v>
-      </c>
-      <c r="P159">
-        <v>2.875</v>
-      </c>
-      <c r="Q159">
-        <v>0</v>
-      </c>
-      <c r="R159">
-        <v>1.775</v>
-      </c>
-      <c r="S159">
-        <v>2.025</v>
-      </c>
-      <c r="T159">
-        <v>2.75</v>
-      </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14681,7 +14681,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6100854</v>
+        <v>7465140</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14693,76 +14693,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>3</v>
-      </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K160">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="L160">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="N160">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O160">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q160">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14770,7 +14770,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6100861</v>
+        <v>6100858</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14782,40 +14782,40 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="M161">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="O161">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P161">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R161">
         <v>1.825</v>
@@ -14824,22 +14824,22 @@
         <v>1.975</v>
       </c>
       <c r="T161">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="U161">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
         <v>-1</v>
@@ -14848,7 +14848,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC161">
         <v>-1</v>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -130,13 +130,13 @@
     <t>Bodens BK FF</t>
   </si>
   <si>
+    <t>rebro Syrianska IF</t>
+  </si>
+  <si>
     <t>Nordic United FC</t>
   </si>
   <si>
     <t>Dalkurd FF</t>
-  </si>
-  <si>
-    <t>rebro Syrianska IF</t>
   </si>
   <si>
     <t>Pite IF</t>
@@ -634,7 +634,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6100751</v>
+        <v>6100753</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,73 +1435,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6097789</v>
+        <v>6100751</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,55 +1524,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6100753</v>
+        <v>6097789</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,73 +1613,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L13">
+        <v>3.75</v>
+      </c>
+      <c r="M13">
         <v>3.4</v>
       </c>
-      <c r="M13">
-        <v>2.3</v>
-      </c>
       <c r="N13">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6100756</v>
+        <v>6100758</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,58 +2144,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2204,16 +2204,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100758</v>
+        <v>6100756</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,58 +2233,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L20">
         <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2293,16 +2293,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2414,7 +2414,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,46 +2589,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2.75</v>
@@ -2643,22 +2643,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y24">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,46 +2678,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N25">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T25">
         <v>2.75</v>
@@ -2732,22 +2732,22 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6100760</v>
+        <v>6100759</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,49 +3034,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
         <v>3.6</v>
       </c>
       <c r="M29">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N29">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U29">
         <v>1.8</v>
@@ -3085,19 +3085,19 @@
         <v>2</v>
       </c>
       <c r="W29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
         <v>0.8</v>
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6100759</v>
+        <v>6100760</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,49 +3123,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N30">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
         <v>1.8</v>
@@ -3174,19 +3174,19 @@
         <v>2</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>0.8</v>
@@ -3301,7 +3301,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
@@ -3393,7 +3393,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3479,7 +3479,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3657,10 +3657,10 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
         <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6100509</v>
+        <v>6100765</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,58 +3924,58 @@
         <v>45137.5</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
+        <v>1.875</v>
+      </c>
+      <c r="S39">
+        <v>1.925</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
         <v>1.9</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.9</v>
       </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3984,13 +3984,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.875</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.95</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6100765</v>
+        <v>6100509</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,59 +4013,59 @@
         <v>45137.5</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
       </c>
       <c r="K40">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
+        <v>1.85</v>
+      </c>
+      <c r="W40">
         <v>1.9</v>
       </c>
-      <c r="V40">
-        <v>1.9</v>
-      </c>
-      <c r="W40">
-        <v>0.444</v>
-      </c>
       <c r="X40">
         <v>-1</v>
       </c>
@@ -4073,13 +4073,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4280,7 +4280,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
         <v>42</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7018646</v>
+        <v>6100511</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L45">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M45">
         <v>3.75</v>
       </c>
       <c r="N45">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
+        <v>1.875</v>
+      </c>
+      <c r="S45">
+        <v>1.925</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
         <v>1.8</v>
       </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-      <c r="T45">
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>3</v>
       </c>
-      <c r="U45">
-        <v>1.925</v>
-      </c>
-      <c r="V45">
-        <v>1.875</v>
-      </c>
-      <c r="W45">
-        <v>0.45</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>0.925</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.8</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.925</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6100511</v>
+        <v>7018646</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
         <v>3.75</v>
       </c>
       <c r="N46">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O46">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R46">
+        <v>1.8</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>1.925</v>
+      </c>
+      <c r="V46">
         <v>1.875</v>
       </c>
-      <c r="S46">
-        <v>1.925</v>
-      </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>2</v>
-      </c>
-      <c r="V46">
-        <v>1.8</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
+        <v>-1</v>
+      </c>
+      <c r="AB46">
         <v>0.925</v>
       </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
       <c r="AC46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4817,7 +4817,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6097794</v>
+        <v>6100512</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,76 +4992,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51">
+        <v>1.666</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>3.75</v>
+      </c>
+      <c r="N51">
+        <v>2.5</v>
+      </c>
+      <c r="O51">
+        <v>3.6</v>
+      </c>
+      <c r="P51">
+        <v>2.3</v>
+      </c>
+      <c r="Q51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
-        <v>46</v>
-      </c>
-      <c r="K51">
-        <v>2.9</v>
-      </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
-      <c r="M51">
-        <v>2.1</v>
-      </c>
-      <c r="N51">
-        <v>2.8</v>
-      </c>
-      <c r="O51">
-        <v>3.4</v>
-      </c>
-      <c r="P51">
-        <v>2.15</v>
-      </c>
-      <c r="Q51">
-        <v>0.25</v>
-      </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6100512</v>
+        <v>6100778</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,40 +5081,40 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
         <v>3.75</v>
       </c>
       <c r="N52">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>2</v>
@@ -5123,31 +5123,31 @@
         <v>1.8</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6100778</v>
+        <v>6097794</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,58 +5170,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>46</v>
       </c>
       <c r="K53">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L53">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N53">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
         <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5230,16 +5230,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>7</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6100775</v>
+        <v>6100513</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,76 +5437,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O56">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6100513</v>
+        <v>6100775</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,76 +5526,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M57">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>36</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6100779</v>
+        <v>6097795</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,61 +5793,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N60">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P60">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>3.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X60">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
@@ -5856,10 +5856,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6097795</v>
+        <v>6100779</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,61 +5971,61 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K62">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N62">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O62">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P62">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="Q62">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
         <v>3.25</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -6034,10 +6034,10 @@
         <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>0.475</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6241,7 +6241,7 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6315,7 +6315,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6097796</v>
+        <v>7115552</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6327,76 +6327,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>3</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7115552</v>
+        <v>6097796</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6416,76 +6416,76 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
         <v>40</v>
       </c>
-      <c r="G67" t="s">
-        <v>29</v>
-      </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N67">
+        <v>2.2</v>
+      </c>
+      <c r="O67">
         <v>3.75</v>
       </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
       <c r="P67">
+        <v>2.625</v>
+      </c>
+      <c r="Q67">
+        <v>-0.25</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
         <v>1.8</v>
-      </c>
-      <c r="Q67">
-        <v>0.5</v>
-      </c>
-      <c r="R67">
-        <v>1.95</v>
-      </c>
-      <c r="S67">
-        <v>1.85</v>
       </c>
       <c r="T67">
         <v>3</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6686,7 +6686,7 @@
         <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -7027,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6100800</v>
+        <v>6097797</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7039,61 +7039,61 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L74">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P74">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X74">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
@@ -7102,13 +7102,13 @@
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6097797</v>
+        <v>6100519</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,73 +7131,73 @@
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M75">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC75">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6100519</v>
+        <v>6100800</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,76 +7217,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
         <v>38</v>
       </c>
-      <c r="G76" t="s">
-        <v>30</v>
-      </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6097798</v>
+        <v>6100808</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7751,76 +7751,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
         <v>39</v>
       </c>
-      <c r="G82" t="s">
-        <v>44</v>
-      </c>
       <c r="H82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K82">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L82">
+        <v>3.8</v>
+      </c>
+      <c r="M82">
+        <v>1.8</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+      <c r="O82">
+        <v>4.75</v>
+      </c>
+      <c r="P82">
+        <v>1.363</v>
+      </c>
+      <c r="Q82">
+        <v>1.25</v>
+      </c>
+      <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
+        <v>1.85</v>
+      </c>
+      <c r="T82">
+        <v>3.25</v>
+      </c>
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
+        <v>1.825</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>3.75</v>
       </c>
-      <c r="M82">
-        <v>4</v>
-      </c>
-      <c r="N82">
-        <v>2.05</v>
-      </c>
-      <c r="O82">
-        <v>3.6</v>
-      </c>
-      <c r="P82">
-        <v>2.9</v>
-      </c>
-      <c r="Q82">
-        <v>-0.25</v>
-      </c>
-      <c r="R82">
-        <v>1.85</v>
-      </c>
-      <c r="S82">
-        <v>1.95</v>
-      </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>1.775</v>
-      </c>
-      <c r="V82">
-        <v>2.025</v>
-      </c>
-      <c r="W82">
-        <v>1.05</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6100808</v>
+        <v>6097798</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,73 +7932,73 @@
         <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84">
+        <v>1.666</v>
+      </c>
+      <c r="L84">
+        <v>3.75</v>
+      </c>
+      <c r="M84">
         <v>4</v>
       </c>
-      <c r="I84">
-        <v>4</v>
-      </c>
-      <c r="J84" t="s">
-        <v>48</v>
-      </c>
-      <c r="K84">
-        <v>3.4</v>
-      </c>
-      <c r="L84">
-        <v>3.8</v>
-      </c>
-      <c r="M84">
-        <v>1.8</v>
-      </c>
       <c r="N84">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P84">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="Q84">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
         <v>1.95</v>
       </c>
-      <c r="S84">
-        <v>1.85</v>
-      </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X84">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7202023</v>
+        <v>6100521</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K90">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L90">
         <v>3.5</v>
       </c>
       <c r="M90">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
+        <v>3.3</v>
+      </c>
+      <c r="P90">
         <v>3.6</v>
       </c>
-      <c r="P90">
-        <v>3.4</v>
-      </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
+        <v>1.975</v>
+      </c>
+      <c r="T90">
+        <v>2.5</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
         <v>1.8</v>
       </c>
-      <c r="T90">
-        <v>3</v>
-      </c>
-      <c r="U90">
-        <v>1.9</v>
-      </c>
-      <c r="V90">
-        <v>1.9</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.8</v>
-      </c>
-      <c r="AB90">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6100521</v>
+        <v>7202023</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L92">
         <v>3.5</v>
       </c>
       <c r="M92">
+        <v>2.8</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>3.6</v>
+      </c>
+      <c r="P92">
         <v>3.4</v>
       </c>
-      <c r="N92">
-        <v>1.85</v>
-      </c>
-      <c r="O92">
-        <v>3.3</v>
-      </c>
-      <c r="P92">
-        <v>3.6</v>
-      </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6100813</v>
+        <v>6100812</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,49 +8730,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="N93">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P93">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.85</v>
@@ -8781,25 +8781,25 @@
         <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6100812</v>
+        <v>6100813</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,49 +8819,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
-      <c r="I94">
+      <c r="J94" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94">
+        <v>1.45</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>5.5</v>
+      </c>
+      <c r="N94">
+        <v>1.363</v>
+      </c>
+      <c r="O94">
+        <v>4.5</v>
+      </c>
+      <c r="P94">
+        <v>6.5</v>
+      </c>
+      <c r="Q94">
+        <v>-1.25</v>
+      </c>
+      <c r="R94">
+        <v>1.85</v>
+      </c>
+      <c r="S94">
+        <v>1.95</v>
+      </c>
+      <c r="T94">
         <v>3</v>
-      </c>
-      <c r="J94" t="s">
-        <v>47</v>
-      </c>
-      <c r="K94">
-        <v>5.75</v>
-      </c>
-      <c r="L94">
-        <v>4.5</v>
-      </c>
-      <c r="M94">
-        <v>1.4</v>
-      </c>
-      <c r="N94">
-        <v>7</v>
-      </c>
-      <c r="O94">
-        <v>5</v>
-      </c>
-      <c r="P94">
-        <v>1.3</v>
-      </c>
-      <c r="Q94">
-        <v>1.25</v>
-      </c>
-      <c r="R94">
-        <v>2.1</v>
-      </c>
-      <c r="S94">
-        <v>1.7</v>
-      </c>
-      <c r="T94">
-        <v>3.25</v>
       </c>
       <c r="U94">
         <v>1.85</v>
@@ -8870,25 +8870,25 @@
         <v>1.95</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8997,7 +8997,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>41</v>
@@ -9089,7 +9089,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9175,7 +9175,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9442,10 +9442,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F101" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" t="s">
         <v>39</v>
-      </c>
-      <c r="G101" t="s">
-        <v>38</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9979,7 +9979,7 @@
         <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -10335,7 +10335,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10777,7 +10777,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -11047,7 +11047,7 @@
         <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6097801</v>
+        <v>7338338</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,31 +11403,31 @@
         <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
         <v>46</v>
       </c>
       <c r="K123">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L123">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
         <v>4.75</v>
@@ -11436,22 +11436,22 @@
         <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11460,16 +11460,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7338338</v>
+        <v>6097801</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,34 +11578,34 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F125" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" t="s">
         <v>38</v>
       </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
       <c r="H125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O125">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
         <v>4.75</v>
@@ -11614,22 +11614,22 @@
         <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12112,7 +12112,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12382,7 +12382,7 @@
         <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12649,7 +12649,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6100530</v>
+        <v>7392733</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12824,76 +12824,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.3</v>
+        <v>1.444</v>
       </c>
       <c r="L139">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M139">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="N139">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="O139">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q139">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z139">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6100844</v>
+        <v>6100845</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,58 +12913,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>46</v>
       </c>
       <c r="K140">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N140">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>0.7270000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12973,16 +12973,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6100845</v>
+        <v>6100844</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,58 +13002,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H141">
+        <v>5</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>46</v>
       </c>
       <c r="K141">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M141">
+        <v>5.5</v>
+      </c>
+      <c r="N141">
+        <v>1.727</v>
+      </c>
+      <c r="O141">
         <v>4</v>
       </c>
-      <c r="N141">
-        <v>1.75</v>
-      </c>
-      <c r="O141">
-        <v>3.8</v>
-      </c>
       <c r="P141">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>0.75</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13062,16 +13062,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7392733</v>
+        <v>6100530</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,76 +13091,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K142">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M142">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N142">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P142">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA142">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13257,7 +13257,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6100841</v>
+        <v>6100840</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13269,62 +13269,62 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
         <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N144">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
+        <v>1.95</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
         <v>1.825</v>
       </c>
-      <c r="S144">
+      <c r="V144">
         <v>1.975</v>
       </c>
-      <c r="T144">
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
         <v>3</v>
       </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>2.6</v>
-      </c>
       <c r="Y144">
         <v>-1</v>
       </c>
@@ -13332,13 +13332,13 @@
         <v>-1</v>
       </c>
       <c r="AA144">
+        <v>0.95</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB144">
-        <v>0.875</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13346,7 +13346,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6100840</v>
+        <v>6100841</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13358,61 +13358,61 @@
         <v>45228.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>48</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L145">
         <v>3.4</v>
       </c>
       <c r="M145">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13421,13 +13421,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13447,76 +13447,76 @@
         <v>45234.375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N146">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O146">
         <v>4</v>
       </c>
       <c r="P146">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q146">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R146">
+        <v>1.875</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
         <v>1.85</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="T146">
-        <v>3.25</v>
-      </c>
-      <c r="U146">
-        <v>2</v>
-      </c>
-      <c r="V146">
-        <v>1.8</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,76 +13536,76 @@
         <v>45234.375</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O147">
         <v>4</v>
       </c>
       <c r="P147">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13613,7 +13613,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6100847</v>
+        <v>6100848</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13625,76 +13625,76 @@
         <v>45234.5</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>0</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L148">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="O148">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P148">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q148">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13702,7 +13702,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6100848</v>
+        <v>6100847</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13714,76 +13714,76 @@
         <v>45234.5</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
         <v>1</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K149">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L149">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M149">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N149">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="O149">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P149">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
         <v>3</v>
       </c>
       <c r="U149">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z149">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13892,7 +13892,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
         <v>37</v>
@@ -13981,7 +13981,7 @@
         <v>45235.5</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6100854</v>
+        <v>6100858</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,76 +14159,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K154">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L154">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="M154">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N154">
+        <v>1.166</v>
+      </c>
+      <c r="O154">
         <v>6.5</v>
       </c>
-      <c r="O154">
-        <v>5.25</v>
-      </c>
       <c r="P154">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="Q154">
-        <v>1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R154">
+        <v>1.825</v>
+      </c>
+      <c r="S154">
         <v>1.975</v>
       </c>
-      <c r="S154">
-        <v>1.825</v>
-      </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6100855</v>
+        <v>7465140</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,58 +14248,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>46</v>
       </c>
       <c r="K155">
+        <v>2.25</v>
+      </c>
+      <c r="L155">
+        <v>3.5</v>
+      </c>
+      <c r="M155">
         <v>2.6</v>
       </c>
-      <c r="L155">
-        <v>2.875</v>
-      </c>
-      <c r="M155">
-        <v>2.625</v>
-      </c>
       <c r="N155">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O155">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14308,16 +14308,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6100857</v>
+        <v>6100861</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,40 +14337,40 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M156">
+        <v>2.75</v>
+      </c>
+      <c r="N156">
+        <v>1.95</v>
+      </c>
+      <c r="O156">
+        <v>4.333</v>
+      </c>
+      <c r="P156">
         <v>2.7</v>
       </c>
-      <c r="N156">
-        <v>1.533</v>
-      </c>
-      <c r="O156">
-        <v>4.5</v>
-      </c>
-      <c r="P156">
-        <v>4.333</v>
-      </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
         <v>1.825</v>
@@ -14379,31 +14379,31 @@
         <v>1.975</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB156">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100859</v>
+        <v>6100860</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14426,76 +14426,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M157">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N157">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P157">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="Q157">
+        <v>-2.25</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>1.8</v>
+      </c>
+      <c r="T157">
+        <v>3.5</v>
+      </c>
+      <c r="U157">
+        <v>1.9</v>
+      </c>
+      <c r="V157">
+        <v>1.9</v>
+      </c>
+      <c r="W157">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
         <v>-0.5</v>
       </c>
-      <c r="R157">
-        <v>2.075</v>
-      </c>
-      <c r="S157">
-        <v>1.725</v>
-      </c>
-      <c r="T157">
-        <v>3.25</v>
-      </c>
-      <c r="U157">
-        <v>1.75</v>
-      </c>
-      <c r="V157">
-        <v>2.05</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>1.6</v>
-      </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
       <c r="AA157">
-        <v>0.7250000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6100860</v>
+        <v>6100855</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,58 +14515,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>46</v>
       </c>
       <c r="K158">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="L158">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="M158">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N158">
-        <v>1.142</v>
+        <v>2.45</v>
       </c>
       <c r="O158">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="P158">
-        <v>13</v>
+        <v>2.875</v>
       </c>
       <c r="Q158">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S158">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>0.1419999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14575,16 +14575,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6100861</v>
+        <v>6100857</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,40 +14604,40 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
         <v>1</v>
       </c>
-      <c r="I159">
-        <v>4</v>
-      </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M159">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N159">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="O159">
+        <v>4.5</v>
+      </c>
+      <c r="P159">
         <v>4.333</v>
       </c>
-      <c r="P159">
-        <v>2.7</v>
-      </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R159">
         <v>1.825</v>
@@ -14646,31 +14646,31 @@
         <v>1.975</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U159">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14681,7 +14681,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7465140</v>
+        <v>6100859</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14693,76 +14693,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K160">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L160">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M160">
+        <v>3</v>
+      </c>
+      <c r="N160">
+        <v>2.05</v>
+      </c>
+      <c r="O160">
+        <v>4.2</v>
+      </c>
+      <c r="P160">
         <v>2.6</v>
       </c>
-      <c r="N160">
-        <v>2.25</v>
-      </c>
-      <c r="O160">
-        <v>3.6</v>
-      </c>
-      <c r="P160">
-        <v>2.55</v>
-      </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T160">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W160">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC160">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14770,7 +14770,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6100858</v>
+        <v>6100854</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14782,76 +14782,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>2</v>
-      </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L161">
-        <v>4.6</v>
+        <v>4.333</v>
       </c>
       <c r="M161">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="N161">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="O161">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P161">
-        <v>12</v>
+        <v>1.3</v>
       </c>
       <c r="Q161">
-        <v>-2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
         <v>1.825</v>
       </c>
-      <c r="S161">
-        <v>1.975</v>
-      </c>
       <c r="T161">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W161">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB161">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6100758</v>
+        <v>6100756</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,58 +2144,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2204,16 +2204,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100756</v>
+        <v>6100758</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,58 +2233,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
         <v>3.75</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2293,16 +2293,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,46 +2589,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N24">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T24">
         <v>2.75</v>
@@ -2643,22 +2643,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,46 +2678,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>2.75</v>
@@ -2732,22 +2732,22 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6100507</v>
+        <v>6100762</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,10 +2767,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2782,40 +2782,40 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
         <v>3.4</v>
       </c>
       <c r="M26">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N26">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
         <v>1.975</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.825</v>
-      </c>
-      <c r="T26">
-        <v>3.25</v>
-      </c>
-      <c r="U26">
-        <v>1.95</v>
-      </c>
-      <c r="V26">
-        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2827,16 +2827,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6100762</v>
+        <v>6100507</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,10 +2856,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2871,40 +2871,40 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
         <v>3.4</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2916,16 +2916,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6100765</v>
+        <v>6100509</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,59 +3924,59 @@
         <v>45137.5</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
+        <v>1.85</v>
+      </c>
+      <c r="W39">
         <v>1.9</v>
       </c>
-      <c r="V39">
-        <v>1.9</v>
-      </c>
-      <c r="W39">
-        <v>0.444</v>
-      </c>
       <c r="X39">
         <v>-1</v>
       </c>
@@ -3984,13 +3984,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6100509</v>
+        <v>6100765</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,58 +4013,58 @@
         <v>45137.5</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
+        <v>1.875</v>
+      </c>
+      <c r="S40">
+        <v>1.925</v>
+      </c>
+      <c r="T40">
+        <v>3.25</v>
+      </c>
+      <c r="U40">
         <v>1.9</v>
       </c>
-      <c r="S40">
+      <c r="V40">
         <v>1.9</v>
       </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.95</v>
-      </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
       <c r="W40">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4073,13 +4073,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0.875</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.95</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6100771</v>
+        <v>7018646</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,40 +4369,40 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
-      <c r="I44">
+      <c r="J44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44">
+        <v>1.727</v>
+      </c>
+      <c r="L44">
+        <v>3.75</v>
+      </c>
+      <c r="M44">
+        <v>3.75</v>
+      </c>
+      <c r="N44">
+        <v>1.45</v>
+      </c>
+      <c r="O44">
+        <v>4.2</v>
+      </c>
+      <c r="P44">
         <v>5</v>
       </c>
-      <c r="J44" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44">
-        <v>3.5</v>
-      </c>
-      <c r="L44">
-        <v>4</v>
-      </c>
-      <c r="M44">
-        <v>1.727</v>
-      </c>
-      <c r="N44">
-        <v>4.5</v>
-      </c>
-      <c r="O44">
-        <v>4.75</v>
-      </c>
-      <c r="P44">
-        <v>1.45</v>
-      </c>
       <c r="Q44">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R44">
         <v>1.8</v>
@@ -4411,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U44">
         <v>1.925</v>
@@ -4420,19 +4420,19 @@
         <v>1.875</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>0.925</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6100511</v>
+        <v>6100771</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,56 +4458,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="N45">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R45">
+        <v>1.8</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
         <v>1.875</v>
       </c>
-      <c r="S45">
-        <v>1.925</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>2</v>
-      </c>
-      <c r="V45">
-        <v>1.8</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4515,19 +4515,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>0.45</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
         <v>0.925</v>
       </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7018646</v>
+        <v>6100770</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,73 +4547,73 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L46">
         <v>3.75</v>
       </c>
       <c r="M46">
-        <v>3.75</v>
+        <v>1.952</v>
       </c>
       <c r="N46">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
+        <v>1.875</v>
+      </c>
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6100770</v>
+        <v>6100511</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,76 +4636,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
       </c>
       <c r="K47">
+        <v>1.666</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>3.75</v>
+      </c>
+      <c r="N47">
+        <v>1.65</v>
+      </c>
+      <c r="O47">
+        <v>3.8</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>-0.75</v>
+      </c>
+      <c r="R47">
+        <v>1.875</v>
+      </c>
+      <c r="S47">
+        <v>1.925</v>
+      </c>
+      <c r="T47">
+        <v>2.75</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>1.8</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
         <v>3</v>
       </c>
-      <c r="L47">
-        <v>3.75</v>
-      </c>
-      <c r="M47">
-        <v>1.952</v>
-      </c>
-      <c r="N47">
-        <v>2.8</v>
-      </c>
-      <c r="O47">
-        <v>4</v>
-      </c>
-      <c r="P47">
-        <v>2</v>
-      </c>
-      <c r="Q47">
-        <v>0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.975</v>
-      </c>
-      <c r="S47">
-        <v>1.825</v>
-      </c>
-      <c r="T47">
-        <v>3.25</v>
-      </c>
-      <c r="U47">
-        <v>1.875</v>
-      </c>
-      <c r="V47">
-        <v>1.925</v>
-      </c>
-      <c r="W47">
-        <v>-1</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7048209</v>
+        <v>6097794</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,76 +4903,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N50">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6097794</v>
+        <v>7048209</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,76 +5170,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>48</v>
+      </c>
+      <c r="K53">
+        <v>2.25</v>
+      </c>
+      <c r="L53">
+        <v>3.5</v>
+      </c>
+      <c r="M53">
+        <v>2.6</v>
+      </c>
+      <c r="N53">
+        <v>2.5</v>
+      </c>
+      <c r="O53">
+        <v>3.3</v>
+      </c>
+      <c r="P53">
+        <v>2.4</v>
+      </c>
+      <c r="Q53">
         <v>0</v>
       </c>
-      <c r="J53" t="s">
-        <v>46</v>
-      </c>
-      <c r="K53">
-        <v>2.9</v>
-      </c>
-      <c r="L53">
-        <v>3.4</v>
-      </c>
-      <c r="M53">
-        <v>2.1</v>
-      </c>
-      <c r="N53">
-        <v>2.8</v>
-      </c>
-      <c r="O53">
-        <v>3.4</v>
-      </c>
-      <c r="P53">
-        <v>2.15</v>
-      </c>
-      <c r="Q53">
-        <v>0.25</v>
-      </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6100513</v>
+        <v>6100775</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,76 +5437,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N56">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6100775</v>
+        <v>6100513</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,76 +5526,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L57">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -7027,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6097797</v>
+        <v>6100800</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7039,61 +7039,61 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O74">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P74">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q74">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T74">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
@@ -7102,13 +7102,13 @@
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6100800</v>
+        <v>6100802</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,76 +7217,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>48</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="N76">
-        <v>1.55</v>
+        <v>5.75</v>
       </c>
       <c r="O76">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P76">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q76">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6100802</v>
+        <v>6097797</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,76 +7306,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K77">
+        <v>1.363</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>6.5</v>
+      </c>
+      <c r="N77">
+        <v>1.25</v>
+      </c>
+      <c r="O77">
         <v>6</v>
       </c>
-      <c r="L77">
-        <v>4.75</v>
-      </c>
-      <c r="M77">
-        <v>1.4</v>
-      </c>
-      <c r="N77">
-        <v>5.75</v>
-      </c>
-      <c r="O77">
-        <v>5</v>
-      </c>
       <c r="P77">
-        <v>1.444</v>
+        <v>8</v>
       </c>
       <c r="Q77">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R77">
+        <v>1.85</v>
+      </c>
+      <c r="S77">
         <v>1.95</v>
-      </c>
-      <c r="S77">
-        <v>1.85</v>
       </c>
       <c r="T77">
         <v>3.5</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X77">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.95</v>
       </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7383,7 +7383,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7144590</v>
+        <v>6100518</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7395,55 +7395,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>47</v>
       </c>
       <c r="K78">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M78">
+        <v>4.5</v>
+      </c>
+      <c r="N78">
+        <v>1.65</v>
+      </c>
+      <c r="O78">
         <v>4.2</v>
       </c>
-      <c r="N78">
-        <v>1.75</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
       <c r="P78">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
         <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7472,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6100518</v>
+        <v>7144590</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7484,55 +7484,55 @@
         <v>45172.33333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L79">
+        <v>3.8</v>
+      </c>
+      <c r="M79">
         <v>4.2</v>
       </c>
-      <c r="M79">
-        <v>4.5</v>
-      </c>
       <c r="N79">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O79">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7541,19 +7541,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6100808</v>
+        <v>6097798</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7751,76 +7751,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82">
+        <v>1.666</v>
+      </c>
+      <c r="L82">
+        <v>3.75</v>
+      </c>
+      <c r="M82">
         <v>4</v>
       </c>
-      <c r="I82">
-        <v>4</v>
-      </c>
-      <c r="J82" t="s">
-        <v>48</v>
-      </c>
-      <c r="K82">
-        <v>3.4</v>
-      </c>
-      <c r="L82">
-        <v>3.8</v>
-      </c>
-      <c r="M82">
-        <v>1.8</v>
-      </c>
       <c r="N82">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="Q82">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
+        <v>1.85</v>
+      </c>
+      <c r="S82">
         <v>1.95</v>
       </c>
-      <c r="S82">
-        <v>1.85</v>
-      </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X82">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6100805</v>
+        <v>6100808</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,76 +7840,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N83">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y83">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6097798</v>
+        <v>6100805</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,73 +7929,73 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L84">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T84">
         <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0.3875</v>
+        <v>0.475</v>
       </c>
       <c r="AC84">
         <v>-0.5</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6100521</v>
+        <v>6100811</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,10 +8463,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8478,43 +8478,43 @@
         <v>46</v>
       </c>
       <c r="K90">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L90">
+        <v>4.75</v>
+      </c>
+      <c r="M90">
+        <v>6</v>
+      </c>
+      <c r="N90">
+        <v>1.363</v>
+      </c>
+      <c r="O90">
+        <v>5.25</v>
+      </c>
+      <c r="P90">
+        <v>5.5</v>
+      </c>
+      <c r="Q90">
+        <v>-1.5</v>
+      </c>
+      <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>1.875</v>
+      </c>
+      <c r="T90">
         <v>3.5</v>
       </c>
-      <c r="M90">
-        <v>3.4</v>
-      </c>
-      <c r="N90">
-        <v>1.85</v>
-      </c>
-      <c r="O90">
-        <v>3.3</v>
-      </c>
-      <c r="P90">
-        <v>3.6</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
+      <c r="U90">
         <v>1.825</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="T90">
-        <v>2.5</v>
-      </c>
-      <c r="U90">
-        <v>2</v>
-      </c>
-      <c r="V90">
-        <v>1.8</v>
-      </c>
       <c r="W90">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8523,16 +8523,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6100811</v>
+        <v>7202023</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,61 +8552,61 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="L91">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N91">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q91">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W91">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8615,13 +8615,13 @@
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7202023</v>
+        <v>6100521</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,76 +8641,76 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L92">
         <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O92">
+        <v>3.3</v>
+      </c>
+      <c r="P92">
         <v>3.6</v>
       </c>
-      <c r="P92">
-        <v>3.4</v>
-      </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
+        <v>1.975</v>
+      </c>
+      <c r="T92">
+        <v>2.5</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>1.9</v>
-      </c>
-      <c r="V92">
-        <v>1.9</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.8</v>
-      </c>
-      <c r="AB92">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8718,7 +8718,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6100812</v>
+        <v>6100813</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,49 +8730,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
+      <c r="J93" t="s">
+        <v>46</v>
+      </c>
+      <c r="K93">
+        <v>1.45</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>5.5</v>
+      </c>
+      <c r="N93">
+        <v>1.363</v>
+      </c>
+      <c r="O93">
+        <v>4.5</v>
+      </c>
+      <c r="P93">
+        <v>6.5</v>
+      </c>
+      <c r="Q93">
+        <v>-1.25</v>
+      </c>
+      <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>1.95</v>
+      </c>
+      <c r="T93">
         <v>3</v>
-      </c>
-      <c r="J93" t="s">
-        <v>47</v>
-      </c>
-      <c r="K93">
-        <v>5.75</v>
-      </c>
-      <c r="L93">
-        <v>4.5</v>
-      </c>
-      <c r="M93">
-        <v>1.4</v>
-      </c>
-      <c r="N93">
-        <v>7</v>
-      </c>
-      <c r="O93">
-        <v>5</v>
-      </c>
-      <c r="P93">
-        <v>1.3</v>
-      </c>
-      <c r="Q93">
-        <v>1.25</v>
-      </c>
-      <c r="R93">
-        <v>2.1</v>
-      </c>
-      <c r="S93">
-        <v>1.7</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
       </c>
       <c r="U93">
         <v>1.85</v>
@@ -8781,25 +8781,25 @@
         <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8807,7 +8807,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6100813</v>
+        <v>6100812</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8819,49 +8819,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M94">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="N94">
-        <v>1.363</v>
+        <v>7</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P94">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
         <v>1.85</v>
@@ -8870,25 +8870,25 @@
         <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6100818</v>
+        <v>6100816</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,40 +9709,40 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R104">
         <v>1.975</v>
@@ -9751,34 +9751,34 @@
         <v>1.825</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6100816</v>
+        <v>6100818</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,40 +9798,40 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
         <v>1</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N105">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="Q105">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
         <v>1.975</v>
@@ -9840,34 +9840,34 @@
         <v>1.825</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,10 +10065,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10080,25 +10080,25 @@
         <v>46</v>
       </c>
       <c r="K108">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L108">
         <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
         <v>2</v>
@@ -10107,16 +10107,16 @@
         <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10134,7 +10134,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,10 +10154,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10169,25 +10169,25 @@
         <v>46</v>
       </c>
       <c r="K109">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L109">
         <v>3.5</v>
       </c>
       <c r="M109">
+        <v>2.25</v>
+      </c>
+      <c r="N109">
         <v>3</v>
       </c>
-      <c r="N109">
-        <v>1.95</v>
-      </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
         <v>2</v>
@@ -10196,16 +10196,16 @@
         <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10223,7 +10223,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7291461</v>
+        <v>6100828</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,40 +10866,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117">
         <v>0</v>
       </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M117">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.142</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R117">
         <v>2</v>
@@ -10908,34 +10908,34 @@
         <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6100828</v>
+        <v>7291461</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,40 +10955,40 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L118">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N118">
-        <v>1.142</v>
+        <v>2.25</v>
       </c>
       <c r="O118">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="Q118">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
         <v>2</v>
@@ -10997,34 +10997,34 @@
         <v>1.8</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7338338</v>
+        <v>6100526</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,13 +11400,13 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11415,43 +11415,43 @@
         <v>46</v>
       </c>
       <c r="K123">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L123">
+        <v>5</v>
+      </c>
+      <c r="M123">
+        <v>9</v>
+      </c>
+      <c r="N123">
+        <v>1.444</v>
+      </c>
+      <c r="O123">
         <v>4</v>
       </c>
-      <c r="M123">
-        <v>4.333</v>
-      </c>
-      <c r="N123">
-        <v>1.5</v>
-      </c>
-      <c r="O123">
-        <v>4.2</v>
-      </c>
       <c r="P123">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
         <v>1.85</v>
       </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
       <c r="W123">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11460,16 +11460,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB123">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6100526</v>
+        <v>7338338</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,13 +11489,13 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11504,43 +11504,43 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
         <v>3</v>
       </c>
       <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA124">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6100528</v>
+        <v>6100837</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,76 +12112,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131" t="s">
+        <v>47</v>
+      </c>
+      <c r="K131">
+        <v>2.625</v>
+      </c>
+      <c r="L131">
+        <v>3.6</v>
+      </c>
+      <c r="M131">
+        <v>2.2</v>
+      </c>
+      <c r="N131">
+        <v>2.375</v>
+      </c>
+      <c r="O131">
+        <v>3.75</v>
+      </c>
+      <c r="P131">
+        <v>2.3</v>
+      </c>
+      <c r="Q131">
         <v>0</v>
       </c>
-      <c r="J131" t="s">
-        <v>46</v>
-      </c>
-      <c r="K131">
-        <v>4.75</v>
-      </c>
-      <c r="L131">
-        <v>4.333</v>
-      </c>
-      <c r="M131">
-        <v>1.475</v>
-      </c>
-      <c r="N131">
-        <v>4.5</v>
-      </c>
-      <c r="O131">
-        <v>3.6</v>
-      </c>
-      <c r="P131">
-        <v>1.6</v>
-      </c>
-      <c r="Q131">
-        <v>0.75</v>
-      </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6100837</v>
+        <v>6100528</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12201,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L132">
+        <v>4.333</v>
+      </c>
+      <c r="M132">
+        <v>1.475</v>
+      </c>
+      <c r="N132">
+        <v>4.5</v>
+      </c>
+      <c r="O132">
         <v>3.6</v>
       </c>
-      <c r="M132">
-        <v>2.2</v>
-      </c>
-      <c r="N132">
-        <v>2.375</v>
-      </c>
-      <c r="O132">
-        <v>3.75</v>
-      </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7392733</v>
+        <v>6100844</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12824,19 +12824,19 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
         <v>1.444</v>
@@ -12848,52 +12848,52 @@
         <v>5.5</v>
       </c>
       <c r="N139">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O139">
         <v>4</v>
       </c>
       <c r="P139">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6100844</v>
+        <v>7392733</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,19 +13002,19 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>1.444</v>
@@ -13026,52 +13026,52 @@
         <v>5.5</v>
       </c>
       <c r="N141">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O141">
         <v>4</v>
       </c>
       <c r="P141">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W141">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13447,76 +13447,76 @@
         <v>45234.375</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N146">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O146">
         <v>4</v>
       </c>
       <c r="P146">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q146">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R146">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z146">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,76 +13536,76 @@
         <v>45234.375</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N147">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O147">
         <v>4</v>
       </c>
       <c r="P147">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q147">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R147">
+        <v>1.875</v>
+      </c>
+      <c r="S147">
+        <v>1.925</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
         <v>1.85</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="T147">
-        <v>3.25</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
-      <c r="V147">
-        <v>1.8</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13791,7 +13791,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6100852</v>
+        <v>6100853</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13803,73 +13803,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H150">
+        <v>4</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>46</v>
+      </c>
+      <c r="K150">
+        <v>1.5</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>1.444</v>
+      </c>
+      <c r="O150">
+        <v>4.2</v>
+      </c>
+      <c r="P150">
+        <v>5.5</v>
+      </c>
+      <c r="Q150">
+        <v>-1.25</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1.8</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>0.444</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>-1</v>
+      </c>
+      <c r="Z150">
         <v>1</v>
       </c>
-      <c r="I150">
-        <v>3</v>
-      </c>
-      <c r="J150" t="s">
-        <v>47</v>
-      </c>
-      <c r="K150">
-        <v>2.4</v>
-      </c>
-      <c r="L150">
-        <v>3.6</v>
-      </c>
-      <c r="M150">
-        <v>2.4</v>
-      </c>
-      <c r="N150">
-        <v>2.375</v>
-      </c>
-      <c r="O150">
-        <v>3.8</v>
-      </c>
-      <c r="P150">
-        <v>2.3</v>
-      </c>
-      <c r="Q150">
-        <v>0</v>
-      </c>
-      <c r="R150">
-        <v>1.925</v>
-      </c>
-      <c r="S150">
-        <v>1.875</v>
-      </c>
-      <c r="T150">
-        <v>3.25</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>-1</v>
-      </c>
-      <c r="Y150">
-        <v>1.3</v>
-      </c>
-      <c r="Z150">
-        <v>-1</v>
-      </c>
       <c r="AA150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13880,7 +13880,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6100853</v>
+        <v>6100852</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13892,73 +13892,73 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I151">
+        <v>3</v>
+      </c>
+      <c r="J151" t="s">
+        <v>47</v>
+      </c>
+      <c r="K151">
+        <v>2.4</v>
+      </c>
+      <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
+        <v>2.4</v>
+      </c>
+      <c r="N151">
+        <v>2.375</v>
+      </c>
+      <c r="O151">
+        <v>3.8</v>
+      </c>
+      <c r="P151">
+        <v>2.3</v>
+      </c>
+      <c r="Q151">
         <v>0</v>
       </c>
-      <c r="J151" t="s">
-        <v>46</v>
-      </c>
-      <c r="K151">
-        <v>1.5</v>
-      </c>
-      <c r="L151">
-        <v>4</v>
-      </c>
-      <c r="M151">
-        <v>5</v>
-      </c>
-      <c r="N151">
-        <v>1.444</v>
-      </c>
-      <c r="O151">
-        <v>4.2</v>
-      </c>
-      <c r="P151">
-        <v>5.5</v>
-      </c>
-      <c r="Q151">
-        <v>-1.25</v>
-      </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U151">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6100858</v>
+        <v>6100854</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,76 +14159,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
         <v>3</v>
       </c>
-      <c r="I154">
-        <v>2</v>
-      </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L154">
-        <v>4.6</v>
+        <v>4.333</v>
       </c>
       <c r="M154">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="N154">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="O154">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>1.3</v>
       </c>
       <c r="Q154">
-        <v>-2.25</v>
+        <v>1.5</v>
       </c>
       <c r="R154">
+        <v>1.975</v>
+      </c>
+      <c r="S154">
         <v>1.825</v>
       </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
       <c r="T154">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB154">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6100861</v>
+        <v>6100855</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14337,73 +14337,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>4</v>
-      </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M156">
+        <v>2.625</v>
+      </c>
+      <c r="N156">
+        <v>2.45</v>
+      </c>
+      <c r="O156">
+        <v>2.875</v>
+      </c>
+      <c r="P156">
+        <v>2.875</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>1.775</v>
+      </c>
+      <c r="S156">
+        <v>2.025</v>
+      </c>
+      <c r="T156">
         <v>2.75</v>
       </c>
-      <c r="N156">
-        <v>1.95</v>
-      </c>
-      <c r="O156">
-        <v>4.333</v>
-      </c>
-      <c r="P156">
-        <v>2.7</v>
-      </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
+      <c r="U156">
         <v>1.825</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.975</v>
       </c>
-      <c r="T156">
-        <v>3</v>
-      </c>
-      <c r="U156">
-        <v>1.8</v>
-      </c>
-      <c r="V156">
-        <v>2</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100860</v>
+        <v>6100861</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14426,76 +14426,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K157">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="L157">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M157">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N157">
-        <v>1.142</v>
+        <v>1.95</v>
       </c>
       <c r="O157">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P157">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="Q157">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
+        <v>3</v>
+      </c>
+      <c r="U157">
         <v>1.8</v>
       </c>
-      <c r="T157">
-        <v>3.5</v>
-      </c>
-      <c r="U157">
-        <v>1.9</v>
-      </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6100855</v>
+        <v>6100859</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14515,73 +14515,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
         <v>3</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K158">
+        <v>1.85</v>
+      </c>
+      <c r="L158">
+        <v>4.2</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>2.05</v>
+      </c>
+      <c r="O158">
+        <v>4.2</v>
+      </c>
+      <c r="P158">
         <v>2.6</v>
       </c>
-      <c r="L158">
-        <v>2.875</v>
-      </c>
-      <c r="M158">
-        <v>2.625</v>
-      </c>
-      <c r="N158">
-        <v>2.45</v>
-      </c>
-      <c r="O158">
-        <v>2.875</v>
-      </c>
-      <c r="P158">
-        <v>2.875</v>
-      </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V158">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W158">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14592,7 +14592,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6100857</v>
+        <v>6100860</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14604,58 +14604,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M159">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N159">
-        <v>1.533</v>
+        <v>1.142</v>
       </c>
       <c r="O159">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P159">
-        <v>4.333</v>
+        <v>13</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>0.5329999999999999</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14664,16 +14664,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14681,7 +14681,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6100859</v>
+        <v>6100857</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14693,73 +14693,73 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
         <v>1</v>
       </c>
-      <c r="I160">
-        <v>3</v>
-      </c>
       <c r="J160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K160">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N160">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O160">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P160">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
         <v>3.25</v>
       </c>
       <c r="U160">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14770,7 +14770,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6100854</v>
+        <v>6100858</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14782,76 +14782,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K161">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L161">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="M161">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N161">
+        <v>1.166</v>
+      </c>
+      <c r="O161">
         <v>6.5</v>
       </c>
-      <c r="O161">
-        <v>5.25</v>
-      </c>
       <c r="P161">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="Q161">
-        <v>1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R161">
+        <v>1.825</v>
+      </c>
+      <c r="S161">
         <v>1.975</v>
       </c>
-      <c r="S161">
-        <v>1.825</v>
-      </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U161">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC161">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -109,10 +109,10 @@
     <t>Sollentuna United FF</t>
   </si>
   <si>
-    <t>Hammarby TFF</t>
+    <t>Vasalunds IF</t>
   </si>
   <si>
-    <t>Vasalunds IF</t>
+    <t>Hammarby TFF</t>
   </si>
   <si>
     <t>Tby FK</t>
@@ -130,13 +130,13 @@
     <t>Bodens BK FF</t>
   </si>
   <si>
-    <t>rebro Syrianska IF</t>
-  </si>
-  <si>
     <t>Nordic United FC</t>
   </si>
   <si>
     <t>Dalkurd FF</t>
+  </si>
+  <si>
+    <t>rebro Syrianska IF</t>
   </si>
   <si>
     <t>Pite IF</t>
@@ -634,7 +634,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6100484</v>
+        <v>6100748</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,37 +812,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
         <v>1.85</v>
@@ -851,34 +851,34 @@
         <v>1.95</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC4">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6100748</v>
+        <v>6100484</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,37 +901,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3.6</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="N5">
+        <v>2.45</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>2.55</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5">
-        <v>1.8</v>
-      </c>
-      <c r="L5">
-        <v>3.75</v>
-      </c>
-      <c r="M5">
-        <v>3.4</v>
-      </c>
-      <c r="N5">
-        <v>1.65</v>
-      </c>
-      <c r="O5">
-        <v>3.8</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>-0.75</v>
       </c>
       <c r="R5">
         <v>1.85</v>
@@ -940,34 +940,34 @@
         <v>1.95</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W5">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6100753</v>
+        <v>6100751</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,73 +1435,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>3.2</v>
+        <v>1.533</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S11">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6100751</v>
+        <v>6097789</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,55 +1524,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W12">
-        <v>0.5329999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6097789</v>
+        <v>6100753</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,73 +1613,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L13">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
+        <v>2.3</v>
+      </c>
+      <c r="N13">
+        <v>3.2</v>
+      </c>
+      <c r="O13">
         <v>3.4</v>
       </c>
-      <c r="N13">
-        <v>1.666</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
       <c r="P13">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1699,7 +1699,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>43</v>
@@ -2058,7 +2058,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6100756</v>
+        <v>6100758</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,58 +2144,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2204,16 +2204,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100758</v>
+        <v>6100756</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,58 +2233,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L20">
         <v>3.75</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O20">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P20">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2293,16 +2293,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2325,7 +2325,7 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6097790</v>
+        <v>6100488</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,76 +2411,76 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="O22">
         <v>4</v>
       </c>
       <c r="P22">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
         <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6100488</v>
+        <v>6097790</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,76 +2500,76 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
         <v>39</v>
       </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N23">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O23">
         <v>4</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
+        <v>1.975</v>
+      </c>
+      <c r="S23">
         <v>1.825</v>
-      </c>
-      <c r="S23">
-        <v>1.975</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6100762</v>
+        <v>6100507</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,10 +2767,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2782,40 +2782,40 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26">
         <v>3.4</v>
       </c>
       <c r="M26">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N26">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O26">
         <v>3.5</v>
       </c>
       <c r="P26">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2827,16 +2827,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA26">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6100507</v>
+        <v>6100762</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,10 +2856,10 @@
         <v>45098.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2871,40 +2871,40 @@
         <v>48</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
         <v>3.4</v>
       </c>
       <c r="M27">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
+        <v>1.875</v>
+      </c>
+      <c r="S27">
+        <v>1.925</v>
+      </c>
+      <c r="T27">
+        <v>2.75</v>
+      </c>
+      <c r="U27">
         <v>1.975</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>1.825</v>
-      </c>
-      <c r="T27">
-        <v>3.25</v>
-      </c>
-      <c r="U27">
-        <v>1.95</v>
-      </c>
-      <c r="V27">
-        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2916,16 +2916,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>45099.54166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3034,7 +3034,7 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6100763</v>
+        <v>6800952</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,76 +3301,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N32">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA32">
+        <v>-1</v>
+      </c>
+      <c r="AB32">
         <v>0.4</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <v>-0.5</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
-      <c r="AC32">
-        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3378,7 +3378,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6800952</v>
+        <v>6100763</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3390,76 +3390,76 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
+        <v>2.7</v>
+      </c>
+      <c r="N33">
+        <v>2.75</v>
+      </c>
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
+        <v>2.2</v>
+      </c>
+      <c r="Q33">
+        <v>0.25</v>
+      </c>
+      <c r="R33">
         <v>1.8</v>
       </c>
-      <c r="N33">
-        <v>3.3</v>
-      </c>
-      <c r="O33">
-        <v>3.6</v>
-      </c>
-      <c r="P33">
-        <v>1.909</v>
-      </c>
-      <c r="Q33">
-        <v>0.5</v>
-      </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3657,10 +3657,10 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6100767</v>
+        <v>6100764</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="L37">
         <v>3.8</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="N37">
+        <v>3.6</v>
+      </c>
+      <c r="O37">
+        <v>3.8</v>
+      </c>
+      <c r="P37">
+        <v>1.75</v>
+      </c>
+      <c r="Q37">
+        <v>0.75</v>
+      </c>
+      <c r="R37">
         <v>1.8</v>
       </c>
-      <c r="O37">
-        <v>3.75</v>
-      </c>
-      <c r="P37">
-        <v>3.6</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.825</v>
-      </c>
       <c r="S37">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.8</v>
       </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6100764</v>
+        <v>6100767</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>3</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
         <v>3.8</v>
       </c>
       <c r="M38">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="N38">
+        <v>1.8</v>
+      </c>
+      <c r="O38">
+        <v>3.75</v>
+      </c>
+      <c r="P38">
         <v>3.6</v>
       </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
-      <c r="P38">
-        <v>1.75</v>
-      </c>
       <c r="Q38">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.825</v>
+      </c>
+      <c r="S38">
+        <v>1.975</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
         <v>1.8</v>
       </c>
-      <c r="S38">
-        <v>2</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
         <v>2.6</v>
       </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4105,7 +4105,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6100772</v>
+        <v>6100773</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4191,46 +4191,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L42">
         <v>3.6</v>
       </c>
       <c r="M42">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N42">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T42">
         <v>2.75</v>
@@ -4242,25 +4242,25 @@
         <v>2</v>
       </c>
       <c r="W42">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z42">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6100773</v>
+        <v>6100772</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,46 +4280,46 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>2.75</v>
@@ -4331,25 +4331,25 @@
         <v>2</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7018646</v>
+        <v>6100770</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,73 +4369,73 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <v>3.75</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>1.952</v>
       </c>
       <c r="N44">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
+        <v>1.875</v>
+      </c>
+      <c r="V44">
         <v>1.925</v>
       </c>
-      <c r="V44">
-        <v>1.875</v>
-      </c>
       <c r="W44">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB44">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6100771</v>
+        <v>6100511</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,56 +4458,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
       </c>
       <c r="J45" t="s">
         <v>47</v>
       </c>
       <c r="K45">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L45">
         <v>4</v>
       </c>
       <c r="M45">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
+        <v>1.875</v>
+      </c>
+      <c r="S45">
+        <v>1.925</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
         <v>1.8</v>
       </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-      <c r="T45">
-        <v>3.25</v>
-      </c>
-      <c r="U45">
-        <v>1.925</v>
-      </c>
-      <c r="V45">
-        <v>1.875</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4515,19 +4515,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.45</v>
+        <v>3</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6100770</v>
+        <v>7018646</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,73 +4547,73 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
         <v>3.75</v>
       </c>
       <c r="M46">
-        <v>1.952</v>
+        <v>3.75</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U46">
+        <v>1.925</v>
+      </c>
+      <c r="V46">
         <v>1.875</v>
       </c>
-      <c r="V46">
-        <v>1.925</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4624,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6100511</v>
+        <v>6100771</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4636,56 +4636,56 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J47" t="s">
         <v>47</v>
       </c>
       <c r="K47">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L47">
         <v>4</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="N47">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R47">
+        <v>1.8</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>3.25</v>
+      </c>
+      <c r="U47">
+        <v>1.925</v>
+      </c>
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="S47">
-        <v>1.925</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-      <c r="V47">
-        <v>1.8</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4693,19 +4693,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>0.45</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
         <v>0.925</v>
       </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
       <c r="AC47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4817,7 +4817,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6097794</v>
+        <v>7048209</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,73 +4906,73 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50">
+        <v>2.25</v>
+      </c>
+      <c r="L50">
+        <v>3.5</v>
+      </c>
+      <c r="M50">
+        <v>2.6</v>
+      </c>
+      <c r="N50">
+        <v>2.5</v>
+      </c>
+      <c r="O50">
+        <v>3.3</v>
+      </c>
+      <c r="P50">
+        <v>2.4</v>
+      </c>
+      <c r="Q50">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50">
-        <v>2.9</v>
-      </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.1</v>
-      </c>
-      <c r="N50">
-        <v>2.8</v>
-      </c>
-      <c r="O50">
-        <v>3.4</v>
-      </c>
-      <c r="P50">
-        <v>2.15</v>
-      </c>
-      <c r="Q50">
-        <v>0.25</v>
-      </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6100512</v>
+        <v>6100778</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
         <v>3.75</v>
       </c>
       <c r="N51">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,31 +5034,31 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6100778</v>
+        <v>6097794</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,58 +5081,58 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
         <v>39</v>
       </c>
-      <c r="G52" t="s">
-        <v>44</v>
-      </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>46</v>
       </c>
       <c r="K52">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N52">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5141,16 +5141,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7048209</v>
+        <v>6100512</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,76 +5170,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K53">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N53">
         <v>2.5</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>7</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6100775</v>
+        <v>6100513</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,76 +5437,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O56">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6100513</v>
+        <v>6100775</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,76 +5526,76 @@
         <v>45151.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M57">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
         <v>36</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6097795</v>
+        <v>7084665</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,76 +5793,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N60">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="O60">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q60">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>0.8</v>
+      </c>
+      <c r="AB60">
+        <v>0.475</v>
+      </c>
+      <c r="AC60">
         <v>-0.5</v>
-      </c>
-      <c r="AA60">
-        <v>0.4875</v>
-      </c>
-      <c r="AB60">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6100514</v>
+        <v>6100779</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,76 +5882,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>48</v>
       </c>
       <c r="K61">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O61">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V61">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6100779</v>
+        <v>6100514</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,76 +5971,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>48</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="N62">
+        <v>2.75</v>
+      </c>
+      <c r="O62">
+        <v>3.4</v>
+      </c>
+      <c r="P62">
+        <v>2.375</v>
+      </c>
+      <c r="Q62">
+        <v>0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.75</v>
+      </c>
+      <c r="S62">
         <v>2.05</v>
       </c>
-      <c r="O62">
-        <v>3.8</v>
-      </c>
-      <c r="P62">
-        <v>2.9</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
-      <c r="R62">
-        <v>1.85</v>
-      </c>
-      <c r="S62">
-        <v>1.95</v>
-      </c>
       <c r="T62">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
+        <v>0.375</v>
+      </c>
+      <c r="AA62">
         <v>-0.5</v>
       </c>
-      <c r="AA62">
-        <v>0.475</v>
-      </c>
       <c r="AB62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7084665</v>
+        <v>6097795</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,76 +6060,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M63">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N63">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P63">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB63">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -6327,7 +6327,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
@@ -6419,7 +6419,7 @@
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6671,7 +6671,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6100796</v>
+        <v>6100784</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6683,76 +6683,76 @@
         <v>45165.375</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>3</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L70">
         <v>3.9</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N70">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
+        <v>1.9</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
         <v>1.95</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="T70">
-        <v>3</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
       <c r="W70">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6100784</v>
+        <v>6100796</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6772,76 +6772,76 @@
         <v>45165.375</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L71">
         <v>3.9</v>
       </c>
       <c r="M71">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="N71">
+        <v>3.6</v>
+      </c>
+      <c r="O71">
+        <v>3.75</v>
+      </c>
+      <c r="P71">
+        <v>1.833</v>
+      </c>
+      <c r="Q71">
+        <v>0.5</v>
+      </c>
+      <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
+        <v>1.85</v>
+      </c>
+      <c r="T71">
         <v>3</v>
       </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
-      <c r="P71">
-        <v>2.1</v>
-      </c>
-      <c r="Q71">
-        <v>0.25</v>
-      </c>
-      <c r="R71">
-        <v>1.9</v>
-      </c>
-      <c r="S71">
-        <v>1.9</v>
-      </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
       <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6864,7 +6864,7 @@
         <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6950,7 +6950,7 @@
         <v>45165.45833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>35</v>
@@ -7039,10 +7039,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7116,7 +7116,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6100519</v>
+        <v>6100802</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7128,76 +7128,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
+        <v>6</v>
+      </c>
+      <c r="L75">
+        <v>4.75</v>
+      </c>
+      <c r="M75">
+        <v>1.4</v>
+      </c>
+      <c r="N75">
+        <v>5.75</v>
+      </c>
+      <c r="O75">
+        <v>5</v>
+      </c>
+      <c r="P75">
+        <v>1.444</v>
+      </c>
+      <c r="Q75">
+        <v>1.25</v>
+      </c>
+      <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
         <v>1.85</v>
       </c>
-      <c r="L75">
-        <v>3.75</v>
-      </c>
-      <c r="M75">
-        <v>3.75</v>
-      </c>
-      <c r="N75">
-        <v>1.75</v>
-      </c>
-      <c r="O75">
+      <c r="T75">
+        <v>3.5</v>
+      </c>
+      <c r="U75">
+        <v>1.8</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
         <v>4</v>
       </c>
-      <c r="P75">
-        <v>4.2</v>
-      </c>
-      <c r="Q75">
-        <v>-0.75</v>
-      </c>
-      <c r="R75">
-        <v>1.925</v>
-      </c>
-      <c r="S75">
-        <v>1.875</v>
-      </c>
-      <c r="T75">
-        <v>3.25</v>
-      </c>
-      <c r="U75">
-        <v>1.9</v>
-      </c>
-      <c r="V75">
-        <v>1.9</v>
-      </c>
-      <c r="W75">
-        <v>-1</v>
-      </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
       <c r="Y75">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6100802</v>
+        <v>6100519</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,76 +7217,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76">
+        <v>1.85</v>
+      </c>
+      <c r="L76">
+        <v>3.75</v>
+      </c>
+      <c r="M76">
+        <v>3.75</v>
+      </c>
+      <c r="N76">
+        <v>1.75</v>
+      </c>
+      <c r="O76">
         <v>4</v>
       </c>
-      <c r="I76">
-        <v>4</v>
-      </c>
-      <c r="J76" t="s">
-        <v>48</v>
-      </c>
-      <c r="K76">
-        <v>6</v>
-      </c>
-      <c r="L76">
-        <v>4.75</v>
-      </c>
-      <c r="M76">
-        <v>1.4</v>
-      </c>
-      <c r="N76">
-        <v>5.75</v>
-      </c>
-      <c r="O76">
-        <v>5</v>
-      </c>
       <c r="P76">
-        <v>1.444</v>
+        <v>4.2</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7306,7 +7306,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
         <v>36</v>
@@ -7665,7 +7665,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7751,7 +7751,7 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>44</v>
@@ -7828,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6100808</v>
+        <v>6100805</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7840,76 +7840,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
+        <v>3.1</v>
+      </c>
+      <c r="L83">
         <v>3.4</v>
       </c>
-      <c r="L83">
-        <v>3.8</v>
-      </c>
       <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3.4</v>
+      </c>
+      <c r="O83">
+        <v>3.4</v>
+      </c>
+      <c r="P83">
+        <v>1.909</v>
+      </c>
+      <c r="Q83">
+        <v>0.5</v>
+      </c>
+      <c r="R83">
         <v>1.8</v>
       </c>
-      <c r="N83">
-        <v>6</v>
-      </c>
-      <c r="O83">
-        <v>4.75</v>
-      </c>
-      <c r="P83">
-        <v>1.363</v>
-      </c>
-      <c r="Q83">
-        <v>1.25</v>
-      </c>
-      <c r="R83">
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <v>2.75</v>
+      </c>
+      <c r="U83">
         <v>1.95</v>
       </c>
-      <c r="S83">
+      <c r="V83">
         <v>1.85</v>
       </c>
-      <c r="T83">
-        <v>3.25</v>
-      </c>
-      <c r="U83">
-        <v>1.975</v>
-      </c>
-      <c r="V83">
-        <v>1.825</v>
-      </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB83">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6100805</v>
+        <v>6100808</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7929,76 +7929,76 @@
         <v>45178.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N84">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P84">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="Q84">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y84">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>45179.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
         <v>37</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6100811</v>
+        <v>6100521</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,10 +8463,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8478,43 +8478,43 @@
         <v>46</v>
       </c>
       <c r="K90">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L90">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N90">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P90">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8523,16 +8523,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6100521</v>
+        <v>6100811</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,10 +8641,10 @@
         <v>45185.33333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8656,43 +8656,43 @@
         <v>46</v>
       </c>
       <c r="K92">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L92">
+        <v>4.75</v>
+      </c>
+      <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.363</v>
+      </c>
+      <c r="O92">
+        <v>5.25</v>
+      </c>
+      <c r="P92">
+        <v>5.5</v>
+      </c>
+      <c r="Q92">
+        <v>-1.5</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3.5</v>
       </c>
-      <c r="M92">
-        <v>3.4</v>
-      </c>
-      <c r="N92">
-        <v>1.85</v>
-      </c>
-      <c r="O92">
-        <v>3.3</v>
-      </c>
-      <c r="P92">
-        <v>3.6</v>
-      </c>
-      <c r="Q92">
-        <v>-0.25</v>
-      </c>
-      <c r="R92">
+      <c r="U92">
         <v>1.825</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="T92">
-        <v>2.5</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
-      <c r="V92">
-        <v>1.8</v>
-      </c>
       <c r="W92">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8701,16 +8701,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8730,10 +8730,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8997,7 +8997,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>41</v>
@@ -9089,7 +9089,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9175,7 +9175,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
         <v>34</v>
@@ -9341,7 +9341,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6100814</v>
+        <v>6098265</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,13 +9353,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9368,41 +9368,41 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N100">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
+        <v>1.925</v>
+      </c>
+      <c r="V100">
         <v>1.875</v>
       </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9410,19 +9410,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6098265</v>
+        <v>6100814</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,13 +9442,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9457,41 +9457,41 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
+        <v>1.875</v>
+      </c>
+      <c r="V101">
         <v>1.925</v>
       </c>
-      <c r="V101">
-        <v>1.875</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
@@ -9499,19 +9499,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6100441</v>
+        <v>7265416</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,10 +10065,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10080,25 +10080,25 @@
         <v>46</v>
       </c>
       <c r="K108">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L108">
         <v>3.5</v>
       </c>
       <c r="M108">
+        <v>2.25</v>
+      </c>
+      <c r="N108">
         <v>3</v>
       </c>
-      <c r="N108">
-        <v>1.95</v>
-      </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
         <v>2</v>
@@ -10107,16 +10107,16 @@
         <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10134,7 +10134,7 @@
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10142,7 +10142,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7265416</v>
+        <v>6100441</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,10 +10154,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10169,25 +10169,25 @@
         <v>46</v>
       </c>
       <c r="K109">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L109">
         <v>3.5</v>
       </c>
       <c r="M109">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
         <v>2</v>
@@ -10196,16 +10196,16 @@
         <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10223,7 +10223,7 @@
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10335,7 +10335,7 @@
         <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10424,7 +10424,7 @@
         <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
         <v>34</v>
@@ -10777,7 +10777,7 @@
         <v>45206.33333333334</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6100828</v>
+        <v>6100826</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,76 +10866,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117">
+        <v>3.2</v>
+      </c>
+      <c r="L117">
+        <v>3.6</v>
+      </c>
+      <c r="M117">
+        <v>1.909</v>
+      </c>
+      <c r="N117">
+        <v>4.5</v>
+      </c>
+      <c r="O117">
         <v>4</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>46</v>
-      </c>
-      <c r="K117">
-        <v>1.333</v>
-      </c>
-      <c r="L117">
-        <v>5</v>
-      </c>
-      <c r="M117">
-        <v>6</v>
-      </c>
-      <c r="N117">
-        <v>1.142</v>
-      </c>
-      <c r="O117">
-        <v>7</v>
-      </c>
       <c r="P117">
-        <v>12</v>
+        <v>1.533</v>
       </c>
       <c r="Q117">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>3.25</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="T117">
-        <v>3.5</v>
-      </c>
-      <c r="U117">
-        <v>1.975</v>
-      </c>
-      <c r="V117">
-        <v>1.825</v>
-      </c>
       <c r="W117">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6100826</v>
+        <v>6100828</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11044,76 +11044,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119">
         <v>0</v>
       </c>
-      <c r="I119">
-        <v>2</v>
-      </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="N119">
-        <v>4.5</v>
+        <v>1.142</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P119">
-        <v>1.533</v>
+        <v>12</v>
       </c>
       <c r="Q119">
+        <v>-2.25</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>1.8</v>
+      </c>
+      <c r="T119">
+        <v>3.5</v>
+      </c>
+      <c r="U119">
+        <v>1.975</v>
+      </c>
+      <c r="V119">
+        <v>1.825</v>
+      </c>
+      <c r="W119">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
         <v>1</v>
       </c>
-      <c r="R119">
-        <v>1.875</v>
-      </c>
-      <c r="S119">
-        <v>1.925</v>
-      </c>
-      <c r="T119">
-        <v>3.25</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
-      <c r="V119">
-        <v>1.8</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
       <c r="AA119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11225,7 +11225,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6100526</v>
+        <v>6097801</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,58 +11400,58 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>46</v>
       </c>
       <c r="K123">
-        <v>1.25</v>
+        <v>1.333</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M123">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N123">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>0.444</v>
+        <v>0.55</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11460,16 +11460,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7338338</v>
+        <v>6100526</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,13 +11489,13 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11504,43 +11504,43 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>9</v>
+      </c>
+      <c r="N124">
+        <v>1.444</v>
+      </c>
+      <c r="O124">
         <v>4</v>
       </c>
-      <c r="M124">
-        <v>4.333</v>
-      </c>
-      <c r="N124">
-        <v>1.5</v>
-      </c>
-      <c r="O124">
-        <v>4.2</v>
-      </c>
       <c r="P124">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
         <v>3</v>
       </c>
       <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
         <v>1.85</v>
       </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
       <c r="W124">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11549,16 +11549,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11566,7 +11566,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6097801</v>
+        <v>7338338</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,34 +11578,34 @@
         <v>45213.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L125">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N125">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
         <v>4.75</v>
@@ -11614,22 +11614,22 @@
         <v>-1</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
         <v>3</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11638,16 +11638,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11848,7 +11848,7 @@
         <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12201,7 +12201,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>35</v>
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7356246</v>
+        <v>6100834</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,76 +12290,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N133">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O133">
         <v>3.6</v>
       </c>
       <c r="P133">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z133">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6100834</v>
+        <v>7356246</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12379,76 +12379,76 @@
         <v>45221.33333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O134">
         <v>3.6</v>
       </c>
       <c r="P134">
+        <v>3.8</v>
+      </c>
+      <c r="Q134">
+        <v>-0.75</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
         <v>1.85</v>
-      </c>
-      <c r="Q134">
-        <v>0.5</v>
-      </c>
-      <c r="R134">
-        <v>1.9</v>
-      </c>
-      <c r="S134">
-        <v>1.9</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12471,7 +12471,7 @@
         <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12649,7 +12649,7 @@
         <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12738,7 +12738,7 @@
         <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6100844</v>
+        <v>7392733</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,16 +12827,16 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K139">
         <v>1.444</v>
@@ -12848,52 +12848,52 @@
         <v>5.5</v>
       </c>
       <c r="N139">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O139">
         <v>4</v>
       </c>
       <c r="P139">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12913,7 +12913,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7392733</v>
+        <v>6100844</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,19 +13002,19 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H141">
+        <v>5</v>
+      </c>
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>2</v>
-      </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>1.444</v>
@@ -13026,52 +13026,52 @@
         <v>5.5</v>
       </c>
       <c r="N141">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O141">
         <v>4</v>
       </c>
       <c r="P141">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6100851</v>
+        <v>6100850</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13447,76 +13447,76 @@
         <v>45234.375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N146">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O146">
         <v>4</v>
       </c>
       <c r="P146">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="Q146">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R146">
+        <v>1.875</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
         <v>1.85</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="T146">
-        <v>3.25</v>
-      </c>
-      <c r="U146">
-        <v>2</v>
-      </c>
-      <c r="V146">
-        <v>1.8</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6100850</v>
+        <v>6100851</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,76 +13536,76 @@
         <v>45234.375</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O147">
         <v>4</v>
       </c>
       <c r="P147">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="Q147">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13628,7 +13628,7 @@
         <v>34</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13717,7 +13717,7 @@
         <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
         <v>37</v>
@@ -13981,7 +13981,7 @@
         <v>45235.5</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6100854</v>
+        <v>6100858</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,76 +14159,76 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K154">
-        <v>6</v>
+        <v>1.363</v>
       </c>
       <c r="L154">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="M154">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N154">
+        <v>1.166</v>
+      </c>
+      <c r="O154">
         <v>6.5</v>
       </c>
-      <c r="O154">
-        <v>5.25</v>
-      </c>
       <c r="P154">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="Q154">
-        <v>1.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R154">
+        <v>1.825</v>
+      </c>
+      <c r="S154">
         <v>1.975</v>
       </c>
-      <c r="S154">
-        <v>1.825</v>
-      </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14236,7 +14236,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7465140</v>
+        <v>6100857</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,58 +14248,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
         <v>46</v>
       </c>
       <c r="K155">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N155">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="O155">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P155">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>1.25</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14308,16 +14308,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
         <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14337,10 +14337,10 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14414,7 +14414,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6100861</v>
+        <v>6100854</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14426,56 +14426,56 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J157" t="s">
         <v>47</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M157">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="N157">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="O157">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R157">
+        <v>1.975</v>
+      </c>
+      <c r="S157">
         <v>1.825</v>
       </c>
-      <c r="S157">
-        <v>1.975</v>
-      </c>
       <c r="T157">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
         <v>1.8</v>
       </c>
-      <c r="V157">
-        <v>2</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
@@ -14483,19 +14483,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14604,7 +14604,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
         <v>36</v>
@@ -14681,7 +14681,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6100857</v>
+        <v>7465140</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14693,58 +14693,58 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N160">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="O160">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>0.5329999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14753,16 +14753,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14770,7 +14770,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6100858</v>
+        <v>6100861</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14782,40 +14782,40 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K161">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L161">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N161">
-        <v>1.166</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P161">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="Q161">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
         <v>1.825</v>
@@ -14824,22 +14824,22 @@
         <v>1.975</v>
       </c>
       <c r="T161">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W161">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z161">
         <v>-1</v>
@@ -14848,7 +14848,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB161">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC161">
         <v>-1</v>

--- a/Sweden 1div Norra/Sweden 1div Norra.xlsx
+++ b/Sweden 1div Norra/Sweden 1div Norra.xlsx
@@ -130,13 +130,13 @@
     <t>Bodens BK FF</t>
   </si>
   <si>
+    <t>rebro Syrianska IF</t>
+  </si>
+  <si>
     <t>Nordic United FC</t>
   </si>
   <si>
     <t>Dalkurd FF</t>
-  </si>
-  <si>
-    <t>rebro Syrianska IF</t>
   </si>
   <si>
     <t>Pite IF</t>
@@ -634,7 +634,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6100751</v>
+        <v>6100753</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,73 +1435,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>1.533</v>
+        <v>3.2</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S11">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6097789</v>
+        <v>6100751</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,55 +1524,55 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>0.6659999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6100753</v>
+        <v>6097789</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,73 +1613,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L13">
+        <v>3.75</v>
+      </c>
+      <c r="M13">
         <v>3.4</v>
       </c>
-      <c r="M13">
-        <v>2.3</v>
-      </c>
       <c r="N13">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6100758</v>
+        <v>6100756</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,58 +2144,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
         <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2204,16 +2204,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6100756</v>
+        <v>6100758</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,58 +2233,58 @@
         <v>45093.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
         <v>3.75</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2293,16 +2293,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>45094.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -2503,7 +2503,7 @@
         <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6770222</v>
+        <v>6469887</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,46 +2589,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
         <v>2.75</v>
@@ -2643,22 +2643,22 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y24">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6469887</v>
+        <v>6770222</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,46 +2678,46 @@
         <v>45095.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N25">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T25">
         <v>2.75</v>
@@ -2732,22 +2732,22 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6100759</v>
+        <v>6100760</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,49 +3034,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
         <v>3.6</v>
       </c>
       <c r="M29">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N29">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P29">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
         <v>1.8</v>
@@ -3085,19 +3085,19 @@
         <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>0.8</v>
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6100760</v>
+        <v>6100759</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,49 +3123,49 @@
         <v>45099.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L30">
         <v>3.6</v>
       </c>
       <c r="M30">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="O30">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
         <v>1.8</v>
@@ -3174,19 +3174,19 @@
         <v>2</v>
       </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB30">
         <v>0.8</v>
@@ -3304,7 +3304,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
@@ -3479,7 +3479,7 @@
         <v>45136.33333333334</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3657,10 +3657,10 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
         <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6100764</v>
+        <v>6100767</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="L37">
         <v>3.8</v>
       </c>
       <c r="M37">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="N37">
+        <v>1.8</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
         <v>3.6</v>
       </c>
-      <c r="O37">
-        <v>3.8</v>
-      </c>
-      <c r="P37">
-        <v>1.75</v>
-      </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
+        <v>1.825</v>
+      </c>
+      <c r="S37">
+        <v>1.975</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
         <v>1.8</v>
       </c>
-      <c r="S37">
-        <v>2</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>2</v>
-      </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
         <v>2.6</v>
       </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6100767</v>
+        <v>6100764</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
         <v>3.8</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="N38">
+        <v>3.6</v>
+      </c>
+      <c r="O38">
+        <v>3.8</v>
+      </c>
+      <c r="P38">
+        <v>1.75</v>
+      </c>
+      <c r="Q38">
+        <v>0.75</v>
+      </c>
+      <c r="R38">
         <v>1.8</v>
       </c>
-      <c r="O38">
-        <v>3.75</v>
-      </c>
-      <c r="P38">
-        <v>3.6</v>
-      </c>
-      <c r="Q38">
-        <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.825</v>
-      </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
         <v>1.8</v>
       </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6100509</v>
+        <v>6100765</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,58 +3924,58 @@
         <v>45137.5</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
+        <v>1.875</v>
+      </c>
+      <c r="S39">
+        <v>1.925</v>
+      </c>
+      <c r="T39">
+        <v>3.25</v>
+      </c>
+      <c r="U39">
         <v>1.9</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.9</v>
       </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
-        <v>1.9</v>
+        <v>0.444</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3984,13 +3984,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>0.875</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>0.95</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6100765</v>
+        <v>6100509</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,59 +4013,59 @@
         <v>45137.5</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
       </c>
       <c r="K40">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>1.444</v>
+        <v>2.9</v>
       </c>
       <c r="O40">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
+        <v>1.85</v>
+      </c>
+      <c r="W40">
         <v>1.9</v>
       </c>
-      <c r="V40">
-        <v>1.9</v>
-      </c>
-      <c r="W40">
-        <v>0.444</v>
-      </c>
       <c r="X40">
         <v>-1</v>
       </c>
@@ -4073,13 +4073,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4191,7 +4191,7 @@
         <v>45143.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
         <v>42</v>
@@ -4357,7 +4357,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6100770</v>
+        <v>7018646</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4369,73 +4369,73 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
         <v>3.75</v>
       </c>
       <c r="M44">
-        <v>1.952</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U44">
+        <v>1.925</v>
+      </c>
+      <c r="V44">
         <v>1.875</v>
       </c>
-      <c r="V44">
-        <v>1.925</v>
-      </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7018646</v>
+        <v>6100770</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,73 +4547,73 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L46">
         <v>3.75</v>
       </c>
       <c r="M46">
-        <v>3.75</v>
+        <v>1.952</v>
       </c>
       <c r="N46">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
+        <v>1.875</v>
+      </c>
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4725,7 +4725,7 @@
         <v>45144.33333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>43</v>
@@ -4817,7 +4817,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7048209</v>
+        <v>6100778</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,76 +4903,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50">
+        <v>1.75</v>
+      </c>
+      <c r="L50">
+        <v>3.6</v>
+      </c>
+      <c r="M50">
+        <v>3.75</v>
+      </c>
+      <c r="N50">
+        <v>1.75</v>
+      </c>
+      <c r="O50">
+        <v>3.5</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <v>-0.75</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
+        <v>2.75</v>
+      </c>
+      <c r="U50">
+        <v>1.825</v>
+      </c>
+      <c r="V50">
+        <v>1.975</v>
+      </c>
+      <c r="W50">
+        <v>0.75</v>
+      </c>
+      <c r="X50">
+        <v>-1</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>48</v>
-      </c>
-      <c r="K50">
-        <v>2.25</v>
-      </c>
-      <c r="L50">
-        <v>3.5</v>
-      </c>
-      <c r="M50">
-        <v>2.6</v>
-      </c>
-      <c r="N50">
-        <v>2.5</v>
-      </c>
-      <c r="O50">
-        <v>3.3</v>
-      </c>
-      <c r="P50">
-        <v>2.4</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>1.975</v>
-      </c>
-      <c r="S50">
-        <v>1.825</v>
-      </c>
-      <c r="T50">
-        <v>2.5</v>
-      </c>
-      <c r="U50">
-        <v>1.9</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
-      <c r="X50">
-        <v>2.3</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6100778</v>
+        <v>6100512</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4992,40 +4992,40 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>4</v>
       </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M51">
         <v>3.75</v>
       </c>
       <c r="N51">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O51">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5034,31 +5034,31 @@
         <v>1.8</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.8</v>
+      </c>
+      <c r="AB51">
         <v>1</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5084,7 +5084,7 @@
         <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6100512</v>
+        <v>7048209</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,76 +5170,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N53">
         <v>2.5</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6100776</v>
+        <v>6100777</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,76 +5259,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O54">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
         <v>3</v>
       </c>
       <c r="U54">
+        <v>1.825</v>
+      </c>
+      <c r="V54">
         <v>1.975</v>
       </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5336,7 +5336,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6100777</v>
+        <v>6100776</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5348,76 +5348,76 @@
         <v>45151.33333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N55">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O55">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P55">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
         <v>3</v>
       </c>
       <c r="U55">
+        <v>1.975</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="V55">
-        <v>1.975</v>
-      </c>
       <c r="W55">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <